--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -1760,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T973"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
@@ -43885,8 +43885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -1763,7 +1763,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5498,7 +5498,7 @@
         <v>23</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>57</v>
@@ -5544,7 +5544,7 @@
         <v>23</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>56</v>
@@ -5590,7 +5590,7 @@
         <v>23</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>54</v>
@@ -5636,7 +5636,7 @@
         <v>23</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>55</v>
@@ -8202,7 +8202,7 @@
         <v>23</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>56</v>
@@ -8248,7 +8248,7 @@
         <v>23</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>57</v>
@@ -8294,7 +8294,7 @@
         <v>23</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>54</v>
@@ -8340,7 +8340,7 @@
         <v>23</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>55</v>
@@ -8386,7 +8386,7 @@
         <v>23</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>102</v>
@@ -8416,7 +8416,7 @@
         <v>23</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>103</v>
@@ -8446,7 +8446,7 @@
         <v>23</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>104</v>
@@ -8476,7 +8476,7 @@
         <v>23</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>105</v>
@@ -8506,7 +8506,7 @@
         <v>23</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>106</v>
@@ -8536,7 +8536,7 @@
         <v>23</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>107</v>
@@ -8566,7 +8566,7 @@
         <v>23</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>108</v>
@@ -8596,7 +8596,7 @@
         <v>23</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>109</v>
@@ -11037,8 +11037,8 @@
       <c r="B187" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C187" s="11" t="s">
-        <v>86</v>
+      <c r="C187" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D187" s="11" t="s">
         <v>104</v>
@@ -11083,8 +11083,8 @@
       <c r="B188" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C188" s="11" t="s">
-        <v>86</v>
+      <c r="C188" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>56</v>
@@ -11129,8 +11129,8 @@
       <c r="B189" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C189" s="11" t="s">
-        <v>86</v>
+      <c r="C189" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>103</v>
@@ -11175,8 +11175,8 @@
       <c r="B190" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C190" s="11" t="s">
-        <v>86</v>
+      <c r="C190" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D190" s="11" t="s">
         <v>54</v>
@@ -11221,8 +11221,8 @@
       <c r="B191" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C191" s="11" t="s">
-        <v>86</v>
+      <c r="C191" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>102</v>
@@ -11251,8 +11251,8 @@
       <c r="B192" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C192" s="11" t="s">
-        <v>86</v>
+      <c r="C192" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>107</v>
@@ -11281,8 +11281,8 @@
       <c r="B193" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C193" s="11" t="s">
-        <v>86</v>
+      <c r="C193" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>57</v>
@@ -11311,8 +11311,8 @@
       <c r="B194" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C194" s="11" t="s">
-        <v>86</v>
+      <c r="C194" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D194" s="11" t="s">
         <v>55</v>
@@ -11341,8 +11341,8 @@
       <c r="B195" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C195" s="11" t="s">
-        <v>86</v>
+      <c r="C195" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>109</v>
@@ -11371,8 +11371,8 @@
       <c r="B196" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C196" s="11" t="s">
-        <v>86</v>
+      <c r="C196" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>108</v>
@@ -13780,7 +13780,7 @@
         <v>23</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D251" s="11" t="s">
         <v>108</v>
@@ -13826,7 +13826,7 @@
         <v>23</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D252" s="11" t="s">
         <v>55</v>
@@ -13872,7 +13872,7 @@
         <v>23</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D253" s="11" t="s">
         <v>57</v>
@@ -13918,7 +13918,7 @@
         <v>23</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D254" s="11" t="s">
         <v>109</v>
@@ -13964,7 +13964,7 @@
         <v>23</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D255" s="11" t="s">
         <v>107</v>
@@ -13994,7 +13994,7 @@
         <v>23</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D256" s="11" t="s">
         <v>54</v>
@@ -14024,7 +14024,7 @@
         <v>23</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D257" s="11" t="s">
         <v>102</v>
@@ -14054,7 +14054,7 @@
         <v>23</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D258" s="11" t="s">
         <v>106</v>
@@ -14084,7 +14084,7 @@
         <v>23</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D259" s="11" t="s">
         <v>103</v>
@@ -14114,7 +14114,7 @@
         <v>23</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D260" s="11" t="s">
         <v>105</v>
@@ -14144,7 +14144,7 @@
         <v>23</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D261" s="11" t="s">
         <v>104</v>
@@ -14174,7 +14174,7 @@
         <v>23</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D262" s="11" t="s">
         <v>56</v>
@@ -16971,8 +16971,8 @@
       <c r="B330" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C330" s="11" t="s">
-        <v>86</v>
+      <c r="C330" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D330" s="11" t="s">
         <v>104</v>
@@ -17017,8 +17017,8 @@
       <c r="B331" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C331" s="11" t="s">
-        <v>86</v>
+      <c r="C331" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D331" s="11" t="s">
         <v>105</v>
@@ -17063,8 +17063,8 @@
       <c r="B332" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C332" s="11" t="s">
-        <v>86</v>
+      <c r="C332" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D332" s="11" t="s">
         <v>103</v>
@@ -17109,8 +17109,8 @@
       <c r="B333" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C333" s="11" t="s">
-        <v>86</v>
+      <c r="C333" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D333" s="11" t="s">
         <v>106</v>
@@ -17155,8 +17155,8 @@
       <c r="B334" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C334" s="11" t="s">
-        <v>86</v>
+      <c r="C334" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D334" s="11" t="s">
         <v>102</v>
@@ -17185,8 +17185,8 @@
       <c r="B335" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C335" s="11" t="s">
-        <v>86</v>
+      <c r="C335" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D335" s="11" t="s">
         <v>107</v>
@@ -17215,8 +17215,8 @@
       <c r="B336" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C336" s="11" t="s">
-        <v>86</v>
+      <c r="C336" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D336" s="11" t="s">
         <v>55</v>
@@ -17245,8 +17245,8 @@
       <c r="B337" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C337" s="11" t="s">
-        <v>86</v>
+      <c r="C337" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D337" s="11" t="s">
         <v>108</v>
@@ -17275,8 +17275,8 @@
       <c r="B338" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C338" s="11" t="s">
-        <v>86</v>
+      <c r="C338" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D338" s="11" t="s">
         <v>54</v>
@@ -17305,8 +17305,8 @@
       <c r="B339" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C339" s="11" t="s">
-        <v>86</v>
+      <c r="C339" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D339" s="11" t="s">
         <v>57</v>
@@ -17335,8 +17335,8 @@
       <c r="B340" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C340" s="11" t="s">
-        <v>86</v>
+      <c r="C340" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D340" s="11" t="s">
         <v>109</v>
@@ -17365,8 +17365,8 @@
       <c r="B341" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C341" s="11" t="s">
-        <v>86</v>
+      <c r="C341" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D341" s="11" t="s">
         <v>56</v>
@@ -20644,7 +20644,7 @@
         <v>23</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D425" s="11" t="s">
         <v>56</v>
@@ -20690,7 +20690,7 @@
         <v>23</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D426" s="11" t="s">
         <v>54</v>
@@ -20736,7 +20736,7 @@
         <v>23</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D427" s="11" t="s">
         <v>57</v>
@@ -20782,7 +20782,7 @@
         <v>23</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D428" s="11" t="s">
         <v>55</v>
@@ -20828,7 +20828,7 @@
         <v>23</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D429" s="11" t="s">
         <v>109</v>
@@ -20858,7 +20858,7 @@
         <v>23</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D430" s="11" t="s">
         <v>108</v>
@@ -20888,7 +20888,7 @@
         <v>23</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D431" s="11" t="s">
         <v>102</v>
@@ -20918,7 +20918,7 @@
         <v>23</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D432" s="11" t="s">
         <v>107</v>
@@ -20948,7 +20948,7 @@
         <v>23</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D433" s="11" t="s">
         <v>106</v>
@@ -20978,7 +20978,7 @@
         <v>23</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D434" s="11" t="s">
         <v>103</v>
@@ -21008,7 +21008,7 @@
         <v>23</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D435" s="11" t="s">
         <v>105</v>
@@ -21038,7 +21038,7 @@
         <v>23</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D436" s="11" t="s">
         <v>104</v>
@@ -23476,7 +23476,7 @@
         <v>23</v>
       </c>
       <c r="C492" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D492" s="11" t="s">
         <v>104</v>
@@ -23522,7 +23522,7 @@
         <v>23</v>
       </c>
       <c r="C493" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D493" s="11" t="s">
         <v>56</v>
@@ -23568,7 +23568,7 @@
         <v>23</v>
       </c>
       <c r="C494" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D494" s="11" t="s">
         <v>103</v>
@@ -23614,7 +23614,7 @@
         <v>23</v>
       </c>
       <c r="C495" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D495" s="11" t="s">
         <v>105</v>
@@ -23660,7 +23660,7 @@
         <v>23</v>
       </c>
       <c r="C496" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D496" s="11" t="s">
         <v>106</v>
@@ -23690,7 +23690,7 @@
         <v>23</v>
       </c>
       <c r="C497" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D497" s="11" t="s">
         <v>102</v>
@@ -23720,7 +23720,7 @@
         <v>23</v>
       </c>
       <c r="C498" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D498" s="11" t="s">
         <v>107</v>
@@ -23750,7 +23750,7 @@
         <v>23</v>
       </c>
       <c r="C499" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D499" s="11" t="s">
         <v>57</v>
@@ -23780,7 +23780,7 @@
         <v>23</v>
       </c>
       <c r="C500" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D500" s="11" t="s">
         <v>108</v>
@@ -23810,7 +23810,7 @@
         <v>23</v>
       </c>
       <c r="C501" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D501" s="11" t="s">
         <v>109</v>
@@ -23840,7 +23840,7 @@
         <v>23</v>
       </c>
       <c r="C502" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D502" s="11" t="s">
         <v>55</v>
@@ -23870,7 +23870,7 @@
         <v>23</v>
       </c>
       <c r="C503" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D503" s="11" t="s">
         <v>54</v>
@@ -25722,7 +25722,7 @@
         <v>23</v>
       </c>
       <c r="C547" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D547" s="11" t="s">
         <v>54</v>
@@ -25768,7 +25768,7 @@
         <v>23</v>
       </c>
       <c r="C548" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D548" s="11" t="s">
         <v>57</v>
@@ -25813,8 +25813,8 @@
       <c r="B549" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C549" s="11" t="s">
-        <v>86</v>
+      <c r="C549" s="109" t="s">
+        <v>23</v>
       </c>
       <c r="D549" s="109" t="s">
         <v>55</v>
@@ -25859,8 +25859,8 @@
       <c r="B550" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C550" s="11" t="s">
-        <v>86</v>
+      <c r="C550" s="110" t="s">
+        <v>23</v>
       </c>
       <c r="D550" s="110" t="s">
         <v>56</v>
@@ -27086,7 +27086,7 @@
         <v>23</v>
       </c>
       <c r="C578" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D578" s="11" t="s">
         <v>55</v>
@@ -27132,7 +27132,7 @@
         <v>23</v>
       </c>
       <c r="C579" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D579" s="11" t="s">
         <v>54</v>
@@ -27178,7 +27178,7 @@
         <v>23</v>
       </c>
       <c r="C580" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D580" s="11" t="s">
         <v>56</v>
@@ -27224,7 +27224,7 @@
         <v>23</v>
       </c>
       <c r="C581" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D581" s="11" t="s">
         <v>57</v>
@@ -28840,7 +28840,7 @@
         <v>23</v>
       </c>
       <c r="C622" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D622" s="11" t="s">
         <v>57</v>
@@ -28886,7 +28886,7 @@
         <v>23</v>
       </c>
       <c r="C623" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D623" s="11" t="s">
         <v>56</v>
@@ -28932,7 +28932,7 @@
         <v>23</v>
       </c>
       <c r="C624" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D624" s="11" t="s">
         <v>54</v>
@@ -28978,7 +28978,7 @@
         <v>23</v>
       </c>
       <c r="C625" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D625" s="11" t="s">
         <v>55</v>
@@ -30993,8 +30993,8 @@
       <c r="B668" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C668" s="11" t="s">
-        <v>86</v>
+      <c r="C668" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D668" s="11" t="s">
         <v>55</v>
@@ -31039,8 +31039,8 @@
       <c r="B669" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C669" s="11" t="s">
-        <v>86</v>
+      <c r="C669" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D669" s="11" t="s">
         <v>104</v>
@@ -31085,8 +31085,8 @@
       <c r="B670" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C670" s="11" t="s">
-        <v>86</v>
+      <c r="C670" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D670" s="11" t="s">
         <v>106</v>
@@ -31131,8 +31131,8 @@
       <c r="B671" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C671" s="11" t="s">
-        <v>86</v>
+      <c r="C671" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D671" s="11" t="s">
         <v>107</v>
@@ -31177,8 +31177,8 @@
       <c r="B672" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C672" s="11" t="s">
-        <v>86</v>
+      <c r="C672" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D672" s="11" t="s">
         <v>54</v>
@@ -31207,8 +31207,8 @@
       <c r="B673" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C673" s="11" t="s">
-        <v>86</v>
+      <c r="C673" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D673" s="11" t="s">
         <v>103</v>
@@ -31237,8 +31237,8 @@
       <c r="B674" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C674" s="11" t="s">
-        <v>86</v>
+      <c r="C674" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D674" s="11" t="s">
         <v>57</v>
@@ -31267,8 +31267,8 @@
       <c r="B675" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C675" s="11" t="s">
-        <v>86</v>
+      <c r="C675" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D675" s="11" t="s">
         <v>56</v>
@@ -33392,7 +33392,7 @@
         <v>23</v>
       </c>
       <c r="C720" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D720" s="11" t="s">
         <v>103</v>
@@ -33438,7 +33438,7 @@
         <v>23</v>
       </c>
       <c r="C721" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D721" s="11" t="s">
         <v>57</v>
@@ -33484,7 +33484,7 @@
         <v>23</v>
       </c>
       <c r="C722" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D722" s="11" t="s">
         <v>106</v>
@@ -33530,7 +33530,7 @@
         <v>23</v>
       </c>
       <c r="C723" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D723" s="11" t="s">
         <v>55</v>
@@ -33576,7 +33576,7 @@
         <v>23</v>
       </c>
       <c r="C724" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D724" s="11" t="s">
         <v>54</v>
@@ -33606,7 +33606,7 @@
         <v>23</v>
       </c>
       <c r="C725" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D725" s="11" t="s">
         <v>56</v>
@@ -33636,7 +33636,7 @@
         <v>23</v>
       </c>
       <c r="C726" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D726" s="11" t="s">
         <v>107</v>
@@ -33666,7 +33666,7 @@
         <v>23</v>
       </c>
       <c r="C727" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D727" s="11" t="s">
         <v>104</v>
@@ -34669,8 +34669,8 @@
       <c r="B752" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C752" s="11" t="s">
-        <v>86</v>
+      <c r="C752" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D752" s="11" t="s">
         <v>55</v>
@@ -34715,8 +34715,8 @@
       <c r="B753" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C753" s="11" t="s">
-        <v>86</v>
+      <c r="C753" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D753" s="11" t="s">
         <v>54</v>
@@ -34761,8 +34761,8 @@
       <c r="B754" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C754" s="11" t="s">
-        <v>86</v>
+      <c r="C754" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D754" s="11" t="s">
         <v>57</v>
@@ -34807,8 +34807,8 @@
       <c r="B755" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C755" s="11" t="s">
-        <v>86</v>
+      <c r="C755" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D755" s="11" t="s">
         <v>56</v>
@@ -36706,7 +36706,7 @@
         <v>23</v>
       </c>
       <c r="C793" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D793" s="11" t="s">
         <v>104</v>
@@ -36752,7 +36752,7 @@
         <v>23</v>
       </c>
       <c r="C794" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D794" s="11" t="s">
         <v>55</v>
@@ -36798,7 +36798,7 @@
         <v>23</v>
       </c>
       <c r="C795" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D795" s="11" t="s">
         <v>108</v>
@@ -36844,7 +36844,7 @@
         <v>23</v>
       </c>
       <c r="C796" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D796" s="11" t="s">
         <v>54</v>
@@ -36890,7 +36890,7 @@
         <v>23</v>
       </c>
       <c r="C797" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D797" s="11" t="s">
         <v>107</v>
@@ -36920,7 +36920,7 @@
         <v>23</v>
       </c>
       <c r="C798" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D798" s="11" t="s">
         <v>105</v>
@@ -36950,7 +36950,7 @@
         <v>23</v>
       </c>
       <c r="C799" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D799" s="11" t="s">
         <v>106</v>
@@ -36980,7 +36980,7 @@
         <v>23</v>
       </c>
       <c r="C800" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D800" s="11" t="s">
         <v>57</v>
@@ -37010,7 +37010,7 @@
         <v>23</v>
       </c>
       <c r="C801" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D801" s="11" t="s">
         <v>109</v>
@@ -37040,7 +37040,7 @@
         <v>23</v>
       </c>
       <c r="C802" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D802" s="11" t="s">
         <v>102</v>
@@ -37070,7 +37070,7 @@
         <v>23</v>
       </c>
       <c r="C803" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D803" s="11" t="s">
         <v>56</v>
@@ -37100,7 +37100,7 @@
         <v>23</v>
       </c>
       <c r="C804" s="11" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D804" s="11" t="s">
         <v>103</v>
@@ -39553,8 +39553,8 @@
       <c r="B861" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C861" s="11" t="s">
-        <v>86</v>
+      <c r="C861" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D861" s="11" t="s">
         <v>106</v>
@@ -39599,8 +39599,8 @@
       <c r="B862" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C862" s="11" t="s">
-        <v>86</v>
+      <c r="C862" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D862" s="11" t="s">
         <v>105</v>
@@ -39645,8 +39645,8 @@
       <c r="B863" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C863" s="11" t="s">
-        <v>86</v>
+      <c r="C863" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D863" s="11" t="s">
         <v>104</v>
@@ -39691,8 +39691,8 @@
       <c r="B864" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C864" s="11" t="s">
-        <v>86</v>
+      <c r="C864" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D864" s="11" t="s">
         <v>57</v>
@@ -39737,8 +39737,8 @@
       <c r="B865" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C865" s="11" t="s">
-        <v>86</v>
+      <c r="C865" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D865" s="11" t="s">
         <v>103</v>
@@ -39767,8 +39767,8 @@
       <c r="B866" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C866" s="11" t="s">
-        <v>86</v>
+      <c r="C866" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D866" s="11" t="s">
         <v>102</v>
@@ -39797,8 +39797,8 @@
       <c r="B867" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C867" s="11" t="s">
-        <v>86</v>
+      <c r="C867" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D867" s="11" t="s">
         <v>56</v>
@@ -39827,8 +39827,8 @@
       <c r="B868" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C868" s="11" t="s">
-        <v>86</v>
+      <c r="C868" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D868" s="11" t="s">
         <v>54</v>
@@ -39857,8 +39857,8 @@
       <c r="B869" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C869" s="11" t="s">
-        <v>86</v>
+      <c r="C869" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D869" s="11" t="s">
         <v>109</v>
@@ -39887,8 +39887,8 @@
       <c r="B870" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C870" s="11" t="s">
-        <v>86</v>
+      <c r="C870" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D870" s="11" t="s">
         <v>108</v>
@@ -39917,8 +39917,8 @@
       <c r="B871" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C871" s="11" t="s">
-        <v>86</v>
+      <c r="C871" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D871" s="11" t="s">
         <v>55</v>
@@ -39947,8 +39947,8 @@
       <c r="B872" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C872" s="11" t="s">
-        <v>86</v>
+      <c r="C872" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D872" s="11" t="s">
         <v>107</v>
@@ -42731,8 +42731,8 @@
       <c r="B940" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C940" s="11" t="s">
-        <v>86</v>
+      <c r="C940" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D940" s="11" t="s">
         <v>57</v>
@@ -42777,8 +42777,8 @@
       <c r="B941" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C941" s="11" t="s">
-        <v>86</v>
+      <c r="C941" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D941" s="11" t="s">
         <v>56</v>
@@ -42823,8 +42823,8 @@
       <c r="B942" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C942" s="11" t="s">
-        <v>86</v>
+      <c r="C942" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D942" s="11" t="s">
         <v>109</v>
@@ -42869,8 +42869,8 @@
       <c r="B943" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C943" s="11" t="s">
-        <v>86</v>
+      <c r="C943" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D943" s="11" t="s">
         <v>54</v>
@@ -42915,8 +42915,8 @@
       <c r="B944" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C944" s="11" t="s">
-        <v>86</v>
+      <c r="C944" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D944" s="11" t="s">
         <v>55</v>
@@ -42945,8 +42945,8 @@
       <c r="B945" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C945" s="11" t="s">
-        <v>86</v>
+      <c r="C945" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D945" s="11" t="s">
         <v>108</v>
@@ -42975,8 +42975,8 @@
       <c r="B946" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C946" s="11" t="s">
-        <v>86</v>
+      <c r="C946" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D946" s="11" t="s">
         <v>102</v>
@@ -43005,8 +43005,8 @@
       <c r="B947" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C947" s="11" t="s">
-        <v>86</v>
+      <c r="C947" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D947" s="11" t="s">
         <v>107</v>
@@ -43035,8 +43035,8 @@
       <c r="B948" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C948" s="11" t="s">
-        <v>86</v>
+      <c r="C948" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D948" s="11" t="s">
         <v>103</v>
@@ -43065,8 +43065,8 @@
       <c r="B949" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C949" s="11" t="s">
-        <v>86</v>
+      <c r="C949" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D949" s="11" t="s">
         <v>104</v>
@@ -43095,8 +43095,8 @@
       <c r="B950" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C950" s="11" t="s">
-        <v>86</v>
+      <c r="C950" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D950" s="11" t="s">
         <v>105</v>
@@ -43125,8 +43125,8 @@
       <c r="B951" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C951" s="11" t="s">
-        <v>86</v>
+      <c r="C951" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="D951" s="11" t="s">
         <v>106</v>

--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -1761,9 +1761,10 @@
   <dimension ref="A1:T973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67:C70"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6618" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6614" uniqueCount="209">
   <si>
     <t>Flavoured Milk</t>
   </si>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1902,8 +1902,8 @@
       <c r="P2" s="9">
         <v>31</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>30</v>
+      <c r="Q2" s="9">
+        <v>41</v>
       </c>
       <c r="R2" s="9">
         <v>1</v>
@@ -1964,8 +1964,8 @@
       <c r="P3" s="9">
         <v>32</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>30</v>
+      <c r="Q3" s="9">
+        <v>42</v>
       </c>
       <c r="R3" s="9">
         <v>2</v>
@@ -2026,8 +2026,8 @@
       <c r="P4" s="9">
         <v>33</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>30</v>
+      <c r="Q4" s="9">
+        <v>43</v>
       </c>
       <c r="R4" s="9">
         <v>3</v>
@@ -2088,8 +2088,8 @@
       <c r="P5" s="9">
         <v>34</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>30</v>
+      <c r="Q5" s="9">
+        <v>45</v>
       </c>
       <c r="R5" s="9">
         <v>4</v>
@@ -3744,9 +3744,11 @@
       <c r="P34" s="30">
         <v>31</v>
       </c>
-      <c r="Q34" s="30"/>
+      <c r="Q34" s="30">
+        <v>21</v>
+      </c>
       <c r="R34" s="30">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S34" s="30">
         <v>10</v>
@@ -3802,9 +3804,11 @@
       <c r="P35" s="21">
         <v>32</v>
       </c>
-      <c r="Q35" s="21"/>
+      <c r="Q35" s="21">
+        <v>22</v>
+      </c>
       <c r="R35" s="21">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="S35" s="21">
         <v>11</v>
@@ -3860,9 +3864,11 @@
       <c r="P36" s="21">
         <v>33</v>
       </c>
-      <c r="Q36" s="21"/>
+      <c r="Q36" s="21">
+        <v>23</v>
+      </c>
       <c r="R36" s="21">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="S36" s="21">
         <v>12</v>
@@ -3920,9 +3926,11 @@
       <c r="P37" s="21">
         <v>34</v>
       </c>
-      <c r="Q37" s="21"/>
+      <c r="Q37" s="21">
+        <v>24</v>
+      </c>
       <c r="R37" s="21">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="S37" s="21">
         <v>13</v>
@@ -3980,9 +3988,11 @@
       <c r="P38" s="12">
         <v>31</v>
       </c>
-      <c r="Q38" s="12"/>
+      <c r="Q38" s="12">
+        <v>21</v>
+      </c>
       <c r="R38" s="12">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S38" s="12">
         <v>11</v>
@@ -4040,9 +4050,11 @@
       <c r="P39" s="12">
         <v>32</v>
       </c>
-      <c r="Q39" s="12"/>
+      <c r="Q39" s="12">
+        <v>22</v>
+      </c>
       <c r="R39" s="12">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="S39" s="12">
         <v>12</v>
@@ -4100,9 +4112,11 @@
       <c r="P40" s="6">
         <v>31</v>
       </c>
-      <c r="Q40" s="6"/>
+      <c r="Q40" s="6">
+        <v>21</v>
+      </c>
       <c r="R40" s="6">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S40" s="6">
         <v>11</v>
@@ -4144,9 +4158,11 @@
       <c r="P41" s="22">
         <v>31</v>
       </c>
-      <c r="Q41" s="22"/>
+      <c r="Q41" s="22">
+        <v>21</v>
+      </c>
       <c r="R41" s="22">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S41" s="22">
         <v>11</v>
@@ -4188,9 +4204,11 @@
       <c r="P42" s="22">
         <v>32</v>
       </c>
-      <c r="Q42" s="22"/>
+      <c r="Q42" s="22">
+        <v>22</v>
+      </c>
       <c r="R42" s="22">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="S42" s="22">
         <v>12</v>
@@ -4232,9 +4250,11 @@
       <c r="P43" s="22">
         <v>33</v>
       </c>
-      <c r="Q43" s="22"/>
+      <c r="Q43" s="22">
+        <v>23</v>
+      </c>
       <c r="R43" s="22">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="S43" s="22">
         <v>13</v>
@@ -4276,9 +4296,11 @@
       <c r="P44" s="22">
         <v>34</v>
       </c>
-      <c r="Q44" s="22"/>
+      <c r="Q44" s="22">
+        <v>24</v>
+      </c>
       <c r="R44" s="22">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="S44" s="22">
         <v>14</v>
@@ -4320,9 +4342,11 @@
       <c r="P45" s="22">
         <v>35</v>
       </c>
-      <c r="Q45" s="22"/>
+      <c r="Q45" s="22">
+        <v>25</v>
+      </c>
       <c r="R45" s="22">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="S45" s="22">
         <v>15</v>
@@ -4364,9 +4388,11 @@
       <c r="P46" s="22">
         <v>36</v>
       </c>
-      <c r="Q46" s="22"/>
+      <c r="Q46" s="22">
+        <v>26</v>
+      </c>
       <c r="R46" s="22">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="S46" s="22">
         <v>16</v>
@@ -6414,7 +6440,9 @@
       <c r="P86" s="30">
         <v>31</v>
       </c>
-      <c r="Q86" s="30"/>
+      <c r="Q86" s="30">
+        <v>31</v>
+      </c>
       <c r="R86" s="30">
         <v>1</v>
       </c>
@@ -6474,7 +6502,9 @@
       <c r="P87" s="21">
         <v>32</v>
       </c>
-      <c r="Q87" s="21"/>
+      <c r="Q87" s="21">
+        <v>32</v>
+      </c>
       <c r="R87" s="21">
         <v>2</v>
       </c>
@@ -6534,7 +6564,9 @@
       <c r="P88" s="21">
         <v>33</v>
       </c>
-      <c r="Q88" s="21"/>
+      <c r="Q88" s="21">
+        <v>33</v>
+      </c>
       <c r="R88" s="21">
         <v>3</v>
       </c>
@@ -6594,7 +6626,9 @@
       <c r="P89" s="21">
         <v>34</v>
       </c>
-      <c r="Q89" s="21"/>
+      <c r="Q89" s="21">
+        <v>34</v>
+      </c>
       <c r="R89" s="21">
         <v>4</v>
       </c>
@@ -6654,7 +6688,9 @@
       <c r="P90" s="21">
         <v>34</v>
       </c>
-      <c r="Q90" s="21"/>
+      <c r="Q90" s="21">
+        <v>34</v>
+      </c>
       <c r="R90" s="21">
         <v>4</v>
       </c>
@@ -6714,7 +6750,9 @@
       <c r="P91" s="6">
         <v>31</v>
       </c>
-      <c r="Q91" s="6"/>
+      <c r="Q91" s="6">
+        <v>31</v>
+      </c>
       <c r="R91" s="6">
         <v>1</v>
       </c>
@@ -6758,7 +6796,9 @@
       <c r="P92" s="22">
         <v>31</v>
       </c>
-      <c r="Q92" s="22"/>
+      <c r="Q92" s="22">
+        <v>31</v>
+      </c>
       <c r="R92" s="22">
         <v>1</v>
       </c>
@@ -6802,7 +6842,9 @@
       <c r="P93" s="22">
         <v>32</v>
       </c>
-      <c r="Q93" s="22"/>
+      <c r="Q93" s="22">
+        <v>32</v>
+      </c>
       <c r="R93" s="22">
         <v>2</v>
       </c>
@@ -6846,7 +6888,9 @@
       <c r="P94" s="22">
         <v>33</v>
       </c>
-      <c r="Q94" s="22"/>
+      <c r="Q94" s="22">
+        <v>33</v>
+      </c>
       <c r="R94" s="22">
         <v>3</v>
       </c>
@@ -6890,7 +6934,9 @@
       <c r="P95" s="22">
         <v>34</v>
       </c>
-      <c r="Q95" s="22"/>
+      <c r="Q95" s="22">
+        <v>34</v>
+      </c>
       <c r="R95" s="22">
         <v>4</v>
       </c>
@@ -6934,7 +6980,9 @@
       <c r="P96" s="22">
         <v>35</v>
       </c>
-      <c r="Q96" s="22"/>
+      <c r="Q96" s="22">
+        <v>35</v>
+      </c>
       <c r="R96" s="22">
         <v>5</v>
       </c>
@@ -6978,7 +7026,9 @@
       <c r="P97" s="22">
         <v>36</v>
       </c>
-      <c r="Q97" s="22"/>
+      <c r="Q97" s="22">
+        <v>36</v>
+      </c>
       <c r="R97" s="22">
         <v>6</v>
       </c>
@@ -9422,7 +9472,9 @@
       <c r="P155" s="30">
         <v>31</v>
       </c>
-      <c r="Q155" s="30"/>
+      <c r="Q155" s="30">
+        <v>31</v>
+      </c>
       <c r="R155" s="30">
         <v>1</v>
       </c>
@@ -9480,7 +9532,9 @@
       <c r="P156" s="21">
         <v>32</v>
       </c>
-      <c r="Q156" s="21"/>
+      <c r="Q156" s="21">
+        <v>32</v>
+      </c>
       <c r="R156" s="21">
         <v>2</v>
       </c>
@@ -9538,7 +9592,9 @@
       <c r="P157" s="21">
         <v>33</v>
       </c>
-      <c r="Q157" s="21"/>
+      <c r="Q157" s="21">
+        <v>33</v>
+      </c>
       <c r="R157" s="21">
         <v>3</v>
       </c>
@@ -9598,7 +9654,9 @@
       <c r="P158" s="21">
         <v>34</v>
       </c>
-      <c r="Q158" s="21"/>
+      <c r="Q158" s="21">
+        <v>34</v>
+      </c>
       <c r="R158" s="21">
         <v>4</v>
       </c>
@@ -9658,7 +9716,9 @@
       <c r="P159" s="12">
         <v>31</v>
       </c>
-      <c r="Q159" s="12"/>
+      <c r="Q159" s="12">
+        <v>31</v>
+      </c>
       <c r="R159" s="12">
         <v>1</v>
       </c>
@@ -9718,7 +9778,9 @@
       <c r="P160" s="12">
         <v>32</v>
       </c>
-      <c r="Q160" s="12"/>
+      <c r="Q160" s="12">
+        <v>32</v>
+      </c>
       <c r="R160" s="12">
         <v>2</v>
       </c>
@@ -9778,7 +9840,9 @@
       <c r="P161" s="6">
         <v>31</v>
       </c>
-      <c r="Q161" s="6"/>
+      <c r="Q161" s="6">
+        <v>31</v>
+      </c>
       <c r="R161" s="6">
         <v>1</v>
       </c>
@@ -9822,7 +9886,9 @@
       <c r="P162" s="22">
         <v>31</v>
       </c>
-      <c r="Q162" s="22"/>
+      <c r="Q162" s="22">
+        <v>31</v>
+      </c>
       <c r="R162" s="22">
         <v>1</v>
       </c>
@@ -9866,7 +9932,9 @@
       <c r="P163" s="22">
         <v>32</v>
       </c>
-      <c r="Q163" s="22"/>
+      <c r="Q163" s="22">
+        <v>32</v>
+      </c>
       <c r="R163" s="22">
         <v>2</v>
       </c>
@@ -9910,7 +9978,9 @@
       <c r="P164" s="22">
         <v>33</v>
       </c>
-      <c r="Q164" s="22"/>
+      <c r="Q164" s="22">
+        <v>33</v>
+      </c>
       <c r="R164" s="22">
         <v>3</v>
       </c>
@@ -9954,7 +10024,9 @@
       <c r="P165" s="22">
         <v>34</v>
       </c>
-      <c r="Q165" s="22"/>
+      <c r="Q165" s="22">
+        <v>34</v>
+      </c>
       <c r="R165" s="22">
         <v>4</v>
       </c>
@@ -9998,7 +10070,9 @@
       <c r="P166" s="22">
         <v>35</v>
       </c>
-      <c r="Q166" s="22"/>
+      <c r="Q166" s="22">
+        <v>35</v>
+      </c>
       <c r="R166" s="22">
         <v>5</v>
       </c>
@@ -10042,7 +10116,9 @@
       <c r="P167" s="22">
         <v>36</v>
       </c>
-      <c r="Q167" s="22"/>
+      <c r="Q167" s="22">
+        <v>36</v>
+      </c>
       <c r="R167" s="22">
         <v>6</v>
       </c>
@@ -11744,7 +11820,9 @@
       <c r="P206" s="30">
         <v>31</v>
       </c>
-      <c r="Q206" s="30"/>
+      <c r="Q206" s="30">
+        <v>31</v>
+      </c>
       <c r="R206" s="30">
         <v>1</v>
       </c>
@@ -11802,7 +11880,9 @@
       <c r="P207" s="21">
         <v>32</v>
       </c>
-      <c r="Q207" s="21"/>
+      <c r="Q207" s="21">
+        <v>32</v>
+      </c>
       <c r="R207" s="21">
         <v>2</v>
       </c>
@@ -11860,7 +11940,9 @@
       <c r="P208" s="21">
         <v>33</v>
       </c>
-      <c r="Q208" s="21"/>
+      <c r="Q208" s="21">
+        <v>33</v>
+      </c>
       <c r="R208" s="21">
         <v>3</v>
       </c>
@@ -11920,7 +12002,9 @@
       <c r="P209" s="21">
         <v>34</v>
       </c>
-      <c r="Q209" s="21"/>
+      <c r="Q209" s="21">
+        <v>34</v>
+      </c>
       <c r="R209" s="21">
         <v>4</v>
       </c>
@@ -11980,7 +12064,9 @@
       <c r="P210" s="21">
         <v>34</v>
       </c>
-      <c r="Q210" s="21"/>
+      <c r="Q210" s="21">
+        <v>34</v>
+      </c>
       <c r="R210" s="21">
         <v>4</v>
       </c>
@@ -12040,7 +12126,9 @@
       <c r="P211" s="12">
         <v>31</v>
       </c>
-      <c r="Q211" s="12"/>
+      <c r="Q211" s="12">
+        <v>31</v>
+      </c>
       <c r="R211" s="12">
         <v>1</v>
       </c>
@@ -12100,7 +12188,9 @@
       <c r="P212" s="12">
         <v>32</v>
       </c>
-      <c r="Q212" s="12"/>
+      <c r="Q212" s="12">
+        <v>32</v>
+      </c>
       <c r="R212" s="12">
         <v>2</v>
       </c>
@@ -12160,7 +12250,9 @@
       <c r="P213" s="6">
         <v>31</v>
       </c>
-      <c r="Q213" s="6"/>
+      <c r="Q213" s="6">
+        <v>31</v>
+      </c>
       <c r="R213" s="6">
         <v>1</v>
       </c>
@@ -12204,7 +12296,9 @@
       <c r="P214" s="22">
         <v>31</v>
       </c>
-      <c r="Q214" s="22"/>
+      <c r="Q214" s="22">
+        <v>31</v>
+      </c>
       <c r="R214" s="22">
         <v>1</v>
       </c>
@@ -12248,7 +12342,9 @@
       <c r="P215" s="22">
         <v>32</v>
       </c>
-      <c r="Q215" s="22"/>
+      <c r="Q215" s="22">
+        <v>32</v>
+      </c>
       <c r="R215" s="22">
         <v>2</v>
       </c>
@@ -12292,7 +12388,9 @@
       <c r="P216" s="22">
         <v>33</v>
       </c>
-      <c r="Q216" s="22"/>
+      <c r="Q216" s="22">
+        <v>33</v>
+      </c>
       <c r="R216" s="22">
         <v>3</v>
       </c>
@@ -12336,7 +12434,9 @@
       <c r="P217" s="22">
         <v>34</v>
       </c>
-      <c r="Q217" s="22"/>
+      <c r="Q217" s="22">
+        <v>34</v>
+      </c>
       <c r="R217" s="22">
         <v>4</v>
       </c>
@@ -12380,7 +12480,9 @@
       <c r="P218" s="22">
         <v>35</v>
       </c>
-      <c r="Q218" s="22"/>
+      <c r="Q218" s="22">
+        <v>35</v>
+      </c>
       <c r="R218" s="22">
         <v>5</v>
       </c>
@@ -12424,7 +12526,9 @@
       <c r="P219" s="22">
         <v>36</v>
       </c>
-      <c r="Q219" s="22"/>
+      <c r="Q219" s="22">
+        <v>36</v>
+      </c>
       <c r="R219" s="22">
         <v>6</v>
       </c>
@@ -14936,7 +15040,9 @@
       <c r="P285" s="30">
         <v>31</v>
       </c>
-      <c r="Q285" s="30"/>
+      <c r="Q285" s="30">
+        <v>31</v>
+      </c>
       <c r="R285" s="30">
         <v>1</v>
       </c>
@@ -14994,7 +15100,9 @@
       <c r="P286" s="21">
         <v>32</v>
       </c>
-      <c r="Q286" s="21"/>
+      <c r="Q286" s="21">
+        <v>32</v>
+      </c>
       <c r="R286" s="21">
         <v>2</v>
       </c>
@@ -15052,7 +15160,9 @@
       <c r="P287" s="21">
         <v>33</v>
       </c>
-      <c r="Q287" s="21"/>
+      <c r="Q287" s="21">
+        <v>33</v>
+      </c>
       <c r="R287" s="21">
         <v>3</v>
       </c>
@@ -15112,7 +15222,9 @@
       <c r="P288" s="21">
         <v>34</v>
       </c>
-      <c r="Q288" s="21"/>
+      <c r="Q288" s="21">
+        <v>34</v>
+      </c>
       <c r="R288" s="21">
         <v>4</v>
       </c>
@@ -15172,7 +15284,9 @@
       <c r="P289" s="21">
         <v>34</v>
       </c>
-      <c r="Q289" s="21"/>
+      <c r="Q289" s="21">
+        <v>34</v>
+      </c>
       <c r="R289" s="21">
         <v>4</v>
       </c>
@@ -15232,7 +15346,9 @@
       <c r="P290" s="12">
         <v>31</v>
       </c>
-      <c r="Q290" s="12"/>
+      <c r="Q290" s="12">
+        <v>31</v>
+      </c>
       <c r="R290" s="12">
         <v>1</v>
       </c>
@@ -15292,7 +15408,9 @@
       <c r="P291" s="12">
         <v>32</v>
       </c>
-      <c r="Q291" s="12"/>
+      <c r="Q291" s="12">
+        <v>32</v>
+      </c>
       <c r="R291" s="12">
         <v>2</v>
       </c>
@@ -15352,7 +15470,9 @@
       <c r="P292" s="6">
         <v>31</v>
       </c>
-      <c r="Q292" s="6"/>
+      <c r="Q292" s="6">
+        <v>31</v>
+      </c>
       <c r="R292" s="6">
         <v>1</v>
       </c>
@@ -15396,7 +15516,9 @@
       <c r="P293" s="22">
         <v>31</v>
       </c>
-      <c r="Q293" s="22"/>
+      <c r="Q293" s="22">
+        <v>31</v>
+      </c>
       <c r="R293" s="22">
         <v>1</v>
       </c>
@@ -15440,7 +15562,9 @@
       <c r="P294" s="22">
         <v>32</v>
       </c>
-      <c r="Q294" s="22"/>
+      <c r="Q294" s="22">
+        <v>32</v>
+      </c>
       <c r="R294" s="22">
         <v>2</v>
       </c>
@@ -15484,7 +15608,9 @@
       <c r="P295" s="22">
         <v>33</v>
       </c>
-      <c r="Q295" s="22"/>
+      <c r="Q295" s="22">
+        <v>33</v>
+      </c>
       <c r="R295" s="22">
         <v>3</v>
       </c>
@@ -15528,7 +15654,9 @@
       <c r="P296" s="22">
         <v>34</v>
       </c>
-      <c r="Q296" s="22"/>
+      <c r="Q296" s="22">
+        <v>34</v>
+      </c>
       <c r="R296" s="22">
         <v>4</v>
       </c>
@@ -15572,7 +15700,9 @@
       <c r="P297" s="22">
         <v>35</v>
       </c>
-      <c r="Q297" s="22"/>
+      <c r="Q297" s="22">
+        <v>35</v>
+      </c>
       <c r="R297" s="22">
         <v>5</v>
       </c>
@@ -15616,7 +15746,9 @@
       <c r="P298" s="22">
         <v>36</v>
       </c>
-      <c r="Q298" s="22"/>
+      <c r="Q298" s="22">
+        <v>36</v>
+      </c>
       <c r="R298" s="22">
         <v>6</v>
       </c>
@@ -18908,7 +19040,9 @@
       <c r="P390" s="30">
         <v>31</v>
       </c>
-      <c r="Q390" s="30"/>
+      <c r="Q390" s="30">
+        <v>31</v>
+      </c>
       <c r="R390" s="30">
         <v>1</v>
       </c>
@@ -18966,7 +19100,9 @@
       <c r="P391" s="21">
         <v>32</v>
       </c>
-      <c r="Q391" s="21"/>
+      <c r="Q391" s="21">
+        <v>32</v>
+      </c>
       <c r="R391" s="21">
         <v>2</v>
       </c>
@@ -19024,7 +19160,9 @@
       <c r="P392" s="21">
         <v>33</v>
       </c>
-      <c r="Q392" s="21"/>
+      <c r="Q392" s="21">
+        <v>33</v>
+      </c>
       <c r="R392" s="21">
         <v>3</v>
       </c>
@@ -19084,7 +19222,9 @@
       <c r="P393" s="21">
         <v>34</v>
       </c>
-      <c r="Q393" s="21"/>
+      <c r="Q393" s="21">
+        <v>34</v>
+      </c>
       <c r="R393" s="21">
         <v>4</v>
       </c>
@@ -19144,7 +19284,9 @@
       <c r="P394" s="21">
         <v>34</v>
       </c>
-      <c r="Q394" s="21"/>
+      <c r="Q394" s="21">
+        <v>34</v>
+      </c>
       <c r="R394" s="21">
         <v>4</v>
       </c>
@@ -19204,7 +19346,9 @@
       <c r="P395" s="12">
         <v>31</v>
       </c>
-      <c r="Q395" s="12"/>
+      <c r="Q395" s="12">
+        <v>31</v>
+      </c>
       <c r="R395" s="12">
         <v>1</v>
       </c>
@@ -19264,7 +19408,9 @@
       <c r="P396" s="12">
         <v>32</v>
       </c>
-      <c r="Q396" s="12"/>
+      <c r="Q396" s="12">
+        <v>32</v>
+      </c>
       <c r="R396" s="12">
         <v>2</v>
       </c>
@@ -19324,7 +19470,9 @@
       <c r="P397" s="6">
         <v>31</v>
       </c>
-      <c r="Q397" s="6"/>
+      <c r="Q397" s="6">
+        <v>31</v>
+      </c>
       <c r="R397" s="6">
         <v>1</v>
       </c>
@@ -19368,7 +19516,9 @@
       <c r="P398" s="22">
         <v>31</v>
       </c>
-      <c r="Q398" s="22"/>
+      <c r="Q398" s="22">
+        <v>31</v>
+      </c>
       <c r="R398" s="22">
         <v>1</v>
       </c>
@@ -19412,7 +19562,9 @@
       <c r="P399" s="22">
         <v>32</v>
       </c>
-      <c r="Q399" s="22"/>
+      <c r="Q399" s="22">
+        <v>32</v>
+      </c>
       <c r="R399" s="22">
         <v>2</v>
       </c>
@@ -19456,7 +19608,9 @@
       <c r="P400" s="22">
         <v>33</v>
       </c>
-      <c r="Q400" s="22"/>
+      <c r="Q400" s="22">
+        <v>33</v>
+      </c>
       <c r="R400" s="22">
         <v>3</v>
       </c>
@@ -19500,7 +19654,9 @@
       <c r="P401" s="22">
         <v>34</v>
       </c>
-      <c r="Q401" s="22"/>
+      <c r="Q401" s="22">
+        <v>34</v>
+      </c>
       <c r="R401" s="22">
         <v>4</v>
       </c>
@@ -19544,7 +19700,9 @@
       <c r="P402" s="22">
         <v>35</v>
       </c>
-      <c r="Q402" s="22"/>
+      <c r="Q402" s="22">
+        <v>35</v>
+      </c>
       <c r="R402" s="22">
         <v>5</v>
       </c>
@@ -19588,7 +19746,9 @@
       <c r="P403" s="22">
         <v>36</v>
       </c>
-      <c r="Q403" s="22"/>
+      <c r="Q403" s="22">
+        <v>36</v>
+      </c>
       <c r="R403" s="22">
         <v>6</v>
       </c>
@@ -21770,7 +21930,9 @@
       <c r="P458" s="30">
         <v>31</v>
       </c>
-      <c r="Q458" s="30"/>
+      <c r="Q458" s="30">
+        <v>31</v>
+      </c>
       <c r="R458" s="30">
         <v>1</v>
       </c>
@@ -21828,7 +21990,9 @@
       <c r="P459" s="21">
         <v>32</v>
       </c>
-      <c r="Q459" s="21"/>
+      <c r="Q459" s="21">
+        <v>32</v>
+      </c>
       <c r="R459" s="21">
         <v>2</v>
       </c>
@@ -21886,7 +22050,9 @@
       <c r="P460" s="21">
         <v>33</v>
       </c>
-      <c r="Q460" s="21"/>
+      <c r="Q460" s="21">
+        <v>33</v>
+      </c>
       <c r="R460" s="21">
         <v>3</v>
       </c>
@@ -21946,7 +22112,9 @@
       <c r="P461" s="21">
         <v>34</v>
       </c>
-      <c r="Q461" s="21"/>
+      <c r="Q461" s="21">
+        <v>34</v>
+      </c>
       <c r="R461" s="21">
         <v>4</v>
       </c>
@@ -22006,7 +22174,9 @@
       <c r="P462" s="21">
         <v>34</v>
       </c>
-      <c r="Q462" s="21"/>
+      <c r="Q462" s="21">
+        <v>34</v>
+      </c>
       <c r="R462" s="21">
         <v>4</v>
       </c>
@@ -22066,7 +22236,9 @@
       <c r="P463" s="12">
         <v>31</v>
       </c>
-      <c r="Q463" s="12"/>
+      <c r="Q463" s="12">
+        <v>31</v>
+      </c>
       <c r="R463" s="12">
         <v>1</v>
       </c>
@@ -22126,7 +22298,9 @@
       <c r="P464" s="12">
         <v>32</v>
       </c>
-      <c r="Q464" s="12"/>
+      <c r="Q464" s="12">
+        <v>32</v>
+      </c>
       <c r="R464" s="12">
         <v>2</v>
       </c>
@@ -22186,7 +22360,9 @@
       <c r="P465" s="6">
         <v>31</v>
       </c>
-      <c r="Q465" s="6"/>
+      <c r="Q465" s="6">
+        <v>31</v>
+      </c>
       <c r="R465" s="6">
         <v>1</v>
       </c>
@@ -22230,7 +22406,9 @@
       <c r="P466" s="22">
         <v>31</v>
       </c>
-      <c r="Q466" s="22"/>
+      <c r="Q466" s="22">
+        <v>31</v>
+      </c>
       <c r="R466" s="22">
         <v>1</v>
       </c>
@@ -22274,7 +22452,9 @@
       <c r="P467" s="22">
         <v>32</v>
       </c>
-      <c r="Q467" s="22"/>
+      <c r="Q467" s="22">
+        <v>32</v>
+      </c>
       <c r="R467" s="22">
         <v>2</v>
       </c>
@@ -22318,7 +22498,9 @@
       <c r="P468" s="22">
         <v>33</v>
       </c>
-      <c r="Q468" s="22"/>
+      <c r="Q468" s="22">
+        <v>33</v>
+      </c>
       <c r="R468" s="22">
         <v>3</v>
       </c>
@@ -22362,7 +22544,9 @@
       <c r="P469" s="22">
         <v>34</v>
       </c>
-      <c r="Q469" s="22"/>
+      <c r="Q469" s="22">
+        <v>34</v>
+      </c>
       <c r="R469" s="22">
         <v>4</v>
       </c>
@@ -22406,7 +22590,9 @@
       <c r="P470" s="22">
         <v>35</v>
       </c>
-      <c r="Q470" s="22"/>
+      <c r="Q470" s="22">
+        <v>35</v>
+      </c>
       <c r="R470" s="22">
         <v>5</v>
       </c>
@@ -22450,7 +22636,9 @@
       <c r="P471" s="22">
         <v>36</v>
       </c>
-      <c r="Q471" s="22"/>
+      <c r="Q471" s="22">
+        <v>36</v>
+      </c>
       <c r="R471" s="22">
         <v>6</v>
       </c>
@@ -24602,7 +24790,9 @@
       <c r="P525" s="30">
         <v>31</v>
       </c>
-      <c r="Q525" s="30"/>
+      <c r="Q525" s="30">
+        <v>31</v>
+      </c>
       <c r="R525" s="30">
         <v>1</v>
       </c>
@@ -24660,7 +24850,9 @@
       <c r="P526" s="21">
         <v>32</v>
       </c>
-      <c r="Q526" s="21"/>
+      <c r="Q526" s="21">
+        <v>32</v>
+      </c>
       <c r="R526" s="21">
         <v>2</v>
       </c>
@@ -24718,7 +24910,9 @@
       <c r="P527" s="21">
         <v>33</v>
       </c>
-      <c r="Q527" s="21"/>
+      <c r="Q527" s="21">
+        <v>33</v>
+      </c>
       <c r="R527" s="21">
         <v>3</v>
       </c>
@@ -24778,7 +24972,9 @@
       <c r="P528" s="21">
         <v>34</v>
       </c>
-      <c r="Q528" s="21"/>
+      <c r="Q528" s="21">
+        <v>34</v>
+      </c>
       <c r="R528" s="21">
         <v>4</v>
       </c>
@@ -24838,7 +25034,9 @@
       <c r="P529" s="12">
         <v>31</v>
       </c>
-      <c r="Q529" s="12"/>
+      <c r="Q529" s="12">
+        <v>31</v>
+      </c>
       <c r="R529" s="12">
         <v>1</v>
       </c>
@@ -24898,7 +25096,9 @@
       <c r="P530" s="12">
         <v>32</v>
       </c>
-      <c r="Q530" s="12"/>
+      <c r="Q530" s="12">
+        <v>32</v>
+      </c>
       <c r="R530" s="12">
         <v>2</v>
       </c>
@@ -24958,7 +25158,9 @@
       <c r="P531" s="6">
         <v>31</v>
       </c>
-      <c r="Q531" s="6"/>
+      <c r="Q531" s="6">
+        <v>31</v>
+      </c>
       <c r="R531" s="6">
         <v>1</v>
       </c>
@@ -25002,7 +25204,9 @@
       <c r="P532" s="22">
         <v>31</v>
       </c>
-      <c r="Q532" s="22"/>
+      <c r="Q532" s="22">
+        <v>31</v>
+      </c>
       <c r="R532" s="22">
         <v>1</v>
       </c>
@@ -25046,7 +25250,9 @@
       <c r="P533" s="22">
         <v>32</v>
       </c>
-      <c r="Q533" s="22"/>
+      <c r="Q533" s="22">
+        <v>32</v>
+      </c>
       <c r="R533" s="22">
         <v>2</v>
       </c>
@@ -25090,7 +25296,9 @@
       <c r="P534" s="22">
         <v>33</v>
       </c>
-      <c r="Q534" s="22"/>
+      <c r="Q534" s="22">
+        <v>33</v>
+      </c>
       <c r="R534" s="22">
         <v>3</v>
       </c>
@@ -25134,7 +25342,9 @@
       <c r="P535" s="22">
         <v>34</v>
       </c>
-      <c r="Q535" s="22"/>
+      <c r="Q535" s="22">
+        <v>34</v>
+      </c>
       <c r="R535" s="22">
         <v>4</v>
       </c>
@@ -25178,7 +25388,9 @@
       <c r="P536" s="22">
         <v>35</v>
       </c>
-      <c r="Q536" s="22"/>
+      <c r="Q536" s="22">
+        <v>35</v>
+      </c>
       <c r="R536" s="22">
         <v>5</v>
       </c>
@@ -25222,7 +25434,9 @@
       <c r="P537" s="22">
         <v>36</v>
       </c>
-      <c r="Q537" s="22"/>
+      <c r="Q537" s="22">
+        <v>36</v>
+      </c>
       <c r="R537" s="22">
         <v>6</v>
       </c>
@@ -25946,7 +26160,9 @@
       <c r="P551" s="30">
         <v>31</v>
       </c>
-      <c r="Q551" s="30"/>
+      <c r="Q551" s="30">
+        <v>31</v>
+      </c>
       <c r="R551" s="30">
         <v>1</v>
       </c>
@@ -26004,7 +26220,9 @@
       <c r="P552" s="21">
         <v>32</v>
       </c>
-      <c r="Q552" s="21"/>
+      <c r="Q552" s="21">
+        <v>32</v>
+      </c>
       <c r="R552" s="21">
         <v>2</v>
       </c>
@@ -26062,7 +26280,9 @@
       <c r="P553" s="21">
         <v>33</v>
       </c>
-      <c r="Q553" s="21"/>
+      <c r="Q553" s="21">
+        <v>33</v>
+      </c>
       <c r="R553" s="21">
         <v>3</v>
       </c>
@@ -26122,7 +26342,9 @@
       <c r="P554" s="21">
         <v>34</v>
       </c>
-      <c r="Q554" s="21"/>
+      <c r="Q554" s="21">
+        <v>34</v>
+      </c>
       <c r="R554" s="21">
         <v>4</v>
       </c>
@@ -26182,7 +26404,9 @@
       <c r="P555" s="12">
         <v>31</v>
       </c>
-      <c r="Q555" s="12"/>
+      <c r="Q555" s="12">
+        <v>31</v>
+      </c>
       <c r="R555" s="12">
         <v>1</v>
       </c>
@@ -26242,7 +26466,9 @@
       <c r="P556" s="12">
         <v>32</v>
       </c>
-      <c r="Q556" s="12"/>
+      <c r="Q556" s="12">
+        <v>32</v>
+      </c>
       <c r="R556" s="12">
         <v>2</v>
       </c>
@@ -27670,7 +27896,9 @@
       <c r="P594" s="30">
         <v>31</v>
       </c>
-      <c r="Q594" s="30"/>
+      <c r="Q594" s="30">
+        <v>31</v>
+      </c>
       <c r="R594" s="30">
         <v>1</v>
       </c>
@@ -27728,7 +27956,9 @@
       <c r="P595" s="21">
         <v>32</v>
       </c>
-      <c r="Q595" s="21"/>
+      <c r="Q595" s="21">
+        <v>32</v>
+      </c>
       <c r="R595" s="21">
         <v>2</v>
       </c>
@@ -27786,7 +28016,9 @@
       <c r="P596" s="21">
         <v>33</v>
       </c>
-      <c r="Q596" s="21"/>
+      <c r="Q596" s="21">
+        <v>33</v>
+      </c>
       <c r="R596" s="21">
         <v>3</v>
       </c>
@@ -27846,7 +28078,9 @@
       <c r="P597" s="21">
         <v>34</v>
       </c>
-      <c r="Q597" s="21"/>
+      <c r="Q597" s="21">
+        <v>34</v>
+      </c>
       <c r="R597" s="21">
         <v>4</v>
       </c>
@@ -27906,7 +28140,9 @@
       <c r="P598" s="12">
         <v>31</v>
       </c>
-      <c r="Q598" s="12"/>
+      <c r="Q598" s="12">
+        <v>31</v>
+      </c>
       <c r="R598" s="12">
         <v>1</v>
       </c>
@@ -27966,7 +28202,9 @@
       <c r="P599" s="12">
         <v>32</v>
       </c>
-      <c r="Q599" s="12"/>
+      <c r="Q599" s="12">
+        <v>32</v>
+      </c>
       <c r="R599" s="12">
         <v>2</v>
       </c>
@@ -29484,7 +29722,9 @@
       <c r="P640" s="30">
         <v>31</v>
       </c>
-      <c r="Q640" s="30"/>
+      <c r="Q640" s="30">
+        <v>31</v>
+      </c>
       <c r="R640" s="30">
         <v>1</v>
       </c>
@@ -29542,7 +29782,9 @@
       <c r="P641" s="21">
         <v>32</v>
       </c>
-      <c r="Q641" s="21"/>
+      <c r="Q641" s="21">
+        <v>32</v>
+      </c>
       <c r="R641" s="21">
         <v>2</v>
       </c>
@@ -29600,7 +29842,9 @@
       <c r="P642" s="21">
         <v>33</v>
       </c>
-      <c r="Q642" s="21"/>
+      <c r="Q642" s="21">
+        <v>33</v>
+      </c>
       <c r="R642" s="21">
         <v>3</v>
       </c>
@@ -29660,7 +29904,9 @@
       <c r="P643" s="21">
         <v>34</v>
       </c>
-      <c r="Q643" s="21"/>
+      <c r="Q643" s="21">
+        <v>34</v>
+      </c>
       <c r="R643" s="21">
         <v>4</v>
       </c>
@@ -29720,7 +29966,9 @@
       <c r="P644" s="12">
         <v>31</v>
       </c>
-      <c r="Q644" s="12"/>
+      <c r="Q644" s="12">
+        <v>31</v>
+      </c>
       <c r="R644" s="12">
         <v>1</v>
       </c>
@@ -29780,7 +30028,9 @@
       <c r="P645" s="12">
         <v>32</v>
       </c>
-      <c r="Q645" s="12"/>
+      <c r="Q645" s="12">
+        <v>32</v>
+      </c>
       <c r="R645" s="12">
         <v>2</v>
       </c>
@@ -29840,7 +30090,9 @@
       <c r="P646" s="6">
         <v>31</v>
       </c>
-      <c r="Q646" s="6"/>
+      <c r="Q646" s="6">
+        <v>31</v>
+      </c>
       <c r="R646" s="6">
         <v>1</v>
       </c>
@@ -29884,7 +30136,9 @@
       <c r="P647" s="22">
         <v>31</v>
       </c>
-      <c r="Q647" s="22"/>
+      <c r="Q647" s="22">
+        <v>31</v>
+      </c>
       <c r="R647" s="22">
         <v>1</v>
       </c>
@@ -29928,7 +30182,9 @@
       <c r="P648" s="22">
         <v>32</v>
       </c>
-      <c r="Q648" s="22"/>
+      <c r="Q648" s="22">
+        <v>32</v>
+      </c>
       <c r="R648" s="22">
         <v>2</v>
       </c>
@@ -29972,7 +30228,9 @@
       <c r="P649" s="22">
         <v>33</v>
       </c>
-      <c r="Q649" s="22"/>
+      <c r="Q649" s="22">
+        <v>33</v>
+      </c>
       <c r="R649" s="22">
         <v>3</v>
       </c>
@@ -30016,7 +30274,9 @@
       <c r="P650" s="22">
         <v>34</v>
       </c>
-      <c r="Q650" s="22"/>
+      <c r="Q650" s="22">
+        <v>34</v>
+      </c>
       <c r="R650" s="22">
         <v>4</v>
       </c>
@@ -30060,7 +30320,9 @@
       <c r="P651" s="22">
         <v>35</v>
       </c>
-      <c r="Q651" s="22"/>
+      <c r="Q651" s="22">
+        <v>35</v>
+      </c>
       <c r="R651" s="22">
         <v>5</v>
       </c>
@@ -30104,7 +30366,9 @@
       <c r="P652" s="22">
         <v>36</v>
       </c>
-      <c r="Q652" s="22"/>
+      <c r="Q652" s="22">
+        <v>36</v>
+      </c>
       <c r="R652" s="22">
         <v>6</v>
       </c>
@@ -31882,7 +32146,9 @@
       <c r="P692" s="30">
         <v>31</v>
       </c>
-      <c r="Q692" s="30"/>
+      <c r="Q692" s="30">
+        <v>31</v>
+      </c>
       <c r="R692" s="30">
         <v>1</v>
       </c>
@@ -31940,7 +32206,9 @@
       <c r="P693" s="21">
         <v>32</v>
       </c>
-      <c r="Q693" s="21"/>
+      <c r="Q693" s="21">
+        <v>32</v>
+      </c>
       <c r="R693" s="21">
         <v>2</v>
       </c>
@@ -31998,7 +32266,9 @@
       <c r="P694" s="21">
         <v>33</v>
       </c>
-      <c r="Q694" s="21"/>
+      <c r="Q694" s="21">
+        <v>33</v>
+      </c>
       <c r="R694" s="21">
         <v>3</v>
       </c>
@@ -32058,7 +32328,9 @@
       <c r="P695" s="21">
         <v>34</v>
       </c>
-      <c r="Q695" s="21"/>
+      <c r="Q695" s="21">
+        <v>34</v>
+      </c>
       <c r="R695" s="21">
         <v>4</v>
       </c>
@@ -32118,7 +32390,9 @@
       <c r="P696" s="12">
         <v>31</v>
       </c>
-      <c r="Q696" s="12"/>
+      <c r="Q696" s="12">
+        <v>31</v>
+      </c>
       <c r="R696" s="12">
         <v>1</v>
       </c>
@@ -32178,7 +32452,9 @@
       <c r="P697" s="12">
         <v>32</v>
       </c>
-      <c r="Q697" s="12"/>
+      <c r="Q697" s="12">
+        <v>32</v>
+      </c>
       <c r="R697" s="12">
         <v>2</v>
       </c>
@@ -32238,7 +32514,9 @@
       <c r="P698" s="6">
         <v>31</v>
       </c>
-      <c r="Q698" s="6"/>
+      <c r="Q698" s="6">
+        <v>31</v>
+      </c>
       <c r="R698" s="6">
         <v>1</v>
       </c>
@@ -32282,7 +32560,9 @@
       <c r="P699" s="22">
         <v>31</v>
       </c>
-      <c r="Q699" s="22"/>
+      <c r="Q699" s="22">
+        <v>31</v>
+      </c>
       <c r="R699" s="22">
         <v>1</v>
       </c>
@@ -32326,7 +32606,9 @@
       <c r="P700" s="22">
         <v>32</v>
       </c>
-      <c r="Q700" s="22"/>
+      <c r="Q700" s="22">
+        <v>32</v>
+      </c>
       <c r="R700" s="22">
         <v>2</v>
       </c>
@@ -32370,7 +32652,9 @@
       <c r="P701" s="22">
         <v>33</v>
       </c>
-      <c r="Q701" s="22"/>
+      <c r="Q701" s="22">
+        <v>33</v>
+      </c>
       <c r="R701" s="22">
         <v>3</v>
       </c>
@@ -32414,7 +32698,9 @@
       <c r="P702" s="22">
         <v>34</v>
       </c>
-      <c r="Q702" s="22"/>
+      <c r="Q702" s="22">
+        <v>34</v>
+      </c>
       <c r="R702" s="22">
         <v>4</v>
       </c>
@@ -32458,7 +32744,9 @@
       <c r="P703" s="22">
         <v>35</v>
       </c>
-      <c r="Q703" s="22"/>
+      <c r="Q703" s="22">
+        <v>35</v>
+      </c>
       <c r="R703" s="22">
         <v>5</v>
       </c>
@@ -32502,7 +32790,9 @@
       <c r="P704" s="22">
         <v>36</v>
       </c>
-      <c r="Q704" s="22"/>
+      <c r="Q704" s="22">
+        <v>36</v>
+      </c>
       <c r="R704" s="22">
         <v>6</v>
       </c>
@@ -34310,7 +34600,9 @@
       <c r="P745" s="30">
         <v>31</v>
       </c>
-      <c r="Q745" s="30"/>
+      <c r="Q745" s="30">
+        <v>31</v>
+      </c>
       <c r="R745" s="30">
         <v>1</v>
       </c>
@@ -34368,7 +34660,9 @@
       <c r="P746" s="21">
         <v>32</v>
       </c>
-      <c r="Q746" s="21"/>
+      <c r="Q746" s="21">
+        <v>32</v>
+      </c>
       <c r="R746" s="21">
         <v>2</v>
       </c>
@@ -34426,7 +34720,9 @@
       <c r="P747" s="21">
         <v>33</v>
       </c>
-      <c r="Q747" s="21"/>
+      <c r="Q747" s="21">
+        <v>33</v>
+      </c>
       <c r="R747" s="21">
         <v>3</v>
       </c>
@@ -34486,7 +34782,9 @@
       <c r="P748" s="21">
         <v>34</v>
       </c>
-      <c r="Q748" s="21"/>
+      <c r="Q748" s="21">
+        <v>34</v>
+      </c>
       <c r="R748" s="21">
         <v>4</v>
       </c>
@@ -34546,7 +34844,9 @@
       <c r="P749" s="12">
         <v>31</v>
       </c>
-      <c r="Q749" s="12"/>
+      <c r="Q749" s="12">
+        <v>31</v>
+      </c>
       <c r="R749" s="12">
         <v>1</v>
       </c>
@@ -34606,7 +34906,9 @@
       <c r="P750" s="12">
         <v>32</v>
       </c>
-      <c r="Q750" s="12"/>
+      <c r="Q750" s="12">
+        <v>32</v>
+      </c>
       <c r="R750" s="12">
         <v>2</v>
       </c>
@@ -34986,7 +35288,9 @@
       <c r="P758" s="30">
         <v>31</v>
       </c>
-      <c r="Q758" s="30"/>
+      <c r="Q758" s="30">
+        <v>31</v>
+      </c>
       <c r="R758" s="30">
         <v>1</v>
       </c>
@@ -35044,7 +35348,9 @@
       <c r="P759" s="21">
         <v>32</v>
       </c>
-      <c r="Q759" s="21"/>
+      <c r="Q759" s="21">
+        <v>32</v>
+      </c>
       <c r="R759" s="21">
         <v>2</v>
       </c>
@@ -35102,7 +35408,9 @@
       <c r="P760" s="21">
         <v>33</v>
       </c>
-      <c r="Q760" s="21"/>
+      <c r="Q760" s="21">
+        <v>33</v>
+      </c>
       <c r="R760" s="21">
         <v>3</v>
       </c>
@@ -35192,7 +35500,9 @@
       <c r="P762" s="21">
         <v>34</v>
       </c>
-      <c r="Q762" s="21"/>
+      <c r="Q762" s="21">
+        <v>34</v>
+      </c>
       <c r="R762" s="21">
         <v>4</v>
       </c>
@@ -35252,7 +35562,9 @@
       <c r="P763" s="12">
         <v>31</v>
       </c>
-      <c r="Q763" s="12"/>
+      <c r="Q763" s="12">
+        <v>31</v>
+      </c>
       <c r="R763" s="12">
         <v>1</v>
       </c>
@@ -35312,7 +35624,9 @@
       <c r="P764" s="12">
         <v>32</v>
       </c>
-      <c r="Q764" s="12"/>
+      <c r="Q764" s="12">
+        <v>32</v>
+      </c>
       <c r="R764" s="12">
         <v>2</v>
       </c>
@@ -35372,7 +35686,9 @@
       <c r="P765" s="6">
         <v>31</v>
       </c>
-      <c r="Q765" s="6"/>
+      <c r="Q765" s="6">
+        <v>31</v>
+      </c>
       <c r="R765" s="6">
         <v>1</v>
       </c>
@@ -35416,7 +35732,9 @@
       <c r="P766" s="22">
         <v>31</v>
       </c>
-      <c r="Q766" s="22"/>
+      <c r="Q766" s="22">
+        <v>31</v>
+      </c>
       <c r="R766" s="22">
         <v>1</v>
       </c>
@@ -35460,7 +35778,9 @@
       <c r="P767" s="22">
         <v>32</v>
       </c>
-      <c r="Q767" s="22"/>
+      <c r="Q767" s="22">
+        <v>32</v>
+      </c>
       <c r="R767" s="22">
         <v>2</v>
       </c>
@@ -35504,7 +35824,9 @@
       <c r="P768" s="22">
         <v>33</v>
       </c>
-      <c r="Q768" s="22"/>
+      <c r="Q768" s="22">
+        <v>33</v>
+      </c>
       <c r="R768" s="22">
         <v>3</v>
       </c>
@@ -35548,7 +35870,9 @@
       <c r="P769" s="22">
         <v>34</v>
       </c>
-      <c r="Q769" s="22"/>
+      <c r="Q769" s="22">
+        <v>34</v>
+      </c>
       <c r="R769" s="22">
         <v>4</v>
       </c>
@@ -35592,7 +35916,9 @@
       <c r="P770" s="22">
         <v>35</v>
       </c>
-      <c r="Q770" s="22"/>
+      <c r="Q770" s="22">
+        <v>35</v>
+      </c>
       <c r="R770" s="22">
         <v>5</v>
       </c>
@@ -35636,7 +35962,9 @@
       <c r="P771" s="22">
         <v>36</v>
       </c>
-      <c r="Q771" s="22"/>
+      <c r="Q771" s="22">
+        <v>36</v>
+      </c>
       <c r="R771" s="22">
         <v>6</v>
       </c>
@@ -37894,7 +38222,9 @@
       <c r="P827" s="30">
         <v>31</v>
       </c>
-      <c r="Q827" s="30"/>
+      <c r="Q827" s="30">
+        <v>31</v>
+      </c>
       <c r="R827" s="30">
         <v>1</v>
       </c>
@@ -37952,7 +38282,9 @@
       <c r="P828" s="21">
         <v>32</v>
       </c>
-      <c r="Q828" s="21"/>
+      <c r="Q828" s="21">
+        <v>32</v>
+      </c>
       <c r="R828" s="21">
         <v>2</v>
       </c>
@@ -38010,7 +38342,9 @@
       <c r="P829" s="21">
         <v>33</v>
       </c>
-      <c r="Q829" s="21"/>
+      <c r="Q829" s="21">
+        <v>33</v>
+      </c>
       <c r="R829" s="21">
         <v>3</v>
       </c>
@@ -38043,13 +38377,27 @@
       <c r="K830" s="21"/>
       <c r="L830" s="21"/>
       <c r="M830" s="21"/>
-      <c r="N830" s="21"/>
-      <c r="O830" s="21"/>
-      <c r="P830" s="21"/>
-      <c r="Q830" s="21"/>
-      <c r="R830" s="21"/>
-      <c r="S830" s="21"/>
-      <c r="T830" s="21"/>
+      <c r="N830" s="21">
+        <v>88</v>
+      </c>
+      <c r="O830" s="21">
+        <v>88</v>
+      </c>
+      <c r="P830" s="21">
+        <v>9</v>
+      </c>
+      <c r="Q830" s="21">
+        <v>9</v>
+      </c>
+      <c r="R830" s="21">
+        <v>34</v>
+      </c>
+      <c r="S830" s="21">
+        <v>567</v>
+      </c>
+      <c r="T830" s="21">
+        <v>876</v>
+      </c>
     </row>
     <row r="831" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A831" s="76" t="s">
@@ -38100,7 +38448,9 @@
       <c r="P831" s="21">
         <v>34</v>
       </c>
-      <c r="Q831" s="21"/>
+      <c r="Q831" s="21">
+        <v>34</v>
+      </c>
       <c r="R831" s="21">
         <v>4</v>
       </c>
@@ -38160,7 +38510,9 @@
       <c r="P832" s="12">
         <v>31</v>
       </c>
-      <c r="Q832" s="12"/>
+      <c r="Q832" s="12">
+        <v>31</v>
+      </c>
       <c r="R832" s="12">
         <v>1</v>
       </c>
@@ -38220,7 +38572,9 @@
       <c r="P833" s="12">
         <v>32</v>
       </c>
-      <c r="Q833" s="12"/>
+      <c r="Q833" s="12">
+        <v>32</v>
+      </c>
       <c r="R833" s="12">
         <v>2</v>
       </c>
@@ -38280,7 +38634,9 @@
       <c r="P834" s="6">
         <v>31</v>
       </c>
-      <c r="Q834" s="6"/>
+      <c r="Q834" s="6">
+        <v>31</v>
+      </c>
       <c r="R834" s="6">
         <v>1</v>
       </c>
@@ -38324,7 +38680,9 @@
       <c r="P835" s="22">
         <v>31</v>
       </c>
-      <c r="Q835" s="22"/>
+      <c r="Q835" s="22">
+        <v>31</v>
+      </c>
       <c r="R835" s="22">
         <v>1</v>
       </c>
@@ -38368,7 +38726,9 @@
       <c r="P836" s="22">
         <v>32</v>
       </c>
-      <c r="Q836" s="22"/>
+      <c r="Q836" s="22">
+        <v>32</v>
+      </c>
       <c r="R836" s="22">
         <v>2</v>
       </c>
@@ -38412,7 +38772,9 @@
       <c r="P837" s="22">
         <v>33</v>
       </c>
-      <c r="Q837" s="22"/>
+      <c r="Q837" s="22">
+        <v>33</v>
+      </c>
       <c r="R837" s="22">
         <v>3</v>
       </c>
@@ -38456,7 +38818,9 @@
       <c r="P838" s="22">
         <v>34</v>
       </c>
-      <c r="Q838" s="22"/>
+      <c r="Q838" s="22">
+        <v>34</v>
+      </c>
       <c r="R838" s="22">
         <v>4</v>
       </c>
@@ -38500,7 +38864,9 @@
       <c r="P839" s="22">
         <v>35</v>
       </c>
-      <c r="Q839" s="22"/>
+      <c r="Q839" s="22">
+        <v>35</v>
+      </c>
       <c r="R839" s="22">
         <v>5</v>
       </c>
@@ -38544,7 +38910,9 @@
       <c r="P840" s="22">
         <v>36</v>
       </c>
-      <c r="Q840" s="22"/>
+      <c r="Q840" s="22">
+        <v>36</v>
+      </c>
       <c r="R840" s="22">
         <v>6</v>
       </c>
@@ -40742,7 +41110,9 @@
       <c r="P895" s="30">
         <v>31</v>
       </c>
-      <c r="Q895" s="30"/>
+      <c r="Q895" s="30">
+        <v>31</v>
+      </c>
       <c r="R895" s="30">
         <v>1</v>
       </c>
@@ -40800,7 +41170,9 @@
       <c r="P896" s="21">
         <v>32</v>
       </c>
-      <c r="Q896" s="21"/>
+      <c r="Q896" s="21">
+        <v>32</v>
+      </c>
       <c r="R896" s="21">
         <v>2</v>
       </c>
@@ -40858,7 +41230,9 @@
       <c r="P897" s="21">
         <v>33</v>
       </c>
-      <c r="Q897" s="21"/>
+      <c r="Q897" s="21">
+        <v>33</v>
+      </c>
       <c r="R897" s="21">
         <v>3</v>
       </c>
@@ -40890,14 +41264,30 @@
       <c r="J898" s="21"/>
       <c r="K898" s="21"/>
       <c r="L898" s="21"/>
-      <c r="M898" s="21"/>
-      <c r="N898" s="21"/>
-      <c r="O898" s="21"/>
-      <c r="P898" s="21"/>
-      <c r="Q898" s="21"/>
-      <c r="R898" s="21"/>
-      <c r="S898" s="21"/>
-      <c r="T898" s="21"/>
+      <c r="M898" s="21">
+        <v>6</v>
+      </c>
+      <c r="N898" s="21">
+        <v>6</v>
+      </c>
+      <c r="O898" s="21">
+        <v>57</v>
+      </c>
+      <c r="P898" s="21">
+        <v>56</v>
+      </c>
+      <c r="Q898" s="21">
+        <v>56</v>
+      </c>
+      <c r="R898" s="21">
+        <v>23</v>
+      </c>
+      <c r="S898" s="21">
+        <v>89</v>
+      </c>
+      <c r="T898" s="21">
+        <v>89</v>
+      </c>
     </row>
     <row r="899" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A899" s="106" t="s">
@@ -40948,7 +41338,9 @@
       <c r="P899" s="21">
         <v>34</v>
       </c>
-      <c r="Q899" s="21"/>
+      <c r="Q899" s="21">
+        <v>34</v>
+      </c>
       <c r="R899" s="21">
         <v>4</v>
       </c>
@@ -41008,7 +41400,9 @@
       <c r="P900" s="12">
         <v>31</v>
       </c>
-      <c r="Q900" s="12"/>
+      <c r="Q900" s="12">
+        <v>31</v>
+      </c>
       <c r="R900" s="12">
         <v>1</v>
       </c>
@@ -41068,7 +41462,9 @@
       <c r="P901" s="12">
         <v>32</v>
       </c>
-      <c r="Q901" s="12"/>
+      <c r="Q901" s="12">
+        <v>32</v>
+      </c>
       <c r="R901" s="12">
         <v>2</v>
       </c>
@@ -41128,7 +41524,9 @@
       <c r="P902" s="6">
         <v>31</v>
       </c>
-      <c r="Q902" s="6"/>
+      <c r="Q902" s="6">
+        <v>31</v>
+      </c>
       <c r="R902" s="6">
         <v>1</v>
       </c>
@@ -41172,7 +41570,9 @@
       <c r="P903" s="22">
         <v>31</v>
       </c>
-      <c r="Q903" s="22"/>
+      <c r="Q903" s="22">
+        <v>31</v>
+      </c>
       <c r="R903" s="22">
         <v>1</v>
       </c>
@@ -41216,7 +41616,9 @@
       <c r="P904" s="22">
         <v>32</v>
       </c>
-      <c r="Q904" s="22"/>
+      <c r="Q904" s="22">
+        <v>32</v>
+      </c>
       <c r="R904" s="22">
         <v>2</v>
       </c>
@@ -41260,7 +41662,9 @@
       <c r="P905" s="22">
         <v>33</v>
       </c>
-      <c r="Q905" s="22"/>
+      <c r="Q905" s="22">
+        <v>33</v>
+      </c>
       <c r="R905" s="22">
         <v>3</v>
       </c>
@@ -41304,7 +41708,9 @@
       <c r="P906" s="22">
         <v>34</v>
       </c>
-      <c r="Q906" s="22"/>
+      <c r="Q906" s="22">
+        <v>34</v>
+      </c>
       <c r="R906" s="22">
         <v>4</v>
       </c>
@@ -41348,7 +41754,9 @@
       <c r="P907" s="22">
         <v>35</v>
       </c>
-      <c r="Q907" s="22"/>
+      <c r="Q907" s="22">
+        <v>35</v>
+      </c>
       <c r="R907" s="22">
         <v>5</v>
       </c>
@@ -41392,7 +41800,9 @@
       <c r="P908" s="22">
         <v>36</v>
       </c>
-      <c r="Q908" s="22"/>
+      <c r="Q908" s="22">
+        <v>36</v>
+      </c>
       <c r="R908" s="22">
         <v>6</v>
       </c>

--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -1228,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1363,18 +1363,13 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1760,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T973"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1840,16 +1835,16 @@
       <c r="P1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="139" t="s">
+      <c r="Q1" s="133" t="s">
         <v>203</v>
       </c>
-      <c r="R1" s="139" t="s">
+      <c r="R1" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="139" t="s">
+      <c r="S1" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="T1" s="139" t="s">
+      <c r="T1" s="133" t="s">
         <v>206</v>
       </c>
     </row>
@@ -44296,9 +44291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44694,18 +44689,18 @@
       <c r="A14" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -44745,28 +44740,28 @@
       <c r="A17" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="134">
+      <c r="D17" s="130">
         <v>1</v>
       </c>
-      <c r="E17" s="134">
+      <c r="E17" s="130">
         <v>2</v>
       </c>
-      <c r="F17" s="134">
+      <c r="F17" s="130">
         <v>3</v>
       </c>
-      <c r="G17" s="134">
+      <c r="G17" s="130">
         <v>1</v>
       </c>
-      <c r="H17" s="134">
+      <c r="H17" s="130">
         <v>2</v>
       </c>
-      <c r="I17" s="134">
+      <c r="I17" s="130">
         <v>3</v>
       </c>
     </row>
@@ -44774,28 +44769,28 @@
       <c r="A18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="134">
+      <c r="D18" s="130">
         <v>1</v>
       </c>
-      <c r="E18" s="134">
+      <c r="E18" s="130">
         <v>10</v>
       </c>
-      <c r="F18" s="134">
+      <c r="F18" s="130">
         <v>21</v>
       </c>
-      <c r="G18" s="134">
+      <c r="G18" s="130">
         <v>1</v>
       </c>
-      <c r="H18" s="134">
+      <c r="H18" s="130">
         <v>10</v>
       </c>
-      <c r="I18" s="134">
+      <c r="I18" s="130">
         <v>21</v>
       </c>
     </row>
@@ -44803,28 +44798,28 @@
       <c r="A19" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="134">
+      <c r="D19" s="130">
         <v>2</v>
       </c>
-      <c r="E19" s="134">
+      <c r="E19" s="130">
         <v>11</v>
       </c>
-      <c r="F19" s="134">
+      <c r="F19" s="130">
         <v>22</v>
       </c>
-      <c r="G19" s="134">
+      <c r="G19" s="130">
         <v>2</v>
       </c>
-      <c r="H19" s="134">
+      <c r="H19" s="130">
         <v>11</v>
       </c>
-      <c r="I19" s="134">
+      <c r="I19" s="130">
         <v>22</v>
       </c>
     </row>
@@ -45265,8 +45260,8 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -45306,28 +45301,28 @@
       <c r="A38" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B38" s="134" t="s">
+      <c r="B38" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="134" t="s">
+      <c r="C38" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="134">
+      <c r="D38" s="130">
         <v>1</v>
       </c>
-      <c r="E38" s="134">
+      <c r="E38" s="130">
         <v>2</v>
       </c>
-      <c r="F38" s="134">
+      <c r="F38" s="130">
         <v>3</v>
       </c>
-      <c r="G38" s="134">
+      <c r="G38" s="130">
         <v>1</v>
       </c>
-      <c r="H38" s="134">
+      <c r="H38" s="130">
         <v>2</v>
       </c>
-      <c r="I38" s="134">
+      <c r="I38" s="130">
         <v>3</v>
       </c>
     </row>
@@ -45335,28 +45330,28 @@
       <c r="A39" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="134" t="s">
+      <c r="C39" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="134">
+      <c r="D39" s="130">
         <v>1</v>
       </c>
-      <c r="E39" s="134">
+      <c r="E39" s="130">
         <v>10</v>
       </c>
-      <c r="F39" s="134">
+      <c r="F39" s="130">
         <v>21</v>
       </c>
-      <c r="G39" s="134">
+      <c r="G39" s="130">
         <v>1</v>
       </c>
-      <c r="H39" s="134">
+      <c r="H39" s="130">
         <v>10</v>
       </c>
-      <c r="I39" s="134">
+      <c r="I39" s="130">
         <v>21</v>
       </c>
     </row>
@@ -45364,28 +45359,28 @@
       <c r="A40" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="134">
+      <c r="D40" s="130">
         <v>2</v>
       </c>
-      <c r="E40" s="134">
+      <c r="E40" s="130">
         <v>11</v>
       </c>
-      <c r="F40" s="134">
+      <c r="F40" s="130">
         <v>22</v>
       </c>
-      <c r="G40" s="134">
+      <c r="G40" s="130">
         <v>2</v>
       </c>
-      <c r="H40" s="134">
+      <c r="H40" s="130">
         <v>11</v>
       </c>
-      <c r="I40" s="134">
+      <c r="I40" s="130">
         <v>22</v>
       </c>
     </row>
@@ -45654,28 +45649,28 @@
       <c r="A50" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="133" t="s">
+      <c r="B50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="133" t="s">
+      <c r="C50" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="135">
+      <c r="D50" s="2">
         <v>3</v>
       </c>
-      <c r="E50" s="135">
+      <c r="E50" s="2">
         <v>13</v>
       </c>
-      <c r="F50" s="135">
+      <c r="F50" s="2">
         <v>23</v>
       </c>
-      <c r="G50" s="135">
+      <c r="G50" s="2">
         <v>3</v>
       </c>
-      <c r="H50" s="135">
+      <c r="H50" s="2">
         <v>13</v>
       </c>
-      <c r="I50" s="135">
+      <c r="I50" s="2">
         <v>23</v>
       </c>
     </row>
@@ -45741,28 +45736,28 @@
       <c r="A53" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="134" t="s">
+      <c r="B53" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="134" t="s">
+      <c r="C53" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="134">
+      <c r="D53" s="130">
         <v>1</v>
       </c>
-      <c r="E53" s="134">
+      <c r="E53" s="130">
         <v>2</v>
       </c>
-      <c r="F53" s="134">
+      <c r="F53" s="130">
         <v>3</v>
       </c>
-      <c r="G53" s="134">
+      <c r="G53" s="130">
         <v>1</v>
       </c>
-      <c r="H53" s="134">
+      <c r="H53" s="130">
         <v>2</v>
       </c>
-      <c r="I53" s="134">
+      <c r="I53" s="130">
         <v>3</v>
       </c>
     </row>
@@ -45770,28 +45765,28 @@
       <c r="A54" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B54" s="134" t="s">
+      <c r="B54" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="134" t="s">
+      <c r="C54" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="134">
+      <c r="D54" s="130">
         <v>1</v>
       </c>
-      <c r="E54" s="134">
+      <c r="E54" s="130">
         <v>10</v>
       </c>
-      <c r="F54" s="134">
+      <c r="F54" s="130">
         <v>21</v>
       </c>
-      <c r="G54" s="134">
+      <c r="G54" s="130">
         <v>1</v>
       </c>
-      <c r="H54" s="134">
+      <c r="H54" s="130">
         <v>10</v>
       </c>
-      <c r="I54" s="134">
+      <c r="I54" s="130">
         <v>21</v>
       </c>
     </row>
@@ -45799,28 +45794,28 @@
       <c r="A55" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B55" s="134" t="s">
+      <c r="B55" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="134" t="s">
+      <c r="C55" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="134">
+      <c r="D55" s="130">
         <v>2</v>
       </c>
-      <c r="E55" s="134">
+      <c r="E55" s="130">
         <v>11</v>
       </c>
-      <c r="F55" s="134">
+      <c r="F55" s="130">
         <v>22</v>
       </c>
-      <c r="G55" s="137">
+      <c r="G55" s="130">
         <v>2</v>
       </c>
-      <c r="H55" s="137">
+      <c r="H55" s="130">
         <v>11</v>
       </c>
-      <c r="I55" s="137">
+      <c r="I55" s="130">
         <v>22</v>
       </c>
     </row>
@@ -46272,19 +46267,19 @@
       <c r="D71" s="2">
         <v>4</v>
       </c>
-      <c r="E71" s="135">
+      <c r="E71" s="2">
         <v>14</v>
       </c>
-      <c r="F71" s="135">
+      <c r="F71" s="2">
         <v>24</v>
       </c>
-      <c r="G71" s="135">
+      <c r="G71" s="2">
         <v>4</v>
       </c>
-      <c r="H71" s="135">
+      <c r="H71" s="2">
         <v>14</v>
       </c>
-      <c r="I71" s="135">
+      <c r="I71" s="2">
         <v>24</v>
       </c>
     </row>
@@ -46352,28 +46347,28 @@
       <c r="A74" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B74" s="134" t="s">
+      <c r="B74" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="134" t="s">
+      <c r="C74" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="134">
+      <c r="D74" s="130">
         <v>1</v>
       </c>
-      <c r="E74" s="134">
+      <c r="E74" s="130">
         <v>2</v>
       </c>
-      <c r="F74" s="134">
+      <c r="F74" s="130">
         <v>3</v>
       </c>
-      <c r="G74" s="134">
+      <c r="G74" s="130">
         <v>1</v>
       </c>
-      <c r="H74" s="134">
+      <c r="H74" s="130">
         <v>2</v>
       </c>
-      <c r="I74" s="134">
+      <c r="I74" s="130">
         <v>3</v>
       </c>
     </row>
@@ -46381,28 +46376,28 @@
       <c r="A75" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B75" s="134" t="s">
+      <c r="B75" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="134" t="s">
+      <c r="C75" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D75" s="134">
+      <c r="D75" s="130">
         <v>1</v>
       </c>
-      <c r="E75" s="134">
+      <c r="E75" s="130">
         <v>10</v>
       </c>
-      <c r="F75" s="134">
+      <c r="F75" s="130">
         <v>21</v>
       </c>
-      <c r="G75" s="134">
+      <c r="G75" s="130">
         <v>1</v>
       </c>
-      <c r="H75" s="134">
+      <c r="H75" s="130">
         <v>10</v>
       </c>
-      <c r="I75" s="134">
+      <c r="I75" s="130">
         <v>21</v>
       </c>
     </row>
@@ -46410,28 +46405,28 @@
       <c r="A76" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B76" s="134" t="s">
+      <c r="B76" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="134" t="s">
+      <c r="C76" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="134">
+      <c r="D76" s="130">
         <v>2</v>
       </c>
-      <c r="E76" s="134">
+      <c r="E76" s="130">
         <v>11</v>
       </c>
-      <c r="F76" s="134">
+      <c r="F76" s="130">
         <v>22</v>
       </c>
-      <c r="G76" s="134">
+      <c r="G76" s="130">
         <v>2</v>
       </c>
-      <c r="H76" s="134">
+      <c r="H76" s="130">
         <v>11</v>
       </c>
-      <c r="I76" s="134">
+      <c r="I76" s="130">
         <v>22</v>
       </c>
     </row>
@@ -46451,16 +46446,16 @@
       <c r="E77" s="14">
         <v>12</v>
       </c>
-      <c r="F77" s="130">
+      <c r="F77" s="14">
         <v>23</v>
       </c>
-      <c r="G77" s="130">
+      <c r="G77" s="14">
         <v>3</v>
       </c>
-      <c r="H77" s="130">
+      <c r="H77" s="14">
         <v>12</v>
       </c>
-      <c r="I77" s="130">
+      <c r="I77" s="14">
         <v>23</v>
       </c>
     </row>
@@ -46784,94 +46779,94 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="136" t="s">
+      <c r="A89" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="B89" s="134" t="s">
+      <c r="B89" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="134" t="s">
+      <c r="C89" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="134">
+      <c r="D89" s="130">
         <v>1</v>
       </c>
-      <c r="E89" s="134">
+      <c r="E89" s="130">
         <v>2</v>
       </c>
-      <c r="F89" s="134">
+      <c r="F89" s="130">
         <v>3</v>
       </c>
-      <c r="G89" s="134">
+      <c r="G89" s="130">
         <v>1</v>
       </c>
-      <c r="H89" s="134">
+      <c r="H89" s="130">
         <v>2</v>
       </c>
-      <c r="I89" s="134">
+      <c r="I89" s="130">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="136" t="s">
+      <c r="A90" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="B90" s="134" t="s">
+      <c r="B90" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="134" t="s">
+      <c r="C90" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D90" s="134">
+      <c r="D90" s="130">
         <v>1</v>
       </c>
-      <c r="E90" s="134">
+      <c r="E90" s="130">
         <v>10</v>
       </c>
-      <c r="F90" s="134">
+      <c r="F90" s="130">
         <v>21</v>
       </c>
-      <c r="G90" s="134">
+      <c r="G90" s="130">
         <v>1</v>
       </c>
-      <c r="H90" s="134">
+      <c r="H90" s="130">
         <v>10</v>
       </c>
-      <c r="I90" s="134">
+      <c r="I90" s="130">
         <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="136" t="s">
+      <c r="A91" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="134" t="s">
+      <c r="B91" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="134" t="s">
+      <c r="C91" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="134">
+      <c r="D91" s="130">
         <v>2</v>
       </c>
-      <c r="E91" s="134">
+      <c r="E91" s="130">
         <v>11</v>
       </c>
-      <c r="F91" s="134">
+      <c r="F91" s="130">
         <v>22</v>
       </c>
-      <c r="G91" s="134">
+      <c r="G91" s="130">
         <v>2</v>
       </c>
-      <c r="H91" s="134">
+      <c r="H91" s="130">
         <v>11</v>
       </c>
-      <c r="I91" s="134">
+      <c r="I91" s="130">
         <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="136" t="s">
+      <c r="A92" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B92" s="14" t="s">
@@ -46900,7 +46895,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="136" t="s">
+      <c r="A93" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B93" s="14" t="s">
@@ -46929,7 +46924,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="136" t="s">
+      <c r="A94" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B94" s="14" t="s">
@@ -46958,7 +46953,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="136" t="s">
+      <c r="A95" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B95" s="14" t="s">
@@ -46987,7 +46982,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="136" t="s">
+      <c r="A96" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B96" s="14" t="s">
@@ -47016,7 +47011,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="136" t="s">
+      <c r="A97" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B97" s="14" t="s">
@@ -47045,7 +47040,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="136" t="s">
+      <c r="A98" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B98" s="14" t="s">
@@ -47074,7 +47069,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="136" t="s">
+      <c r="A99" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B99" s="14" t="s">
@@ -47103,7 +47098,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="136" t="s">
+      <c r="A100" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B100" s="14" t="s">
@@ -47132,7 +47127,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="136" t="s">
+      <c r="A101" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B101" s="129" t="s">
@@ -47161,7 +47156,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="136" t="s">
+      <c r="A102" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B102" s="129" t="s">
@@ -47190,7 +47185,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="136" t="s">
+      <c r="A103" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B103" s="129" t="s">
@@ -47219,7 +47214,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="136" t="s">
+      <c r="A104" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B104" s="129" t="s">
@@ -47248,7 +47243,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="136" t="s">
+      <c r="A105" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B105" s="129" t="s">
@@ -47277,7 +47272,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="136" t="s">
+      <c r="A106" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B106" s="129" t="s">
@@ -47306,7 +47301,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="136" t="s">
+      <c r="A107" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -47335,7 +47330,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="136" t="s">
+      <c r="A108" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -47364,7 +47359,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="136" t="s">
+      <c r="A109" s="131" t="s">
         <v>199</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -47384,28 +47379,28 @@
       <c r="A110" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B110" s="134" t="s">
+      <c r="B110" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C110" s="134" t="s">
+      <c r="C110" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="D110" s="134">
+      <c r="D110" s="130">
         <v>1</v>
       </c>
-      <c r="E110" s="134">
+      <c r="E110" s="130">
         <v>2</v>
       </c>
-      <c r="F110" s="134">
+      <c r="F110" s="130">
         <v>3</v>
       </c>
-      <c r="G110" s="134">
+      <c r="G110" s="130">
         <v>1</v>
       </c>
-      <c r="H110" s="134">
+      <c r="H110" s="130">
         <v>2</v>
       </c>
-      <c r="I110" s="134">
+      <c r="I110" s="130">
         <v>3</v>
       </c>
     </row>
@@ -47413,28 +47408,28 @@
       <c r="A111" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B111" s="134" t="s">
+      <c r="B111" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="134" t="s">
+      <c r="C111" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D111" s="134">
+      <c r="D111" s="130">
         <v>1</v>
       </c>
-      <c r="E111" s="134">
+      <c r="E111" s="130">
         <v>10</v>
       </c>
-      <c r="F111" s="134">
+      <c r="F111" s="130">
         <v>21</v>
       </c>
-      <c r="G111" s="134">
+      <c r="G111" s="130">
         <v>1</v>
       </c>
-      <c r="H111" s="134">
+      <c r="H111" s="130">
         <v>10</v>
       </c>
-      <c r="I111" s="134">
+      <c r="I111" s="130">
         <v>21</v>
       </c>
     </row>
@@ -47442,28 +47437,28 @@
       <c r="A112" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B112" s="134" t="s">
+      <c r="B112" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="134" t="s">
+      <c r="C112" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="134">
+      <c r="D112" s="130">
         <v>2</v>
       </c>
-      <c r="E112" s="134">
+      <c r="E112" s="130">
         <v>11</v>
       </c>
-      <c r="F112" s="134">
+      <c r="F112" s="130">
         <v>22</v>
       </c>
-      <c r="G112" s="134">
+      <c r="G112" s="130">
         <v>2</v>
       </c>
-      <c r="H112" s="134">
+      <c r="H112" s="130">
         <v>11</v>
       </c>
-      <c r="I112" s="134">
+      <c r="I112" s="130">
         <v>22</v>
       </c>
     </row>
@@ -47819,28 +47814,28 @@
       <c r="A125" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B125" s="134" t="s">
+      <c r="B125" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C125" s="134" t="s">
+      <c r="C125" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="D125" s="134">
+      <c r="D125" s="130">
         <v>1</v>
       </c>
-      <c r="E125" s="134">
+      <c r="E125" s="130">
         <v>2</v>
       </c>
-      <c r="F125" s="134">
+      <c r="F125" s="130">
         <v>3</v>
       </c>
-      <c r="G125" s="134">
+      <c r="G125" s="130">
         <v>1</v>
       </c>
-      <c r="H125" s="134">
+      <c r="H125" s="130">
         <v>2</v>
       </c>
-      <c r="I125" s="134">
+      <c r="I125" s="130">
         <v>3</v>
       </c>
     </row>
@@ -47848,28 +47843,28 @@
       <c r="A126" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B126" s="134" t="s">
+      <c r="B126" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C126" s="134" t="s">
+      <c r="C126" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D126" s="134">
+      <c r="D126" s="130">
         <v>1</v>
       </c>
-      <c r="E126" s="134">
+      <c r="E126" s="130">
         <v>10</v>
       </c>
-      <c r="F126" s="134">
+      <c r="F126" s="130">
         <v>21</v>
       </c>
-      <c r="G126" s="134">
+      <c r="G126" s="130">
         <v>1</v>
       </c>
-      <c r="H126" s="134">
+      <c r="H126" s="130">
         <v>10</v>
       </c>
-      <c r="I126" s="134">
+      <c r="I126" s="130">
         <v>21</v>
       </c>
     </row>
@@ -47877,28 +47872,28 @@
       <c r="A127" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B127" s="134" t="s">
+      <c r="B127" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C127" s="134" t="s">
+      <c r="C127" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D127" s="134">
+      <c r="D127" s="130">
         <v>2</v>
       </c>
-      <c r="E127" s="137">
+      <c r="E127" s="130">
         <v>11</v>
       </c>
-      <c r="F127" s="137">
+      <c r="F127" s="130">
         <v>22</v>
       </c>
-      <c r="G127" s="137">
+      <c r="G127" s="130">
         <v>2</v>
       </c>
-      <c r="H127" s="137">
+      <c r="H127" s="130">
         <v>11</v>
       </c>
-      <c r="I127" s="137">
+      <c r="I127" s="130">
         <v>22</v>
       </c>
     </row>
@@ -48413,58 +48408,58 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="138" t="s">
+      <c r="A146" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="B146" s="134" t="s">
+      <c r="B146" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C146" s="134" t="s">
+      <c r="C146" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="D146" s="134"/>
-      <c r="E146" s="134"/>
-      <c r="F146" s="134"/>
-      <c r="G146" s="134"/>
-      <c r="H146" s="134"/>
-      <c r="I146" s="134"/>
+      <c r="D146" s="130"/>
+      <c r="E146" s="130"/>
+      <c r="F146" s="130"/>
+      <c r="G146" s="130"/>
+      <c r="H146" s="130"/>
+      <c r="I146" s="130"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="138" t="s">
+      <c r="A147" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="B147" s="134" t="s">
+      <c r="B147" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C147" s="134" t="s">
+      <c r="C147" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="D147" s="134"/>
-      <c r="E147" s="134"/>
-      <c r="F147" s="134"/>
-      <c r="G147" s="134"/>
-      <c r="H147" s="134"/>
-      <c r="I147" s="134"/>
+      <c r="D147" s="130"/>
+      <c r="E147" s="130"/>
+      <c r="F147" s="130"/>
+      <c r="G147" s="130"/>
+      <c r="H147" s="130"/>
+      <c r="I147" s="130"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="138" t="s">
+      <c r="A148" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="B148" s="134" t="s">
+      <c r="B148" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C148" s="134" t="s">
+      <c r="C148" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D148" s="134"/>
-      <c r="E148" s="134"/>
-      <c r="F148" s="134"/>
-      <c r="G148" s="134"/>
-      <c r="H148" s="134"/>
-      <c r="I148" s="134"/>
+      <c r="D148" s="130"/>
+      <c r="E148" s="130"/>
+      <c r="F148" s="130"/>
+      <c r="G148" s="130"/>
+      <c r="H148" s="130"/>
+      <c r="I148" s="130"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="138" t="s">
+      <c r="A149" s="132" t="s">
         <v>202</v>
       </c>
       <c r="B149" s="14" t="s">
@@ -48481,7 +48476,7 @@
       <c r="I149" s="14"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="138" t="s">
+      <c r="A150" s="132" t="s">
         <v>202</v>
       </c>
       <c r="B150" s="14" t="s">
@@ -48498,7 +48493,7 @@
       <c r="I150" s="14"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="138" t="s">
+      <c r="A151" s="132" t="s">
         <v>202</v>
       </c>
       <c r="B151" s="14" t="s">
@@ -48515,7 +48510,7 @@
       <c r="I151" s="14"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="138" t="s">
+      <c r="A152" s="132" t="s">
         <v>202</v>
       </c>
       <c r="B152" s="14" t="s">
@@ -48532,7 +48527,7 @@
       <c r="I152" s="14"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="138" t="s">
+      <c r="A153" s="132" t="s">
         <v>202</v>
       </c>
       <c r="B153" s="14" t="s">
@@ -48549,7 +48544,7 @@
       <c r="I153" s="14"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="138" t="s">
+      <c r="A154" s="132" t="s">
         <v>202</v>
       </c>
       <c r="B154" s="14" t="s">
@@ -48566,7 +48561,7 @@
       <c r="I154" s="14"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="138" t="s">
+      <c r="A155" s="132" t="s">
         <v>202</v>
       </c>
       <c r="B155" s="14" t="s">
@@ -48583,7 +48578,7 @@
       <c r="I155" s="14"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="138" t="s">
+      <c r="A156" s="132" t="s">
         <v>202</v>
       </c>
       <c r="B156" s="14" t="s">
@@ -48600,7 +48595,7 @@
       <c r="I156" s="14"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="138" t="s">
+      <c r="A157" s="132" t="s">
         <v>202</v>
       </c>
       <c r="B157" s="14" t="s">
@@ -48617,7 +48612,7 @@
       <c r="I157" s="14"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="138" t="s">
+      <c r="A158" s="132" t="s">
         <v>202</v>
       </c>
       <c r="B158" s="2" t="s">

--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6614" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6613" uniqueCount="209">
   <si>
     <t>Flavoured Milk</t>
   </si>
@@ -1755,11 +1755,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T973"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E146" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2170,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="20">
         <v>11</v>
@@ -2230,7 +2230,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="20">
         <v>12</v>
@@ -2290,7 +2290,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="17">
         <v>11</v>
@@ -2350,7 +2350,7 @@
         <v>46</v>
       </c>
       <c r="E10" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="17">
         <v>12</v>
@@ -2410,7 +2410,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="17">
         <v>13</v>
@@ -2470,7 +2470,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F12" s="17">
         <v>14</v>
@@ -2530,7 +2530,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F13" s="18">
         <v>11</v>
@@ -2590,7 +2590,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F14" s="18">
         <v>12</v>
@@ -2650,7 +2650,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15" s="19">
         <v>11</v>
@@ -2710,7 +2710,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F16" s="19">
         <v>12</v>
@@ -2770,7 +2770,7 @@
         <v>53</v>
       </c>
       <c r="E17" s="19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F17" s="19">
         <v>13</v>
@@ -2830,7 +2830,7 @@
         <v>54</v>
       </c>
       <c r="E18" s="11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F18" s="11">
         <v>11</v>
@@ -2890,7 +2890,7 @@
         <v>55</v>
       </c>
       <c r="E19" s="11">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F19" s="11">
         <v>12</v>
@@ -2950,7 +2950,7 @@
         <v>56</v>
       </c>
       <c r="E20" s="11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F20" s="11">
         <v>13</v>
@@ -3010,7 +3010,7 @@
         <v>57</v>
       </c>
       <c r="E21" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F21" s="11">
         <v>14</v>
@@ -3070,7 +3070,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="27">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F22" s="27">
         <v>11</v>
@@ -3116,7 +3116,7 @@
         <v>60</v>
       </c>
       <c r="E23" s="27">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F23" s="27">
         <v>12</v>
@@ -3162,7 +3162,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="25">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F24" s="25">
         <v>11</v>
@@ -3208,7 +3208,7 @@
         <v>63</v>
       </c>
       <c r="E25" s="26">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F25" s="26">
         <v>11</v>
@@ -3268,7 +3268,7 @@
         <v>64</v>
       </c>
       <c r="E26" s="26">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F26" s="26">
         <v>12</v>
@@ -3328,7 +3328,7 @@
         <v>65</v>
       </c>
       <c r="E27" s="26">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F27" s="26">
         <v>13</v>
@@ -3388,7 +3388,7 @@
         <v>66</v>
       </c>
       <c r="E28" s="26">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F28" s="26">
         <v>14</v>
@@ -3448,7 +3448,7 @@
         <v>67</v>
       </c>
       <c r="E29" s="26">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F29" s="26">
         <v>15</v>
@@ -3508,7 +3508,7 @@
         <v>68</v>
       </c>
       <c r="E30" s="85">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F30" s="85">
         <v>16</v>
@@ -3568,7 +3568,7 @@
         <v>66</v>
       </c>
       <c r="E31" s="97">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F31" s="97">
         <v>11</v>
@@ -3614,7 +3614,7 @@
         <v>63</v>
       </c>
       <c r="E32" s="97">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F32" s="97">
         <v>12</v>
@@ -3660,7 +3660,7 @@
         <v>64</v>
       </c>
       <c r="E33" s="97">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F33" s="97">
         <v>13</v>
@@ -4410,7 +4410,7 @@
         <v>42</v>
       </c>
       <c r="E47" s="14">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F47" s="14">
         <v>11</v>
@@ -4456,7 +4456,7 @@
         <v>78</v>
       </c>
       <c r="E48" s="20">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F48" s="20">
         <v>11</v>
@@ -4516,7 +4516,7 @@
         <v>79</v>
       </c>
       <c r="E49" s="20">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F49" s="20">
         <v>12</v>
@@ -4576,7 +4576,7 @@
         <v>44</v>
       </c>
       <c r="E50" s="20">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F50" s="20">
         <v>13</v>
@@ -4622,7 +4622,7 @@
         <v>43</v>
       </c>
       <c r="E51" s="20">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F51" s="20">
         <v>14</v>
@@ -4668,7 +4668,7 @@
         <v>46</v>
       </c>
       <c r="E52" s="17">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="F52" s="17">
         <v>11</v>
@@ -4728,7 +4728,7 @@
         <v>48</v>
       </c>
       <c r="E53" s="17">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F53" s="17">
         <v>12</v>
@@ -4788,7 +4788,7 @@
         <v>45</v>
       </c>
       <c r="E54" s="17">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F54" s="17">
         <v>13</v>
@@ -4848,7 +4848,7 @@
         <v>80</v>
       </c>
       <c r="E55" s="17">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F55" s="17">
         <v>14</v>
@@ -4908,7 +4908,7 @@
         <v>47</v>
       </c>
       <c r="E56" s="17">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="F56" s="17">
         <v>15</v>
@@ -4954,7 +4954,7 @@
         <v>81</v>
       </c>
       <c r="E57" s="18">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F57" s="18">
         <v>11</v>
@@ -5014,7 +5014,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="18">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F58" s="18">
         <v>12</v>
@@ -5074,7 +5074,7 @@
         <v>49</v>
       </c>
       <c r="E59" s="18">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F59" s="18">
         <v>13</v>
@@ -5134,7 +5134,7 @@
         <v>82</v>
       </c>
       <c r="E60" s="18">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F60" s="18">
         <v>14</v>
@@ -5194,7 +5194,7 @@
         <v>83</v>
       </c>
       <c r="E61" s="18">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="F61" s="18">
         <v>15</v>
@@ -5254,7 +5254,7 @@
         <v>53</v>
       </c>
       <c r="E62" s="19">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F62" s="19">
         <v>11</v>
@@ -5314,7 +5314,7 @@
         <v>51</v>
       </c>
       <c r="E63" s="19">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F63" s="19">
         <v>12</v>
@@ -5374,7 +5374,7 @@
         <v>84</v>
       </c>
       <c r="E64" s="19">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F64" s="19">
         <v>13</v>
@@ -5434,7 +5434,7 @@
         <v>52</v>
       </c>
       <c r="E65" s="19">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F65" s="19">
         <v>14</v>
@@ -5480,7 +5480,7 @@
         <v>85</v>
       </c>
       <c r="E66" s="19">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F66" s="19">
         <v>15</v>
@@ -5526,7 +5526,7 @@
         <v>57</v>
       </c>
       <c r="E67" s="11">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F67" s="11">
         <v>11</v>
@@ -5572,7 +5572,7 @@
         <v>56</v>
       </c>
       <c r="E68" s="11">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F68" s="11">
         <v>12</v>
@@ -5618,7 +5618,7 @@
         <v>54</v>
       </c>
       <c r="E69" s="11">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F69" s="11">
         <v>13</v>
@@ -5664,7 +5664,7 @@
         <v>55</v>
       </c>
       <c r="E70" s="11">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F70" s="11">
         <v>14</v>
@@ -5710,7 +5710,7 @@
         <v>87</v>
       </c>
       <c r="E71" s="27">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F71" s="27">
         <v>11</v>
@@ -5756,7 +5756,7 @@
         <v>59</v>
       </c>
       <c r="E72" s="27">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="F72" s="27">
         <v>12</v>
@@ -5802,7 +5802,7 @@
         <v>88</v>
       </c>
       <c r="E73" s="27">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F73" s="27">
         <v>13</v>
@@ -5848,7 +5848,7 @@
         <v>89</v>
       </c>
       <c r="E74" s="27">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F74" s="27">
         <v>14</v>
@@ -5894,7 +5894,7 @@
         <v>90</v>
       </c>
       <c r="E75" s="27">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="F75" s="27">
         <v>15</v>
@@ -5940,7 +5940,7 @@
         <v>60</v>
       </c>
       <c r="E76" s="27">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="F76" s="27">
         <v>16</v>
@@ -5986,7 +5986,7 @@
         <v>91</v>
       </c>
       <c r="E77" s="25">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F77" s="25">
         <v>11</v>
@@ -6032,7 +6032,7 @@
         <v>62</v>
       </c>
       <c r="E78" s="25">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="F78" s="25">
         <v>12</v>
@@ -6078,7 +6078,7 @@
         <v>92</v>
       </c>
       <c r="E79" s="25">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F79" s="25">
         <v>13</v>
@@ -6124,7 +6124,7 @@
         <v>64</v>
       </c>
       <c r="E80" s="26">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F80" s="26">
         <v>11</v>
@@ -6170,7 +6170,7 @@
         <v>63</v>
       </c>
       <c r="E81" s="26">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="F81" s="26">
         <v>12</v>
@@ -6216,7 +6216,7 @@
         <v>66</v>
       </c>
       <c r="E82" s="26">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="F82" s="26">
         <v>13</v>
@@ -6262,7 +6262,7 @@
         <v>68</v>
       </c>
       <c r="E83" s="26">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="F83" s="26">
         <v>14</v>
@@ -6308,7 +6308,7 @@
         <v>65</v>
       </c>
       <c r="E84" s="26">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F84" s="26">
         <v>15</v>
@@ -6354,7 +6354,7 @@
         <v>67</v>
       </c>
       <c r="E85" s="39">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="F85" s="39">
         <v>16</v>
@@ -6399,9 +6399,7 @@
       <c r="D86" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E86" s="30" t="s">
-        <v>30</v>
-      </c>
+      <c r="E86" s="30"/>
       <c r="F86" s="30" t="s">
         <v>30</v>
       </c>
@@ -7048,7 +7046,7 @@
         <v>42</v>
       </c>
       <c r="E98" s="14">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F98" s="14">
         <v>11</v>
@@ -7094,7 +7092,7 @@
         <v>95</v>
       </c>
       <c r="E99" s="14">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="F99" s="14">
         <v>12</v>
@@ -7140,7 +7138,7 @@
         <v>96</v>
       </c>
       <c r="E100" s="14">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="F100" s="14">
         <v>13</v>
@@ -7186,7 +7184,7 @@
         <v>79</v>
       </c>
       <c r="E101" s="20">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="F101" s="20">
         <v>11</v>
@@ -7246,7 +7244,7 @@
         <v>78</v>
       </c>
       <c r="E102" s="20">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="F102" s="20">
         <v>12</v>
@@ -7306,7 +7304,7 @@
         <v>47</v>
       </c>
       <c r="E103" s="17">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F103" s="17">
         <v>11</v>
@@ -7366,7 +7364,7 @@
         <v>97</v>
       </c>
       <c r="E104" s="17">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="F104" s="17">
         <v>12</v>
@@ -7426,7 +7424,7 @@
         <v>98</v>
       </c>
       <c r="E105" s="17">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="F105" s="17">
         <v>13</v>
@@ -7486,7 +7484,7 @@
         <v>80</v>
       </c>
       <c r="E106" s="17">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F106" s="17">
         <v>14</v>
@@ -7546,7 +7544,7 @@
         <v>45</v>
       </c>
       <c r="E107" s="17">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F107" s="17">
         <v>15</v>
@@ -7591,7 +7589,9 @@
       <c r="D108" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E108" s="17"/>
+      <c r="E108" s="17">
+        <v>78</v>
+      </c>
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
@@ -7621,7 +7621,9 @@
       <c r="D109" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E109" s="17"/>
+      <c r="E109" s="17">
+        <v>79</v>
+      </c>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
@@ -7652,7 +7654,7 @@
         <v>99</v>
       </c>
       <c r="E110" s="18">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F110" s="18">
         <v>31</v>
@@ -7712,7 +7714,7 @@
         <v>83</v>
       </c>
       <c r="E111" s="18">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="F111" s="18">
         <v>32</v>
@@ -7772,7 +7774,7 @@
         <v>82</v>
       </c>
       <c r="E112" s="18">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="F112" s="18">
         <v>33</v>
@@ -7832,7 +7834,7 @@
         <v>49</v>
       </c>
       <c r="E113" s="18">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="F113" s="18">
         <v>34</v>
@@ -7892,7 +7894,7 @@
         <v>81</v>
       </c>
       <c r="E114" s="18">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="F114" s="18">
         <v>35</v>
@@ -7952,7 +7954,7 @@
         <v>52</v>
       </c>
       <c r="E115" s="19">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F115" s="19">
         <v>11</v>
@@ -8012,7 +8014,7 @@
         <v>51</v>
       </c>
       <c r="E116" s="19">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="F116" s="19">
         <v>12</v>
@@ -8072,7 +8074,7 @@
         <v>100</v>
       </c>
       <c r="E117" s="19">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="F117" s="19">
         <v>13</v>
@@ -8132,7 +8134,7 @@
         <v>85</v>
       </c>
       <c r="E118" s="19">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="F118" s="19">
         <v>14</v>
@@ -8177,7 +8179,9 @@
       <c r="D119" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E119" s="19"/>
+      <c r="E119" s="19">
+        <v>89</v>
+      </c>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
@@ -8208,7 +8212,7 @@
         <v>84</v>
       </c>
       <c r="E120" s="19">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F120" s="19">
         <v>15</v>
@@ -8254,7 +8258,7 @@
         <v>56</v>
       </c>
       <c r="E121" s="11">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="F121" s="11">
         <v>11</v>
@@ -8300,7 +8304,7 @@
         <v>57</v>
       </c>
       <c r="E122" s="11">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="F122" s="11">
         <v>12</v>
@@ -8346,7 +8350,7 @@
         <v>54</v>
       </c>
       <c r="E123" s="11">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="F123" s="11">
         <v>13</v>
@@ -8392,7 +8396,7 @@
         <v>55</v>
       </c>
       <c r="E124" s="11">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="F124" s="11">
         <v>14</v>
@@ -8437,7 +8441,9 @@
       <c r="D125" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E125" s="11"/>
+      <c r="E125" s="11">
+        <v>95</v>
+      </c>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -8467,7 +8473,9 @@
       <c r="D126" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E126" s="11"/>
+      <c r="E126" s="11">
+        <v>96</v>
+      </c>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
@@ -8497,7 +8505,9 @@
       <c r="D127" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E127" s="11"/>
+      <c r="E127" s="11">
+        <v>97</v>
+      </c>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
@@ -8527,7 +8537,9 @@
       <c r="D128" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E128" s="11"/>
+      <c r="E128" s="11">
+        <v>98</v>
+      </c>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
@@ -8557,7 +8569,9 @@
       <c r="D129" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E129" s="11"/>
+      <c r="E129" s="11">
+        <v>99</v>
+      </c>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -8587,7 +8601,9 @@
       <c r="D130" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E130" s="11"/>
+      <c r="E130" s="11">
+        <v>100</v>
+      </c>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
@@ -8617,7 +8633,9 @@
       <c r="D131" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E131" s="11"/>
+      <c r="E131" s="11">
+        <v>101</v>
+      </c>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
@@ -8647,7 +8665,9 @@
       <c r="D132" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E132" s="11"/>
+      <c r="E132" s="11">
+        <v>102</v>
+      </c>
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
@@ -8677,7 +8697,9 @@
       <c r="D133" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E133" s="27"/>
+      <c r="E133" s="27">
+        <v>103</v>
+      </c>
       <c r="F133" s="27"/>
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
@@ -8707,7 +8729,9 @@
       <c r="D134" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E134" s="27"/>
+      <c r="E134" s="27">
+        <v>104</v>
+      </c>
       <c r="F134" s="27"/>
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
@@ -8737,7 +8761,9 @@
       <c r="D135" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E135" s="27"/>
+      <c r="E135" s="27">
+        <v>105</v>
+      </c>
       <c r="F135" s="27"/>
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
@@ -8767,7 +8793,9 @@
       <c r="D136" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E136" s="27"/>
+      <c r="E136" s="27">
+        <v>106</v>
+      </c>
       <c r="F136" s="27"/>
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
@@ -8797,7 +8825,9 @@
       <c r="D137" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E137" s="27"/>
+      <c r="E137" s="27">
+        <v>107</v>
+      </c>
       <c r="F137" s="27"/>
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
@@ -8827,7 +8857,9 @@
       <c r="D138" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E138" s="27"/>
+      <c r="E138" s="27">
+        <v>108</v>
+      </c>
       <c r="F138" s="27"/>
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
@@ -8857,7 +8889,9 @@
       <c r="D139" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E139" s="27"/>
+      <c r="E139" s="27">
+        <v>109</v>
+      </c>
       <c r="F139" s="27"/>
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
@@ -8887,7 +8921,9 @@
       <c r="D140" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E140" s="27"/>
+      <c r="E140" s="27">
+        <v>110</v>
+      </c>
       <c r="F140" s="27"/>
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
@@ -8917,7 +8953,9 @@
       <c r="D141" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E141" s="27"/>
+      <c r="E141" s="27">
+        <v>111</v>
+      </c>
       <c r="F141" s="27"/>
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
@@ -8947,7 +8985,9 @@
       <c r="D142" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E142" s="27"/>
+      <c r="E142" s="27">
+        <v>112</v>
+      </c>
       <c r="F142" s="27"/>
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
@@ -8977,7 +9017,9 @@
       <c r="D143" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E143" s="27"/>
+      <c r="E143" s="27">
+        <v>113</v>
+      </c>
       <c r="F143" s="27"/>
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
@@ -9007,7 +9049,9 @@
       <c r="D144" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E144" s="27"/>
+      <c r="E144" s="27">
+        <v>114</v>
+      </c>
       <c r="F144" s="27"/>
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
@@ -9037,7 +9081,9 @@
       <c r="D145" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E145" s="25"/>
+      <c r="E145" s="25">
+        <v>115</v>
+      </c>
       <c r="F145" s="25"/>
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
@@ -9067,7 +9113,9 @@
       <c r="D146" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E146" s="36"/>
+      <c r="E146" s="36">
+        <v>116</v>
+      </c>
       <c r="F146" s="36"/>
       <c r="G146" s="36"/>
       <c r="H146" s="36"/>
@@ -9098,7 +9146,7 @@
         <v>117</v>
       </c>
       <c r="E147" s="38">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="F147" s="38">
         <v>11</v>
@@ -9144,7 +9192,7 @@
         <v>118</v>
       </c>
       <c r="E148" s="38">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="F148" s="38">
         <v>12</v>
@@ -9190,7 +9238,7 @@
         <v>119</v>
       </c>
       <c r="E149" s="38">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="F149" s="38">
         <v>13</v>
@@ -9236,7 +9284,7 @@
         <v>120</v>
       </c>
       <c r="E150" s="38">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="F150" s="38">
         <v>14</v>
@@ -9282,7 +9330,7 @@
         <v>121</v>
       </c>
       <c r="E151" s="38">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="F151" s="38">
         <v>15</v>
@@ -9328,7 +9376,7 @@
         <v>122</v>
       </c>
       <c r="E152" s="38">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="F152" s="38">
         <v>16</v>
@@ -9373,7 +9421,9 @@
       <c r="D153" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E153" s="41"/>
+      <c r="E153" s="41">
+        <v>123</v>
+      </c>
       <c r="F153" s="41"/>
       <c r="G153" s="41"/>
       <c r="H153" s="41"/>
@@ -9403,7 +9453,9 @@
       <c r="D154" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E154" s="42"/>
+      <c r="E154" s="42">
+        <v>124</v>
+      </c>
       <c r="F154" s="42"/>
       <c r="G154" s="42"/>
       <c r="H154" s="42"/>
@@ -44291,7 +44343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>

--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F86BE685-E513-49E5-A621-9ADDBAE04741}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Chiller Products" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Channel Products'!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Channel Products'!$A$1:$T$973</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -483,9 +484,6 @@
     <t>Nescafe Matinal 100GM</t>
   </si>
   <si>
-    <t>Nido Prebio 1+  1800GM</t>
-  </si>
-  <si>
     <t>Nescafe Gold 50GM</t>
   </si>
   <si>
@@ -647,11 +645,14 @@
   <si>
     <t>Overwrite Stock Count</t>
   </si>
+  <si>
+    <t>Nido Prebio 1+ 1800GM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1121,6 +1122,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1156,6 +1174,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1331,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1367,7 +1402,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="36">
         <v>11</v>
@@ -1396,14 +1431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J869" sqref="J869"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,52 +1479,52 @@
         <v>10</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>32</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>28</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>29</v>
       </c>
       <c r="Q1" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3194,7 +3229,7 @@
     </row>
     <row r="31" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>24</v>
@@ -3240,7 +3275,7 @@
     </row>
     <row r="32" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>24</v>
@@ -3286,7 +3321,7 @@
     </row>
     <row r="33" spans="1:20" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" s="42" t="s">
         <v>24</v>
@@ -20355,7 +20390,7 @@
         <v>150</v>
       </c>
       <c r="D373" s="46" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E373" s="46">
         <v>303</v>
@@ -20401,7 +20436,7 @@
         <v>152</v>
       </c>
       <c r="D374" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E374" s="46">
         <v>304</v>
@@ -20447,7 +20482,7 @@
         <v>146</v>
       </c>
       <c r="D375" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E375" s="46">
         <v>305</v>
@@ -20493,7 +20528,7 @@
         <v>152</v>
       </c>
       <c r="D376" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E376" s="46">
         <v>306</v>
@@ -20539,7 +20574,7 @@
         <v>152</v>
       </c>
       <c r="D377" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E377" s="46">
         <v>307</v>
@@ -20585,7 +20620,7 @@
         <v>150</v>
       </c>
       <c r="D378" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E378" s="46">
         <v>308</v>
@@ -20631,7 +20666,7 @@
         <v>146</v>
       </c>
       <c r="D379" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E379" s="46">
         <v>309</v>
@@ -20677,7 +20712,7 @@
         <v>152</v>
       </c>
       <c r="D380" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E380" s="46">
         <v>310</v>
@@ -20723,7 +20758,7 @@
         <v>152</v>
       </c>
       <c r="D381" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E381" s="46">
         <v>311</v>
@@ -20769,7 +20804,7 @@
         <v>141</v>
       </c>
       <c r="D382" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E382" s="46">
         <v>312</v>
@@ -20815,7 +20850,7 @@
         <v>141</v>
       </c>
       <c r="D383" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E383" s="46">
         <v>313</v>
@@ -20861,7 +20896,7 @@
         <v>141</v>
       </c>
       <c r="D384" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E384" s="46">
         <v>314</v>
@@ -20907,7 +20942,7 @@
         <v>146</v>
       </c>
       <c r="D385" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E385" s="46">
         <v>315</v>
@@ -20953,7 +20988,7 @@
         <v>146</v>
       </c>
       <c r="D386" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E386" s="46">
         <v>316</v>
@@ -20999,7 +21034,7 @@
         <v>146</v>
       </c>
       <c r="D387" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E387" s="46">
         <v>317</v>
@@ -21045,7 +21080,7 @@
         <v>146</v>
       </c>
       <c r="D388" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E388" s="46">
         <v>318</v>
@@ -21091,7 +21126,7 @@
         <v>146</v>
       </c>
       <c r="D389" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E389" s="46">
         <v>319</v>
@@ -21128,7 +21163,7 @@
     </row>
     <row r="390" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B390" s="9" t="s">
         <v>35</v>
@@ -21188,7 +21223,7 @@
     </row>
     <row r="391" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B391" s="9" t="s">
         <v>35</v>
@@ -21248,7 +21283,7 @@
     </row>
     <row r="392" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B392" s="9" t="s">
         <v>35</v>
@@ -21308,7 +21343,7 @@
     </row>
     <row r="393" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B393" s="9" t="s">
         <v>35</v>
@@ -21370,7 +21405,7 @@
     </row>
     <row r="394" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B394" s="9" t="s">
         <v>35</v>
@@ -21432,7 +21467,7 @@
     </row>
     <row r="395" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B395" s="9" t="s">
         <v>35</v>
@@ -21494,7 +21529,7 @@
     </row>
     <row r="396" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B396" s="9" t="s">
         <v>35</v>
@@ -21556,7 +21591,7 @@
     </row>
     <row r="397" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B397" s="9" t="s">
         <v>35</v>
@@ -21618,7 +21653,7 @@
     </row>
     <row r="398" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B398" s="9" t="s">
         <v>35</v>
@@ -21664,7 +21699,7 @@
     </row>
     <row r="399" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B399" s="9" t="s">
         <v>35</v>
@@ -21710,7 +21745,7 @@
     </row>
     <row r="400" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B400" s="9" t="s">
         <v>35</v>
@@ -21756,7 +21791,7 @@
     </row>
     <row r="401" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B401" s="9" t="s">
         <v>35</v>
@@ -21802,7 +21837,7 @@
     </row>
     <row r="402" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B402" s="9" t="s">
         <v>35</v>
@@ -21848,7 +21883,7 @@
     </row>
     <row r="403" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B403" s="9" t="s">
         <v>35</v>
@@ -21894,7 +21929,7 @@
     </row>
     <row r="404" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B404" s="14" t="s">
         <v>41</v>
@@ -21940,7 +21975,7 @@
     </row>
     <row r="405" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B405" s="14" t="s">
         <v>41</v>
@@ -21986,7 +22021,7 @@
     </row>
     <row r="406" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B406" s="14" t="s">
         <v>41</v>
@@ -22032,7 +22067,7 @@
     </row>
     <row r="407" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B407" s="20" t="s">
         <v>19</v>
@@ -22092,7 +22127,7 @@
     </row>
     <row r="408" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B408" s="20" t="s">
         <v>19</v>
@@ -22152,7 +22187,7 @@
     </row>
     <row r="409" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B409" s="17" t="s">
         <v>20</v>
@@ -22212,7 +22247,7 @@
     </row>
     <row r="410" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B410" s="17" t="s">
         <v>20</v>
@@ -22272,7 +22307,7 @@
     </row>
     <row r="411" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B411" s="17" t="s">
         <v>20</v>
@@ -22332,7 +22367,7 @@
     </row>
     <row r="412" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B412" s="17" t="s">
         <v>20</v>
@@ -22392,7 +22427,7 @@
     </row>
     <row r="413" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B413" s="17" t="s">
         <v>20</v>
@@ -22438,7 +22473,7 @@
     </row>
     <row r="414" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B414" s="17" t="s">
         <v>20</v>
@@ -22484,7 +22519,7 @@
     </row>
     <row r="415" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B415" s="18" t="s">
         <v>21</v>
@@ -22544,7 +22579,7 @@
     </row>
     <row r="416" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B416" s="18" t="s">
         <v>21</v>
@@ -22604,7 +22639,7 @@
     </row>
     <row r="417" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A417" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B417" s="18" t="s">
         <v>21</v>
@@ -22664,7 +22699,7 @@
     </row>
     <row r="418" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A418" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B418" s="18" t="s">
         <v>21</v>
@@ -22710,7 +22745,7 @@
     </row>
     <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B419" s="19" t="s">
         <v>22</v>
@@ -22770,7 +22805,7 @@
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B420" s="19" t="s">
         <v>22</v>
@@ -22830,7 +22865,7 @@
     </row>
     <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B421" s="19" t="s">
         <v>22</v>
@@ -22890,7 +22925,7 @@
     </row>
     <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B422" s="19" t="s">
         <v>22</v>
@@ -22936,7 +22971,7 @@
     </row>
     <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B423" s="19" t="s">
         <v>22</v>
@@ -22982,7 +23017,7 @@
     </row>
     <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B424" s="19" t="s">
         <v>22</v>
@@ -23028,7 +23063,7 @@
     </row>
     <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B425" s="11" t="s">
         <v>23</v>
@@ -23074,7 +23109,7 @@
     </row>
     <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B426" s="11" t="s">
         <v>23</v>
@@ -23120,7 +23155,7 @@
     </row>
     <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B427" s="11" t="s">
         <v>23</v>
@@ -23166,7 +23201,7 @@
     </row>
     <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B428" s="11" t="s">
         <v>23</v>
@@ -23212,7 +23247,7 @@
     </row>
     <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B429" s="11" t="s">
         <v>23</v>
@@ -23258,7 +23293,7 @@
     </row>
     <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B430" s="11" t="s">
         <v>23</v>
@@ -23304,7 +23339,7 @@
     </row>
     <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B431" s="11" t="s">
         <v>23</v>
@@ -23350,7 +23385,7 @@
     </row>
     <row r="432" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A432" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B432" s="11" t="s">
         <v>23</v>
@@ -23396,7 +23431,7 @@
     </row>
     <row r="433" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A433" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B433" s="11" t="s">
         <v>23</v>
@@ -23442,7 +23477,7 @@
     </row>
     <row r="434" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A434" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B434" s="11" t="s">
         <v>23</v>
@@ -23488,7 +23523,7 @@
     </row>
     <row r="435" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A435" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B435" s="11" t="s">
         <v>23</v>
@@ -23534,7 +23569,7 @@
     </row>
     <row r="436" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A436" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B436" s="11" t="s">
         <v>23</v>
@@ -23580,7 +23615,7 @@
     </row>
     <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B437" s="27" t="s">
         <v>58</v>
@@ -23626,7 +23661,7 @@
     </row>
     <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B438" s="27" t="s">
         <v>58</v>
@@ -23672,7 +23707,7 @@
     </row>
     <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B439" s="27" t="s">
         <v>58</v>
@@ -23718,7 +23753,7 @@
     </row>
     <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B440" s="27" t="s">
         <v>58</v>
@@ -23764,7 +23799,7 @@
     </row>
     <row r="441" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A441" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B441" s="27" t="s">
         <v>58</v>
@@ -23810,7 +23845,7 @@
     </row>
     <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B442" s="27" t="s">
         <v>58</v>
@@ -23856,7 +23891,7 @@
     </row>
     <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B443" s="27" t="s">
         <v>58</v>
@@ -23902,7 +23937,7 @@
     </row>
     <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B444" s="27" t="s">
         <v>58</v>
@@ -23948,7 +23983,7 @@
     </row>
     <row r="445" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A445" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B445" s="27" t="s">
         <v>58</v>
@@ -23994,7 +24029,7 @@
     </row>
     <row r="446" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A446" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B446" s="27" t="s">
         <v>58</v>
@@ -24040,7 +24075,7 @@
     </row>
     <row r="447" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A447" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B447" s="27" t="s">
         <v>58</v>
@@ -24086,7 +24121,7 @@
     </row>
     <row r="448" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A448" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B448" s="27" t="s">
         <v>58</v>
@@ -24132,7 +24167,7 @@
     </row>
     <row r="449" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A449" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B449" s="25" t="s">
         <v>61</v>
@@ -24178,7 +24213,7 @@
     </row>
     <row r="450" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A450" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B450" s="25" t="s">
         <v>61</v>
@@ -24224,7 +24259,7 @@
     </row>
     <row r="451" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A451" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B451" s="26" t="s">
         <v>116</v>
@@ -24270,7 +24305,7 @@
     </row>
     <row r="452" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B452" s="26" t="s">
         <v>116</v>
@@ -24316,7 +24351,7 @@
     </row>
     <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B453" s="26" t="s">
         <v>116</v>
@@ -24362,7 +24397,7 @@
     </row>
     <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B454" s="26" t="s">
         <v>116</v>
@@ -24408,7 +24443,7 @@
     </row>
     <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B455" s="26" t="s">
         <v>116</v>
@@ -24454,7 +24489,7 @@
     </row>
     <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B456" s="26" t="s">
         <v>116</v>
@@ -24500,7 +24535,7 @@
     </row>
     <row r="457" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B457" s="26" t="s">
         <v>116</v>
@@ -24546,7 +24581,7 @@
     </row>
     <row r="458" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B458" s="9" t="s">
         <v>35</v>
@@ -24606,7 +24641,7 @@
     </row>
     <row r="459" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B459" s="9" t="s">
         <v>35</v>
@@ -24666,7 +24701,7 @@
     </row>
     <row r="460" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B460" s="9" t="s">
         <v>35</v>
@@ -24726,7 +24761,7 @@
     </row>
     <row r="461" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B461" s="9" t="s">
         <v>35</v>
@@ -24788,7 +24823,7 @@
     </row>
     <row r="462" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B462" s="9" t="s">
         <v>35</v>
@@ -24850,7 +24885,7 @@
     </row>
     <row r="463" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B463" s="9" t="s">
         <v>35</v>
@@ -24912,7 +24947,7 @@
     </row>
     <row r="464" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B464" s="9" t="s">
         <v>35</v>
@@ -24974,7 +25009,7 @@
     </row>
     <row r="465" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B465" s="9" t="s">
         <v>35</v>
@@ -25036,7 +25071,7 @@
     </row>
     <row r="466" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B466" s="9" t="s">
         <v>35</v>
@@ -25082,7 +25117,7 @@
     </row>
     <row r="467" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B467" s="9" t="s">
         <v>35</v>
@@ -25128,7 +25163,7 @@
     </row>
     <row r="468" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B468" s="9" t="s">
         <v>35</v>
@@ -25174,7 +25209,7 @@
     </row>
     <row r="469" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B469" s="9" t="s">
         <v>35</v>
@@ -25220,7 +25255,7 @@
     </row>
     <row r="470" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B470" s="9" t="s">
         <v>35</v>
@@ -25266,7 +25301,7 @@
     </row>
     <row r="471" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B471" s="9" t="s">
         <v>35</v>
@@ -25312,7 +25347,7 @@
     </row>
     <row r="472" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B472" s="14" t="s">
         <v>41</v>
@@ -25358,7 +25393,7 @@
     </row>
     <row r="473" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B473" s="14" t="s">
         <v>41</v>
@@ -25404,7 +25439,7 @@
     </row>
     <row r="474" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B474" s="14" t="s">
         <v>41</v>
@@ -25450,7 +25485,7 @@
     </row>
     <row r="475" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B475" s="20" t="s">
         <v>19</v>
@@ -25510,7 +25545,7 @@
     </row>
     <row r="476" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B476" s="20" t="s">
         <v>19</v>
@@ -25570,7 +25605,7 @@
     </row>
     <row r="477" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B477" s="17" t="s">
         <v>20</v>
@@ -25630,7 +25665,7 @@
     </row>
     <row r="478" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B478" s="17" t="s">
         <v>20</v>
@@ -25690,7 +25725,7 @@
     </row>
     <row r="479" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B479" s="17" t="s">
         <v>20</v>
@@ -25750,7 +25785,7 @@
     </row>
     <row r="480" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B480" s="17" t="s">
         <v>20</v>
@@ -25810,7 +25845,7 @@
     </row>
     <row r="481" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B481" s="17" t="s">
         <v>20</v>
@@ -25856,7 +25891,7 @@
     </row>
     <row r="482" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B482" s="17" t="s">
         <v>20</v>
@@ -25902,7 +25937,7 @@
     </row>
     <row r="483" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B483" s="18" t="s">
         <v>21</v>
@@ -25962,7 +25997,7 @@
     </row>
     <row r="484" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B484" s="18" t="s">
         <v>21</v>
@@ -26022,7 +26057,7 @@
     </row>
     <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B485" s="18" t="s">
         <v>21</v>
@@ -26082,7 +26117,7 @@
     </row>
     <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B486" s="19" t="s">
         <v>22</v>
@@ -26142,7 +26177,7 @@
     </row>
     <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B487" s="19" t="s">
         <v>22</v>
@@ -26202,7 +26237,7 @@
     </row>
     <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>22</v>
@@ -26262,7 +26297,7 @@
     </row>
     <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>22</v>
@@ -26308,7 +26343,7 @@
     </row>
     <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B490" s="19" t="s">
         <v>22</v>
@@ -26354,7 +26389,7 @@
     </row>
     <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B491" s="19" t="s">
         <v>22</v>
@@ -26400,7 +26435,7 @@
     </row>
     <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B492" s="11" t="s">
         <v>23</v>
@@ -26446,7 +26481,7 @@
     </row>
     <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B493" s="11" t="s">
         <v>23</v>
@@ -26492,7 +26527,7 @@
     </row>
     <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B494" s="11" t="s">
         <v>23</v>
@@ -26538,7 +26573,7 @@
     </row>
     <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B495" s="11" t="s">
         <v>23</v>
@@ -26584,7 +26619,7 @@
     </row>
     <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B496" s="11" t="s">
         <v>23</v>
@@ -26630,7 +26665,7 @@
     </row>
     <row r="497" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A497" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B497" s="11" t="s">
         <v>23</v>
@@ -26676,7 +26711,7 @@
     </row>
     <row r="498" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B498" s="11" t="s">
         <v>23</v>
@@ -26722,7 +26757,7 @@
     </row>
     <row r="499" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A499" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B499" s="11" t="s">
         <v>23</v>
@@ -26768,7 +26803,7 @@
     </row>
     <row r="500" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A500" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B500" s="11" t="s">
         <v>23</v>
@@ -26814,7 +26849,7 @@
     </row>
     <row r="501" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A501" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B501" s="11" t="s">
         <v>23</v>
@@ -26860,7 +26895,7 @@
     </row>
     <row r="502" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A502" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B502" s="11" t="s">
         <v>23</v>
@@ -26906,7 +26941,7 @@
     </row>
     <row r="503" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A503" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B503" s="11" t="s">
         <v>23</v>
@@ -26952,7 +26987,7 @@
     </row>
     <row r="504" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A504" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B504" s="27" t="s">
         <v>58</v>
@@ -26998,7 +27033,7 @@
     </row>
     <row r="505" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A505" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B505" s="27" t="s">
         <v>58</v>
@@ -27044,7 +27079,7 @@
     </row>
     <row r="506" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A506" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B506" s="27" t="s">
         <v>58</v>
@@ -27090,7 +27125,7 @@
     </row>
     <row r="507" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A507" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B507" s="27" t="s">
         <v>58</v>
@@ -27136,7 +27171,7 @@
     </row>
     <row r="508" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A508" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B508" s="27" t="s">
         <v>58</v>
@@ -27182,7 +27217,7 @@
     </row>
     <row r="509" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A509" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B509" s="27" t="s">
         <v>58</v>
@@ -27228,7 +27263,7 @@
     </row>
     <row r="510" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A510" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B510" s="27" t="s">
         <v>58</v>
@@ -27274,7 +27309,7 @@
     </row>
     <row r="511" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A511" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B511" s="27" t="s">
         <v>58</v>
@@ -27320,7 +27355,7 @@
     </row>
     <row r="512" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A512" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B512" s="27" t="s">
         <v>58</v>
@@ -27366,7 +27401,7 @@
     </row>
     <row r="513" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A513" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B513" s="27" t="s">
         <v>58</v>
@@ -27412,7 +27447,7 @@
     </row>
     <row r="514" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A514" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B514" s="27" t="s">
         <v>58</v>
@@ -27458,7 +27493,7 @@
     </row>
     <row r="515" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A515" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B515" s="27" t="s">
         <v>58</v>
@@ -27504,7 +27539,7 @@
     </row>
     <row r="516" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A516" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B516" s="25" t="s">
         <v>61</v>
@@ -27550,7 +27585,7 @@
     </row>
     <row r="517" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A517" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B517" s="25" t="s">
         <v>61</v>
@@ -27596,7 +27631,7 @@
     </row>
     <row r="518" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A518" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B518" s="26" t="s">
         <v>116</v>
@@ -27642,7 +27677,7 @@
     </row>
     <row r="519" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B519" s="26" t="s">
         <v>116</v>
@@ -27688,7 +27723,7 @@
     </row>
     <row r="520" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B520" s="26" t="s">
         <v>116</v>
@@ -27734,7 +27769,7 @@
     </row>
     <row r="521" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A521" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B521" s="26" t="s">
         <v>116</v>
@@ -27780,7 +27815,7 @@
     </row>
     <row r="522" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A522" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B522" s="26" t="s">
         <v>116</v>
@@ -27826,7 +27861,7 @@
     </row>
     <row r="523" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A523" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B523" s="26" t="s">
         <v>116</v>
@@ -27872,7 +27907,7 @@
     </row>
     <row r="524" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B524" s="26" t="s">
         <v>116</v>
@@ -27918,7 +27953,7 @@
     </row>
     <row r="525" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B525" s="9" t="s">
         <v>35</v>
@@ -27980,7 +28015,7 @@
     </row>
     <row r="526" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B526" s="9" t="s">
         <v>35</v>
@@ -28042,7 +28077,7 @@
     </row>
     <row r="527" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B527" s="9" t="s">
         <v>35</v>
@@ -28104,7 +28139,7 @@
     </row>
     <row r="528" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B528" s="9" t="s">
         <v>35</v>
@@ -28166,7 +28201,7 @@
     </row>
     <row r="529" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B529" s="9" t="s">
         <v>35</v>
@@ -28228,7 +28263,7 @@
     </row>
     <row r="530" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B530" s="9" t="s">
         <v>35</v>
@@ -28290,7 +28325,7 @@
     </row>
     <row r="531" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B531" s="9" t="s">
         <v>35</v>
@@ -28352,7 +28387,7 @@
     </row>
     <row r="532" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B532" s="9" t="s">
         <v>35</v>
@@ -28400,7 +28435,7 @@
     </row>
     <row r="533" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B533" s="9" t="s">
         <v>35</v>
@@ -28448,7 +28483,7 @@
     </row>
     <row r="534" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B534" s="9" t="s">
         <v>35</v>
@@ -28496,7 +28531,7 @@
     </row>
     <row r="535" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B535" s="9" t="s">
         <v>35</v>
@@ -28544,7 +28579,7 @@
     </row>
     <row r="536" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B536" s="9" t="s">
         <v>35</v>
@@ -28592,7 +28627,7 @@
     </row>
     <row r="537" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B537" s="9" t="s">
         <v>35</v>
@@ -28640,7 +28675,7 @@
     </row>
     <row r="538" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B538" s="14" t="s">
         <v>41</v>
@@ -28686,7 +28721,7 @@
     </row>
     <row r="539" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B539" s="20" t="s">
         <v>19</v>
@@ -28746,7 +28781,7 @@
     </row>
     <row r="540" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B540" s="20" t="s">
         <v>19</v>
@@ -28806,7 +28841,7 @@
     </row>
     <row r="541" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B541" s="17" t="s">
         <v>20</v>
@@ -28866,7 +28901,7 @@
     </row>
     <row r="542" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B542" s="17" t="s">
         <v>20</v>
@@ -28926,7 +28961,7 @@
     </row>
     <row r="543" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B543" s="17" t="s">
         <v>20</v>
@@ -28986,7 +29021,7 @@
     </row>
     <row r="544" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B544" s="17" t="s">
         <v>20</v>
@@ -29046,7 +29081,7 @@
     </row>
     <row r="545" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B545" s="17" t="s">
         <v>20</v>
@@ -29092,7 +29127,7 @@
     </row>
     <row r="546" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B546" s="17" t="s">
         <v>20</v>
@@ -29138,7 +29173,7 @@
     </row>
     <row r="547" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A547" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B547" s="11" t="s">
         <v>23</v>
@@ -29184,7 +29219,7 @@
     </row>
     <row r="548" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A548" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B548" s="11" t="s">
         <v>23</v>
@@ -29230,7 +29265,7 @@
     </row>
     <row r="549" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A549" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B549" s="11" t="s">
         <v>23</v>
@@ -29276,7 +29311,7 @@
     </row>
     <row r="550" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B550" s="11" t="s">
         <v>23</v>
@@ -29322,7 +29357,7 @@
     </row>
     <row r="551" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B551" s="9" t="s">
         <v>35</v>
@@ -29382,7 +29417,7 @@
     </row>
     <row r="552" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B552" s="9" t="s">
         <v>35</v>
@@ -29442,7 +29477,7 @@
     </row>
     <row r="553" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B553" s="9" t="s">
         <v>35</v>
@@ -29502,7 +29537,7 @@
     </row>
     <row r="554" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B554" s="9" t="s">
         <v>35</v>
@@ -29562,7 +29597,7 @@
     </row>
     <row r="555" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B555" s="9" t="s">
         <v>35</v>
@@ -29622,7 +29657,7 @@
     </row>
     <row r="556" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B556" s="9" t="s">
         <v>35</v>
@@ -29682,7 +29717,7 @@
     </row>
     <row r="557" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B557" s="18" t="s">
         <v>21</v>
@@ -29742,7 +29777,7 @@
     </row>
     <row r="558" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B558" s="18" t="s">
         <v>21</v>
@@ -29802,7 +29837,7 @@
     </row>
     <row r="559" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A559" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B559" s="18" t="s">
         <v>21</v>
@@ -29862,7 +29897,7 @@
     </row>
     <row r="560" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A560" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B560" s="18" t="s">
         <v>21</v>
@@ -29908,7 +29943,7 @@
     </row>
     <row r="561" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A561" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B561" s="19" t="s">
         <v>22</v>
@@ -29968,7 +30003,7 @@
     </row>
     <row r="562" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A562" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B562" s="19" t="s">
         <v>22</v>
@@ -30028,7 +30063,7 @@
     </row>
     <row r="563" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A563" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B563" s="19" t="s">
         <v>22</v>
@@ -30088,7 +30123,7 @@
     </row>
     <row r="564" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A564" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B564" s="19" t="s">
         <v>22</v>
@@ -30134,7 +30169,7 @@
     </row>
     <row r="565" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A565" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B565" s="19" t="s">
         <v>22</v>
@@ -30180,7 +30215,7 @@
     </row>
     <row r="566" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A566" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B566" s="19" t="s">
         <v>22</v>
@@ -30226,7 +30261,7 @@
     </row>
     <row r="567" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A567" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B567" s="19" t="s">
         <v>22</v>
@@ -30272,7 +30307,7 @@
     </row>
     <row r="568" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A568" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B568" s="19" t="s">
         <v>22</v>
@@ -30318,7 +30353,7 @@
     </row>
     <row r="569" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A569" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B569" s="19" t="s">
         <v>22</v>
@@ -30364,7 +30399,7 @@
     </row>
     <row r="570" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A570" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B570" s="19" t="s">
         <v>22</v>
@@ -30410,7 +30445,7 @@
     </row>
     <row r="571" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A571" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B571" s="19" t="s">
         <v>22</v>
@@ -30456,7 +30491,7 @@
     </row>
     <row r="572" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A572" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B572" s="19" t="s">
         <v>22</v>
@@ -30465,7 +30500,7 @@
         <v>22</v>
       </c>
       <c r="D572" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E572" s="19">
         <v>468</v>
@@ -30502,7 +30537,7 @@
     </row>
     <row r="573" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A573" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B573" s="19" t="s">
         <v>22</v>
@@ -30548,7 +30583,7 @@
     </row>
     <row r="574" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A574" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B574" s="19" t="s">
         <v>22</v>
@@ -30594,7 +30629,7 @@
     </row>
     <row r="575" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A575" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B575" s="19" t="s">
         <v>22</v>
@@ -30640,7 +30675,7 @@
     </row>
     <row r="576" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A576" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B576" s="19" t="s">
         <v>22</v>
@@ -30686,7 +30721,7 @@
     </row>
     <row r="577" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A577" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B577" s="19" t="s">
         <v>22</v>
@@ -30732,7 +30767,7 @@
     </row>
     <row r="578" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A578" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B578" s="11" t="s">
         <v>23</v>
@@ -30778,7 +30813,7 @@
     </row>
     <row r="579" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A579" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B579" s="11" t="s">
         <v>23</v>
@@ -30824,7 +30859,7 @@
     </row>
     <row r="580" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A580" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B580" s="11" t="s">
         <v>23</v>
@@ -30870,7 +30905,7 @@
     </row>
     <row r="581" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A581" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B581" s="11" t="s">
         <v>23</v>
@@ -30916,7 +30951,7 @@
     </row>
     <row r="582" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A582" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B582" s="27" t="s">
         <v>58</v>
@@ -30962,7 +30997,7 @@
     </row>
     <row r="583" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A583" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B583" s="27" t="s">
         <v>58</v>
@@ -31008,7 +31043,7 @@
     </row>
     <row r="584" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A584" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B584" s="27" t="s">
         <v>58</v>
@@ -31054,7 +31089,7 @@
     </row>
     <row r="585" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A585" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B585" s="27" t="s">
         <v>58</v>
@@ -31100,7 +31135,7 @@
     </row>
     <row r="586" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A586" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B586" s="27" t="s">
         <v>58</v>
@@ -31146,7 +31181,7 @@
     </row>
     <row r="587" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A587" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B587" s="27" t="s">
         <v>58</v>
@@ -31192,7 +31227,7 @@
     </row>
     <row r="588" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A588" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B588" s="27" t="s">
         <v>58</v>
@@ -31238,7 +31273,7 @@
     </row>
     <row r="589" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A589" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B589" s="27" t="s">
         <v>58</v>
@@ -31284,7 +31319,7 @@
     </row>
     <row r="590" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A590" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B590" s="27" t="s">
         <v>58</v>
@@ -31330,7 +31365,7 @@
     </row>
     <row r="591" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A591" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B591" s="27" t="s">
         <v>58</v>
@@ -31376,7 +31411,7 @@
     </row>
     <row r="592" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A592" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B592" s="27" t="s">
         <v>58</v>
@@ -31422,7 +31457,7 @@
     </row>
     <row r="593" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B593" s="27" t="s">
         <v>58</v>
@@ -31468,7 +31503,7 @@
     </row>
     <row r="594" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B594" s="9" t="s">
         <v>35</v>
@@ -31528,7 +31563,7 @@
     </row>
     <row r="595" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B595" s="9" t="s">
         <v>35</v>
@@ -31588,7 +31623,7 @@
     </row>
     <row r="596" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B596" s="9" t="s">
         <v>35</v>
@@ -31648,7 +31683,7 @@
     </row>
     <row r="597" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B597" s="9" t="s">
         <v>35</v>
@@ -31708,7 +31743,7 @@
     </row>
     <row r="598" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B598" s="9" t="s">
         <v>35</v>
@@ -31768,7 +31803,7 @@
     </row>
     <row r="599" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B599" s="9" t="s">
         <v>35</v>
@@ -31828,7 +31863,7 @@
     </row>
     <row r="600" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B600" s="18" t="s">
         <v>21</v>
@@ -31888,7 +31923,7 @@
     </row>
     <row r="601" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B601" s="18" t="s">
         <v>21</v>
@@ -31948,7 +31983,7 @@
     </row>
     <row r="602" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B602" s="18" t="s">
         <v>21</v>
@@ -32008,7 +32043,7 @@
     </row>
     <row r="603" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B603" s="18" t="s">
         <v>21</v>
@@ -32054,7 +32089,7 @@
     </row>
     <row r="604" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B604" s="19" t="s">
         <v>22</v>
@@ -32114,7 +32149,7 @@
     </row>
     <row r="605" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B605" s="19" t="s">
         <v>22</v>
@@ -32174,7 +32209,7 @@
     </row>
     <row r="606" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B606" s="19" t="s">
         <v>22</v>
@@ -32234,7 +32269,7 @@
     </row>
     <row r="607" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B607" s="19" t="s">
         <v>22</v>
@@ -32280,7 +32315,7 @@
     </row>
     <row r="608" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B608" s="19" t="s">
         <v>22</v>
@@ -32326,7 +32361,7 @@
     </row>
     <row r="609" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B609" s="19" t="s">
         <v>22</v>
@@ -32372,7 +32407,7 @@
     </row>
     <row r="610" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B610" s="19" t="s">
         <v>22</v>
@@ -32418,7 +32453,7 @@
     </row>
     <row r="611" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B611" s="19" t="s">
         <v>22</v>
@@ -32427,7 +32462,7 @@
         <v>22</v>
       </c>
       <c r="D611" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E611" s="19">
         <v>501</v>
@@ -32464,7 +32499,7 @@
     </row>
     <row r="612" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B612" s="19" t="s">
         <v>22</v>
@@ -32510,7 +32545,7 @@
     </row>
     <row r="613" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B613" s="19" t="s">
         <v>22</v>
@@ -32556,7 +32591,7 @@
     </row>
     <row r="614" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B614" s="19" t="s">
         <v>22</v>
@@ -32602,7 +32637,7 @@
     </row>
     <row r="615" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B615" s="19" t="s">
         <v>22</v>
@@ -32648,7 +32683,7 @@
     </row>
     <row r="616" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B616" s="19" t="s">
         <v>22</v>
@@ -32694,7 +32729,7 @@
     </row>
     <row r="617" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B617" s="19" t="s">
         <v>22</v>
@@ -32740,7 +32775,7 @@
     </row>
     <row r="618" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B618" s="19" t="s">
         <v>22</v>
@@ -32786,7 +32821,7 @@
     </row>
     <row r="619" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B619" s="19" t="s">
         <v>22</v>
@@ -32832,7 +32867,7 @@
     </row>
     <row r="620" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B620" s="19" t="s">
         <v>22</v>
@@ -32878,7 +32913,7 @@
     </row>
     <row r="621" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B621" s="19" t="s">
         <v>22</v>
@@ -32924,7 +32959,7 @@
     </row>
     <row r="622" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B622" s="11" t="s">
         <v>23</v>
@@ -32970,7 +33005,7 @@
     </row>
     <row r="623" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B623" s="11" t="s">
         <v>23</v>
@@ -33016,7 +33051,7 @@
     </row>
     <row r="624" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B624" s="11" t="s">
         <v>23</v>
@@ -33062,7 +33097,7 @@
     </row>
     <row r="625" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B625" s="11" t="s">
         <v>23</v>
@@ -33108,7 +33143,7 @@
     </row>
     <row r="626" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B626" s="27" t="s">
         <v>58</v>
@@ -33154,7 +33189,7 @@
     </row>
     <row r="627" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B627" s="27" t="s">
         <v>58</v>
@@ -33200,7 +33235,7 @@
     </row>
     <row r="628" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B628" s="27" t="s">
         <v>58</v>
@@ -33246,7 +33281,7 @@
     </row>
     <row r="629" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B629" s="27" t="s">
         <v>58</v>
@@ -33292,7 +33327,7 @@
     </row>
     <row r="630" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B630" s="27" t="s">
         <v>58</v>
@@ -33338,7 +33373,7 @@
     </row>
     <row r="631" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B631" s="27" t="s">
         <v>58</v>
@@ -33384,7 +33419,7 @@
     </row>
     <row r="632" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B632" s="27" t="s">
         <v>58</v>
@@ -33430,7 +33465,7 @@
     </row>
     <row r="633" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B633" s="27" t="s">
         <v>58</v>
@@ -33476,7 +33511,7 @@
     </row>
     <row r="634" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B634" s="27" t="s">
         <v>58</v>
@@ -33522,7 +33557,7 @@
     </row>
     <row r="635" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B635" s="27" t="s">
         <v>58</v>
@@ -33568,7 +33603,7 @@
     </row>
     <row r="636" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B636" s="27" t="s">
         <v>58</v>
@@ -33614,7 +33649,7 @@
     </row>
     <row r="637" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B637" s="27" t="s">
         <v>58</v>
@@ -33660,7 +33695,7 @@
     </row>
     <row r="638" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B638" s="27" t="s">
         <v>24</v>
@@ -33706,7 +33741,7 @@
     </row>
     <row r="639" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B639" s="27" t="s">
         <v>24</v>
@@ -33752,7 +33787,7 @@
     </row>
     <row r="640" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A640" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B640" s="9" t="s">
         <v>35</v>
@@ -33812,7 +33847,7 @@
     </row>
     <row r="641" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A641" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B641" s="9" t="s">
         <v>35</v>
@@ -33872,7 +33907,7 @@
     </row>
     <row r="642" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B642" s="9" t="s">
         <v>35</v>
@@ -33932,7 +33967,7 @@
     </row>
     <row r="643" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A643" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B643" s="9" t="s">
         <v>35</v>
@@ -33994,7 +34029,7 @@
     </row>
     <row r="644" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A644" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B644" s="9" t="s">
         <v>35</v>
@@ -34056,7 +34091,7 @@
     </row>
     <row r="645" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B645" s="9" t="s">
         <v>35</v>
@@ -34118,7 +34153,7 @@
     </row>
     <row r="646" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A646" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B646" s="9" t="s">
         <v>35</v>
@@ -34180,7 +34215,7 @@
     </row>
     <row r="647" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A647" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B647" s="9" t="s">
         <v>35</v>
@@ -34226,7 +34261,7 @@
     </row>
     <row r="648" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A648" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B648" s="9" t="s">
         <v>35</v>
@@ -34272,7 +34307,7 @@
     </row>
     <row r="649" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A649" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B649" s="9" t="s">
         <v>35</v>
@@ -34318,7 +34353,7 @@
     </row>
     <row r="650" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A650" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B650" s="9" t="s">
         <v>35</v>
@@ -34364,7 +34399,7 @@
     </row>
     <row r="651" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A651" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B651" s="9" t="s">
         <v>35</v>
@@ -34410,7 +34445,7 @@
     </row>
     <row r="652" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A652" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B652" s="9" t="s">
         <v>35</v>
@@ -34456,7 +34491,7 @@
     </row>
     <row r="653" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A653" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B653" s="14" t="s">
         <v>41</v>
@@ -34502,7 +34537,7 @@
     </row>
     <row r="654" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A654" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B654" s="20" t="s">
         <v>19</v>
@@ -34562,7 +34597,7 @@
     </row>
     <row r="655" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A655" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B655" s="20" t="s">
         <v>19</v>
@@ -34622,7 +34657,7 @@
     </row>
     <row r="656" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A656" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B656" s="17" t="s">
         <v>20</v>
@@ -34682,7 +34717,7 @@
     </row>
     <row r="657" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A657" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B657" s="17" t="s">
         <v>20</v>
@@ -34742,7 +34777,7 @@
     </row>
     <row r="658" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A658" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B658" s="17" t="s">
         <v>20</v>
@@ -34802,7 +34837,7 @@
     </row>
     <row r="659" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A659" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B659" s="17" t="s">
         <v>20</v>
@@ -34862,7 +34897,7 @@
     </row>
     <row r="660" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A660" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B660" s="18" t="s">
         <v>21</v>
@@ -34922,7 +34957,7 @@
     </row>
     <row r="661" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A661" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B661" s="18" t="s">
         <v>21</v>
@@ -34982,7 +35017,7 @@
     </row>
     <row r="662" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A662" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B662" s="18" t="s">
         <v>21</v>
@@ -35042,7 +35077,7 @@
     </row>
     <row r="663" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A663" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B663" s="18" t="s">
         <v>21</v>
@@ -35102,7 +35137,7 @@
     </row>
     <row r="664" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A664" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B664" s="19" t="s">
         <v>22</v>
@@ -35162,7 +35197,7 @@
     </row>
     <row r="665" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A665" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B665" s="19" t="s">
         <v>22</v>
@@ -35222,7 +35257,7 @@
     </row>
     <row r="666" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A666" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B666" s="19" t="s">
         <v>22</v>
@@ -35282,7 +35317,7 @@
     </row>
     <row r="667" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A667" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B667" s="19" t="s">
         <v>22</v>
@@ -35328,7 +35363,7 @@
     </row>
     <row r="668" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A668" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B668" s="11" t="s">
         <v>23</v>
@@ -35374,7 +35409,7 @@
     </row>
     <row r="669" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A669" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B669" s="11" t="s">
         <v>23</v>
@@ -35420,7 +35455,7 @@
     </row>
     <row r="670" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A670" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B670" s="11" t="s">
         <v>23</v>
@@ -35466,7 +35501,7 @@
     </row>
     <row r="671" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A671" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B671" s="11" t="s">
         <v>23</v>
@@ -35512,7 +35547,7 @@
     </row>
     <row r="672" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A672" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B672" s="11" t="s">
         <v>23</v>
@@ -35558,7 +35593,7 @@
     </row>
     <row r="673" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A673" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B673" s="11" t="s">
         <v>23</v>
@@ -35604,7 +35639,7 @@
     </row>
     <row r="674" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A674" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B674" s="11" t="s">
         <v>23</v>
@@ -35650,7 +35685,7 @@
     </row>
     <row r="675" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A675" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B675" s="11" t="s">
         <v>23</v>
@@ -35696,7 +35731,7 @@
     </row>
     <row r="676" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A676" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B676" s="27" t="s">
         <v>58</v>
@@ -35742,7 +35777,7 @@
     </row>
     <row r="677" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A677" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B677" s="27" t="s">
         <v>58</v>
@@ -35788,7 +35823,7 @@
     </row>
     <row r="678" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A678" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B678" s="27" t="s">
         <v>58</v>
@@ -35834,7 +35869,7 @@
     </row>
     <row r="679" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A679" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B679" s="27" t="s">
         <v>58</v>
@@ -35880,7 +35915,7 @@
     </row>
     <row r="680" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A680" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B680" s="27" t="s">
         <v>58</v>
@@ -35926,7 +35961,7 @@
     </row>
     <row r="681" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A681" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B681" s="27" t="s">
         <v>58</v>
@@ -35972,7 +36007,7 @@
     </row>
     <row r="682" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A682" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B682" s="27" t="s">
         <v>58</v>
@@ -36018,7 +36053,7 @@
     </row>
     <row r="683" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A683" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B683" s="27" t="s">
         <v>58</v>
@@ -36064,7 +36099,7 @@
     </row>
     <row r="684" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A684" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B684" s="27" t="s">
         <v>58</v>
@@ -36110,7 +36145,7 @@
     </row>
     <row r="685" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A685" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B685" s="25" t="s">
         <v>61</v>
@@ -36156,7 +36191,7 @@
     </row>
     <row r="686" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A686" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B686" s="25" t="s">
         <v>61</v>
@@ -36202,7 +36237,7 @@
     </row>
     <row r="687" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A687" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B687" s="25" t="s">
         <v>61</v>
@@ -36248,7 +36283,7 @@
     </row>
     <row r="688" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A688" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B688" s="26" t="s">
         <v>24</v>
@@ -36294,7 +36329,7 @@
     </row>
     <row r="689" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A689" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B689" s="26" t="s">
         <v>24</v>
@@ -36340,7 +36375,7 @@
     </row>
     <row r="690" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A690" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B690" s="26" t="s">
         <v>24</v>
@@ -36386,7 +36421,7 @@
     </row>
     <row r="691" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B691" s="2" t="s">
         <v>116</v>
@@ -36432,7 +36467,7 @@
     </row>
     <row r="692" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A692" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B692" s="9" t="s">
         <v>35</v>
@@ -36492,7 +36527,7 @@
     </row>
     <row r="693" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A693" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B693" s="9" t="s">
         <v>35</v>
@@ -36552,7 +36587,7 @@
     </row>
     <row r="694" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A694" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B694" s="9" t="s">
         <v>35</v>
@@ -36612,7 +36647,7 @@
     </row>
     <row r="695" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A695" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B695" s="9" t="s">
         <v>35</v>
@@ -36674,7 +36709,7 @@
     </row>
     <row r="696" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A696" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B696" s="9" t="s">
         <v>35</v>
@@ -36736,7 +36771,7 @@
     </row>
     <row r="697" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A697" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B697" s="9" t="s">
         <v>35</v>
@@ -36798,7 +36833,7 @@
     </row>
     <row r="698" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A698" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B698" s="9" t="s">
         <v>35</v>
@@ -36860,7 +36895,7 @@
     </row>
     <row r="699" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A699" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B699" s="9" t="s">
         <v>35</v>
@@ -36906,7 +36941,7 @@
     </row>
     <row r="700" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A700" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B700" s="9" t="s">
         <v>35</v>
@@ -36952,7 +36987,7 @@
     </row>
     <row r="701" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A701" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B701" s="9" t="s">
         <v>35</v>
@@ -36998,7 +37033,7 @@
     </row>
     <row r="702" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A702" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B702" s="9" t="s">
         <v>35</v>
@@ -37044,7 +37079,7 @@
     </row>
     <row r="703" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A703" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B703" s="9" t="s">
         <v>35</v>
@@ -37090,7 +37125,7 @@
     </row>
     <row r="704" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A704" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B704" s="9" t="s">
         <v>35</v>
@@ -37136,7 +37171,7 @@
     </row>
     <row r="705" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A705" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B705" s="14" t="s">
         <v>41</v>
@@ -37182,7 +37217,7 @@
     </row>
     <row r="706" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A706" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B706" s="20" t="s">
         <v>19</v>
@@ -37242,7 +37277,7 @@
     </row>
     <row r="707" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A707" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B707" s="20" t="s">
         <v>19</v>
@@ -37302,7 +37337,7 @@
     </row>
     <row r="708" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A708" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B708" s="17" t="s">
         <v>20</v>
@@ -37362,7 +37397,7 @@
     </row>
     <row r="709" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A709" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B709" s="17" t="s">
         <v>20</v>
@@ -37422,7 +37457,7 @@
     </row>
     <row r="710" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A710" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B710" s="17" t="s">
         <v>20</v>
@@ -37482,7 +37517,7 @@
     </row>
     <row r="711" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A711" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B711" s="17" t="s">
         <v>20</v>
@@ -37542,7 +37577,7 @@
     </row>
     <row r="712" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A712" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B712" s="18" t="s">
         <v>21</v>
@@ -37602,7 +37637,7 @@
     </row>
     <row r="713" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A713" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B713" s="18" t="s">
         <v>21</v>
@@ -37662,7 +37697,7 @@
     </row>
     <row r="714" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A714" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B714" s="18" t="s">
         <v>21</v>
@@ -37722,7 +37757,7 @@
     </row>
     <row r="715" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A715" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B715" s="18" t="s">
         <v>21</v>
@@ -37782,7 +37817,7 @@
     </row>
     <row r="716" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A716" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B716" s="19" t="s">
         <v>22</v>
@@ -37842,7 +37877,7 @@
     </row>
     <row r="717" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A717" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B717" s="19" t="s">
         <v>22</v>
@@ -37902,7 +37937,7 @@
     </row>
     <row r="718" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A718" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B718" s="19" t="s">
         <v>22</v>
@@ -37962,7 +37997,7 @@
     </row>
     <row r="719" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A719" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B719" s="19" t="s">
         <v>22</v>
@@ -38008,7 +38043,7 @@
     </row>
     <row r="720" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A720" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B720" s="11" t="s">
         <v>23</v>
@@ -38054,7 +38089,7 @@
     </row>
     <row r="721" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A721" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B721" s="11" t="s">
         <v>23</v>
@@ -38100,7 +38135,7 @@
     </row>
     <row r="722" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A722" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B722" s="11" t="s">
         <v>23</v>
@@ -38146,7 +38181,7 @@
     </row>
     <row r="723" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A723" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B723" s="11" t="s">
         <v>23</v>
@@ -38192,7 +38227,7 @@
     </row>
     <row r="724" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A724" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B724" s="11" t="s">
         <v>23</v>
@@ -38238,7 +38273,7 @@
     </row>
     <row r="725" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A725" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B725" s="11" t="s">
         <v>23</v>
@@ -38284,7 +38319,7 @@
     </row>
     <row r="726" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A726" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B726" s="11" t="s">
         <v>23</v>
@@ -38330,7 +38365,7 @@
     </row>
     <row r="727" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A727" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B727" s="11" t="s">
         <v>23</v>
@@ -38376,7 +38411,7 @@
     </row>
     <row r="728" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A728" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B728" s="27" t="s">
         <v>58</v>
@@ -38422,7 +38457,7 @@
     </row>
     <row r="729" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A729" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B729" s="27" t="s">
         <v>58</v>
@@ -38468,7 +38503,7 @@
     </row>
     <row r="730" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A730" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B730" s="27" t="s">
         <v>58</v>
@@ -38514,7 +38549,7 @@
     </row>
     <row r="731" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A731" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B731" s="27" t="s">
         <v>58</v>
@@ -38560,7 +38595,7 @@
     </row>
     <row r="732" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A732" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B732" s="27" t="s">
         <v>58</v>
@@ -38606,7 +38641,7 @@
     </row>
     <row r="733" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A733" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B733" s="27" t="s">
         <v>58</v>
@@ -38652,7 +38687,7 @@
     </row>
     <row r="734" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A734" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B734" s="27" t="s">
         <v>58</v>
@@ -38698,7 +38733,7 @@
     </row>
     <row r="735" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A735" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B735" s="27" t="s">
         <v>58</v>
@@ -38744,7 +38779,7 @@
     </row>
     <row r="736" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A736" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B736" s="27" t="s">
         <v>58</v>
@@ -38790,7 +38825,7 @@
     </row>
     <row r="737" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A737" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B737" s="25" t="s">
         <v>61</v>
@@ -38836,7 +38871,7 @@
     </row>
     <row r="738" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A738" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B738" s="25" t="s">
         <v>61</v>
@@ -38882,7 +38917,7 @@
     </row>
     <row r="739" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A739" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B739" s="25" t="s">
         <v>61</v>
@@ -38928,7 +38963,7 @@
     </row>
     <row r="740" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A740" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B740" s="26" t="s">
         <v>24</v>
@@ -38974,7 +39009,7 @@
     </row>
     <row r="741" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A741" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B741" s="26" t="s">
         <v>24</v>
@@ -39020,7 +39055,7 @@
     </row>
     <row r="742" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A742" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B742" s="26" t="s">
         <v>24</v>
@@ -39066,7 +39101,7 @@
     </row>
     <row r="743" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B743" s="52" t="s">
         <v>116</v>
@@ -39112,7 +39147,7 @@
     </row>
     <row r="744" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A744" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B744" s="52" t="s">
         <v>116</v>
@@ -39158,7 +39193,7 @@
     </row>
     <row r="745" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A745" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B745" s="9" t="s">
         <v>35</v>
@@ -39218,7 +39253,7 @@
     </row>
     <row r="746" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A746" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B746" s="9" t="s">
         <v>35</v>
@@ -39278,7 +39313,7 @@
     </row>
     <row r="747" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A747" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B747" s="9" t="s">
         <v>35</v>
@@ -39338,7 +39373,7 @@
     </row>
     <row r="748" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A748" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B748" s="9" t="s">
         <v>35</v>
@@ -39400,7 +39435,7 @@
     </row>
     <row r="749" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A749" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B749" s="9" t="s">
         <v>35</v>
@@ -39462,7 +39497,7 @@
     </row>
     <row r="750" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A750" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B750" s="9" t="s">
         <v>35</v>
@@ -39524,7 +39559,7 @@
     </row>
     <row r="751" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A751" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B751" s="14" t="s">
         <v>41</v>
@@ -39570,7 +39605,7 @@
     </row>
     <row r="752" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A752" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B752" s="11" t="s">
         <v>23</v>
@@ -39616,7 +39651,7 @@
     </row>
     <row r="753" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A753" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B753" s="11" t="s">
         <v>23</v>
@@ -39662,7 +39697,7 @@
     </row>
     <row r="754" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A754" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B754" s="11" t="s">
         <v>23</v>
@@ -39708,7 +39743,7 @@
     </row>
     <row r="755" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A755" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B755" s="11" t="s">
         <v>23</v>
@@ -39754,7 +39789,7 @@
     </row>
     <row r="756" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A756" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B756" s="26" t="s">
         <v>24</v>
@@ -39800,7 +39835,7 @@
     </row>
     <row r="757" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B757" s="26" t="s">
         <v>24</v>
@@ -39846,7 +39881,7 @@
     </row>
     <row r="758" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A758" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B758" s="9" t="s">
         <v>35</v>
@@ -39906,7 +39941,7 @@
     </row>
     <row r="759" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A759" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B759" s="9" t="s">
         <v>35</v>
@@ -39966,7 +40001,7 @@
     </row>
     <row r="760" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A760" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B760" s="9" t="s">
         <v>35</v>
@@ -40026,7 +40061,7 @@
     </row>
     <row r="761" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A761" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B761" s="9" t="s">
         <v>35</v>
@@ -40072,7 +40107,7 @@
     </row>
     <row r="762" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A762" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B762" s="9" t="s">
         <v>35</v>
@@ -40134,7 +40169,7 @@
     </row>
     <row r="763" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A763" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B763" s="9" t="s">
         <v>35</v>
@@ -40196,7 +40231,7 @@
     </row>
     <row r="764" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A764" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B764" s="9" t="s">
         <v>35</v>
@@ -40258,7 +40293,7 @@
     </row>
     <row r="765" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A765" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B765" s="9" t="s">
         <v>35</v>
@@ -40320,7 +40355,7 @@
     </row>
     <row r="766" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A766" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B766" s="9" t="s">
         <v>35</v>
@@ -40366,7 +40401,7 @@
     </row>
     <row r="767" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A767" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B767" s="9" t="s">
         <v>35</v>
@@ -40412,7 +40447,7 @@
     </row>
     <row r="768" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A768" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B768" s="9" t="s">
         <v>35</v>
@@ -40458,7 +40493,7 @@
     </row>
     <row r="769" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A769" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B769" s="9" t="s">
         <v>35</v>
@@ -40504,7 +40539,7 @@
     </row>
     <row r="770" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A770" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B770" s="9" t="s">
         <v>35</v>
@@ -40550,7 +40585,7 @@
     </row>
     <row r="771" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A771" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B771" s="9" t="s">
         <v>35</v>
@@ -40596,7 +40631,7 @@
     </row>
     <row r="772" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A772" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B772" s="14" t="s">
         <v>41</v>
@@ -40642,7 +40677,7 @@
     </row>
     <row r="773" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A773" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B773" s="14" t="s">
         <v>41</v>
@@ -40688,7 +40723,7 @@
     </row>
     <row r="774" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A774" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B774" s="14" t="s">
         <v>41</v>
@@ -40734,7 +40769,7 @@
     </row>
     <row r="775" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A775" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B775" s="20" t="s">
         <v>19</v>
@@ -40794,7 +40829,7 @@
     </row>
     <row r="776" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A776" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B776" s="20" t="s">
         <v>19</v>
@@ -40854,7 +40889,7 @@
     </row>
     <row r="777" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A777" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B777" s="17" t="s">
         <v>20</v>
@@ -40914,7 +40949,7 @@
     </row>
     <row r="778" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A778" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B778" s="17" t="s">
         <v>20</v>
@@ -40974,7 +41009,7 @@
     </row>
     <row r="779" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A779" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B779" s="17" t="s">
         <v>20</v>
@@ -41034,7 +41069,7 @@
     </row>
     <row r="780" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A780" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B780" s="17" t="s">
         <v>20</v>
@@ -41094,7 +41129,7 @@
     </row>
     <row r="781" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A781" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B781" s="17" t="s">
         <v>20</v>
@@ -41140,7 +41175,7 @@
     </row>
     <row r="782" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A782" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B782" s="17" t="s">
         <v>20</v>
@@ -41186,7 +41221,7 @@
     </row>
     <row r="783" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A783" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B783" s="18" t="s">
         <v>21</v>
@@ -41246,7 +41281,7 @@
     </row>
     <row r="784" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A784" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B784" s="18" t="s">
         <v>21</v>
@@ -41306,7 +41341,7 @@
     </row>
     <row r="785" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A785" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B785" s="18" t="s">
         <v>21</v>
@@ -41366,7 +41401,7 @@
     </row>
     <row r="786" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A786" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B786" s="18" t="s">
         <v>21</v>
@@ -41426,7 +41461,7 @@
     </row>
     <row r="787" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A787" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B787" s="19" t="s">
         <v>22</v>
@@ -41486,7 +41521,7 @@
     </row>
     <row r="788" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A788" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B788" s="19" t="s">
         <v>22</v>
@@ -41546,7 +41581,7 @@
     </row>
     <row r="789" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A789" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B789" s="19" t="s">
         <v>22</v>
@@ -41606,7 +41641,7 @@
     </row>
     <row r="790" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A790" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B790" s="19" t="s">
         <v>22</v>
@@ -41652,7 +41687,7 @@
     </row>
     <row r="791" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A791" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B791" s="19" t="s">
         <v>22</v>
@@ -41698,7 +41733,7 @@
     </row>
     <row r="792" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A792" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B792" s="19" t="s">
         <v>22</v>
@@ -41744,7 +41779,7 @@
     </row>
     <row r="793" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A793" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B793" s="11" t="s">
         <v>23</v>
@@ -41790,7 +41825,7 @@
     </row>
     <row r="794" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A794" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B794" s="11" t="s">
         <v>23</v>
@@ -41836,7 +41871,7 @@
     </row>
     <row r="795" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A795" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B795" s="11" t="s">
         <v>23</v>
@@ -41882,7 +41917,7 @@
     </row>
     <row r="796" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A796" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B796" s="11" t="s">
         <v>23</v>
@@ -41928,7 +41963,7 @@
     </row>
     <row r="797" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A797" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B797" s="11" t="s">
         <v>23</v>
@@ -41974,7 +42009,7 @@
     </row>
     <row r="798" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A798" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B798" s="11" t="s">
         <v>23</v>
@@ -42020,7 +42055,7 @@
     </row>
     <row r="799" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A799" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B799" s="11" t="s">
         <v>23</v>
@@ -42066,7 +42101,7 @@
     </row>
     <row r="800" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A800" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B800" s="11" t="s">
         <v>23</v>
@@ -42112,7 +42147,7 @@
     </row>
     <row r="801" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A801" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B801" s="11" t="s">
         <v>23</v>
@@ -42158,7 +42193,7 @@
     </row>
     <row r="802" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A802" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B802" s="11" t="s">
         <v>23</v>
@@ -42204,7 +42239,7 @@
     </row>
     <row r="803" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A803" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B803" s="11" t="s">
         <v>23</v>
@@ -42250,7 +42285,7 @@
     </row>
     <row r="804" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A804" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B804" s="11" t="s">
         <v>23</v>
@@ -42296,7 +42331,7 @@
     </row>
     <row r="805" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A805" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B805" s="27" t="s">
         <v>58</v>
@@ -42342,7 +42377,7 @@
     </row>
     <row r="806" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A806" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B806" s="27" t="s">
         <v>58</v>
@@ -42388,7 +42423,7 @@
     </row>
     <row r="807" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A807" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B807" s="27" t="s">
         <v>58</v>
@@ -42434,7 +42469,7 @@
     </row>
     <row r="808" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A808" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B808" s="27" t="s">
         <v>58</v>
@@ -42480,7 +42515,7 @@
     </row>
     <row r="809" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A809" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B809" s="27" t="s">
         <v>58</v>
@@ -42526,7 +42561,7 @@
     </row>
     <row r="810" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A810" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B810" s="27" t="s">
         <v>58</v>
@@ -42572,7 +42607,7 @@
     </row>
     <row r="811" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A811" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B811" s="27" t="s">
         <v>58</v>
@@ -42618,7 +42653,7 @@
     </row>
     <row r="812" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A812" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B812" s="27" t="s">
         <v>58</v>
@@ -42664,7 +42699,7 @@
     </row>
     <row r="813" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A813" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B813" s="27" t="s">
         <v>58</v>
@@ -42710,7 +42745,7 @@
     </row>
     <row r="814" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A814" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B814" s="27" t="s">
         <v>58</v>
@@ -42756,7 +42791,7 @@
     </row>
     <row r="815" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A815" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B815" s="27" t="s">
         <v>58</v>
@@ -42802,7 +42837,7 @@
     </row>
     <row r="816" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A816" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B816" s="27" t="s">
         <v>58</v>
@@ -42848,7 +42883,7 @@
     </row>
     <row r="817" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A817" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B817" s="25" t="s">
         <v>61</v>
@@ -42894,7 +42929,7 @@
     </row>
     <row r="818" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A818" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B818" s="25" t="s">
         <v>61</v>
@@ -42940,7 +42975,7 @@
     </row>
     <row r="819" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A819" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B819" s="52" t="s">
         <v>116</v>
@@ -42986,7 +43021,7 @@
     </row>
     <row r="820" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A820" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B820" s="52" t="s">
         <v>116</v>
@@ -43032,7 +43067,7 @@
     </row>
     <row r="821" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A821" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B821" s="52" t="s">
         <v>116</v>
@@ -43078,7 +43113,7 @@
     </row>
     <row r="822" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A822" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B822" s="52" t="s">
         <v>116</v>
@@ -43124,7 +43159,7 @@
     </row>
     <row r="823" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A823" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B823" s="52" t="s">
         <v>116</v>
@@ -43170,7 +43205,7 @@
     </row>
     <row r="824" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A824" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B824" s="52" t="s">
         <v>116</v>
@@ -43216,7 +43251,7 @@
     </row>
     <row r="825" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A825" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B825" s="52" t="s">
         <v>116</v>
@@ -43262,7 +43297,7 @@
     </row>
     <row r="826" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A826" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B826" s="52" t="s">
         <v>116</v>
@@ -43308,7 +43343,7 @@
     </row>
     <row r="827" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A827" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B827" s="9" t="s">
         <v>35</v>
@@ -43368,7 +43403,7 @@
     </row>
     <row r="828" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A828" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B828" s="9" t="s">
         <v>35</v>
@@ -43428,7 +43463,7 @@
     </row>
     <row r="829" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A829" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B829" s="9" t="s">
         <v>35</v>
@@ -43488,7 +43523,7 @@
     </row>
     <row r="830" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A830" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B830" s="9" t="s">
         <v>35</v>
@@ -43534,7 +43569,7 @@
     </row>
     <row r="831" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A831" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B831" s="9" t="s">
         <v>35</v>
@@ -43596,7 +43631,7 @@
     </row>
     <row r="832" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A832" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B832" s="9" t="s">
         <v>35</v>
@@ -43658,7 +43693,7 @@
     </row>
     <row r="833" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A833" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B833" s="9" t="s">
         <v>35</v>
@@ -43720,7 +43755,7 @@
     </row>
     <row r="834" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A834" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B834" s="9" t="s">
         <v>35</v>
@@ -43782,7 +43817,7 @@
     </row>
     <row r="835" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A835" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B835" s="9" t="s">
         <v>35</v>
@@ -43828,7 +43863,7 @@
     </row>
     <row r="836" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A836" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B836" s="9" t="s">
         <v>35</v>
@@ -43874,7 +43909,7 @@
     </row>
     <row r="837" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A837" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B837" s="9" t="s">
         <v>35</v>
@@ -43920,7 +43955,7 @@
     </row>
     <row r="838" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A838" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B838" s="9" t="s">
         <v>35</v>
@@ -43966,7 +44001,7 @@
     </row>
     <row r="839" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A839" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B839" s="9" t="s">
         <v>35</v>
@@ -44012,7 +44047,7 @@
     </row>
     <row r="840" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A840" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B840" s="9" t="s">
         <v>35</v>
@@ -44058,7 +44093,7 @@
     </row>
     <row r="841" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A841" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B841" s="14" t="s">
         <v>41</v>
@@ -44104,7 +44139,7 @@
     </row>
     <row r="842" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A842" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B842" s="14" t="s">
         <v>41</v>
@@ -44150,7 +44185,7 @@
     </row>
     <row r="843" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A843" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B843" s="14" t="s">
         <v>41</v>
@@ -44196,7 +44231,7 @@
     </row>
     <row r="844" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A844" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B844" s="20" t="s">
         <v>19</v>
@@ -44256,7 +44291,7 @@
     </row>
     <row r="845" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A845" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B845" s="20" t="s">
         <v>19</v>
@@ -44316,7 +44351,7 @@
     </row>
     <row r="846" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A846" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B846" s="17" t="s">
         <v>20</v>
@@ -44376,7 +44411,7 @@
     </row>
     <row r="847" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A847" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B847" s="17" t="s">
         <v>20</v>
@@ -44436,7 +44471,7 @@
     </row>
     <row r="848" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A848" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B848" s="17" t="s">
         <v>20</v>
@@ -44496,7 +44531,7 @@
     </row>
     <row r="849" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A849" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B849" s="17" t="s">
         <v>20</v>
@@ -44556,7 +44591,7 @@
     </row>
     <row r="850" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A850" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B850" s="17" t="s">
         <v>20</v>
@@ -44602,7 +44637,7 @@
     </row>
     <row r="851" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A851" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B851" s="17" t="s">
         <v>20</v>
@@ -44648,7 +44683,7 @@
     </row>
     <row r="852" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A852" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B852" s="18" t="s">
         <v>21</v>
@@ -44708,7 +44743,7 @@
     </row>
     <row r="853" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A853" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B853" s="18" t="s">
         <v>21</v>
@@ -44768,7 +44803,7 @@
     </row>
     <row r="854" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A854" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B854" s="18" t="s">
         <v>21</v>
@@ -44828,7 +44863,7 @@
     </row>
     <row r="855" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A855" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B855" s="19" t="s">
         <v>22</v>
@@ -44888,7 +44923,7 @@
     </row>
     <row r="856" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A856" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B856" s="19" t="s">
         <v>22</v>
@@ -44948,7 +44983,7 @@
     </row>
     <row r="857" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A857" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B857" s="19" t="s">
         <v>22</v>
@@ -45008,7 +45043,7 @@
     </row>
     <row r="858" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A858" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B858" s="19" t="s">
         <v>22</v>
@@ -45054,7 +45089,7 @@
     </row>
     <row r="859" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A859" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B859" s="19" t="s">
         <v>22</v>
@@ -45100,7 +45135,7 @@
     </row>
     <row r="860" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A860" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B860" s="19" t="s">
         <v>22</v>
@@ -45146,7 +45181,7 @@
     </row>
     <row r="861" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A861" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B861" s="11" t="s">
         <v>23</v>
@@ -45192,7 +45227,7 @@
     </row>
     <row r="862" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A862" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B862" s="11" t="s">
         <v>23</v>
@@ -45238,7 +45273,7 @@
     </row>
     <row r="863" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A863" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B863" s="11" t="s">
         <v>23</v>
@@ -45284,7 +45319,7 @@
     </row>
     <row r="864" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A864" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B864" s="11" t="s">
         <v>23</v>
@@ -45330,7 +45365,7 @@
     </row>
     <row r="865" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A865" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B865" s="11" t="s">
         <v>23</v>
@@ -45376,7 +45411,7 @@
     </row>
     <row r="866" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A866" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B866" s="11" t="s">
         <v>23</v>
@@ -45422,7 +45457,7 @@
     </row>
     <row r="867" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A867" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B867" s="11" t="s">
         <v>23</v>
@@ -45468,7 +45503,7 @@
     </row>
     <row r="868" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A868" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B868" s="11" t="s">
         <v>23</v>
@@ -45514,7 +45549,7 @@
     </row>
     <row r="869" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A869" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B869" s="11" t="s">
         <v>23</v>
@@ -45560,7 +45595,7 @@
     </row>
     <row r="870" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A870" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B870" s="11" t="s">
         <v>23</v>
@@ -45606,7 +45641,7 @@
     </row>
     <row r="871" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A871" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B871" s="11" t="s">
         <v>23</v>
@@ -45652,7 +45687,7 @@
     </row>
     <row r="872" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A872" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B872" s="11" t="s">
         <v>23</v>
@@ -45698,7 +45733,7 @@
     </row>
     <row r="873" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A873" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B873" s="27" t="s">
         <v>58</v>
@@ -45744,7 +45779,7 @@
     </row>
     <row r="874" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A874" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B874" s="27" t="s">
         <v>58</v>
@@ -45790,7 +45825,7 @@
     </row>
     <row r="875" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A875" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B875" s="27" t="s">
         <v>58</v>
@@ -45836,7 +45871,7 @@
     </row>
     <row r="876" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A876" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B876" s="27" t="s">
         <v>58</v>
@@ -45882,7 +45917,7 @@
     </row>
     <row r="877" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A877" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B877" s="27" t="s">
         <v>58</v>
@@ -45928,7 +45963,7 @@
     </row>
     <row r="878" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A878" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B878" s="27" t="s">
         <v>58</v>
@@ -45974,7 +46009,7 @@
     </row>
     <row r="879" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A879" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B879" s="27" t="s">
         <v>58</v>
@@ -46020,7 +46055,7 @@
     </row>
     <row r="880" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A880" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B880" s="27" t="s">
         <v>58</v>
@@ -46066,7 +46101,7 @@
     </row>
     <row r="881" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A881" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B881" s="27" t="s">
         <v>58</v>
@@ -46112,7 +46147,7 @@
     </row>
     <row r="882" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A882" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B882" s="27" t="s">
         <v>58</v>
@@ -46158,7 +46193,7 @@
     </row>
     <row r="883" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A883" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B883" s="27" t="s">
         <v>58</v>
@@ -46204,7 +46239,7 @@
     </row>
     <row r="884" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A884" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B884" s="27" t="s">
         <v>58</v>
@@ -46250,7 +46285,7 @@
     </row>
     <row r="885" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A885" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B885" s="25" t="s">
         <v>61</v>
@@ -46296,7 +46331,7 @@
     </row>
     <row r="886" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A886" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B886" s="25" t="s">
         <v>61</v>
@@ -46342,7 +46377,7 @@
     </row>
     <row r="887" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A887" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B887" s="52" t="s">
         <v>116</v>
@@ -46388,7 +46423,7 @@
     </row>
     <row r="888" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A888" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B888" s="52" t="s">
         <v>116</v>
@@ -46434,7 +46469,7 @@
     </row>
     <row r="889" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A889" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B889" s="52" t="s">
         <v>116</v>
@@ -46480,7 +46515,7 @@
     </row>
     <row r="890" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A890" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B890" s="52" t="s">
         <v>116</v>
@@ -46526,7 +46561,7 @@
     </row>
     <row r="891" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A891" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B891" s="52" t="s">
         <v>116</v>
@@ -46572,7 +46607,7 @@
     </row>
     <row r="892" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A892" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B892" s="52" t="s">
         <v>116</v>
@@ -46618,7 +46653,7 @@
     </row>
     <row r="893" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A893" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B893" s="52" t="s">
         <v>116</v>
@@ -46664,7 +46699,7 @@
     </row>
     <row r="894" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A894" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B894" s="52" t="s">
         <v>116</v>
@@ -46710,7 +46745,7 @@
     </row>
     <row r="895" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A895" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B895" s="9" t="s">
         <v>35</v>
@@ -46770,7 +46805,7 @@
     </row>
     <row r="896" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A896" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B896" s="9" t="s">
         <v>35</v>
@@ -46830,7 +46865,7 @@
     </row>
     <row r="897" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A897" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B897" s="9" t="s">
         <v>35</v>
@@ -46890,7 +46925,7 @@
     </row>
     <row r="898" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A898" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B898" s="9" t="s">
         <v>35</v>
@@ -46936,7 +46971,7 @@
     </row>
     <row r="899" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A899" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B899" s="9" t="s">
         <v>35</v>
@@ -46998,7 +47033,7 @@
     </row>
     <row r="900" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A900" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B900" s="9" t="s">
         <v>35</v>
@@ -47060,7 +47095,7 @@
     </row>
     <row r="901" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A901" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B901" s="9" t="s">
         <v>35</v>
@@ -47122,7 +47157,7 @@
     </row>
     <row r="902" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A902" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B902" s="9" t="s">
         <v>35</v>
@@ -47184,7 +47219,7 @@
     </row>
     <row r="903" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A903" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B903" s="9" t="s">
         <v>35</v>
@@ -47230,7 +47265,7 @@
     </row>
     <row r="904" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A904" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B904" s="9" t="s">
         <v>35</v>
@@ -47276,7 +47311,7 @@
     </row>
     <row r="905" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A905" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B905" s="9" t="s">
         <v>35</v>
@@ -47322,7 +47357,7 @@
     </row>
     <row r="906" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A906" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B906" s="9" t="s">
         <v>35</v>
@@ -47368,7 +47403,7 @@
     </row>
     <row r="907" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A907" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B907" s="9" t="s">
         <v>35</v>
@@ -47414,7 +47449,7 @@
     </row>
     <row r="908" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A908" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B908" s="9" t="s">
         <v>35</v>
@@ -47460,7 +47495,7 @@
     </row>
     <row r="909" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A909" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B909" s="14" t="s">
         <v>41</v>
@@ -47506,7 +47541,7 @@
     </row>
     <row r="910" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A910" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B910" s="14" t="s">
         <v>41</v>
@@ -47552,7 +47587,7 @@
     </row>
     <row r="911" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A911" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B911" s="14" t="s">
         <v>41</v>
@@ -47598,7 +47633,7 @@
     </row>
     <row r="912" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A912" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B912" s="14" t="s">
         <v>41</v>
@@ -47644,7 +47679,7 @@
     </row>
     <row r="913" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A913" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B913" s="20" t="s">
         <v>19</v>
@@ -47704,7 +47739,7 @@
     </row>
     <row r="914" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A914" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B914" s="20" t="s">
         <v>19</v>
@@ -47764,7 +47799,7 @@
     </row>
     <row r="915" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A915" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B915" s="17" t="s">
         <v>20</v>
@@ -47824,7 +47859,7 @@
     </row>
     <row r="916" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A916" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B916" s="17" t="s">
         <v>20</v>
@@ -47884,7 +47919,7 @@
     </row>
     <row r="917" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A917" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B917" s="17" t="s">
         <v>20</v>
@@ -47944,7 +47979,7 @@
     </row>
     <row r="918" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A918" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B918" s="17" t="s">
         <v>20</v>
@@ -48004,7 +48039,7 @@
     </row>
     <row r="919" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A919" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B919" s="17" t="s">
         <v>20</v>
@@ -48050,7 +48085,7 @@
     </row>
     <row r="920" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A920" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B920" s="17" t="s">
         <v>20</v>
@@ -48096,7 +48131,7 @@
     </row>
     <row r="921" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A921" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B921" s="18" t="s">
         <v>21</v>
@@ -48156,7 +48191,7 @@
     </row>
     <row r="922" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A922" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B922" s="18" t="s">
         <v>21</v>
@@ -48216,7 +48251,7 @@
     </row>
     <row r="923" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A923" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B923" s="18" t="s">
         <v>21</v>
@@ -48276,7 +48311,7 @@
     </row>
     <row r="924" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A924" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B924" s="19" t="s">
         <v>22</v>
@@ -48336,7 +48371,7 @@
     </row>
     <row r="925" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A925" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B925" s="19" t="s">
         <v>22</v>
@@ -48396,7 +48431,7 @@
     </row>
     <row r="926" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A926" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B926" s="19" t="s">
         <v>22</v>
@@ -48456,7 +48491,7 @@
     </row>
     <row r="927" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A927" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B927" s="19" t="s">
         <v>22</v>
@@ -48502,7 +48537,7 @@
     </row>
     <row r="928" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A928" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B928" s="19" t="s">
         <v>22</v>
@@ -48548,7 +48583,7 @@
     </row>
     <row r="929" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A929" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B929" s="19" t="s">
         <v>22</v>
@@ -48594,7 +48629,7 @@
     </row>
     <row r="930" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A930" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B930" s="19" t="s">
         <v>22</v>
@@ -48640,7 +48675,7 @@
     </row>
     <row r="931" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A931" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B931" s="19" t="s">
         <v>22</v>
@@ -48686,7 +48721,7 @@
     </row>
     <row r="932" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A932" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B932" s="19" t="s">
         <v>22</v>
@@ -48732,7 +48767,7 @@
     </row>
     <row r="933" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A933" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B933" s="19" t="s">
         <v>22</v>
@@ -48778,7 +48813,7 @@
     </row>
     <row r="934" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A934" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B934" s="19" t="s">
         <v>22</v>
@@ -48824,7 +48859,7 @@
     </row>
     <row r="935" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A935" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B935" s="19" t="s">
         <v>22</v>
@@ -48870,7 +48905,7 @@
     </row>
     <row r="936" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A936" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B936" s="19" t="s">
         <v>22</v>
@@ -48916,7 +48951,7 @@
     </row>
     <row r="937" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A937" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B937" s="19" t="s">
         <v>22</v>
@@ -48962,7 +48997,7 @@
     </row>
     <row r="938" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A938" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B938" s="19" t="s">
         <v>22</v>
@@ -49008,7 +49043,7 @@
     </row>
     <row r="939" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A939" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B939" s="19" t="s">
         <v>22</v>
@@ -49054,7 +49089,7 @@
     </row>
     <row r="940" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A940" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B940" s="11" t="s">
         <v>23</v>
@@ -49100,7 +49135,7 @@
     </row>
     <row r="941" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A941" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B941" s="11" t="s">
         <v>23</v>
@@ -49146,7 +49181,7 @@
     </row>
     <row r="942" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A942" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B942" s="11" t="s">
         <v>23</v>
@@ -49192,7 +49227,7 @@
     </row>
     <row r="943" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A943" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B943" s="11" t="s">
         <v>23</v>
@@ -49238,7 +49273,7 @@
     </row>
     <row r="944" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A944" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B944" s="11" t="s">
         <v>23</v>
@@ -49284,7 +49319,7 @@
     </row>
     <row r="945" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A945" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B945" s="11" t="s">
         <v>23</v>
@@ -49330,7 +49365,7 @@
     </row>
     <row r="946" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A946" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B946" s="11" t="s">
         <v>23</v>
@@ -49376,7 +49411,7 @@
     </row>
     <row r="947" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A947" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B947" s="11" t="s">
         <v>23</v>
@@ -49422,7 +49457,7 @@
     </row>
     <row r="948" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A948" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B948" s="11" t="s">
         <v>23</v>
@@ -49468,7 +49503,7 @@
     </row>
     <row r="949" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A949" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B949" s="11" t="s">
         <v>23</v>
@@ -49514,7 +49549,7 @@
     </row>
     <row r="950" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A950" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B950" s="11" t="s">
         <v>23</v>
@@ -49560,7 +49595,7 @@
     </row>
     <row r="951" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A951" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B951" s="11" t="s">
         <v>23</v>
@@ -49606,7 +49641,7 @@
     </row>
     <row r="952" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A952" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B952" s="27" t="s">
         <v>58</v>
@@ -49652,7 +49687,7 @@
     </row>
     <row r="953" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A953" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B953" s="27" t="s">
         <v>58</v>
@@ -49698,7 +49733,7 @@
     </row>
     <row r="954" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A954" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B954" s="27" t="s">
         <v>58</v>
@@ -49744,7 +49779,7 @@
     </row>
     <row r="955" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A955" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B955" s="27" t="s">
         <v>58</v>
@@ -49790,7 +49825,7 @@
     </row>
     <row r="956" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A956" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B956" s="27" t="s">
         <v>58</v>
@@ -49836,7 +49871,7 @@
     </row>
     <row r="957" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A957" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B957" s="27" t="s">
         <v>58</v>
@@ -49882,7 +49917,7 @@
     </row>
     <row r="958" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A958" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B958" s="27" t="s">
         <v>58</v>
@@ -49928,7 +49963,7 @@
     </row>
     <row r="959" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A959" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B959" s="27" t="s">
         <v>58</v>
@@ -49974,7 +50009,7 @@
     </row>
     <row r="960" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A960" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B960" s="27" t="s">
         <v>58</v>
@@ -50020,7 +50055,7 @@
     </row>
     <row r="961" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A961" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B961" s="27" t="s">
         <v>58</v>
@@ -50066,7 +50101,7 @@
     </row>
     <row r="962" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A962" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B962" s="27" t="s">
         <v>58</v>
@@ -50112,7 +50147,7 @@
     </row>
     <row r="963" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A963" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B963" s="27" t="s">
         <v>58</v>
@@ -50158,7 +50193,7 @@
     </row>
     <row r="964" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A964" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B964" s="25" t="s">
         <v>61</v>
@@ -50204,7 +50239,7 @@
     </row>
     <row r="965" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A965" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B965" s="25" t="s">
         <v>61</v>
@@ -50250,7 +50285,7 @@
     </row>
     <row r="966" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A966" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B966" s="52" t="s">
         <v>116</v>
@@ -50296,7 +50331,7 @@
     </row>
     <row r="967" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A967" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B967" s="52" t="s">
         <v>116</v>
@@ -50342,7 +50377,7 @@
     </row>
     <row r="968" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A968" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B968" s="52" t="s">
         <v>116</v>
@@ -50388,7 +50423,7 @@
     </row>
     <row r="969" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A969" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B969" s="52" t="s">
         <v>116</v>
@@ -50434,7 +50469,7 @@
     </row>
     <row r="970" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A970" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B970" s="52" t="s">
         <v>116</v>
@@ -50480,7 +50515,7 @@
     </row>
     <row r="971" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A971" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B971" s="52" t="s">
         <v>116</v>
@@ -50526,7 +50561,7 @@
     </row>
     <row r="972" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A972" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B972" s="52" t="s">
         <v>116</v>
@@ -50572,7 +50607,7 @@
     </row>
     <row r="973" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A973" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B973" s="52" t="s">
         <v>116</v>
@@ -50626,12 +50661,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50675,7 +50710,7 @@
         <v>13</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>15</v>
@@ -50684,12 +50719,12 @@
         <v>16</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>86</v>
@@ -50718,7 +50753,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>86</v>
@@ -50747,7 +50782,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>86</v>
@@ -50776,7 +50811,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>36</v>
@@ -50805,7 +50840,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>36</v>
@@ -50834,7 +50869,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>36</v>
@@ -50863,13 +50898,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="14">
         <v>7</v>
@@ -50892,13 +50927,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="14">
         <v>8</v>
@@ -50921,13 +50956,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="14">
         <v>9</v>
@@ -50950,13 +50985,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="14">
         <v>10</v>
@@ -50979,7 +51014,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>36</v>
@@ -51008,7 +51043,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>36</v>
@@ -51037,7 +51072,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>0</v>
@@ -51066,7 +51101,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1</v>
@@ -51095,7 +51130,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
@@ -51124,7 +51159,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>86</v>
@@ -51153,7 +51188,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>86</v>
@@ -51182,7 +51217,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>86</v>
@@ -51211,7 +51246,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>36</v>
@@ -51240,7 +51275,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>36</v>
@@ -51269,7 +51304,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>36</v>
@@ -51298,13 +51333,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" s="14">
         <v>22</v>
@@ -51327,13 +51362,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D24" s="14">
         <v>23</v>
@@ -51356,13 +51391,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25" s="14">
         <v>24</v>
@@ -51385,13 +51420,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="14">
         <v>25</v>
@@ -51414,7 +51449,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>36</v>
@@ -51443,7 +51478,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>36</v>
@@ -51472,7 +51507,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="37" t="s">
         <v>2</v>
@@ -51501,7 +51536,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="37" t="s">
         <v>2</v>
@@ -51530,7 +51565,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>2</v>
@@ -51559,7 +51594,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" s="37" t="s">
         <v>2</v>
@@ -51588,7 +51623,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>2</v>
@@ -51617,7 +51652,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="37" t="s">
         <v>2</v>
@@ -51646,7 +51681,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
@@ -51675,7 +51710,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>1</v>
@@ -51704,7 +51739,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>1</v>
@@ -51733,7 +51768,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>86</v>
@@ -51762,7 +51797,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39" s="38" t="s">
         <v>86</v>
@@ -51791,7 +51826,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" s="38" t="s">
         <v>86</v>
@@ -51820,7 +51855,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>36</v>
@@ -51849,7 +51884,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>36</v>
@@ -51878,7 +51913,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>36</v>
@@ -51907,13 +51942,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D44" s="14">
         <v>43</v>
@@ -51936,13 +51971,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D45" s="14">
         <v>44</v>
@@ -51965,13 +52000,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D46" s="14">
         <v>45</v>
@@ -51994,13 +52029,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D47" s="14">
         <v>46</v>
@@ -52023,7 +52058,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>36</v>
@@ -52052,7 +52087,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>36</v>
@@ -52081,7 +52116,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>0</v>
@@ -52110,7 +52145,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>1</v>
@@ -52139,7 +52174,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>1</v>
@@ -52168,7 +52203,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B53" s="38" t="s">
         <v>86</v>
@@ -52197,7 +52232,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B54" s="38" t="s">
         <v>86</v>
@@ -52226,7 +52261,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B55" s="38" t="s">
         <v>86</v>
@@ -52255,7 +52290,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>36</v>
@@ -52284,7 +52319,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>36</v>
@@ -52313,7 +52348,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>36</v>
@@ -52342,13 +52377,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D59" s="12">
         <v>58</v>
@@ -52371,13 +52406,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D60" s="12">
         <v>59</v>
@@ -52400,13 +52435,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="12">
         <v>60</v>
@@ -52429,13 +52464,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D62" s="12">
         <v>61</v>
@@ -52458,7 +52493,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>36</v>
@@ -52487,7 +52522,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>36</v>
@@ -52516,7 +52551,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B65" s="37" t="s">
         <v>2</v>
@@ -52545,7 +52580,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B66" s="37" t="s">
         <v>2</v>
@@ -52574,7 +52609,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B67" s="37" t="s">
         <v>2</v>
@@ -52603,7 +52638,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B68" s="37" t="s">
         <v>2</v>
@@ -52632,7 +52667,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B69" s="37" t="s">
         <v>2</v>
@@ -52661,7 +52696,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B70" s="37" t="s">
         <v>2</v>
@@ -52690,7 +52725,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>0</v>
@@ -52719,7 +52754,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>1</v>
@@ -52748,7 +52783,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>1</v>
@@ -52777,7 +52812,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B74" s="38" t="s">
         <v>86</v>
@@ -52806,7 +52841,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" s="38" t="s">
         <v>86</v>
@@ -52835,7 +52870,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" s="38" t="s">
         <v>86</v>
@@ -52864,7 +52899,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>36</v>
@@ -52893,7 +52928,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>36</v>
@@ -52922,7 +52957,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>36</v>
@@ -52951,13 +52986,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D80" s="14">
         <v>79</v>
@@ -52980,13 +53015,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D81" s="14">
         <v>80</v>
@@ -53009,13 +53044,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D82" s="14">
         <v>81</v>
@@ -53038,13 +53073,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D83" s="14">
         <v>82</v>
@@ -53067,7 +53102,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>36</v>
@@ -53096,7 +53131,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>36</v>
@@ -53125,7 +53160,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>0</v>
@@ -53154,7 +53189,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>1</v>
@@ -53183,7 +53218,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>1</v>
@@ -53212,7 +53247,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B89" s="38" t="s">
         <v>86</v>
@@ -53241,7 +53276,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B90" s="38" t="s">
         <v>86</v>
@@ -53270,7 +53305,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B91" s="38" t="s">
         <v>86</v>
@@ -53299,7 +53334,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>36</v>
@@ -53328,7 +53363,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>36</v>
@@ -53357,7 +53392,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>36</v>
@@ -53386,13 +53421,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D95" s="14">
         <v>94</v>
@@ -53415,13 +53450,13 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D96" s="14">
         <v>95</v>
@@ -53444,13 +53479,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D97" s="14">
         <v>96</v>
@@ -53473,13 +53508,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D98" s="14">
         <v>97</v>
@@ -53502,7 +53537,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>36</v>
@@ -53531,7 +53566,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>36</v>
@@ -53560,7 +53595,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B101" s="37" t="s">
         <v>2</v>
@@ -53589,7 +53624,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B102" s="37" t="s">
         <v>2</v>
@@ -53618,7 +53653,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B103" s="37" t="s">
         <v>2</v>
@@ -53647,7 +53682,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B104" s="37" t="s">
         <v>2</v>
@@ -53676,7 +53711,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B105" s="37" t="s">
         <v>2</v>
@@ -53705,7 +53740,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B106" s="37" t="s">
         <v>2</v>
@@ -53734,7 +53769,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>0</v>
@@ -53763,7 +53798,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>1</v>
@@ -53792,7 +53827,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>1</v>
@@ -53821,7 +53856,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B110" s="38" t="s">
         <v>86</v>
@@ -53850,7 +53885,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B111" s="38" t="s">
         <v>86</v>
@@ -53879,7 +53914,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B112" s="38" t="s">
         <v>86</v>
@@ -53908,7 +53943,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>36</v>
@@ -53937,7 +53972,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>36</v>
@@ -53966,7 +54001,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>36</v>
@@ -53995,13 +54030,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D116" s="14">
         <v>115</v>
@@ -54024,13 +54059,13 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D117" s="14">
         <v>116</v>
@@ -54053,13 +54088,13 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D118" s="14">
         <v>117</v>
@@ -54082,13 +54117,13 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D119" s="14">
         <v>118</v>
@@ -54111,7 +54146,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>36</v>
@@ -54140,7 +54175,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>36</v>
@@ -54169,7 +54204,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>0</v>
@@ -54198,7 +54233,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>1</v>
@@ -54227,7 +54262,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>1</v>
@@ -54256,7 +54291,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B125" s="38" t="s">
         <v>86</v>
@@ -54285,7 +54320,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B126" s="38" t="s">
         <v>86</v>
@@ -54314,7 +54349,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B127" s="38" t="s">
         <v>86</v>
@@ -54343,7 +54378,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>36</v>
@@ -54372,7 +54407,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>36</v>
@@ -54401,7 +54436,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>36</v>
@@ -54430,13 +54465,13 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D131" s="14">
         <v>130</v>
@@ -54459,13 +54494,13 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D132" s="14">
         <v>131</v>
@@ -54488,13 +54523,13 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D133" s="14">
         <v>132</v>
@@ -54517,13 +54552,13 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D134" s="14">
         <v>133</v>
@@ -54546,7 +54581,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B135" s="14" t="s">
         <v>36</v>
@@ -54575,7 +54610,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B136" s="14" t="s">
         <v>36</v>
@@ -54604,7 +54639,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B137" s="37" t="s">
         <v>2</v>
@@ -54633,7 +54668,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B138" s="37" t="s">
         <v>2</v>
@@ -54662,7 +54697,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B139" s="37" t="s">
         <v>2</v>
@@ -54691,7 +54726,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B140" s="37" t="s">
         <v>2</v>
@@ -54720,7 +54755,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B141" s="37" t="s">
         <v>2</v>
@@ -54749,7 +54784,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B142" s="37" t="s">
         <v>2</v>
@@ -54778,7 +54813,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>0</v>
@@ -54807,7 +54842,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>1</v>
@@ -54836,7 +54871,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>1</v>
@@ -54865,7 +54900,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B146" s="38" t="s">
         <v>86</v>
@@ -54894,7 +54929,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B147" s="38" t="s">
         <v>86</v>
@@ -54923,7 +54958,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B148" s="38" t="s">
         <v>86</v>
@@ -54952,7 +54987,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>36</v>
@@ -54981,7 +55016,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B150" s="14" t="s">
         <v>36</v>
@@ -55010,7 +55045,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B151" s="14" t="s">
         <v>36</v>
@@ -55039,13 +55074,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B152" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D152" s="14">
         <v>151</v>
@@ -55068,13 +55103,13 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B153" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D153" s="14">
         <v>152</v>
@@ -55097,13 +55132,13 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B154" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D154" s="14">
         <v>153</v>
@@ -55126,13 +55161,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B155" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D155" s="14">
         <v>154</v>
@@ -55155,7 +55190,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B156" s="14" t="s">
         <v>36</v>
@@ -55184,7 +55219,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>36</v>
@@ -55213,7 +55248,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>0</v>

--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{31674ADC-8D3B-40F0-B0C4-C3DE82ECB075}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19AE18CA-E9DC-4924-86CB-D7F2A2D72BE2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6587" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6587" uniqueCount="210">
   <si>
     <t>Flavoured Milk</t>
   </si>
@@ -648,6 +648,9 @@
   <si>
     <t>NESCAFE MATINAL 200GM</t>
   </si>
+  <si>
+    <t>Large Grocery Counter</t>
+  </si>
 </sst>
 </file>
 
@@ -954,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1015,6 +1018,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1432,13 +1436,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S627" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="S979" sqref="S979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1532,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>11</v>
       </c>
@@ -1589,7 +1594,7 @@
         <v>7404</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
@@ -1651,7 +1656,7 @@
         <v>7405</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1718,7 @@
         <v>7406</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
@@ -1775,7 +1780,7 @@
         <v>7407</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1833,7 +1838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
@@ -1891,7 +1896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
@@ -2009,7 +2014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -2129,7 +2134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
@@ -2189,7 +2194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>11</v>
       </c>
@@ -2249,7 +2254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>11</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>11</v>
       </c>
@@ -2369,7 +2374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>11</v>
       </c>
@@ -2429,7 +2434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>11</v>
       </c>
@@ -2489,7 +2494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>11</v>
       </c>
@@ -2669,7 +2674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>11</v>
       </c>
@@ -2729,7 +2734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>11</v>
       </c>
@@ -2775,7 +2780,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
     </row>
-    <row r="23" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>11</v>
       </c>
@@ -2821,7 +2826,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
     </row>
-    <row r="24" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>11</v>
       </c>
@@ -2867,7 +2872,7 @@
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
     </row>
-    <row r="25" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +2932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>11</v>
       </c>
@@ -2987,7 +2992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>11</v>
       </c>
@@ -3047,7 +3052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>11</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>11</v>
       </c>
@@ -3167,7 +3172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="34" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>11</v>
       </c>
@@ -3227,7 +3232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>174</v>
       </c>
@@ -3273,7 +3278,7 @@
       <c r="S31" s="42"/>
       <c r="T31" s="42"/>
     </row>
-    <row r="32" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>174</v>
       </c>
@@ -3319,7 +3324,7 @@
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
     </row>
-    <row r="33" spans="1:20" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="34" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>174</v>
       </c>
@@ -3365,7 +3370,7 @@
       <c r="S33" s="42"/>
       <c r="T33" s="42"/>
     </row>
-    <row r="34" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>25</v>
       </c>
@@ -3425,7 +3430,7 @@
         <v>7408</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>25</v>
       </c>
@@ -3485,7 +3490,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>25</v>
       </c>
@@ -3545,7 +3550,7 @@
         <v>7410</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>25</v>
       </c>
@@ -3607,7 +3612,7 @@
         <v>7411</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>25</v>
       </c>
@@ -3669,7 +3674,7 @@
         <v>7412</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>25</v>
       </c>
@@ -3731,7 +3736,7 @@
         <v>7413</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>25</v>
       </c>
@@ -3793,7 +3798,7 @@
         <v>7414</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>25</v>
       </c>
@@ -3839,7 +3844,7 @@
         <v>7415</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
@@ -3885,7 +3890,7 @@
         <v>7416</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>25</v>
       </c>
@@ -3931,7 +3936,7 @@
         <v>7417</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>25</v>
       </c>
@@ -3977,7 +3982,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>25</v>
       </c>
@@ -4023,7 +4028,7 @@
         <v>7419</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>25</v>
       </c>
@@ -4069,7 +4074,7 @@
         <v>7420</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>25</v>
       </c>
@@ -4115,7 +4120,7 @@
       <c r="S47" s="14"/>
       <c r="T47" s="14"/>
     </row>
-    <row r="48" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>25</v>
       </c>
@@ -4175,7 +4180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>25</v>
       </c>
@@ -4235,7 +4240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>25</v>
       </c>
@@ -4281,7 +4286,7 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
     </row>
-    <row r="51" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>25</v>
       </c>
@@ -4327,7 +4332,7 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
     </row>
-    <row r="52" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>25</v>
       </c>
@@ -4387,7 +4392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>25</v>
       </c>
@@ -4447,7 +4452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>25</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>25</v>
       </c>
@@ -4567,7 +4572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>25</v>
       </c>
@@ -4613,7 +4618,7 @@
       <c r="S56" s="17"/>
       <c r="T56" s="17"/>
     </row>
-    <row r="57" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>25</v>
       </c>
@@ -4673,7 +4678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>25</v>
       </c>
@@ -4733,7 +4738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>25</v>
       </c>
@@ -4793,7 +4798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>25</v>
       </c>
@@ -4853,7 +4858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>25</v>
       </c>
@@ -4913,7 +4918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>25</v>
       </c>
@@ -4973,7 +4978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>25</v>
       </c>
@@ -5033,7 +5038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>25</v>
       </c>
@@ -5093,7 +5098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>25</v>
       </c>
@@ -5139,7 +5144,7 @@
       <c r="S65" s="19"/>
       <c r="T65" s="19"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>25</v>
       </c>
@@ -5185,7 +5190,7 @@
       <c r="S66" s="19"/>
       <c r="T66" s="19"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>25</v>
       </c>
@@ -5231,7 +5236,7 @@
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>25</v>
       </c>
@@ -5277,7 +5282,7 @@
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>25</v>
       </c>
@@ -5323,7 +5328,7 @@
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>25</v>
       </c>
@@ -5369,7 +5374,7 @@
       <c r="S70" s="11"/>
       <c r="T70" s="11"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>25</v>
       </c>
@@ -5415,7 +5420,7 @@
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>25</v>
       </c>
@@ -5461,7 +5466,7 @@
       <c r="S72" s="27"/>
       <c r="T72" s="27"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>25</v>
       </c>
@@ -5507,7 +5512,7 @@
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>25</v>
       </c>
@@ -5553,7 +5558,7 @@
       <c r="S74" s="27"/>
       <c r="T74" s="27"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>25</v>
       </c>
@@ -5599,7 +5604,7 @@
       <c r="S75" s="27"/>
       <c r="T75" s="27"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>25</v>
       </c>
@@ -5645,7 +5650,7 @@
       <c r="S76" s="27"/>
       <c r="T76" s="27"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>25</v>
       </c>
@@ -5691,7 +5696,7 @@
       <c r="S77" s="25"/>
       <c r="T77" s="25"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>25</v>
       </c>
@@ -5737,7 +5742,7 @@
       <c r="S78" s="25"/>
       <c r="T78" s="25"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>25</v>
       </c>
@@ -5783,7 +5788,7 @@
       <c r="S79" s="25"/>
       <c r="T79" s="25"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>25</v>
       </c>
@@ -5829,7 +5834,7 @@
       <c r="S80" s="26"/>
       <c r="T80" s="26"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>25</v>
       </c>
@@ -5875,7 +5880,7 @@
       <c r="S81" s="26"/>
       <c r="T81" s="26"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>25</v>
       </c>
@@ -5921,7 +5926,7 @@
       <c r="S82" s="26"/>
       <c r="T82" s="26"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>25</v>
       </c>
@@ -5967,7 +5972,7 @@
       <c r="S83" s="26"/>
       <c r="T83" s="26"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>25</v>
       </c>
@@ -6013,7 +6018,7 @@
       <c r="S84" s="26"/>
       <c r="T84" s="26"/>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
         <v>25</v>
       </c>
@@ -6059,7 +6064,7 @@
       <c r="S85" s="26"/>
       <c r="T85" s="26"/>
     </row>
-    <row r="86" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
         <v>93</v>
       </c>
@@ -6119,7 +6124,7 @@
         <v>7421</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
         <v>93</v>
       </c>
@@ -6181,7 +6186,7 @@
         <v>7422</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
         <v>93</v>
       </c>
@@ -6243,7 +6248,7 @@
         <v>7423</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
         <v>93</v>
       </c>
@@ -6305,7 +6310,7 @@
         <v>7424</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
         <v>93</v>
       </c>
@@ -6367,7 +6372,7 @@
         <v>7425</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
         <v>93</v>
       </c>
@@ -6429,7 +6434,7 @@
         <v>7426</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
         <v>93</v>
       </c>
@@ -6475,7 +6480,7 @@
         <v>7427</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
         <v>93</v>
       </c>
@@ -6521,7 +6526,7 @@
         <v>7428</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>93</v>
       </c>
@@ -6567,7 +6572,7 @@
         <v>7429</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
         <v>93</v>
       </c>
@@ -6613,7 +6618,7 @@
         <v>7430</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>93</v>
       </c>
@@ -6659,7 +6664,7 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>93</v>
       </c>
@@ -6705,7 +6710,7 @@
         <v>7432</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>93</v>
       </c>
@@ -6751,7 +6756,7 @@
       <c r="S98" s="14"/>
       <c r="T98" s="14"/>
     </row>
-    <row r="99" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>93</v>
       </c>
@@ -6797,7 +6802,7 @@
       <c r="S99" s="14"/>
       <c r="T99" s="14"/>
     </row>
-    <row r="100" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
         <v>93</v>
       </c>
@@ -6843,7 +6848,7 @@
       <c r="S100" s="14"/>
       <c r="T100" s="14"/>
     </row>
-    <row r="101" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>93</v>
       </c>
@@ -6903,7 +6908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>93</v>
       </c>
@@ -6963,7 +6968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
         <v>93</v>
       </c>
@@ -7023,7 +7028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
         <v>93</v>
       </c>
@@ -7083,7 +7088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>93</v>
       </c>
@@ -7143,7 +7148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
         <v>93</v>
       </c>
@@ -7203,7 +7208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
         <v>93</v>
       </c>
@@ -7249,7 +7254,7 @@
       <c r="S107" s="17"/>
       <c r="T107" s="17"/>
     </row>
-    <row r="108" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
         <v>93</v>
       </c>
@@ -7295,7 +7300,7 @@
       <c r="S108" s="17"/>
       <c r="T108" s="17"/>
     </row>
-    <row r="109" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
         <v>93</v>
       </c>
@@ -7341,7 +7346,7 @@
       <c r="S109" s="17"/>
       <c r="T109" s="17"/>
     </row>
-    <row r="110" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
         <v>93</v>
       </c>
@@ -7401,7 +7406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="28" t="s">
         <v>93</v>
       </c>
@@ -7461,7 +7466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
         <v>93</v>
       </c>
@@ -7521,7 +7526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
         <v>93</v>
       </c>
@@ -7581,7 +7586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
         <v>93</v>
       </c>
@@ -7641,7 +7646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>93</v>
       </c>
@@ -7701,7 +7706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="28" t="s">
         <v>93</v>
       </c>
@@ -7761,7 +7766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
         <v>93</v>
       </c>
@@ -7821,7 +7826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>93</v>
       </c>
@@ -7867,7 +7872,7 @@
       <c r="S118" s="19"/>
       <c r="T118" s="19"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28" t="s">
         <v>93</v>
       </c>
@@ -7913,7 +7918,7 @@
       <c r="S119" s="19"/>
       <c r="T119" s="19"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
         <v>93</v>
       </c>
@@ -7959,7 +7964,7 @@
       <c r="S120" s="19"/>
       <c r="T120" s="19"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
         <v>93</v>
       </c>
@@ -8005,7 +8010,7 @@
       <c r="S121" s="11"/>
       <c r="T121" s="11"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
         <v>93</v>
       </c>
@@ -8051,7 +8056,7 @@
       <c r="S122" s="11"/>
       <c r="T122" s="11"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
         <v>93</v>
       </c>
@@ -8097,7 +8102,7 @@
       <c r="S123" s="11"/>
       <c r="T123" s="11"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="28" t="s">
         <v>93</v>
       </c>
@@ -8143,7 +8148,7 @@
       <c r="S124" s="11"/>
       <c r="T124" s="11"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
         <v>93</v>
       </c>
@@ -8189,7 +8194,7 @@
       <c r="S125" s="11"/>
       <c r="T125" s="11"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
         <v>93</v>
       </c>
@@ -8235,7 +8240,7 @@
       <c r="S126" s="11"/>
       <c r="T126" s="11"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
         <v>93</v>
       </c>
@@ -8281,7 +8286,7 @@
       <c r="S127" s="11"/>
       <c r="T127" s="11"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
         <v>93</v>
       </c>
@@ -8327,7 +8332,7 @@
       <c r="S128" s="11"/>
       <c r="T128" s="11"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
         <v>93</v>
       </c>
@@ -8373,7 +8378,7 @@
       <c r="S129" s="11"/>
       <c r="T129" s="11"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
         <v>93</v>
       </c>
@@ -8419,7 +8424,7 @@
       <c r="S130" s="11"/>
       <c r="T130" s="11"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
         <v>93</v>
       </c>
@@ -8465,7 +8470,7 @@
       <c r="S131" s="11"/>
       <c r="T131" s="11"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
         <v>93</v>
       </c>
@@ -8511,7 +8516,7 @@
       <c r="S132" s="11"/>
       <c r="T132" s="11"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
         <v>93</v>
       </c>
@@ -8557,7 +8562,7 @@
       <c r="S133" s="27"/>
       <c r="T133" s="27"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
         <v>93</v>
       </c>
@@ -8603,7 +8608,7 @@
       <c r="S134" s="27"/>
       <c r="T134" s="27"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>93</v>
       </c>
@@ -8649,7 +8654,7 @@
       <c r="S135" s="27"/>
       <c r="T135" s="27"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
         <v>93</v>
       </c>
@@ -8695,7 +8700,7 @@
       <c r="S136" s="27"/>
       <c r="T136" s="27"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
         <v>93</v>
       </c>
@@ -8741,7 +8746,7 @@
       <c r="S137" s="27"/>
       <c r="T137" s="27"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
         <v>93</v>
       </c>
@@ -8787,7 +8792,7 @@
       <c r="S138" s="27"/>
       <c r="T138" s="27"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>93</v>
       </c>
@@ -8833,7 +8838,7 @@
       <c r="S139" s="27"/>
       <c r="T139" s="27"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="28" t="s">
         <v>93</v>
       </c>
@@ -8879,7 +8884,7 @@
       <c r="S140" s="27"/>
       <c r="T140" s="27"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
         <v>93</v>
       </c>
@@ -8925,7 +8930,7 @@
       <c r="S141" s="27"/>
       <c r="T141" s="27"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
         <v>93</v>
       </c>
@@ -8971,7 +8976,7 @@
       <c r="S142" s="27"/>
       <c r="T142" s="27"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
         <v>93</v>
       </c>
@@ -9017,7 +9022,7 @@
       <c r="S143" s="27"/>
       <c r="T143" s="27"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
         <v>93</v>
       </c>
@@ -9063,7 +9068,7 @@
       <c r="S144" s="27"/>
       <c r="T144" s="27"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
         <v>93</v>
       </c>
@@ -9109,7 +9114,7 @@
       <c r="S145" s="25"/>
       <c r="T145" s="25"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
         <v>93</v>
       </c>
@@ -9155,7 +9160,7 @@
       <c r="S146" s="25"/>
       <c r="T146" s="25"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
         <v>93</v>
       </c>
@@ -9201,7 +9206,7 @@
       <c r="S147" s="43"/>
       <c r="T147" s="43"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
         <v>93</v>
       </c>
@@ -9247,7 +9252,7 @@
       <c r="S148" s="43"/>
       <c r="T148" s="43"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
         <v>93</v>
       </c>
@@ -9293,7 +9298,7 @@
       <c r="S149" s="43"/>
       <c r="T149" s="43"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
         <v>93</v>
       </c>
@@ -9339,7 +9344,7 @@
       <c r="S150" s="43"/>
       <c r="T150" s="43"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
         <v>93</v>
       </c>
@@ -9385,7 +9390,7 @@
       <c r="S151" s="43"/>
       <c r="T151" s="43"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
         <v>93</v>
       </c>
@@ -9431,7 +9436,7 @@
       <c r="S152" s="43"/>
       <c r="T152" s="43"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="28" t="s">
         <v>93</v>
       </c>
@@ -9477,7 +9482,7 @@
       <c r="S153" s="43"/>
       <c r="T153" s="43"/>
     </row>
-    <row r="154" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="28" t="s">
         <v>93</v>
       </c>
@@ -9523,7 +9528,7 @@
       <c r="S154" s="43"/>
       <c r="T154" s="43"/>
     </row>
-    <row r="155" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="s">
         <v>124</v>
       </c>
@@ -9583,7 +9588,7 @@
         <v>7433</v>
       </c>
     </row>
-    <row r="156" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="s">
         <v>124</v>
       </c>
@@ -9643,7 +9648,7 @@
         <v>7434</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="s">
         <v>124</v>
       </c>
@@ -9703,7 +9708,7 @@
         <v>7435</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="s">
         <v>124</v>
       </c>
@@ -9765,7 +9770,7 @@
         <v>7436</v>
       </c>
     </row>
-    <row r="159" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="s">
         <v>124</v>
       </c>
@@ -9827,7 +9832,7 @@
         <v>7437</v>
       </c>
     </row>
-    <row r="160" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
         <v>124</v>
       </c>
@@ -9889,7 +9894,7 @@
         <v>7438</v>
       </c>
     </row>
-    <row r="161" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
         <v>124</v>
       </c>
@@ -9951,7 +9956,7 @@
         <v>7439</v>
       </c>
     </row>
-    <row r="162" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="s">
         <v>124</v>
       </c>
@@ -9997,7 +10002,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="163" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="s">
         <v>124</v>
       </c>
@@ -10043,7 +10048,7 @@
         <v>7441</v>
       </c>
     </row>
-    <row r="164" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="s">
         <v>124</v>
       </c>
@@ -10089,7 +10094,7 @@
         <v>7442</v>
       </c>
     </row>
-    <row r="165" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="s">
         <v>124</v>
       </c>
@@ -10135,7 +10140,7 @@
         <v>7443</v>
       </c>
     </row>
-    <row r="166" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="s">
         <v>124</v>
       </c>
@@ -10181,7 +10186,7 @@
         <v>7444</v>
       </c>
     </row>
-    <row r="167" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="s">
         <v>124</v>
       </c>
@@ -10227,7 +10232,7 @@
         <v>7445</v>
       </c>
     </row>
-    <row r="168" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="s">
         <v>124</v>
       </c>
@@ -10273,7 +10278,7 @@
       <c r="S168" s="14"/>
       <c r="T168" s="14"/>
     </row>
-    <row r="169" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="s">
         <v>124</v>
       </c>
@@ -10319,7 +10324,7 @@
       <c r="S169" s="14"/>
       <c r="T169" s="14"/>
     </row>
-    <row r="170" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="s">
         <v>124</v>
       </c>
@@ -10365,7 +10370,7 @@
       <c r="S170" s="14"/>
       <c r="T170" s="14"/>
     </row>
-    <row r="171" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="s">
         <v>124</v>
       </c>
@@ -10425,7 +10430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="44" t="s">
         <v>124</v>
       </c>
@@ -10485,7 +10490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="44" t="s">
         <v>124</v>
       </c>
@@ -10545,7 +10550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="s">
         <v>124</v>
       </c>
@@ -10605,7 +10610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="s">
         <v>124</v>
       </c>
@@ -10665,7 +10670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="s">
         <v>124</v>
       </c>
@@ -10725,7 +10730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="s">
         <v>124</v>
       </c>
@@ -10771,7 +10776,7 @@
       <c r="S177" s="17"/>
       <c r="T177" s="17"/>
     </row>
-    <row r="178" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="s">
         <v>124</v>
       </c>
@@ -10817,7 +10822,7 @@
       <c r="S178" s="17"/>
       <c r="T178" s="17"/>
     </row>
-    <row r="179" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="44" t="s">
         <v>124</v>
       </c>
@@ -10863,7 +10868,7 @@
       <c r="S179" s="17"/>
       <c r="T179" s="17"/>
     </row>
-    <row r="180" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="44" t="s">
         <v>124</v>
       </c>
@@ -10923,7 +10928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="44" t="s">
         <v>124</v>
       </c>
@@ -10983,7 +10988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="44" t="s">
         <v>124</v>
       </c>
@@ -11043,7 +11048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="s">
         <v>124</v>
       </c>
@@ -11103,7 +11108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="44" t="s">
         <v>124</v>
       </c>
@@ -11163,7 +11168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="44" t="s">
         <v>124</v>
       </c>
@@ -11223,7 +11228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="44" t="s">
         <v>124</v>
       </c>
@@ -11269,7 +11274,7 @@
       <c r="S186" s="19"/>
       <c r="T186" s="19"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="s">
         <v>124</v>
       </c>
@@ -11315,7 +11320,7 @@
       <c r="S187" s="11"/>
       <c r="T187" s="11"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="s">
         <v>124</v>
       </c>
@@ -11361,7 +11366,7 @@
       <c r="S188" s="11"/>
       <c r="T188" s="11"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="s">
         <v>124</v>
       </c>
@@ -11407,7 +11412,7 @@
       <c r="S189" s="11"/>
       <c r="T189" s="11"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="44" t="s">
         <v>124</v>
       </c>
@@ -11453,7 +11458,7 @@
       <c r="S190" s="11"/>
       <c r="T190" s="11"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="s">
         <v>124</v>
       </c>
@@ -11499,7 +11504,7 @@
       <c r="S191" s="11"/>
       <c r="T191" s="11"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="s">
         <v>124</v>
       </c>
@@ -11545,7 +11550,7 @@
       <c r="S192" s="11"/>
       <c r="T192" s="11"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="s">
         <v>124</v>
       </c>
@@ -11591,7 +11596,7 @@
       <c r="S193" s="11"/>
       <c r="T193" s="11"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="s">
         <v>124</v>
       </c>
@@ -11637,7 +11642,7 @@
       <c r="S194" s="11"/>
       <c r="T194" s="11"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="s">
         <v>124</v>
       </c>
@@ -11683,7 +11688,7 @@
       <c r="S195" s="11"/>
       <c r="T195" s="11"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="s">
         <v>124</v>
       </c>
@@ -11729,7 +11734,7 @@
       <c r="S196" s="11"/>
       <c r="T196" s="11"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="s">
         <v>124</v>
       </c>
@@ -11775,7 +11780,7 @@
       <c r="S197" s="27"/>
       <c r="T197" s="27"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="s">
         <v>124</v>
       </c>
@@ -11821,7 +11826,7 @@
       <c r="S198" s="27"/>
       <c r="T198" s="27"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="44" t="s">
         <v>124</v>
       </c>
@@ -11867,7 +11872,7 @@
       <c r="S199" s="27"/>
       <c r="T199" s="27"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="44" t="s">
         <v>124</v>
       </c>
@@ -11913,7 +11918,7 @@
       <c r="S200" s="27"/>
       <c r="T200" s="27"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="s">
         <v>124</v>
       </c>
@@ -11959,7 +11964,7 @@
       <c r="S201" s="27"/>
       <c r="T201" s="27"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="44" t="s">
         <v>124</v>
       </c>
@@ -12005,7 +12010,7 @@
       <c r="S202" s="25"/>
       <c r="T202" s="25"/>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="44" t="s">
         <v>124</v>
       </c>
@@ -12051,7 +12056,7 @@
       <c r="S203" s="25"/>
       <c r="T203" s="25"/>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="44" t="s">
         <v>124</v>
       </c>
@@ -12097,7 +12102,7 @@
       <c r="S204" s="26"/>
       <c r="T204" s="26"/>
     </row>
-    <row r="205" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="44" t="s">
         <v>124</v>
       </c>
@@ -12143,7 +12148,7 @@
       <c r="S205" s="26"/>
       <c r="T205" s="26"/>
     </row>
-    <row r="206" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="45" t="s">
         <v>125</v>
       </c>
@@ -12201,7 +12206,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="207" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="45" t="s">
         <v>125</v>
       </c>
@@ -12259,7 +12264,7 @@
         <v>7447</v>
       </c>
     </row>
-    <row r="208" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="45" t="s">
         <v>125</v>
       </c>
@@ -12317,7 +12322,7 @@
         <v>7448</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="45" t="s">
         <v>125</v>
       </c>
@@ -12377,7 +12382,7 @@
         <v>7449</v>
       </c>
     </row>
-    <row r="210" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="45" t="s">
         <v>125</v>
       </c>
@@ -12437,7 +12442,7 @@
         <v>7450</v>
       </c>
     </row>
-    <row r="211" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="45" t="s">
         <v>125</v>
       </c>
@@ -12497,7 +12502,7 @@
         <v>7451</v>
       </c>
     </row>
-    <row r="212" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="45" t="s">
         <v>125</v>
       </c>
@@ -12557,7 +12562,7 @@
         <v>7452</v>
       </c>
     </row>
-    <row r="213" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="45" t="s">
         <v>125</v>
       </c>
@@ -12617,7 +12622,7 @@
         <v>7453</v>
       </c>
     </row>
-    <row r="214" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="45" t="s">
         <v>125</v>
       </c>
@@ -12663,7 +12668,7 @@
         <v>7454</v>
       </c>
     </row>
-    <row r="215" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="45" t="s">
         <v>125</v>
       </c>
@@ -12709,7 +12714,7 @@
         <v>7455</v>
       </c>
     </row>
-    <row r="216" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="45" t="s">
         <v>125</v>
       </c>
@@ -12755,7 +12760,7 @@
         <v>7456</v>
       </c>
     </row>
-    <row r="217" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="45" t="s">
         <v>125</v>
       </c>
@@ -12801,7 +12806,7 @@
         <v>7457</v>
       </c>
     </row>
-    <row r="218" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="45" t="s">
         <v>125</v>
       </c>
@@ -12847,7 +12852,7 @@
         <v>7458</v>
       </c>
     </row>
-    <row r="219" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="45" t="s">
         <v>125</v>
       </c>
@@ -12893,7 +12898,7 @@
         <v>7459</v>
       </c>
     </row>
-    <row r="220" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="45" t="s">
         <v>125</v>
       </c>
@@ -12939,7 +12944,7 @@
       <c r="S220" s="14"/>
       <c r="T220" s="14"/>
     </row>
-    <row r="221" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="45" t="s">
         <v>125</v>
       </c>
@@ -12985,7 +12990,7 @@
       <c r="S221" s="14"/>
       <c r="T221" s="14"/>
     </row>
-    <row r="222" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="s">
         <v>125</v>
       </c>
@@ -13031,7 +13036,7 @@
       <c r="S222" s="14"/>
       <c r="T222" s="14"/>
     </row>
-    <row r="223" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
         <v>125</v>
       </c>
@@ -13077,7 +13082,7 @@
       <c r="S223" s="14"/>
       <c r="T223" s="14"/>
     </row>
-    <row r="224" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="45" t="s">
         <v>125</v>
       </c>
@@ -13137,7 +13142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="s">
         <v>125</v>
       </c>
@@ -13197,7 +13202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="s">
         <v>125</v>
       </c>
@@ -13257,7 +13262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="s">
         <v>125</v>
       </c>
@@ -13317,7 +13322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="45" t="s">
         <v>125</v>
       </c>
@@ -13377,7 +13382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="45" t="s">
         <v>125</v>
       </c>
@@ -13437,7 +13442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="45" t="s">
         <v>125</v>
       </c>
@@ -13483,7 +13488,7 @@
       <c r="S230" s="17"/>
       <c r="T230" s="17"/>
     </row>
-    <row r="231" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="45" t="s">
         <v>125</v>
       </c>
@@ -13529,7 +13534,7 @@
       <c r="S231" s="17"/>
       <c r="T231" s="17"/>
     </row>
-    <row r="232" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="45" t="s">
         <v>125</v>
       </c>
@@ -13589,7 +13594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="45" t="s">
         <v>125</v>
       </c>
@@ -13649,7 +13654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="45" t="s">
         <v>125</v>
       </c>
@@ -13709,7 +13714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="45" t="s">
         <v>125</v>
       </c>
@@ -13769,7 +13774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="45" t="s">
         <v>125</v>
       </c>
@@ -13829,7 +13834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="45" t="s">
         <v>125</v>
       </c>
@@ -13889,7 +13894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="45" t="s">
         <v>125</v>
       </c>
@@ -13935,7 +13940,7 @@
       <c r="S238" s="19"/>
       <c r="T238" s="19"/>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="45" t="s">
         <v>125</v>
       </c>
@@ -13981,7 +13986,7 @@
       <c r="S239" s="19"/>
       <c r="T239" s="19"/>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="45" t="s">
         <v>125</v>
       </c>
@@ -14027,7 +14032,7 @@
       <c r="S240" s="19"/>
       <c r="T240" s="19"/>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="45" t="s">
         <v>125</v>
       </c>
@@ -14073,7 +14078,7 @@
       <c r="S241" s="19"/>
       <c r="T241" s="19"/>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="45" t="s">
         <v>125</v>
       </c>
@@ -14119,7 +14124,7 @@
       <c r="S242" s="19"/>
       <c r="T242" s="19"/>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="45" t="s">
         <v>125</v>
       </c>
@@ -14165,7 +14170,7 @@
       <c r="S243" s="19"/>
       <c r="T243" s="19"/>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="45" t="s">
         <v>125</v>
       </c>
@@ -14211,7 +14216,7 @@
       <c r="S244" s="19"/>
       <c r="T244" s="19"/>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="45" t="s">
         <v>125</v>
       </c>
@@ -14257,7 +14262,7 @@
       <c r="S245" s="19"/>
       <c r="T245" s="19"/>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="45" t="s">
         <v>125</v>
       </c>
@@ -14303,7 +14308,7 @@
       <c r="S246" s="19"/>
       <c r="T246" s="19"/>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="45" t="s">
         <v>125</v>
       </c>
@@ -14349,7 +14354,7 @@
       <c r="S247" s="19"/>
       <c r="T247" s="19"/>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="45" t="s">
         <v>125</v>
       </c>
@@ -14395,7 +14400,7 @@
       <c r="S248" s="19"/>
       <c r="T248" s="19"/>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="45" t="s">
         <v>125</v>
       </c>
@@ -14441,7 +14446,7 @@
       <c r="S249" s="19"/>
       <c r="T249" s="19"/>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="45" t="s">
         <v>125</v>
       </c>
@@ -14487,7 +14492,7 @@
       <c r="S250" s="19"/>
       <c r="T250" s="19"/>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="45" t="s">
         <v>125</v>
       </c>
@@ -14533,7 +14538,7 @@
       <c r="S251" s="11"/>
       <c r="T251" s="11"/>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="45" t="s">
         <v>125</v>
       </c>
@@ -14579,7 +14584,7 @@
       <c r="S252" s="11"/>
       <c r="T252" s="11"/>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="45" t="s">
         <v>125</v>
       </c>
@@ -14625,7 +14630,7 @@
       <c r="S253" s="11"/>
       <c r="T253" s="11"/>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="45" t="s">
         <v>125</v>
       </c>
@@ -14671,7 +14676,7 @@
       <c r="S254" s="11"/>
       <c r="T254" s="11"/>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="45" t="s">
         <v>125</v>
       </c>
@@ -14717,7 +14722,7 @@
       <c r="S255" s="11"/>
       <c r="T255" s="11"/>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="45" t="s">
         <v>125</v>
       </c>
@@ -14763,7 +14768,7 @@
       <c r="S256" s="11"/>
       <c r="T256" s="11"/>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="45" t="s">
         <v>125</v>
       </c>
@@ -14809,7 +14814,7 @@
       <c r="S257" s="11"/>
       <c r="T257" s="11"/>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="45" t="s">
         <v>125</v>
       </c>
@@ -14855,7 +14860,7 @@
       <c r="S258" s="11"/>
       <c r="T258" s="11"/>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="45" t="s">
         <v>125</v>
       </c>
@@ -14901,7 +14906,7 @@
       <c r="S259" s="11"/>
       <c r="T259" s="11"/>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="45" t="s">
         <v>125</v>
       </c>
@@ -14947,7 +14952,7 @@
       <c r="S260" s="11"/>
       <c r="T260" s="11"/>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="45" t="s">
         <v>125</v>
       </c>
@@ -14993,7 +14998,7 @@
       <c r="S261" s="11"/>
       <c r="T261" s="11"/>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="45" t="s">
         <v>125</v>
       </c>
@@ -15039,7 +15044,7 @@
       <c r="S262" s="11"/>
       <c r="T262" s="11"/>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="45" t="s">
         <v>125</v>
       </c>
@@ -15085,7 +15090,7 @@
       <c r="S263" s="27"/>
       <c r="T263" s="27"/>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="45" t="s">
         <v>125</v>
       </c>
@@ -15131,7 +15136,7 @@
       <c r="S264" s="27"/>
       <c r="T264" s="27"/>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="45" t="s">
         <v>125</v>
       </c>
@@ -15177,7 +15182,7 @@
       <c r="S265" s="27"/>
       <c r="T265" s="27"/>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="45" t="s">
         <v>125</v>
       </c>
@@ -15223,7 +15228,7 @@
       <c r="S266" s="27"/>
       <c r="T266" s="27"/>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="45" t="s">
         <v>125</v>
       </c>
@@ -15269,7 +15274,7 @@
       <c r="S267" s="27"/>
       <c r="T267" s="27"/>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="45" t="s">
         <v>125</v>
       </c>
@@ -15315,7 +15320,7 @@
       <c r="S268" s="27"/>
       <c r="T268" s="27"/>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="45" t="s">
         <v>125</v>
       </c>
@@ -15361,7 +15366,7 @@
       <c r="S269" s="27"/>
       <c r="T269" s="27"/>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="45" t="s">
         <v>125</v>
       </c>
@@ -15407,7 +15412,7 @@
       <c r="S270" s="27"/>
       <c r="T270" s="27"/>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="45" t="s">
         <v>125</v>
       </c>
@@ -15453,7 +15458,7 @@
       <c r="S271" s="27"/>
       <c r="T271" s="27"/>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="45" t="s">
         <v>125</v>
       </c>
@@ -15499,7 +15504,7 @@
       <c r="S272" s="27"/>
       <c r="T272" s="27"/>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="45" t="s">
         <v>125</v>
       </c>
@@ -15545,7 +15550,7 @@
       <c r="S273" s="27"/>
       <c r="T273" s="27"/>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="45" t="s">
         <v>125</v>
       </c>
@@ -15591,7 +15596,7 @@
       <c r="S274" s="27"/>
       <c r="T274" s="27"/>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="45" t="s">
         <v>125</v>
       </c>
@@ -15637,7 +15642,7 @@
       <c r="S275" s="25"/>
       <c r="T275" s="25"/>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="45" t="s">
         <v>125</v>
       </c>
@@ -15683,7 +15688,7 @@
       <c r="S276" s="25"/>
       <c r="T276" s="25"/>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="45" t="s">
         <v>125</v>
       </c>
@@ -15729,7 +15734,7 @@
       <c r="S277" s="26"/>
       <c r="T277" s="26"/>
     </row>
-    <row r="278" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="45" t="s">
         <v>125</v>
       </c>
@@ -15775,7 +15780,7 @@
       <c r="S278" s="26"/>
       <c r="T278" s="26"/>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="45" t="s">
         <v>125</v>
       </c>
@@ -15821,7 +15826,7 @@
       <c r="S279" s="26"/>
       <c r="T279" s="26"/>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="45" t="s">
         <v>125</v>
       </c>
@@ -15867,7 +15872,7 @@
       <c r="S280" s="26"/>
       <c r="T280" s="26"/>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="45" t="s">
         <v>125</v>
       </c>
@@ -15913,7 +15918,7 @@
       <c r="S281" s="26"/>
       <c r="T281" s="26"/>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="45" t="s">
         <v>125</v>
       </c>
@@ -15959,7 +15964,7 @@
       <c r="S282" s="26"/>
       <c r="T282" s="26"/>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="45" t="s">
         <v>125</v>
       </c>
@@ -16005,7 +16010,7 @@
       <c r="S283" s="26"/>
       <c r="T283" s="26"/>
     </row>
-    <row r="284" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="45" t="s">
         <v>125</v>
       </c>
@@ -16051,7 +16056,7 @@
       <c r="S284" s="26"/>
       <c r="T284" s="26"/>
     </row>
-    <row r="285" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>34</v>
       </c>
@@ -16111,7 +16116,7 @@
         <v>7460</v>
       </c>
     </row>
-    <row r="286" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="8" t="s">
         <v>34</v>
       </c>
@@ -16171,7 +16176,7 @@
         <v>7461</v>
       </c>
     </row>
-    <row r="287" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="8" t="s">
         <v>34</v>
       </c>
@@ -16231,7 +16236,7 @@
         <v>7462</v>
       </c>
     </row>
-    <row r="288" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="s">
         <v>34</v>
       </c>
@@ -16291,7 +16296,7 @@
         <v>7463</v>
       </c>
     </row>
-    <row r="289" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8" t="s">
         <v>34</v>
       </c>
@@ -16351,7 +16356,7 @@
         <v>7464</v>
       </c>
     </row>
-    <row r="290" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="s">
         <v>34</v>
       </c>
@@ -16411,7 +16416,7 @@
         <v>7465</v>
       </c>
     </row>
-    <row r="291" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="8" t="s">
         <v>34</v>
       </c>
@@ -16471,7 +16476,7 @@
         <v>7466</v>
       </c>
     </row>
-    <row r="292" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="s">
         <v>34</v>
       </c>
@@ -16531,7 +16536,7 @@
         <v>7467</v>
       </c>
     </row>
-    <row r="293" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
         <v>34</v>
       </c>
@@ -16577,7 +16582,7 @@
         <v>7468</v>
       </c>
     </row>
-    <row r="294" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
         <v>34</v>
       </c>
@@ -16623,7 +16628,7 @@
         <v>7469</v>
       </c>
     </row>
-    <row r="295" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
         <v>34</v>
       </c>
@@ -16669,7 +16674,7 @@
         <v>7470</v>
       </c>
     </row>
-    <row r="296" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="s">
         <v>34</v>
       </c>
@@ -16715,7 +16720,7 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="297" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
         <v>34</v>
       </c>
@@ -16761,7 +16766,7 @@
         <v>7472</v>
       </c>
     </row>
-    <row r="298" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
         <v>34</v>
       </c>
@@ -16807,7 +16812,7 @@
         <v>7473</v>
       </c>
     </row>
-    <row r="299" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
         <v>34</v>
       </c>
@@ -16853,7 +16858,7 @@
       <c r="S299" s="14"/>
       <c r="T299" s="14"/>
     </row>
-    <row r="300" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
         <v>34</v>
       </c>
@@ -16899,7 +16904,7 @@
       <c r="S300" s="14"/>
       <c r="T300" s="14"/>
     </row>
-    <row r="301" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="8" t="s">
         <v>34</v>
       </c>
@@ -16945,7 +16950,7 @@
       <c r="S301" s="14"/>
       <c r="T301" s="14"/>
     </row>
-    <row r="302" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
         <v>34</v>
       </c>
@@ -16991,7 +16996,7 @@
       <c r="S302" s="14"/>
       <c r="T302" s="14"/>
     </row>
-    <row r="303" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>34</v>
       </c>
@@ -17051,7 +17056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
         <v>34</v>
       </c>
@@ -17111,7 +17116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
         <v>34</v>
       </c>
@@ -17171,7 +17176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="306" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
         <v>34</v>
       </c>
@@ -17231,7 +17236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="8" t="s">
         <v>34</v>
       </c>
@@ -17291,7 +17296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="308" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="s">
         <v>34</v>
       </c>
@@ -17351,7 +17356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="309" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
         <v>34</v>
       </c>
@@ -17397,7 +17402,7 @@
       <c r="S309" s="17"/>
       <c r="T309" s="17"/>
     </row>
-    <row r="310" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
         <v>34</v>
       </c>
@@ -17443,7 +17448,7 @@
       <c r="S310" s="17"/>
       <c r="T310" s="17"/>
     </row>
-    <row r="311" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
         <v>34</v>
       </c>
@@ -17503,7 +17508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
         <v>34</v>
       </c>
@@ -17563,7 +17568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
         <v>34</v>
       </c>
@@ -17623,7 +17628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="s">
         <v>34</v>
       </c>
@@ -17683,7 +17688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
         <v>34</v>
       </c>
@@ -17743,7 +17748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
         <v>34</v>
       </c>
@@ -17803,7 +17808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="8" t="s">
         <v>34</v>
       </c>
@@ -17849,7 +17854,7 @@
       <c r="S317" s="19"/>
       <c r="T317" s="19"/>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="8" t="s">
         <v>34</v>
       </c>
@@ -17895,7 +17900,7 @@
       <c r="S318" s="19"/>
       <c r="T318" s="19"/>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
         <v>34</v>
       </c>
@@ -17941,7 +17946,7 @@
       <c r="S319" s="19"/>
       <c r="T319" s="19"/>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
         <v>34</v>
       </c>
@@ -17987,7 +17992,7 @@
       <c r="S320" s="19"/>
       <c r="T320" s="19"/>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
         <v>34</v>
       </c>
@@ -18033,7 +18038,7 @@
       <c r="S321" s="19"/>
       <c r="T321" s="19"/>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
         <v>34</v>
       </c>
@@ -18079,7 +18084,7 @@
       <c r="S322" s="19"/>
       <c r="T322" s="19"/>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="8" t="s">
         <v>34</v>
       </c>
@@ -18125,7 +18130,7 @@
       <c r="S323" s="19"/>
       <c r="T323" s="19"/>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
         <v>34</v>
       </c>
@@ -18171,7 +18176,7 @@
       <c r="S324" s="19"/>
       <c r="T324" s="19"/>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
         <v>34</v>
       </c>
@@ -18217,7 +18222,7 @@
       <c r="S325" s="19"/>
       <c r="T325" s="19"/>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
         <v>34</v>
       </c>
@@ -18263,7 +18268,7 @@
       <c r="S326" s="19"/>
       <c r="T326" s="19"/>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
         <v>34</v>
       </c>
@@ -18309,7 +18314,7 @@
       <c r="S327" s="19"/>
       <c r="T327" s="19"/>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
         <v>34</v>
       </c>
@@ -18355,7 +18360,7 @@
       <c r="S328" s="19"/>
       <c r="T328" s="19"/>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
         <v>34</v>
       </c>
@@ -18401,7 +18406,7 @@
       <c r="S329" s="19"/>
       <c r="T329" s="19"/>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
         <v>34</v>
       </c>
@@ -18447,7 +18452,7 @@
       <c r="S330" s="11"/>
       <c r="T330" s="11"/>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
         <v>34</v>
       </c>
@@ -18493,7 +18498,7 @@
       <c r="S331" s="11"/>
       <c r="T331" s="11"/>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
         <v>34</v>
       </c>
@@ -18539,7 +18544,7 @@
       <c r="S332" s="11"/>
       <c r="T332" s="11"/>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="8" t="s">
         <v>34</v>
       </c>
@@ -18585,7 +18590,7 @@
       <c r="S333" s="11"/>
       <c r="T333" s="11"/>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
         <v>34</v>
       </c>
@@ -18631,7 +18636,7 @@
       <c r="S334" s="11"/>
       <c r="T334" s="11"/>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
         <v>34</v>
       </c>
@@ -18677,7 +18682,7 @@
       <c r="S335" s="11"/>
       <c r="T335" s="11"/>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
         <v>34</v>
       </c>
@@ -18723,7 +18728,7 @@
       <c r="S336" s="11"/>
       <c r="T336" s="11"/>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
         <v>34</v>
       </c>
@@ -18769,7 +18774,7 @@
       <c r="S337" s="11"/>
       <c r="T337" s="11"/>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>34</v>
       </c>
@@ -18815,7 +18820,7 @@
       <c r="S338" s="11"/>
       <c r="T338" s="11"/>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>34</v>
       </c>
@@ -18861,7 +18866,7 @@
       <c r="S339" s="11"/>
       <c r="T339" s="11"/>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
         <v>34</v>
       </c>
@@ -18907,7 +18912,7 @@
       <c r="S340" s="11"/>
       <c r="T340" s="11"/>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="8" t="s">
         <v>34</v>
       </c>
@@ -18953,7 +18958,7 @@
       <c r="S341" s="11"/>
       <c r="T341" s="11"/>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
         <v>34</v>
       </c>
@@ -18999,7 +19004,7 @@
       <c r="S342" s="27"/>
       <c r="T342" s="27"/>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="8" t="s">
         <v>34</v>
       </c>
@@ -19045,7 +19050,7 @@
       <c r="S343" s="27"/>
       <c r="T343" s="27"/>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
         <v>34</v>
       </c>
@@ -19091,7 +19096,7 @@
       <c r="S344" s="27"/>
       <c r="T344" s="27"/>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="8" t="s">
         <v>34</v>
       </c>
@@ -19137,7 +19142,7 @@
       <c r="S345" s="27"/>
       <c r="T345" s="27"/>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
         <v>34</v>
       </c>
@@ -19183,7 +19188,7 @@
       <c r="S346" s="27"/>
       <c r="T346" s="27"/>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="8" t="s">
         <v>34</v>
       </c>
@@ -19229,7 +19234,7 @@
       <c r="S347" s="27"/>
       <c r="T347" s="27"/>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
         <v>34</v>
       </c>
@@ -19275,7 +19280,7 @@
       <c r="S348" s="27"/>
       <c r="T348" s="27"/>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="8" t="s">
         <v>34</v>
       </c>
@@ -19321,7 +19326,7 @@
       <c r="S349" s="27"/>
       <c r="T349" s="27"/>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="s">
         <v>34</v>
       </c>
@@ -19367,7 +19372,7 @@
       <c r="S350" s="27"/>
       <c r="T350" s="27"/>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="8" t="s">
         <v>34</v>
       </c>
@@ -19413,7 +19418,7 @@
       <c r="S351" s="27"/>
       <c r="T351" s="27"/>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="s">
         <v>34</v>
       </c>
@@ -19459,7 +19464,7 @@
       <c r="S352" s="27"/>
       <c r="T352" s="27"/>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
         <v>34</v>
       </c>
@@ -19505,7 +19510,7 @@
       <c r="S353" s="27"/>
       <c r="T353" s="27"/>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="s">
         <v>34</v>
       </c>
@@ -19551,7 +19556,7 @@
       <c r="S354" s="25"/>
       <c r="T354" s="25"/>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="8" t="s">
         <v>34</v>
       </c>
@@ -19597,7 +19602,7 @@
       <c r="S355" s="25"/>
       <c r="T355" s="25"/>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
         <v>34</v>
       </c>
@@ -19643,7 +19648,7 @@
       <c r="S356" s="26"/>
       <c r="T356" s="26"/>
     </row>
-    <row r="357" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
         <v>34</v>
       </c>
@@ -19689,7 +19694,7 @@
       <c r="S357" s="26"/>
       <c r="T357" s="26"/>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
         <v>34</v>
       </c>
@@ -19735,7 +19740,7 @@
       <c r="S358" s="26"/>
       <c r="T358" s="26"/>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="8" t="s">
         <v>34</v>
       </c>
@@ -19781,7 +19786,7 @@
       <c r="S359" s="26"/>
       <c r="T359" s="26"/>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="s">
         <v>34</v>
       </c>
@@ -19827,7 +19832,7 @@
       <c r="S360" s="26"/>
       <c r="T360" s="26"/>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="8" t="s">
         <v>34</v>
       </c>
@@ -19873,7 +19878,7 @@
       <c r="S361" s="26"/>
       <c r="T361" s="26"/>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
         <v>34</v>
       </c>
@@ -19919,7 +19924,7 @@
       <c r="S362" s="26"/>
       <c r="T362" s="26"/>
     </row>
-    <row r="363" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="8" t="s">
         <v>34</v>
       </c>
@@ -19965,7 +19970,7 @@
       <c r="S363" s="26"/>
       <c r="T363" s="26"/>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="s">
         <v>34</v>
       </c>
@@ -20011,7 +20016,7 @@
       <c r="S364" s="46"/>
       <c r="T364" s="46"/>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
         <v>34</v>
       </c>
@@ -20057,7 +20062,7 @@
       <c r="S365" s="46"/>
       <c r="T365" s="46"/>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="s">
         <v>34</v>
       </c>
@@ -20103,7 +20108,7 @@
       <c r="S366" s="46"/>
       <c r="T366" s="46"/>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="8" t="s">
         <v>34</v>
       </c>
@@ -20149,7 +20154,7 @@
       <c r="S367" s="46"/>
       <c r="T367" s="46"/>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="s">
         <v>34</v>
       </c>
@@ -20195,7 +20200,7 @@
       <c r="S368" s="46"/>
       <c r="T368" s="46"/>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="8" t="s">
         <v>34</v>
       </c>
@@ -20241,7 +20246,7 @@
       <c r="S369" s="46"/>
       <c r="T369" s="46"/>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="s">
         <v>34</v>
       </c>
@@ -20287,7 +20292,7 @@
       <c r="S370" s="46"/>
       <c r="T370" s="46"/>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="8" t="s">
         <v>34</v>
       </c>
@@ -20333,7 +20338,7 @@
       <c r="S371" s="46"/>
       <c r="T371" s="46"/>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="s">
         <v>34</v>
       </c>
@@ -20379,7 +20384,7 @@
       <c r="S372" s="46"/>
       <c r="T372" s="46"/>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="8" t="s">
         <v>34</v>
       </c>
@@ -20425,7 +20430,7 @@
       <c r="S373" s="46"/>
       <c r="T373" s="46"/>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="s">
         <v>34</v>
       </c>
@@ -20471,7 +20476,7 @@
       <c r="S374" s="46"/>
       <c r="T374" s="46"/>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="8" t="s">
         <v>34</v>
       </c>
@@ -20517,7 +20522,7 @@
       <c r="S375" s="46"/>
       <c r="T375" s="46"/>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="s">
         <v>34</v>
       </c>
@@ -20563,7 +20568,7 @@
       <c r="S376" s="46"/>
       <c r="T376" s="46"/>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="8" t="s">
         <v>34</v>
       </c>
@@ -20609,7 +20614,7 @@
       <c r="S377" s="46"/>
       <c r="T377" s="46"/>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="s">
         <v>34</v>
       </c>
@@ -20655,7 +20660,7 @@
       <c r="S378" s="46"/>
       <c r="T378" s="46"/>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="8" t="s">
         <v>34</v>
       </c>
@@ -20701,7 +20706,7 @@
       <c r="S379" s="46"/>
       <c r="T379" s="46"/>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="s">
         <v>34</v>
       </c>
@@ -20747,7 +20752,7 @@
       <c r="S380" s="46"/>
       <c r="T380" s="46"/>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="8" t="s">
         <v>34</v>
       </c>
@@ -20793,7 +20798,7 @@
       <c r="S381" s="46"/>
       <c r="T381" s="46"/>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="s">
         <v>34</v>
       </c>
@@ -20839,7 +20844,7 @@
       <c r="S382" s="46"/>
       <c r="T382" s="46"/>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="8" t="s">
         <v>34</v>
       </c>
@@ -20885,7 +20890,7 @@
       <c r="S383" s="46"/>
       <c r="T383" s="46"/>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="s">
         <v>34</v>
       </c>
@@ -20931,7 +20936,7 @@
       <c r="S384" s="46"/>
       <c r="T384" s="46"/>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="8" t="s">
         <v>34</v>
       </c>
@@ -20977,7 +20982,7 @@
       <c r="S385" s="46"/>
       <c r="T385" s="46"/>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="s">
         <v>34</v>
       </c>
@@ -21023,7 +21028,7 @@
       <c r="S386" s="46"/>
       <c r="T386" s="46"/>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="8" t="s">
         <v>34</v>
       </c>
@@ -21069,7 +21074,7 @@
       <c r="S387" s="46"/>
       <c r="T387" s="46"/>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="s">
         <v>34</v>
       </c>
@@ -21115,7 +21120,7 @@
       <c r="S388" s="46"/>
       <c r="T388" s="46"/>
     </row>
-    <row r="389" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
         <v>34</v>
       </c>
@@ -21161,7 +21166,7 @@
       <c r="S389" s="46"/>
       <c r="T389" s="46"/>
     </row>
-    <row r="390" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="47" t="s">
         <v>168</v>
       </c>
@@ -21221,7 +21226,7 @@
         <v>7474</v>
       </c>
     </row>
-    <row r="391" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="47" t="s">
         <v>168</v>
       </c>
@@ -21281,7 +21286,7 @@
         <v>7475</v>
       </c>
     </row>
-    <row r="392" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="47" t="s">
         <v>168</v>
       </c>
@@ -21341,7 +21346,7 @@
         <v>7476</v>
       </c>
     </row>
-    <row r="393" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="47" t="s">
         <v>168</v>
       </c>
@@ -21403,7 +21408,7 @@
         <v>7477</v>
       </c>
     </row>
-    <row r="394" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="47" t="s">
         <v>168</v>
       </c>
@@ -21465,7 +21470,7 @@
         <v>7478</v>
       </c>
     </row>
-    <row r="395" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="47" t="s">
         <v>168</v>
       </c>
@@ -21527,7 +21532,7 @@
         <v>7479</v>
       </c>
     </row>
-    <row r="396" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="47" t="s">
         <v>168</v>
       </c>
@@ -21589,7 +21594,7 @@
         <v>7480</v>
       </c>
     </row>
-    <row r="397" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="47" t="s">
         <v>168</v>
       </c>
@@ -21651,7 +21656,7 @@
         <v>7481</v>
       </c>
     </row>
-    <row r="398" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="47" t="s">
         <v>168</v>
       </c>
@@ -21697,7 +21702,7 @@
         <v>7482</v>
       </c>
     </row>
-    <row r="399" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="47" t="s">
         <v>168</v>
       </c>
@@ -21743,7 +21748,7 @@
         <v>7483</v>
       </c>
     </row>
-    <row r="400" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="47" t="s">
         <v>168</v>
       </c>
@@ -21789,7 +21794,7 @@
         <v>7484</v>
       </c>
     </row>
-    <row r="401" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="47" t="s">
         <v>168</v>
       </c>
@@ -21835,7 +21840,7 @@
         <v>7485</v>
       </c>
     </row>
-    <row r="402" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="47" t="s">
         <v>168</v>
       </c>
@@ -21881,7 +21886,7 @@
         <v>7486</v>
       </c>
     </row>
-    <row r="403" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="47" t="s">
         <v>168</v>
       </c>
@@ -21927,7 +21932,7 @@
         <v>7487</v>
       </c>
     </row>
-    <row r="404" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="47" t="s">
         <v>168</v>
       </c>
@@ -21973,7 +21978,7 @@
       <c r="S404" s="14"/>
       <c r="T404" s="14"/>
     </row>
-    <row r="405" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="47" t="s">
         <v>168</v>
       </c>
@@ -22019,7 +22024,7 @@
       <c r="S405" s="14"/>
       <c r="T405" s="14"/>
     </row>
-    <row r="406" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="47" t="s">
         <v>168</v>
       </c>
@@ -22065,7 +22070,7 @@
       <c r="S406" s="14"/>
       <c r="T406" s="14"/>
     </row>
-    <row r="407" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="47" t="s">
         <v>168</v>
       </c>
@@ -22125,7 +22130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="408" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="47" t="s">
         <v>168</v>
       </c>
@@ -22185,7 +22190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="47" t="s">
         <v>168</v>
       </c>
@@ -22245,7 +22250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="47" t="s">
         <v>168</v>
       </c>
@@ -22305,7 +22310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="47" t="s">
         <v>168</v>
       </c>
@@ -22365,7 +22370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="47" t="s">
         <v>168</v>
       </c>
@@ -22425,7 +22430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="47" t="s">
         <v>168</v>
       </c>
@@ -22471,7 +22476,7 @@
       <c r="S413" s="17"/>
       <c r="T413" s="17"/>
     </row>
-    <row r="414" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="47" t="s">
         <v>168</v>
       </c>
@@ -22517,7 +22522,7 @@
       <c r="S414" s="17"/>
       <c r="T414" s="17"/>
     </row>
-    <row r="415" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="47" t="s">
         <v>168</v>
       </c>
@@ -22577,7 +22582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="47" t="s">
         <v>168</v>
       </c>
@@ -22637,7 +22642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="47" t="s">
         <v>168</v>
       </c>
@@ -22697,7 +22702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="47" t="s">
         <v>168</v>
       </c>
@@ -22743,7 +22748,7 @@
       <c r="S418" s="18"/>
       <c r="T418" s="18"/>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="47" t="s">
         <v>168</v>
       </c>
@@ -22803,7 +22808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="47" t="s">
         <v>168</v>
       </c>
@@ -22863,7 +22868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="47" t="s">
         <v>168</v>
       </c>
@@ -22923,7 +22928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="47" t="s">
         <v>168</v>
       </c>
@@ -22969,7 +22974,7 @@
       <c r="S422" s="19"/>
       <c r="T422" s="19"/>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="47" t="s">
         <v>168</v>
       </c>
@@ -23015,7 +23020,7 @@
       <c r="S423" s="19"/>
       <c r="T423" s="19"/>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="47" t="s">
         <v>168</v>
       </c>
@@ -23061,7 +23066,7 @@
       <c r="S424" s="19"/>
       <c r="T424" s="19"/>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="47" t="s">
         <v>168</v>
       </c>
@@ -23107,7 +23112,7 @@
       <c r="S425" s="11"/>
       <c r="T425" s="11"/>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="47" t="s">
         <v>168</v>
       </c>
@@ -23153,7 +23158,7 @@
       <c r="S426" s="11"/>
       <c r="T426" s="11"/>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="47" t="s">
         <v>168</v>
       </c>
@@ -23199,7 +23204,7 @@
       <c r="S427" s="11"/>
       <c r="T427" s="11"/>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="47" t="s">
         <v>168</v>
       </c>
@@ -23245,7 +23250,7 @@
       <c r="S428" s="11"/>
       <c r="T428" s="11"/>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="47" t="s">
         <v>168</v>
       </c>
@@ -23291,7 +23296,7 @@
       <c r="S429" s="11"/>
       <c r="T429" s="11"/>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="47" t="s">
         <v>168</v>
       </c>
@@ -23337,7 +23342,7 @@
       <c r="S430" s="11"/>
       <c r="T430" s="11"/>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="47" t="s">
         <v>168</v>
       </c>
@@ -23383,7 +23388,7 @@
       <c r="S431" s="11"/>
       <c r="T431" s="11"/>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="47" t="s">
         <v>168</v>
       </c>
@@ -23429,7 +23434,7 @@
       <c r="S432" s="11"/>
       <c r="T432" s="11"/>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="47" t="s">
         <v>168</v>
       </c>
@@ -23475,7 +23480,7 @@
       <c r="S433" s="11"/>
       <c r="T433" s="11"/>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="47" t="s">
         <v>168</v>
       </c>
@@ -23521,7 +23526,7 @@
       <c r="S434" s="11"/>
       <c r="T434" s="11"/>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="47" t="s">
         <v>168</v>
       </c>
@@ -23567,7 +23572,7 @@
       <c r="S435" s="11"/>
       <c r="T435" s="11"/>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="47" t="s">
         <v>168</v>
       </c>
@@ -23613,7 +23618,7 @@
       <c r="S436" s="11"/>
       <c r="T436" s="11"/>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="47" t="s">
         <v>168</v>
       </c>
@@ -23659,7 +23664,7 @@
       <c r="S437" s="27"/>
       <c r="T437" s="27"/>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="47" t="s">
         <v>168</v>
       </c>
@@ -23705,7 +23710,7 @@
       <c r="S438" s="27"/>
       <c r="T438" s="27"/>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="47" t="s">
         <v>168</v>
       </c>
@@ -23751,7 +23756,7 @@
       <c r="S439" s="27"/>
       <c r="T439" s="27"/>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="47" t="s">
         <v>168</v>
       </c>
@@ -23797,7 +23802,7 @@
       <c r="S440" s="27"/>
       <c r="T440" s="27"/>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="47" t="s">
         <v>168</v>
       </c>
@@ -23843,7 +23848,7 @@
       <c r="S441" s="27"/>
       <c r="T441" s="27"/>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="47" t="s">
         <v>168</v>
       </c>
@@ -23889,7 +23894,7 @@
       <c r="S442" s="27"/>
       <c r="T442" s="27"/>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="47" t="s">
         <v>168</v>
       </c>
@@ -23935,7 +23940,7 @@
       <c r="S443" s="27"/>
       <c r="T443" s="27"/>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="47" t="s">
         <v>168</v>
       </c>
@@ -23981,7 +23986,7 @@
       <c r="S444" s="27"/>
       <c r="T444" s="27"/>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="47" t="s">
         <v>168</v>
       </c>
@@ -24027,7 +24032,7 @@
       <c r="S445" s="27"/>
       <c r="T445" s="27"/>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="47" t="s">
         <v>168</v>
       </c>
@@ -24073,7 +24078,7 @@
       <c r="S446" s="27"/>
       <c r="T446" s="27"/>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="47" t="s">
         <v>168</v>
       </c>
@@ -24119,7 +24124,7 @@
       <c r="S447" s="27"/>
       <c r="T447" s="27"/>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="47" t="s">
         <v>168</v>
       </c>
@@ -24165,7 +24170,7 @@
       <c r="S448" s="27"/>
       <c r="T448" s="27"/>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="47" t="s">
         <v>168</v>
       </c>
@@ -24211,7 +24216,7 @@
       <c r="S449" s="25"/>
       <c r="T449" s="25"/>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="47" t="s">
         <v>168</v>
       </c>
@@ -24257,7 +24262,7 @@
       <c r="S450" s="25"/>
       <c r="T450" s="25"/>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="47" t="s">
         <v>168</v>
       </c>
@@ -24303,7 +24308,7 @@
       <c r="S451" s="26"/>
       <c r="T451" s="26"/>
     </row>
-    <row r="452" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="47" t="s">
         <v>168</v>
       </c>
@@ -24349,7 +24354,7 @@
       <c r="S452" s="26"/>
       <c r="T452" s="26"/>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="47" t="s">
         <v>168</v>
       </c>
@@ -24395,7 +24400,7 @@
       <c r="S453" s="26"/>
       <c r="T453" s="26"/>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="47" t="s">
         <v>168</v>
       </c>
@@ -24441,7 +24446,7 @@
       <c r="S454" s="26"/>
       <c r="T454" s="26"/>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="47" t="s">
         <v>168</v>
       </c>
@@ -24487,7 +24492,7 @@
       <c r="S455" s="26"/>
       <c r="T455" s="26"/>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="47" t="s">
         <v>168</v>
       </c>
@@ -24533,7 +24538,7 @@
       <c r="S456" s="26"/>
       <c r="T456" s="26"/>
     </row>
-    <row r="457" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:20" s="32" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="47" t="s">
         <v>168</v>
       </c>
@@ -24579,9 +24584,9 @@
       <c r="S457" s="26"/>
       <c r="T457" s="26"/>
     </row>
-    <row r="458" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B458" s="9" t="s">
         <v>35</v>
@@ -24639,9 +24644,9 @@
         <v>7488</v>
       </c>
     </row>
-    <row r="459" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B459" s="9" t="s">
         <v>35</v>
@@ -24699,9 +24704,9 @@
         <v>7489</v>
       </c>
     </row>
-    <row r="460" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B460" s="9" t="s">
         <v>35</v>
@@ -24759,9 +24764,9 @@
         <v>7490</v>
       </c>
     </row>
-    <row r="461" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B461" s="9" t="s">
         <v>35</v>
@@ -24821,9 +24826,9 @@
         <v>7491</v>
       </c>
     </row>
-    <row r="462" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B462" s="9" t="s">
         <v>35</v>
@@ -24883,9 +24888,9 @@
         <v>7492</v>
       </c>
     </row>
-    <row r="463" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B463" s="9" t="s">
         <v>35</v>
@@ -24945,9 +24950,9 @@
         <v>7493</v>
       </c>
     </row>
-    <row r="464" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B464" s="9" t="s">
         <v>35</v>
@@ -25007,9 +25012,9 @@
         <v>7494</v>
       </c>
     </row>
-    <row r="465" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B465" s="9" t="s">
         <v>35</v>
@@ -25069,9 +25074,9 @@
         <v>7495</v>
       </c>
     </row>
-    <row r="466" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B466" s="9" t="s">
         <v>35</v>
@@ -25115,9 +25120,9 @@
         <v>7496</v>
       </c>
     </row>
-    <row r="467" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B467" s="9" t="s">
         <v>35</v>
@@ -25161,9 +25166,9 @@
         <v>7497</v>
       </c>
     </row>
-    <row r="468" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B468" s="9" t="s">
         <v>35</v>
@@ -25207,9 +25212,9 @@
         <v>7498</v>
       </c>
     </row>
-    <row r="469" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B469" s="9" t="s">
         <v>35</v>
@@ -25253,9 +25258,9 @@
         <v>7499</v>
       </c>
     </row>
-    <row r="470" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B470" s="9" t="s">
         <v>35</v>
@@ -25299,9 +25304,9 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="471" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B471" s="9" t="s">
         <v>35</v>
@@ -25345,9 +25350,9 @@
         <v>7501</v>
       </c>
     </row>
-    <row r="472" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B472" s="14" t="s">
         <v>41</v>
@@ -25391,9 +25396,9 @@
       <c r="S472" s="14"/>
       <c r="T472" s="14"/>
     </row>
-    <row r="473" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B473" s="14" t="s">
         <v>41</v>
@@ -25437,9 +25442,9 @@
       <c r="S473" s="14"/>
       <c r="T473" s="14"/>
     </row>
-    <row r="474" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B474" s="14" t="s">
         <v>41</v>
@@ -25483,9 +25488,9 @@
       <c r="S474" s="14"/>
       <c r="T474" s="14"/>
     </row>
-    <row r="475" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B475" s="20" t="s">
         <v>19</v>
@@ -25543,9 +25548,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="476" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B476" s="20" t="s">
         <v>19</v>
@@ -25603,9 +25608,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="477" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B477" s="17" t="s">
         <v>20</v>
@@ -25663,9 +25668,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="478" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B478" s="17" t="s">
         <v>20</v>
@@ -25723,9 +25728,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="479" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B479" s="17" t="s">
         <v>20</v>
@@ -25783,9 +25788,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="480" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B480" s="17" t="s">
         <v>20</v>
@@ -25843,9 +25848,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="481" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B481" s="17" t="s">
         <v>20</v>
@@ -25889,9 +25894,9 @@
       <c r="S481" s="17"/>
       <c r="T481" s="17"/>
     </row>
-    <row r="482" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B482" s="17" t="s">
         <v>20</v>
@@ -25935,9 +25940,9 @@
       <c r="S482" s="17"/>
       <c r="T482" s="17"/>
     </row>
-    <row r="483" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B483" s="18" t="s">
         <v>21</v>
@@ -25995,9 +26000,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="484" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B484" s="18" t="s">
         <v>21</v>
@@ -26055,9 +26060,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B485" s="18" t="s">
         <v>21</v>
@@ -26115,9 +26120,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B486" s="19" t="s">
         <v>22</v>
@@ -26175,9 +26180,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B487" s="19" t="s">
         <v>22</v>
@@ -26235,9 +26240,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>22</v>
@@ -26295,9 +26300,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>22</v>
@@ -26341,9 +26346,9 @@
       <c r="S489" s="19"/>
       <c r="T489" s="19"/>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B490" s="19" t="s">
         <v>22</v>
@@ -26387,9 +26392,9 @@
       <c r="S490" s="19"/>
       <c r="T490" s="19"/>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B491" s="19" t="s">
         <v>22</v>
@@ -26433,9 +26438,9 @@
       <c r="S491" s="19"/>
       <c r="T491" s="19"/>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B492" s="11" t="s">
         <v>23</v>
@@ -26479,9 +26484,9 @@
       <c r="S492" s="11"/>
       <c r="T492" s="11"/>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B493" s="11" t="s">
         <v>23</v>
@@ -26525,9 +26530,9 @@
       <c r="S493" s="11"/>
       <c r="T493" s="11"/>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B494" s="11" t="s">
         <v>23</v>
@@ -26571,9 +26576,9 @@
       <c r="S494" s="11"/>
       <c r="T494" s="11"/>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B495" s="11" t="s">
         <v>23</v>
@@ -26617,9 +26622,9 @@
       <c r="S495" s="11"/>
       <c r="T495" s="11"/>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B496" s="11" t="s">
         <v>23</v>
@@ -26663,9 +26668,9 @@
       <c r="S496" s="11"/>
       <c r="T496" s="11"/>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B497" s="11" t="s">
         <v>23</v>
@@ -26709,9 +26714,9 @@
       <c r="S497" s="11"/>
       <c r="T497" s="11"/>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B498" s="11" t="s">
         <v>23</v>
@@ -26755,9 +26760,9 @@
       <c r="S498" s="11"/>
       <c r="T498" s="11"/>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B499" s="11" t="s">
         <v>23</v>
@@ -26801,9 +26806,9 @@
       <c r="S499" s="11"/>
       <c r="T499" s="11"/>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B500" s="11" t="s">
         <v>23</v>
@@ -26847,9 +26852,9 @@
       <c r="S500" s="11"/>
       <c r="T500" s="11"/>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B501" s="11" t="s">
         <v>23</v>
@@ -26893,9 +26898,9 @@
       <c r="S501" s="11"/>
       <c r="T501" s="11"/>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B502" s="11" t="s">
         <v>23</v>
@@ -26939,9 +26944,9 @@
       <c r="S502" s="11"/>
       <c r="T502" s="11"/>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B503" s="11" t="s">
         <v>23</v>
@@ -26985,9 +26990,9 @@
       <c r="S503" s="11"/>
       <c r="T503" s="11"/>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B504" s="27" t="s">
         <v>58</v>
@@ -27031,9 +27036,9 @@
       <c r="S504" s="27"/>
       <c r="T504" s="27"/>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B505" s="27" t="s">
         <v>58</v>
@@ -27077,9 +27082,9 @@
       <c r="S505" s="27"/>
       <c r="T505" s="27"/>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B506" s="27" t="s">
         <v>58</v>
@@ -27123,9 +27128,9 @@
       <c r="S506" s="27"/>
       <c r="T506" s="27"/>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B507" s="27" t="s">
         <v>58</v>
@@ -27169,9 +27174,9 @@
       <c r="S507" s="27"/>
       <c r="T507" s="27"/>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B508" s="27" t="s">
         <v>58</v>
@@ -27215,9 +27220,9 @@
       <c r="S508" s="27"/>
       <c r="T508" s="27"/>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B509" s="27" t="s">
         <v>58</v>
@@ -27261,9 +27266,9 @@
       <c r="S509" s="27"/>
       <c r="T509" s="27"/>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B510" s="27" t="s">
         <v>58</v>
@@ -27307,9 +27312,9 @@
       <c r="S510" s="27"/>
       <c r="T510" s="27"/>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B511" s="27" t="s">
         <v>58</v>
@@ -27353,9 +27358,9 @@
       <c r="S511" s="27"/>
       <c r="T511" s="27"/>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B512" s="27" t="s">
         <v>58</v>
@@ -27399,9 +27404,9 @@
       <c r="S512" s="27"/>
       <c r="T512" s="27"/>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B513" s="27" t="s">
         <v>58</v>
@@ -27445,9 +27450,9 @@
       <c r="S513" s="27"/>
       <c r="T513" s="27"/>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B514" s="27" t="s">
         <v>58</v>
@@ -27491,9 +27496,9 @@
       <c r="S514" s="27"/>
       <c r="T514" s="27"/>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B515" s="27" t="s">
         <v>58</v>
@@ -27537,9 +27542,9 @@
       <c r="S515" s="27"/>
       <c r="T515" s="27"/>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B516" s="25" t="s">
         <v>61</v>
@@ -27583,9 +27588,9 @@
       <c r="S516" s="25"/>
       <c r="T516" s="25"/>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B517" s="25" t="s">
         <v>61</v>
@@ -27629,9 +27634,9 @@
       <c r="S517" s="25"/>
       <c r="T517" s="25"/>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B518" s="26" t="s">
         <v>115</v>
@@ -27675,9 +27680,9 @@
       <c r="S518" s="26"/>
       <c r="T518" s="26"/>
     </row>
-    <row r="519" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B519" s="26" t="s">
         <v>115</v>
@@ -27721,9 +27726,9 @@
       <c r="S519" s="26"/>
       <c r="T519" s="26"/>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B520" s="26" t="s">
         <v>115</v>
@@ -27767,9 +27772,9 @@
       <c r="S520" s="26"/>
       <c r="T520" s="26"/>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B521" s="26" t="s">
         <v>115</v>
@@ -27813,9 +27818,9 @@
       <c r="S521" s="26"/>
       <c r="T521" s="26"/>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B522" s="26" t="s">
         <v>115</v>
@@ -27859,9 +27864,9 @@
       <c r="S522" s="26"/>
       <c r="T522" s="26"/>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B523" s="26" t="s">
         <v>115</v>
@@ -27905,9 +27910,9 @@
       <c r="S523" s="26"/>
       <c r="T523" s="26"/>
     </row>
-    <row r="524" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="48" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B524" s="26" t="s">
         <v>115</v>
@@ -27951,7 +27956,7 @@
       <c r="S524" s="26"/>
       <c r="T524" s="26"/>
     </row>
-    <row r="525" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="38" t="s">
         <v>169</v>
       </c>
@@ -27964,9 +27969,7 @@
       <c r="D525" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E525" s="21">
-        <v>427</v>
-      </c>
+      <c r="E525" s="21"/>
       <c r="F525" s="21" t="s">
         <v>30</v>
       </c>
@@ -28013,7 +28016,7 @@
         <v>7502</v>
       </c>
     </row>
-    <row r="526" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="38" t="s">
         <v>169</v>
       </c>
@@ -28026,9 +28029,7 @@
       <c r="D526" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E526" s="21">
-        <v>428</v>
-      </c>
+      <c r="E526" s="21"/>
       <c r="F526" s="21" t="s">
         <v>30</v>
       </c>
@@ -28075,7 +28076,7 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="527" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="38" t="s">
         <v>169</v>
       </c>
@@ -28088,9 +28089,7 @@
       <c r="D527" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E527" s="21">
-        <v>429</v>
-      </c>
+      <c r="E527" s="21"/>
       <c r="F527" s="21" t="s">
         <v>30</v>
       </c>
@@ -28137,7 +28136,7 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="528" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="38" t="s">
         <v>169</v>
       </c>
@@ -28150,9 +28149,7 @@
       <c r="D528" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E528" s="21">
-        <v>430</v>
-      </c>
+      <c r="E528" s="21"/>
       <c r="F528" s="21" t="s">
         <v>30</v>
       </c>
@@ -28199,7 +28196,7 @@
         <v>7505</v>
       </c>
     </row>
-    <row r="529" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="38" t="s">
         <v>169</v>
       </c>
@@ -28212,9 +28209,7 @@
       <c r="D529" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E529" s="12">
-        <v>431</v>
-      </c>
+      <c r="E529" s="12"/>
       <c r="F529" s="12" t="s">
         <v>30</v>
       </c>
@@ -28261,7 +28256,7 @@
         <v>7506</v>
       </c>
     </row>
-    <row r="530" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="38" t="s">
         <v>169</v>
       </c>
@@ -28274,9 +28269,7 @@
       <c r="D530" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E530" s="12">
-        <v>432</v>
-      </c>
+      <c r="E530" s="12"/>
       <c r="F530" s="12" t="s">
         <v>30</v>
       </c>
@@ -28323,7 +28316,7 @@
         <v>7507</v>
       </c>
     </row>
-    <row r="531" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="38" t="s">
         <v>169</v>
       </c>
@@ -28336,9 +28329,7 @@
       <c r="D531" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E531" s="6">
-        <v>433</v>
-      </c>
+      <c r="E531" s="6"/>
       <c r="F531" s="6" t="s">
         <v>30</v>
       </c>
@@ -28385,7 +28376,7 @@
         <v>7508</v>
       </c>
     </row>
-    <row r="532" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="38" t="s">
         <v>169</v>
       </c>
@@ -28398,9 +28389,7 @@
       <c r="D532" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E532" s="22">
-        <v>434</v>
-      </c>
+      <c r="E532" s="22"/>
       <c r="F532" s="22"/>
       <c r="G532" s="22"/>
       <c r="H532" s="22"/>
@@ -28433,7 +28422,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="533" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="38" t="s">
         <v>169</v>
       </c>
@@ -28446,9 +28435,7 @@
       <c r="D533" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E533" s="22">
-        <v>435</v>
-      </c>
+      <c r="E533" s="22"/>
       <c r="F533" s="22"/>
       <c r="G533" s="22"/>
       <c r="H533" s="22"/>
@@ -28481,7 +28468,7 @@
         <v>7510</v>
       </c>
     </row>
-    <row r="534" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="38" t="s">
         <v>169</v>
       </c>
@@ -28494,9 +28481,7 @@
       <c r="D534" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E534" s="22">
-        <v>436</v>
-      </c>
+      <c r="E534" s="22"/>
       <c r="F534" s="22"/>
       <c r="G534" s="22"/>
       <c r="H534" s="22"/>
@@ -28529,7 +28514,7 @@
         <v>7511</v>
       </c>
     </row>
-    <row r="535" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="38" t="s">
         <v>169</v>
       </c>
@@ -28542,9 +28527,7 @@
       <c r="D535" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E535" s="22">
-        <v>437</v>
-      </c>
+      <c r="E535" s="22"/>
       <c r="F535" s="22"/>
       <c r="G535" s="22"/>
       <c r="H535" s="22"/>
@@ -28577,7 +28560,7 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="536" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="38" t="s">
         <v>169</v>
       </c>
@@ -28590,9 +28573,7 @@
       <c r="D536" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E536" s="22">
-        <v>438</v>
-      </c>
+      <c r="E536" s="22"/>
       <c r="F536" s="22"/>
       <c r="G536" s="22"/>
       <c r="H536" s="22"/>
@@ -28625,7 +28606,7 @@
         <v>7513</v>
       </c>
     </row>
-    <row r="537" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="38" t="s">
         <v>169</v>
       </c>
@@ -28638,9 +28619,7 @@
       <c r="D537" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E537" s="22">
-        <v>439</v>
-      </c>
+      <c r="E537" s="22"/>
       <c r="F537" s="22"/>
       <c r="G537" s="22"/>
       <c r="H537" s="22"/>
@@ -28673,7 +28652,7 @@
         <v>7514</v>
       </c>
     </row>
-    <row r="538" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="38" t="s">
         <v>169</v>
       </c>
@@ -28719,7 +28698,7 @@
       <c r="S538" s="14"/>
       <c r="T538" s="14"/>
     </row>
-    <row r="539" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="38" t="s">
         <v>169</v>
       </c>
@@ -28779,7 +28758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="540" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="38" t="s">
         <v>169</v>
       </c>
@@ -28839,7 +28818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="541" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="38" t="s">
         <v>169</v>
       </c>
@@ -28899,7 +28878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="542" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="38" t="s">
         <v>169</v>
       </c>
@@ -28959,7 +28938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="543" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="38" t="s">
         <v>169</v>
       </c>
@@ -29019,7 +28998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="544" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="38" t="s">
         <v>169</v>
       </c>
@@ -29079,7 +29058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="545" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="38" t="s">
         <v>169</v>
       </c>
@@ -29125,7 +29104,7 @@
       <c r="S545" s="17"/>
       <c r="T545" s="17"/>
     </row>
-    <row r="546" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="38" t="s">
         <v>169</v>
       </c>
@@ -29171,7 +29150,7 @@
       <c r="S546" s="17"/>
       <c r="T546" s="17"/>
     </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="38" t="s">
         <v>169</v>
       </c>
@@ -29217,7 +29196,7 @@
       <c r="S547" s="11"/>
       <c r="T547" s="11"/>
     </row>
-    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="38" t="s">
         <v>169</v>
       </c>
@@ -29263,7 +29242,7 @@
       <c r="S548" s="11"/>
       <c r="T548" s="11"/>
     </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="38" t="s">
         <v>169</v>
       </c>
@@ -29309,7 +29288,7 @@
       <c r="S549" s="11"/>
       <c r="T549" s="11"/>
     </row>
-    <row r="550" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="38" t="s">
         <v>169</v>
       </c>
@@ -29355,7 +29334,7 @@
       <c r="S550" s="11"/>
       <c r="T550" s="11"/>
     </row>
-    <row r="551" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="49" t="s">
         <v>170</v>
       </c>
@@ -29415,7 +29394,7 @@
         <v>7515</v>
       </c>
     </row>
-    <row r="552" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="49" t="s">
         <v>170</v>
       </c>
@@ -29475,7 +29454,7 @@
         <v>7516</v>
       </c>
     </row>
-    <row r="553" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="49" t="s">
         <v>170</v>
       </c>
@@ -29535,7 +29514,7 @@
         <v>7517</v>
       </c>
     </row>
-    <row r="554" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="49" t="s">
         <v>170</v>
       </c>
@@ -29595,7 +29574,7 @@
         <v>7518</v>
       </c>
     </row>
-    <row r="555" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="49" t="s">
         <v>170</v>
       </c>
@@ -29655,7 +29634,7 @@
         <v>7519</v>
       </c>
     </row>
-    <row r="556" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="49" t="s">
         <v>170</v>
       </c>
@@ -29715,7 +29694,7 @@
         <v>7520</v>
       </c>
     </row>
-    <row r="557" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="49" t="s">
         <v>170</v>
       </c>
@@ -29775,7 +29754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="558" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="49" t="s">
         <v>170</v>
       </c>
@@ -29835,7 +29814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="49" t="s">
         <v>170</v>
       </c>
@@ -29895,7 +29874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="49" t="s">
         <v>170</v>
       </c>
@@ -29941,7 +29920,7 @@
       <c r="S560" s="18"/>
       <c r="T560" s="18"/>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="49" t="s">
         <v>170</v>
       </c>
@@ -30001,7 +29980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="49" t="s">
         <v>170</v>
       </c>
@@ -30061,7 +30040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="49" t="s">
         <v>170</v>
       </c>
@@ -30121,7 +30100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="49" t="s">
         <v>170</v>
       </c>
@@ -30167,7 +30146,7 @@
       <c r="S564" s="19"/>
       <c r="T564" s="19"/>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="49" t="s">
         <v>170</v>
       </c>
@@ -30213,7 +30192,7 @@
       <c r="S565" s="19"/>
       <c r="T565" s="19"/>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="49" t="s">
         <v>170</v>
       </c>
@@ -30259,7 +30238,7 @@
       <c r="S566" s="19"/>
       <c r="T566" s="19"/>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="49" t="s">
         <v>170</v>
       </c>
@@ -30305,7 +30284,7 @@
       <c r="S567" s="19"/>
       <c r="T567" s="19"/>
     </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="49" t="s">
         <v>170</v>
       </c>
@@ -30351,7 +30330,7 @@
       <c r="S568" s="19"/>
       <c r="T568" s="19"/>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="49" t="s">
         <v>170</v>
       </c>
@@ -30397,7 +30376,7 @@
       <c r="S569" s="19"/>
       <c r="T569" s="19"/>
     </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="49" t="s">
         <v>170</v>
       </c>
@@ -30443,7 +30422,7 @@
       <c r="S570" s="19"/>
       <c r="T570" s="19"/>
     </row>
-    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="49" t="s">
         <v>170</v>
       </c>
@@ -30489,7 +30468,7 @@
       <c r="S571" s="19"/>
       <c r="T571" s="19"/>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="49" t="s">
         <v>170</v>
       </c>
@@ -30535,7 +30514,7 @@
       <c r="S572" s="19"/>
       <c r="T572" s="19"/>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="49" t="s">
         <v>170</v>
       </c>
@@ -30581,7 +30560,7 @@
       <c r="S573" s="19"/>
       <c r="T573" s="19"/>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="49" t="s">
         <v>170</v>
       </c>
@@ -30627,7 +30606,7 @@
       <c r="S574" s="19"/>
       <c r="T574" s="19"/>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="49" t="s">
         <v>170</v>
       </c>
@@ -30673,7 +30652,7 @@
       <c r="S575" s="19"/>
       <c r="T575" s="19"/>
     </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="49" t="s">
         <v>170</v>
       </c>
@@ -30719,7 +30698,7 @@
       <c r="S576" s="19"/>
       <c r="T576" s="19"/>
     </row>
-    <row r="577" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="49" t="s">
         <v>170</v>
       </c>
@@ -30765,7 +30744,7 @@
       <c r="S577" s="19"/>
       <c r="T577" s="19"/>
     </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="49" t="s">
         <v>170</v>
       </c>
@@ -30811,7 +30790,7 @@
       <c r="S578" s="11"/>
       <c r="T578" s="11"/>
     </row>
-    <row r="579" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="49" t="s">
         <v>170</v>
       </c>
@@ -30857,7 +30836,7 @@
       <c r="S579" s="11"/>
       <c r="T579" s="11"/>
     </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="49" t="s">
         <v>170</v>
       </c>
@@ -30903,7 +30882,7 @@
       <c r="S580" s="11"/>
       <c r="T580" s="11"/>
     </row>
-    <row r="581" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="49" t="s">
         <v>170</v>
       </c>
@@ -30949,7 +30928,7 @@
       <c r="S581" s="11"/>
       <c r="T581" s="11"/>
     </row>
-    <row r="582" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="49" t="s">
         <v>170</v>
       </c>
@@ -30995,7 +30974,7 @@
       <c r="S582" s="27"/>
       <c r="T582" s="27"/>
     </row>
-    <row r="583" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="49" t="s">
         <v>170</v>
       </c>
@@ -31041,7 +31020,7 @@
       <c r="S583" s="27"/>
       <c r="T583" s="27"/>
     </row>
-    <row r="584" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="49" t="s">
         <v>170</v>
       </c>
@@ -31087,7 +31066,7 @@
       <c r="S584" s="27"/>
       <c r="T584" s="27"/>
     </row>
-    <row r="585" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="49" t="s">
         <v>170</v>
       </c>
@@ -31133,7 +31112,7 @@
       <c r="S585" s="27"/>
       <c r="T585" s="27"/>
     </row>
-    <row r="586" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="49" t="s">
         <v>170</v>
       </c>
@@ -31179,7 +31158,7 @@
       <c r="S586" s="27"/>
       <c r="T586" s="27"/>
     </row>
-    <row r="587" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="49" t="s">
         <v>170</v>
       </c>
@@ -31225,7 +31204,7 @@
       <c r="S587" s="27"/>
       <c r="T587" s="27"/>
     </row>
-    <row r="588" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="49" t="s">
         <v>170</v>
       </c>
@@ -31271,7 +31250,7 @@
       <c r="S588" s="27"/>
       <c r="T588" s="27"/>
     </row>
-    <row r="589" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="49" t="s">
         <v>170</v>
       </c>
@@ -31317,7 +31296,7 @@
       <c r="S589" s="27"/>
       <c r="T589" s="27"/>
     </row>
-    <row r="590" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="49" t="s">
         <v>170</v>
       </c>
@@ -31363,7 +31342,7 @@
       <c r="S590" s="27"/>
       <c r="T590" s="27"/>
     </row>
-    <row r="591" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="49" t="s">
         <v>170</v>
       </c>
@@ -31409,7 +31388,7 @@
       <c r="S591" s="27"/>
       <c r="T591" s="27"/>
     </row>
-    <row r="592" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="49" t="s">
         <v>170</v>
       </c>
@@ -31455,7 +31434,7 @@
       <c r="S592" s="27"/>
       <c r="T592" s="27"/>
     </row>
-    <row r="593" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="49" t="s">
         <v>170</v>
       </c>
@@ -33697,95 +33676,95 @@
       <c r="A638" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B638" s="27" t="s">
+      <c r="B638" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C638" s="27" t="s">
+      <c r="C638" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D638" s="27" t="s">
+      <c r="D638" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E638" s="27">
+      <c r="E638" s="56">
         <v>528</v>
       </c>
-      <c r="F638" s="27">
+      <c r="F638" s="56">
         <v>1104</v>
       </c>
-      <c r="G638" s="27">
+      <c r="G638" s="56">
         <v>1879</v>
       </c>
-      <c r="H638" s="27">
+      <c r="H638" s="56">
         <v>2654</v>
       </c>
-      <c r="I638" s="27">
+      <c r="I638" s="56">
         <v>3429</v>
       </c>
-      <c r="J638" s="27">
+      <c r="J638" s="56">
         <v>4204</v>
       </c>
-      <c r="K638" s="27">
+      <c r="K638" s="56">
         <v>4979</v>
       </c>
-      <c r="L638" s="27">
+      <c r="L638" s="56">
         <v>5754</v>
       </c>
-      <c r="M638" s="27"/>
-      <c r="N638" s="27"/>
-      <c r="O638" s="27"/>
-      <c r="P638" s="27"/>
-      <c r="Q638" s="27"/>
-      <c r="R638" s="27"/>
-      <c r="S638" s="27"/>
-      <c r="T638" s="27"/>
+      <c r="M638" s="56"/>
+      <c r="N638" s="56"/>
+      <c r="O638" s="56"/>
+      <c r="P638" s="56"/>
+      <c r="Q638" s="56"/>
+      <c r="R638" s="56"/>
+      <c r="S638" s="56"/>
+      <c r="T638" s="56"/>
     </row>
     <row r="639" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B639" s="27" t="s">
+      <c r="B639" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C639" s="27" t="s">
+      <c r="C639" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D639" s="27" t="s">
+      <c r="D639" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="E639" s="27">
+      <c r="E639" s="56">
         <v>529</v>
       </c>
-      <c r="F639" s="27">
+      <c r="F639" s="56">
         <v>1105</v>
       </c>
-      <c r="G639" s="27">
+      <c r="G639" s="56">
         <v>1880</v>
       </c>
-      <c r="H639" s="27">
+      <c r="H639" s="56">
         <v>2655</v>
       </c>
-      <c r="I639" s="27">
+      <c r="I639" s="56">
         <v>3430</v>
       </c>
-      <c r="J639" s="27">
+      <c r="J639" s="56">
         <v>4205</v>
       </c>
-      <c r="K639" s="27">
+      <c r="K639" s="56">
         <v>4980</v>
       </c>
-      <c r="L639" s="27">
+      <c r="L639" s="56">
         <v>5755</v>
       </c>
-      <c r="M639" s="27"/>
-      <c r="N639" s="27"/>
-      <c r="O639" s="27"/>
-      <c r="P639" s="27"/>
-      <c r="Q639" s="27"/>
-      <c r="R639" s="27"/>
-      <c r="S639" s="27"/>
-      <c r="T639" s="27"/>
-    </row>
-    <row r="640" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M639" s="56"/>
+      <c r="N639" s="56"/>
+      <c r="O639" s="56"/>
+      <c r="P639" s="56"/>
+      <c r="Q639" s="56"/>
+      <c r="R639" s="56"/>
+      <c r="S639" s="56"/>
+      <c r="T639" s="56"/>
+    </row>
+    <row r="640" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="50" t="s">
         <v>173</v>
       </c>
@@ -33845,7 +33824,7 @@
         <v>7527</v>
       </c>
     </row>
-    <row r="641" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="50" t="s">
         <v>173</v>
       </c>
@@ -33905,7 +33884,7 @@
         <v>7528</v>
       </c>
     </row>
-    <row r="642" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="50" t="s">
         <v>173</v>
       </c>
@@ -33965,7 +33944,7 @@
         <v>7529</v>
       </c>
     </row>
-    <row r="643" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="50" t="s">
         <v>173</v>
       </c>
@@ -34027,7 +34006,7 @@
         <v>7530</v>
       </c>
     </row>
-    <row r="644" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="50" t="s">
         <v>173</v>
       </c>
@@ -34089,7 +34068,7 @@
         <v>7531</v>
       </c>
     </row>
-    <row r="645" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="50" t="s">
         <v>173</v>
       </c>
@@ -34151,7 +34130,7 @@
         <v>7532</v>
       </c>
     </row>
-    <row r="646" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="50" t="s">
         <v>173</v>
       </c>
@@ -34213,7 +34192,7 @@
         <v>7533</v>
       </c>
     </row>
-    <row r="647" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="50" t="s">
         <v>173</v>
       </c>
@@ -34259,7 +34238,7 @@
         <v>7534</v>
       </c>
     </row>
-    <row r="648" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="50" t="s">
         <v>173</v>
       </c>
@@ -34305,7 +34284,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="649" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="50" t="s">
         <v>173</v>
       </c>
@@ -34351,7 +34330,7 @@
         <v>7536</v>
       </c>
     </row>
-    <row r="650" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="50" t="s">
         <v>173</v>
       </c>
@@ -34397,7 +34376,7 @@
         <v>7537</v>
       </c>
     </row>
-    <row r="651" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="50" t="s">
         <v>173</v>
       </c>
@@ -34443,7 +34422,7 @@
         <v>7538</v>
       </c>
     </row>
-    <row r="652" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="50" t="s">
         <v>173</v>
       </c>
@@ -34489,7 +34468,7 @@
         <v>7539</v>
       </c>
     </row>
-    <row r="653" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="50" t="s">
         <v>173</v>
       </c>
@@ -34535,7 +34514,7 @@
       <c r="S653" s="14"/>
       <c r="T653" s="14"/>
     </row>
-    <row r="654" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="50" t="s">
         <v>173</v>
       </c>
@@ -34595,7 +34574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="655" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="50" t="s">
         <v>173</v>
       </c>
@@ -34655,7 +34634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="656" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="50" t="s">
         <v>173</v>
       </c>
@@ -34715,7 +34694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="657" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="50" t="s">
         <v>173</v>
       </c>
@@ -34775,7 +34754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="658" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="50" t="s">
         <v>173</v>
       </c>
@@ -34835,7 +34814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="659" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="50" t="s">
         <v>173</v>
       </c>
@@ -34895,7 +34874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="660" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="50" t="s">
         <v>173</v>
       </c>
@@ -34955,7 +34934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="661" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="50" t="s">
         <v>173</v>
       </c>
@@ -35015,7 +34994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="662" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="50" t="s">
         <v>173</v>
       </c>
@@ -35075,7 +35054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="663" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="50" t="s">
         <v>173</v>
       </c>
@@ -35135,7 +35114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="664" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="50" t="s">
         <v>173</v>
       </c>
@@ -35195,7 +35174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="665" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="50" t="s">
         <v>173</v>
       </c>
@@ -35255,7 +35234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="666" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="50" t="s">
         <v>173</v>
       </c>
@@ -35315,7 +35294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="667" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="50" t="s">
         <v>173</v>
       </c>
@@ -35361,7 +35340,7 @@
       <c r="S667" s="19"/>
       <c r="T667" s="19"/>
     </row>
-    <row r="668" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="50" t="s">
         <v>173</v>
       </c>
@@ -35407,7 +35386,7 @@
       <c r="S668" s="11"/>
       <c r="T668" s="11"/>
     </row>
-    <row r="669" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="50" t="s">
         <v>173</v>
       </c>
@@ -35453,7 +35432,7 @@
       <c r="S669" s="11"/>
       <c r="T669" s="11"/>
     </row>
-    <row r="670" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="50" t="s">
         <v>173</v>
       </c>
@@ -35499,7 +35478,7 @@
       <c r="S670" s="11"/>
       <c r="T670" s="11"/>
     </row>
-    <row r="671" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="50" t="s">
         <v>173</v>
       </c>
@@ -35545,7 +35524,7 @@
       <c r="S671" s="11"/>
       <c r="T671" s="11"/>
     </row>
-    <row r="672" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="50" t="s">
         <v>173</v>
       </c>
@@ -35591,7 +35570,7 @@
       <c r="S672" s="11"/>
       <c r="T672" s="11"/>
     </row>
-    <row r="673" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="50" t="s">
         <v>173</v>
       </c>
@@ -35637,7 +35616,7 @@
       <c r="S673" s="11"/>
       <c r="T673" s="11"/>
     </row>
-    <row r="674" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="50" t="s">
         <v>173</v>
       </c>
@@ -35683,7 +35662,7 @@
       <c r="S674" s="11"/>
       <c r="T674" s="11"/>
     </row>
-    <row r="675" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="50" t="s">
         <v>173</v>
       </c>
@@ -35729,7 +35708,7 @@
       <c r="S675" s="11"/>
       <c r="T675" s="11"/>
     </row>
-    <row r="676" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="50" t="s">
         <v>173</v>
       </c>
@@ -35775,7 +35754,7 @@
       <c r="S676" s="27"/>
       <c r="T676" s="27"/>
     </row>
-    <row r="677" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="50" t="s">
         <v>173</v>
       </c>
@@ -35821,7 +35800,7 @@
       <c r="S677" s="27"/>
       <c r="T677" s="27"/>
     </row>
-    <row r="678" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="50" t="s">
         <v>173</v>
       </c>
@@ -35867,7 +35846,7 @@
       <c r="S678" s="27"/>
       <c r="T678" s="27"/>
     </row>
-    <row r="679" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="50" t="s">
         <v>173</v>
       </c>
@@ -35913,7 +35892,7 @@
       <c r="S679" s="27"/>
       <c r="T679" s="27"/>
     </row>
-    <row r="680" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="50" t="s">
         <v>173</v>
       </c>
@@ -35959,7 +35938,7 @@
       <c r="S680" s="27"/>
       <c r="T680" s="27"/>
     </row>
-    <row r="681" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="50" t="s">
         <v>173</v>
       </c>
@@ -36005,7 +35984,7 @@
       <c r="S681" s="27"/>
       <c r="T681" s="27"/>
     </row>
-    <row r="682" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="50" t="s">
         <v>173</v>
       </c>
@@ -36051,7 +36030,7 @@
       <c r="S682" s="27"/>
       <c r="T682" s="27"/>
     </row>
-    <row r="683" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="50" t="s">
         <v>173</v>
       </c>
@@ -36097,7 +36076,7 @@
       <c r="S683" s="27"/>
       <c r="T683" s="27"/>
     </row>
-    <row r="684" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="50" t="s">
         <v>173</v>
       </c>
@@ -36143,7 +36122,7 @@
       <c r="S684" s="27"/>
       <c r="T684" s="27"/>
     </row>
-    <row r="685" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="50" t="s">
         <v>173</v>
       </c>
@@ -36189,7 +36168,7 @@
       <c r="S685" s="25"/>
       <c r="T685" s="25"/>
     </row>
-    <row r="686" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="50" t="s">
         <v>173</v>
       </c>
@@ -36235,7 +36214,7 @@
       <c r="S686" s="25"/>
       <c r="T686" s="25"/>
     </row>
-    <row r="687" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="50" t="s">
         <v>173</v>
       </c>
@@ -36281,7 +36260,7 @@
       <c r="S687" s="25"/>
       <c r="T687" s="25"/>
     </row>
-    <row r="688" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="50" t="s">
         <v>173</v>
       </c>
@@ -36327,7 +36306,7 @@
       <c r="S688" s="26"/>
       <c r="T688" s="26"/>
     </row>
-    <row r="689" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="50" t="s">
         <v>173</v>
       </c>
@@ -36373,7 +36352,7 @@
       <c r="S689" s="26"/>
       <c r="T689" s="26"/>
     </row>
-    <row r="690" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="50" t="s">
         <v>173</v>
       </c>
@@ -36419,7 +36398,7 @@
       <c r="S690" s="26"/>
       <c r="T690" s="26"/>
     </row>
-    <row r="691" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="50" t="s">
         <v>173</v>
       </c>
@@ -36465,7 +36444,7 @@
       <c r="S691" s="2"/>
       <c r="T691" s="2"/>
     </row>
-    <row r="692" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="51" t="s">
         <v>175</v>
       </c>
@@ -36525,7 +36504,7 @@
         <v>7540</v>
       </c>
     </row>
-    <row r="693" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="51" t="s">
         <v>175</v>
       </c>
@@ -36585,7 +36564,7 @@
         <v>7541</v>
       </c>
     </row>
-    <row r="694" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="51" t="s">
         <v>175</v>
       </c>
@@ -36645,7 +36624,7 @@
         <v>7542</v>
       </c>
     </row>
-    <row r="695" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="51" t="s">
         <v>175</v>
       </c>
@@ -36707,7 +36686,7 @@
         <v>7543</v>
       </c>
     </row>
-    <row r="696" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="51" t="s">
         <v>175</v>
       </c>
@@ -36769,7 +36748,7 @@
         <v>7544</v>
       </c>
     </row>
-    <row r="697" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="51" t="s">
         <v>175</v>
       </c>
@@ -36831,7 +36810,7 @@
         <v>7545</v>
       </c>
     </row>
-    <row r="698" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="51" t="s">
         <v>175</v>
       </c>
@@ -36893,7 +36872,7 @@
         <v>7546</v>
       </c>
     </row>
-    <row r="699" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="51" t="s">
         <v>175</v>
       </c>
@@ -36939,7 +36918,7 @@
         <v>7547</v>
       </c>
     </row>
-    <row r="700" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="51" t="s">
         <v>175</v>
       </c>
@@ -36985,7 +36964,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="701" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="51" t="s">
         <v>175</v>
       </c>
@@ -37031,7 +37010,7 @@
         <v>7549</v>
       </c>
     </row>
-    <row r="702" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="51" t="s">
         <v>175</v>
       </c>
@@ -37077,7 +37056,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="703" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="51" t="s">
         <v>175</v>
       </c>
@@ -37123,7 +37102,7 @@
         <v>7551</v>
       </c>
     </row>
-    <row r="704" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="51" t="s">
         <v>175</v>
       </c>
@@ -37169,7 +37148,7 @@
         <v>7552</v>
       </c>
     </row>
-    <row r="705" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="51" t="s">
         <v>175</v>
       </c>
@@ -37215,7 +37194,7 @@
       <c r="S705" s="14"/>
       <c r="T705" s="14"/>
     </row>
-    <row r="706" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="51" t="s">
         <v>175</v>
       </c>
@@ -37275,7 +37254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="707" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="51" t="s">
         <v>175</v>
       </c>
@@ -37335,7 +37314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="708" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="51" t="s">
         <v>175</v>
       </c>
@@ -37395,7 +37374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="709" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="51" t="s">
         <v>175</v>
       </c>
@@ -37455,7 +37434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="710" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="51" t="s">
         <v>175</v>
       </c>
@@ -37515,7 +37494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="711" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="51" t="s">
         <v>175</v>
       </c>
@@ -37575,7 +37554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="712" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="51" t="s">
         <v>175</v>
       </c>
@@ -37635,7 +37614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="713" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="51" t="s">
         <v>175</v>
       </c>
@@ -37695,7 +37674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="714" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="51" t="s">
         <v>175</v>
       </c>
@@ -37755,7 +37734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="715" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="51" t="s">
         <v>175</v>
       </c>
@@ -37815,7 +37794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="716" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="51" t="s">
         <v>175</v>
       </c>
@@ -37875,7 +37854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="717" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="51" t="s">
         <v>175</v>
       </c>
@@ -37935,7 +37914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="718" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="51" t="s">
         <v>175</v>
       </c>
@@ -37995,7 +37974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="719" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="51" t="s">
         <v>175</v>
       </c>
@@ -38041,7 +38020,7 @@
       <c r="S719" s="19"/>
       <c r="T719" s="19"/>
     </row>
-    <row r="720" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="51" t="s">
         <v>175</v>
       </c>
@@ -38087,7 +38066,7 @@
       <c r="S720" s="11"/>
       <c r="T720" s="11"/>
     </row>
-    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="51" t="s">
         <v>175</v>
       </c>
@@ -38133,7 +38112,7 @@
       <c r="S721" s="11"/>
       <c r="T721" s="11"/>
     </row>
-    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="51" t="s">
         <v>175</v>
       </c>
@@ -38179,7 +38158,7 @@
       <c r="S722" s="11"/>
       <c r="T722" s="11"/>
     </row>
-    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="51" t="s">
         <v>175</v>
       </c>
@@ -38225,7 +38204,7 @@
       <c r="S723" s="11"/>
       <c r="T723" s="11"/>
     </row>
-    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="51" t="s">
         <v>175</v>
       </c>
@@ -38271,7 +38250,7 @@
       <c r="S724" s="11"/>
       <c r="T724" s="11"/>
     </row>
-    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="51" t="s">
         <v>175</v>
       </c>
@@ -38317,7 +38296,7 @@
       <c r="S725" s="11"/>
       <c r="T725" s="11"/>
     </row>
-    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="51" t="s">
         <v>175</v>
       </c>
@@ -38363,7 +38342,7 @@
       <c r="S726" s="11"/>
       <c r="T726" s="11"/>
     </row>
-    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="51" t="s">
         <v>175</v>
       </c>
@@ -38409,7 +38388,7 @@
       <c r="S727" s="11"/>
       <c r="T727" s="11"/>
     </row>
-    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="51" t="s">
         <v>175</v>
       </c>
@@ -38455,7 +38434,7 @@
       <c r="S728" s="27"/>
       <c r="T728" s="27"/>
     </row>
-    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="51" t="s">
         <v>175</v>
       </c>
@@ -38501,7 +38480,7 @@
       <c r="S729" s="27"/>
       <c r="T729" s="27"/>
     </row>
-    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="51" t="s">
         <v>175</v>
       </c>
@@ -38547,7 +38526,7 @@
       <c r="S730" s="27"/>
       <c r="T730" s="27"/>
     </row>
-    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="51" t="s">
         <v>175</v>
       </c>
@@ -38593,7 +38572,7 @@
       <c r="S731" s="27"/>
       <c r="T731" s="27"/>
     </row>
-    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="51" t="s">
         <v>175</v>
       </c>
@@ -38639,7 +38618,7 @@
       <c r="S732" s="27"/>
       <c r="T732" s="27"/>
     </row>
-    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="51" t="s">
         <v>175</v>
       </c>
@@ -38685,7 +38664,7 @@
       <c r="S733" s="27"/>
       <c r="T733" s="27"/>
     </row>
-    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="51" t="s">
         <v>175</v>
       </c>
@@ -38731,7 +38710,7 @@
       <c r="S734" s="27"/>
       <c r="T734" s="27"/>
     </row>
-    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="51" t="s">
         <v>175</v>
       </c>
@@ -38777,7 +38756,7 @@
       <c r="S735" s="27"/>
       <c r="T735" s="27"/>
     </row>
-    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="51" t="s">
         <v>175</v>
       </c>
@@ -38823,7 +38802,7 @@
       <c r="S736" s="27"/>
       <c r="T736" s="27"/>
     </row>
-    <row r="737" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="51" t="s">
         <v>175</v>
       </c>
@@ -38869,7 +38848,7 @@
       <c r="S737" s="25"/>
       <c r="T737" s="25"/>
     </row>
-    <row r="738" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="51" t="s">
         <v>175</v>
       </c>
@@ -38915,7 +38894,7 @@
       <c r="S738" s="25"/>
       <c r="T738" s="25"/>
     </row>
-    <row r="739" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="51" t="s">
         <v>175</v>
       </c>
@@ -38961,7 +38940,7 @@
       <c r="S739" s="25"/>
       <c r="T739" s="25"/>
     </row>
-    <row r="740" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="51" t="s">
         <v>175</v>
       </c>
@@ -39007,7 +38986,7 @@
       <c r="S740" s="26"/>
       <c r="T740" s="26"/>
     </row>
-    <row r="741" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="51" t="s">
         <v>175</v>
       </c>
@@ -39053,7 +39032,7 @@
       <c r="S741" s="26"/>
       <c r="T741" s="26"/>
     </row>
-    <row r="742" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="51" t="s">
         <v>175</v>
       </c>
@@ -39099,7 +39078,7 @@
       <c r="S742" s="26"/>
       <c r="T742" s="26"/>
     </row>
-    <row r="743" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="51" t="s">
         <v>175</v>
       </c>
@@ -39145,7 +39124,7 @@
       <c r="S743" s="52"/>
       <c r="T743" s="52"/>
     </row>
-    <row r="744" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:20" s="32" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A744" s="51" t="s">
         <v>175</v>
       </c>
@@ -39191,7 +39170,7 @@
       <c r="S744" s="52"/>
       <c r="T744" s="52"/>
     </row>
-    <row r="745" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="49" t="s">
         <v>176</v>
       </c>
@@ -39251,7 +39230,7 @@
         <v>7553</v>
       </c>
     </row>
-    <row r="746" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="49" t="s">
         <v>176</v>
       </c>
@@ -39311,7 +39290,7 @@
         <v>7554</v>
       </c>
     </row>
-    <row r="747" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="49" t="s">
         <v>176</v>
       </c>
@@ -39371,7 +39350,7 @@
         <v>7555</v>
       </c>
     </row>
-    <row r="748" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="49" t="s">
         <v>176</v>
       </c>
@@ -39433,7 +39412,7 @@
         <v>7556</v>
       </c>
     </row>
-    <row r="749" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="49" t="s">
         <v>176</v>
       </c>
@@ -39495,7 +39474,7 @@
         <v>7557</v>
       </c>
     </row>
-    <row r="750" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="49" t="s">
         <v>176</v>
       </c>
@@ -39557,7 +39536,7 @@
         <v>7558</v>
       </c>
     </row>
-    <row r="751" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="49" t="s">
         <v>176</v>
       </c>
@@ -39603,7 +39582,7 @@
       <c r="S751" s="14"/>
       <c r="T751" s="14"/>
     </row>
-    <row r="752" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="49" t="s">
         <v>176</v>
       </c>
@@ -39649,7 +39628,7 @@
       <c r="S752" s="11"/>
       <c r="T752" s="11"/>
     </row>
-    <row r="753" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="49" t="s">
         <v>176</v>
       </c>
@@ -39695,7 +39674,7 @@
       <c r="S753" s="11"/>
       <c r="T753" s="11"/>
     </row>
-    <row r="754" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="49" t="s">
         <v>176</v>
       </c>
@@ -39741,7 +39720,7 @@
       <c r="S754" s="11"/>
       <c r="T754" s="11"/>
     </row>
-    <row r="755" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="49" t="s">
         <v>176</v>
       </c>
@@ -39787,7 +39766,7 @@
       <c r="S755" s="11"/>
       <c r="T755" s="11"/>
     </row>
-    <row r="756" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="49" t="s">
         <v>176</v>
       </c>
@@ -39833,7 +39812,7 @@
       <c r="S756" s="26"/>
       <c r="T756" s="26"/>
     </row>
-    <row r="757" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:20" s="32" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="49" t="s">
         <v>176</v>
       </c>
@@ -39879,7 +39858,7 @@
       <c r="S757" s="26"/>
       <c r="T757" s="26"/>
     </row>
-    <row r="758" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="7" t="s">
         <v>177</v>
       </c>
@@ -39939,7 +39918,7 @@
         <v>7559</v>
       </c>
     </row>
-    <row r="759" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="7" t="s">
         <v>177</v>
       </c>
@@ -39999,7 +39978,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="760" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="7" t="s">
         <v>177</v>
       </c>
@@ -40059,7 +40038,7 @@
         <v>7561</v>
       </c>
     </row>
-    <row r="761" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="7" t="s">
         <v>177</v>
       </c>
@@ -40105,7 +40084,7 @@
         <v>7562</v>
       </c>
     </row>
-    <row r="762" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="7" t="s">
         <v>177</v>
       </c>
@@ -40167,7 +40146,7 @@
         <v>7563</v>
       </c>
     </row>
-    <row r="763" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="7" t="s">
         <v>177</v>
       </c>
@@ -40229,7 +40208,7 @@
         <v>7564</v>
       </c>
     </row>
-    <row r="764" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="7" t="s">
         <v>177</v>
       </c>
@@ -40291,7 +40270,7 @@
         <v>7565</v>
       </c>
     </row>
-    <row r="765" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="7" t="s">
         <v>177</v>
       </c>
@@ -40353,7 +40332,7 @@
         <v>7566</v>
       </c>
     </row>
-    <row r="766" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="7" t="s">
         <v>177</v>
       </c>
@@ -40399,7 +40378,7 @@
         <v>7567</v>
       </c>
     </row>
-    <row r="767" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="7" t="s">
         <v>177</v>
       </c>
@@ -40445,7 +40424,7 @@
         <v>7568</v>
       </c>
     </row>
-    <row r="768" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="7" t="s">
         <v>177</v>
       </c>
@@ -40491,7 +40470,7 @@
         <v>7569</v>
       </c>
     </row>
-    <row r="769" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="7" t="s">
         <v>177</v>
       </c>
@@ -40537,7 +40516,7 @@
         <v>7570</v>
       </c>
     </row>
-    <row r="770" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="7" t="s">
         <v>177</v>
       </c>
@@ -40583,7 +40562,7 @@
         <v>7571</v>
       </c>
     </row>
-    <row r="771" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="7" t="s">
         <v>177</v>
       </c>
@@ -40629,7 +40608,7 @@
         <v>7572</v>
       </c>
     </row>
-    <row r="772" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="7" t="s">
         <v>177</v>
       </c>
@@ -40675,7 +40654,7 @@
       <c r="S772" s="14"/>
       <c r="T772" s="14"/>
     </row>
-    <row r="773" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="7" t="s">
         <v>177</v>
       </c>
@@ -40721,7 +40700,7 @@
       <c r="S773" s="14"/>
       <c r="T773" s="14"/>
     </row>
-    <row r="774" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="7" t="s">
         <v>177</v>
       </c>
@@ -40767,7 +40746,7 @@
       <c r="S774" s="14"/>
       <c r="T774" s="14"/>
     </row>
-    <row r="775" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="7" t="s">
         <v>177</v>
       </c>
@@ -40827,7 +40806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="776" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="7" t="s">
         <v>177</v>
       </c>
@@ -40887,7 +40866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="777" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="7" t="s">
         <v>177</v>
       </c>
@@ -40947,7 +40926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="778" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="7" t="s">
         <v>177</v>
       </c>
@@ -41007,7 +40986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="779" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="7" t="s">
         <v>177</v>
       </c>
@@ -41067,7 +41046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="780" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="7" t="s">
         <v>177</v>
       </c>
@@ -41127,7 +41106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="781" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="7" t="s">
         <v>177</v>
       </c>
@@ -41173,7 +41152,7 @@
       <c r="S781" s="17"/>
       <c r="T781" s="17"/>
     </row>
-    <row r="782" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="7" t="s">
         <v>177</v>
       </c>
@@ -41219,7 +41198,7 @@
       <c r="S782" s="17"/>
       <c r="T782" s="17"/>
     </row>
-    <row r="783" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="7" t="s">
         <v>177</v>
       </c>
@@ -41279,7 +41258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="784" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="7" t="s">
         <v>177</v>
       </c>
@@ -41339,7 +41318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="785" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="7" t="s">
         <v>177</v>
       </c>
@@ -41399,7 +41378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="786" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="7" t="s">
         <v>177</v>
       </c>
@@ -41459,7 +41438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="787" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="7" t="s">
         <v>177</v>
       </c>
@@ -41519,7 +41498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="788" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="7" t="s">
         <v>177</v>
       </c>
@@ -41579,7 +41558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="789" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="7" t="s">
         <v>177</v>
       </c>
@@ -41639,7 +41618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="790" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="7" t="s">
         <v>177</v>
       </c>
@@ -41685,7 +41664,7 @@
       <c r="S790" s="19"/>
       <c r="T790" s="19"/>
     </row>
-    <row r="791" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="7" t="s">
         <v>177</v>
       </c>
@@ -41731,7 +41710,7 @@
       <c r="S791" s="19"/>
       <c r="T791" s="19"/>
     </row>
-    <row r="792" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="7" t="s">
         <v>177</v>
       </c>
@@ -41777,7 +41756,7 @@
       <c r="S792" s="19"/>
       <c r="T792" s="19"/>
     </row>
-    <row r="793" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="7" t="s">
         <v>177</v>
       </c>
@@ -41823,7 +41802,7 @@
       <c r="S793" s="11"/>
       <c r="T793" s="11"/>
     </row>
-    <row r="794" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="7" t="s">
         <v>177</v>
       </c>
@@ -41869,7 +41848,7 @@
       <c r="S794" s="11"/>
       <c r="T794" s="11"/>
     </row>
-    <row r="795" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="7" t="s">
         <v>177</v>
       </c>
@@ -41915,7 +41894,7 @@
       <c r="S795" s="11"/>
       <c r="T795" s="11"/>
     </row>
-    <row r="796" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="7" t="s">
         <v>177</v>
       </c>
@@ -41961,7 +41940,7 @@
       <c r="S796" s="11"/>
       <c r="T796" s="11"/>
     </row>
-    <row r="797" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="7" t="s">
         <v>177</v>
       </c>
@@ -42007,7 +41986,7 @@
       <c r="S797" s="11"/>
       <c r="T797" s="11"/>
     </row>
-    <row r="798" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="7" t="s">
         <v>177</v>
       </c>
@@ -42053,7 +42032,7 @@
       <c r="S798" s="11"/>
       <c r="T798" s="11"/>
     </row>
-    <row r="799" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="7" t="s">
         <v>177</v>
       </c>
@@ -42099,7 +42078,7 @@
       <c r="S799" s="11"/>
       <c r="T799" s="11"/>
     </row>
-    <row r="800" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="7" t="s">
         <v>177</v>
       </c>
@@ -42145,7 +42124,7 @@
       <c r="S800" s="11"/>
       <c r="T800" s="11"/>
     </row>
-    <row r="801" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="7" t="s">
         <v>177</v>
       </c>
@@ -42191,7 +42170,7 @@
       <c r="S801" s="11"/>
       <c r="T801" s="11"/>
     </row>
-    <row r="802" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="7" t="s">
         <v>177</v>
       </c>
@@ -42237,7 +42216,7 @@
       <c r="S802" s="11"/>
       <c r="T802" s="11"/>
     </row>
-    <row r="803" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="7" t="s">
         <v>177</v>
       </c>
@@ -42283,7 +42262,7 @@
       <c r="S803" s="11"/>
       <c r="T803" s="11"/>
     </row>
-    <row r="804" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="7" t="s">
         <v>177</v>
       </c>
@@ -42329,7 +42308,7 @@
       <c r="S804" s="11"/>
       <c r="T804" s="11"/>
     </row>
-    <row r="805" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="7" t="s">
         <v>177</v>
       </c>
@@ -42375,7 +42354,7 @@
       <c r="S805" s="27"/>
       <c r="T805" s="27"/>
     </row>
-    <row r="806" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="7" t="s">
         <v>177</v>
       </c>
@@ -42421,7 +42400,7 @@
       <c r="S806" s="27"/>
       <c r="T806" s="27"/>
     </row>
-    <row r="807" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="7" t="s">
         <v>177</v>
       </c>
@@ -42467,7 +42446,7 @@
       <c r="S807" s="27"/>
       <c r="T807" s="27"/>
     </row>
-    <row r="808" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="7" t="s">
         <v>177</v>
       </c>
@@ -42513,7 +42492,7 @@
       <c r="S808" s="27"/>
       <c r="T808" s="27"/>
     </row>
-    <row r="809" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="7" t="s">
         <v>177</v>
       </c>
@@ -42559,7 +42538,7 @@
       <c r="S809" s="27"/>
       <c r="T809" s="27"/>
     </row>
-    <row r="810" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="7" t="s">
         <v>177</v>
       </c>
@@ -42605,7 +42584,7 @@
       <c r="S810" s="27"/>
       <c r="T810" s="27"/>
     </row>
-    <row r="811" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="7" t="s">
         <v>177</v>
       </c>
@@ -42651,7 +42630,7 @@
       <c r="S811" s="27"/>
       <c r="T811" s="27"/>
     </row>
-    <row r="812" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="7" t="s">
         <v>177</v>
       </c>
@@ -42697,7 +42676,7 @@
       <c r="S812" s="27"/>
       <c r="T812" s="27"/>
     </row>
-    <row r="813" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="7" t="s">
         <v>177</v>
       </c>
@@ -42743,7 +42722,7 @@
       <c r="S813" s="27"/>
       <c r="T813" s="27"/>
     </row>
-    <row r="814" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="7" t="s">
         <v>177</v>
       </c>
@@ -42789,7 +42768,7 @@
       <c r="S814" s="27"/>
       <c r="T814" s="27"/>
     </row>
-    <row r="815" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="7" t="s">
         <v>177</v>
       </c>
@@ -42835,7 +42814,7 @@
       <c r="S815" s="27"/>
       <c r="T815" s="27"/>
     </row>
-    <row r="816" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="7" t="s">
         <v>177</v>
       </c>
@@ -42881,7 +42860,7 @@
       <c r="S816" s="27"/>
       <c r="T816" s="27"/>
     </row>
-    <row r="817" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="7" t="s">
         <v>177</v>
       </c>
@@ -42927,7 +42906,7 @@
       <c r="S817" s="25"/>
       <c r="T817" s="25"/>
     </row>
-    <row r="818" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="7" t="s">
         <v>177</v>
       </c>
@@ -42973,7 +42952,7 @@
       <c r="S818" s="25"/>
       <c r="T818" s="25"/>
     </row>
-    <row r="819" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="7" t="s">
         <v>177</v>
       </c>
@@ -43019,7 +42998,7 @@
       <c r="S819" s="52"/>
       <c r="T819" s="52"/>
     </row>
-    <row r="820" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="7" t="s">
         <v>177</v>
       </c>
@@ -43065,7 +43044,7 @@
       <c r="S820" s="52"/>
       <c r="T820" s="52"/>
     </row>
-    <row r="821" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="7" t="s">
         <v>177</v>
       </c>
@@ -43111,7 +43090,7 @@
       <c r="S821" s="52"/>
       <c r="T821" s="52"/>
     </row>
-    <row r="822" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A822" s="7" t="s">
         <v>177</v>
       </c>
@@ -43157,7 +43136,7 @@
       <c r="S822" s="52"/>
       <c r="T822" s="52"/>
     </row>
-    <row r="823" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="7" t="s">
         <v>177</v>
       </c>
@@ -43203,7 +43182,7 @@
       <c r="S823" s="52"/>
       <c r="T823" s="52"/>
     </row>
-    <row r="824" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="7" t="s">
         <v>177</v>
       </c>
@@ -43249,7 +43228,7 @@
       <c r="S824" s="52"/>
       <c r="T824" s="52"/>
     </row>
-    <row r="825" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="7" t="s">
         <v>177</v>
       </c>
@@ -43295,7 +43274,7 @@
       <c r="S825" s="52"/>
       <c r="T825" s="52"/>
     </row>
-    <row r="826" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:20" s="32" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A826" s="7" t="s">
         <v>177</v>
       </c>
@@ -43341,7 +43320,7 @@
       <c r="S826" s="52"/>
       <c r="T826" s="52"/>
     </row>
-    <row r="827" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="53" t="s">
         <v>178</v>
       </c>
@@ -43401,7 +43380,7 @@
         <v>7573</v>
       </c>
     </row>
-    <row r="828" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="53" t="s">
         <v>178</v>
       </c>
@@ -43461,7 +43440,7 @@
         <v>7574</v>
       </c>
     </row>
-    <row r="829" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="53" t="s">
         <v>178</v>
       </c>
@@ -43521,7 +43500,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="830" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="53" t="s">
         <v>178</v>
       </c>
@@ -43567,7 +43546,7 @@
         <v>7576</v>
       </c>
     </row>
-    <row r="831" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="53" t="s">
         <v>178</v>
       </c>
@@ -43629,7 +43608,7 @@
         <v>7577</v>
       </c>
     </row>
-    <row r="832" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="53" t="s">
         <v>178</v>
       </c>
@@ -43691,7 +43670,7 @@
         <v>7578</v>
       </c>
     </row>
-    <row r="833" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="53" t="s">
         <v>178</v>
       </c>
@@ -43753,7 +43732,7 @@
         <v>7579</v>
       </c>
     </row>
-    <row r="834" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="53" t="s">
         <v>178</v>
       </c>
@@ -43815,7 +43794,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="835" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="53" t="s">
         <v>178</v>
       </c>
@@ -43861,7 +43840,7 @@
         <v>7581</v>
       </c>
     </row>
-    <row r="836" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="53" t="s">
         <v>178</v>
       </c>
@@ -43907,7 +43886,7 @@
         <v>7582</v>
       </c>
     </row>
-    <row r="837" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="53" t="s">
         <v>178</v>
       </c>
@@ -43953,7 +43932,7 @@
         <v>7583</v>
       </c>
     </row>
-    <row r="838" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="53" t="s">
         <v>178</v>
       </c>
@@ -43999,7 +43978,7 @@
         <v>7584</v>
       </c>
     </row>
-    <row r="839" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="53" t="s">
         <v>178</v>
       </c>
@@ -44045,7 +44024,7 @@
         <v>7585</v>
       </c>
     </row>
-    <row r="840" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="53" t="s">
         <v>178</v>
       </c>
@@ -44091,7 +44070,7 @@
         <v>7586</v>
       </c>
     </row>
-    <row r="841" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="53" t="s">
         <v>178</v>
       </c>
@@ -44137,7 +44116,7 @@
       <c r="S841" s="14"/>
       <c r="T841" s="14"/>
     </row>
-    <row r="842" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="53" t="s">
         <v>178</v>
       </c>
@@ -44183,7 +44162,7 @@
       <c r="S842" s="14"/>
       <c r="T842" s="14"/>
     </row>
-    <row r="843" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="53" t="s">
         <v>178</v>
       </c>
@@ -44229,7 +44208,7 @@
       <c r="S843" s="14"/>
       <c r="T843" s="14"/>
     </row>
-    <row r="844" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="53" t="s">
         <v>178</v>
       </c>
@@ -44289,7 +44268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="845" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="53" t="s">
         <v>178</v>
       </c>
@@ -44349,7 +44328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="846" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="53" t="s">
         <v>178</v>
       </c>
@@ -44409,7 +44388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="847" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="53" t="s">
         <v>178</v>
       </c>
@@ -44469,7 +44448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="848" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="53" t="s">
         <v>178</v>
       </c>
@@ -44529,7 +44508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="849" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="53" t="s">
         <v>178</v>
       </c>
@@ -44589,7 +44568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="850" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="53" t="s">
         <v>178</v>
       </c>
@@ -44635,7 +44614,7 @@
       <c r="S850" s="17"/>
       <c r="T850" s="17"/>
     </row>
-    <row r="851" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="53" t="s">
         <v>178</v>
       </c>
@@ -44681,7 +44660,7 @@
       <c r="S851" s="17"/>
       <c r="T851" s="17"/>
     </row>
-    <row r="852" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="53" t="s">
         <v>178</v>
       </c>
@@ -44741,7 +44720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="853" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="53" t="s">
         <v>178</v>
       </c>
@@ -44801,7 +44780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="854" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="53" t="s">
         <v>178</v>
       </c>
@@ -44861,7 +44840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="855" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="53" t="s">
         <v>178</v>
       </c>
@@ -44921,7 +44900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="856" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="53" t="s">
         <v>178</v>
       </c>
@@ -44981,7 +44960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="857" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="53" t="s">
         <v>178</v>
       </c>
@@ -45041,7 +45020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="858" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="53" t="s">
         <v>178</v>
       </c>
@@ -45087,7 +45066,7 @@
       <c r="S858" s="19"/>
       <c r="T858" s="19"/>
     </row>
-    <row r="859" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="53" t="s">
         <v>178</v>
       </c>
@@ -45133,7 +45112,7 @@
       <c r="S859" s="19"/>
       <c r="T859" s="19"/>
     </row>
-    <row r="860" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="53" t="s">
         <v>178</v>
       </c>
@@ -45179,7 +45158,7 @@
       <c r="S860" s="19"/>
       <c r="T860" s="19"/>
     </row>
-    <row r="861" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="53" t="s">
         <v>178</v>
       </c>
@@ -45225,7 +45204,7 @@
       <c r="S861" s="11"/>
       <c r="T861" s="11"/>
     </row>
-    <row r="862" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="53" t="s">
         <v>178</v>
       </c>
@@ -45271,7 +45250,7 @@
       <c r="S862" s="11"/>
       <c r="T862" s="11"/>
     </row>
-    <row r="863" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="53" t="s">
         <v>178</v>
       </c>
@@ -45317,7 +45296,7 @@
       <c r="S863" s="11"/>
       <c r="T863" s="11"/>
     </row>
-    <row r="864" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="53" t="s">
         <v>178</v>
       </c>
@@ -45363,7 +45342,7 @@
       <c r="S864" s="11"/>
       <c r="T864" s="11"/>
     </row>
-    <row r="865" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="53" t="s">
         <v>178</v>
       </c>
@@ -45409,7 +45388,7 @@
       <c r="S865" s="11"/>
       <c r="T865" s="11"/>
     </row>
-    <row r="866" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="53" t="s">
         <v>178</v>
       </c>
@@ -45455,7 +45434,7 @@
       <c r="S866" s="11"/>
       <c r="T866" s="11"/>
     </row>
-    <row r="867" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="53" t="s">
         <v>178</v>
       </c>
@@ -45501,7 +45480,7 @@
       <c r="S867" s="11"/>
       <c r="T867" s="11"/>
     </row>
-    <row r="868" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="53" t="s">
         <v>178</v>
       </c>
@@ -45547,7 +45526,7 @@
       <c r="S868" s="11"/>
       <c r="T868" s="11"/>
     </row>
-    <row r="869" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="53" t="s">
         <v>178</v>
       </c>
@@ -45593,7 +45572,7 @@
       <c r="S869" s="11"/>
       <c r="T869" s="11"/>
     </row>
-    <row r="870" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="53" t="s">
         <v>178</v>
       </c>
@@ -45639,7 +45618,7 @@
       <c r="S870" s="11"/>
       <c r="T870" s="11"/>
     </row>
-    <row r="871" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="53" t="s">
         <v>178</v>
       </c>
@@ -45685,7 +45664,7 @@
       <c r="S871" s="11"/>
       <c r="T871" s="11"/>
     </row>
-    <row r="872" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="53" t="s">
         <v>178</v>
       </c>
@@ -45731,7 +45710,7 @@
       <c r="S872" s="11"/>
       <c r="T872" s="11"/>
     </row>
-    <row r="873" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="53" t="s">
         <v>178</v>
       </c>
@@ -45777,7 +45756,7 @@
       <c r="S873" s="27"/>
       <c r="T873" s="27"/>
     </row>
-    <row r="874" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="53" t="s">
         <v>178</v>
       </c>
@@ -45823,7 +45802,7 @@
       <c r="S874" s="27"/>
       <c r="T874" s="27"/>
     </row>
-    <row r="875" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="53" t="s">
         <v>178</v>
       </c>
@@ -45869,7 +45848,7 @@
       <c r="S875" s="27"/>
       <c r="T875" s="27"/>
     </row>
-    <row r="876" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="53" t="s">
         <v>178</v>
       </c>
@@ -45915,7 +45894,7 @@
       <c r="S876" s="27"/>
       <c r="T876" s="27"/>
     </row>
-    <row r="877" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="53" t="s">
         <v>178</v>
       </c>
@@ -45961,7 +45940,7 @@
       <c r="S877" s="27"/>
       <c r="T877" s="27"/>
     </row>
-    <row r="878" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="53" t="s">
         <v>178</v>
       </c>
@@ -46007,7 +45986,7 @@
       <c r="S878" s="27"/>
       <c r="T878" s="27"/>
     </row>
-    <row r="879" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="53" t="s">
         <v>178</v>
       </c>
@@ -46053,7 +46032,7 @@
       <c r="S879" s="27"/>
       <c r="T879" s="27"/>
     </row>
-    <row r="880" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="53" t="s">
         <v>178</v>
       </c>
@@ -46099,7 +46078,7 @@
       <c r="S880" s="27"/>
       <c r="T880" s="27"/>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="53" t="s">
         <v>178</v>
       </c>
@@ -46145,7 +46124,7 @@
       <c r="S881" s="27"/>
       <c r="T881" s="27"/>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="53" t="s">
         <v>178</v>
       </c>
@@ -46191,7 +46170,7 @@
       <c r="S882" s="27"/>
       <c r="T882" s="27"/>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="53" t="s">
         <v>178</v>
       </c>
@@ -46237,7 +46216,7 @@
       <c r="S883" s="27"/>
       <c r="T883" s="27"/>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="53" t="s">
         <v>178</v>
       </c>
@@ -46283,7 +46262,7 @@
       <c r="S884" s="27"/>
       <c r="T884" s="27"/>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="53" t="s">
         <v>178</v>
       </c>
@@ -46329,7 +46308,7 @@
       <c r="S885" s="25"/>
       <c r="T885" s="25"/>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="53" t="s">
         <v>178</v>
       </c>
@@ -46375,7 +46354,7 @@
       <c r="S886" s="25"/>
       <c r="T886" s="25"/>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="53" t="s">
         <v>178</v>
       </c>
@@ -46421,7 +46400,7 @@
       <c r="S887" s="52"/>
       <c r="T887" s="52"/>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="53" t="s">
         <v>178</v>
       </c>
@@ -46467,7 +46446,7 @@
       <c r="S888" s="52"/>
       <c r="T888" s="52"/>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="53" t="s">
         <v>178</v>
       </c>
@@ -46513,7 +46492,7 @@
       <c r="S889" s="52"/>
       <c r="T889" s="52"/>
     </row>
-    <row r="890" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A890" s="53" t="s">
         <v>178</v>
       </c>
@@ -46559,7 +46538,7 @@
       <c r="S890" s="52"/>
       <c r="T890" s="52"/>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="53" t="s">
         <v>178</v>
       </c>
@@ -46605,7 +46584,7 @@
       <c r="S891" s="52"/>
       <c r="T891" s="52"/>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="53" t="s">
         <v>178</v>
       </c>
@@ -46651,7 +46630,7 @@
       <c r="S892" s="52"/>
       <c r="T892" s="52"/>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="53" t="s">
         <v>178</v>
       </c>
@@ -46697,7 +46676,7 @@
       <c r="S893" s="52"/>
       <c r="T893" s="52"/>
     </row>
-    <row r="894" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A894" s="53" t="s">
         <v>178</v>
       </c>
@@ -46743,7 +46722,7 @@
       <c r="S894" s="52"/>
       <c r="T894" s="52"/>
     </row>
-    <row r="895" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="49" t="s">
         <v>179</v>
       </c>
@@ -46803,7 +46782,7 @@
         <v>7587</v>
       </c>
     </row>
-    <row r="896" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="49" t="s">
         <v>179</v>
       </c>
@@ -46863,7 +46842,7 @@
         <v>7588</v>
       </c>
     </row>
-    <row r="897" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="49" t="s">
         <v>179</v>
       </c>
@@ -46923,7 +46902,7 @@
         <v>7589</v>
       </c>
     </row>
-    <row r="898" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="49" t="s">
         <v>179</v>
       </c>
@@ -46969,7 +46948,7 @@
         <v>7590</v>
       </c>
     </row>
-    <row r="899" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="49" t="s">
         <v>179</v>
       </c>
@@ -47031,7 +47010,7 @@
         <v>7591</v>
       </c>
     </row>
-    <row r="900" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="49" t="s">
         <v>179</v>
       </c>
@@ -47093,7 +47072,7 @@
         <v>7592</v>
       </c>
     </row>
-    <row r="901" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="49" t="s">
         <v>179</v>
       </c>
@@ -47155,7 +47134,7 @@
         <v>7593</v>
       </c>
     </row>
-    <row r="902" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="49" t="s">
         <v>179</v>
       </c>
@@ -47217,7 +47196,7 @@
         <v>7594</v>
       </c>
     </row>
-    <row r="903" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="49" t="s">
         <v>179</v>
       </c>
@@ -47263,7 +47242,7 @@
         <v>7595</v>
       </c>
     </row>
-    <row r="904" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="49" t="s">
         <v>179</v>
       </c>
@@ -47309,7 +47288,7 @@
         <v>7596</v>
       </c>
     </row>
-    <row r="905" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="49" t="s">
         <v>179</v>
       </c>
@@ -47355,7 +47334,7 @@
         <v>7597</v>
       </c>
     </row>
-    <row r="906" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="49" t="s">
         <v>179</v>
       </c>
@@ -47401,7 +47380,7 @@
         <v>7598</v>
       </c>
     </row>
-    <row r="907" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="49" t="s">
         <v>179</v>
       </c>
@@ -47447,7 +47426,7 @@
         <v>7599</v>
       </c>
     </row>
-    <row r="908" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="49" t="s">
         <v>179</v>
       </c>
@@ -47493,7 +47472,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="909" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="49" t="s">
         <v>179</v>
       </c>
@@ -47539,7 +47518,7 @@
       <c r="S909" s="14"/>
       <c r="T909" s="14"/>
     </row>
-    <row r="910" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="49" t="s">
         <v>179</v>
       </c>
@@ -47585,7 +47564,7 @@
       <c r="S910" s="14"/>
       <c r="T910" s="14"/>
     </row>
-    <row r="911" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="49" t="s">
         <v>179</v>
       </c>
@@ -47631,7 +47610,7 @@
       <c r="S911" s="14"/>
       <c r="T911" s="14"/>
     </row>
-    <row r="912" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="49" t="s">
         <v>179</v>
       </c>
@@ -47677,7 +47656,7 @@
       <c r="S912" s="14"/>
       <c r="T912" s="14"/>
     </row>
-    <row r="913" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="49" t="s">
         <v>179</v>
       </c>
@@ -47737,7 +47716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="914" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="49" t="s">
         <v>179</v>
       </c>
@@ -47797,7 +47776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="915" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="49" t="s">
         <v>179</v>
       </c>
@@ -47857,7 +47836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="916" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="49" t="s">
         <v>179</v>
       </c>
@@ -47917,7 +47896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="917" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="49" t="s">
         <v>179</v>
       </c>
@@ -47977,7 +47956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="918" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="49" t="s">
         <v>179</v>
       </c>
@@ -48037,7 +48016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="919" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="49" t="s">
         <v>179</v>
       </c>
@@ -48083,7 +48062,7 @@
       <c r="S919" s="17"/>
       <c r="T919" s="17"/>
     </row>
-    <row r="920" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="49" t="s">
         <v>179</v>
       </c>
@@ -48129,7 +48108,7 @@
       <c r="S920" s="17"/>
       <c r="T920" s="17"/>
     </row>
-    <row r="921" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="49" t="s">
         <v>179</v>
       </c>
@@ -48189,7 +48168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="922" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="49" t="s">
         <v>179</v>
       </c>
@@ -48249,7 +48228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="923" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="49" t="s">
         <v>179</v>
       </c>
@@ -48309,7 +48288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="924" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="49" t="s">
         <v>179</v>
       </c>
@@ -48369,7 +48348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="925" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="49" t="s">
         <v>179</v>
       </c>
@@ -48429,7 +48408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="926" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="49" t="s">
         <v>179</v>
       </c>
@@ -48489,7 +48468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="927" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="49" t="s">
         <v>179</v>
       </c>
@@ -48535,7 +48514,7 @@
       <c r="S927" s="19"/>
       <c r="T927" s="19"/>
     </row>
-    <row r="928" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="49" t="s">
         <v>179</v>
       </c>
@@ -48581,7 +48560,7 @@
       <c r="S928" s="19"/>
       <c r="T928" s="19"/>
     </row>
-    <row r="929" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="49" t="s">
         <v>179</v>
       </c>
@@ -48627,7 +48606,7 @@
       <c r="S929" s="19"/>
       <c r="T929" s="19"/>
     </row>
-    <row r="930" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="49" t="s">
         <v>179</v>
       </c>
@@ -48673,7 +48652,7 @@
       <c r="S930" s="19"/>
       <c r="T930" s="19"/>
     </row>
-    <row r="931" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="49" t="s">
         <v>179</v>
       </c>
@@ -48719,7 +48698,7 @@
       <c r="S931" s="19"/>
       <c r="T931" s="19"/>
     </row>
-    <row r="932" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="49" t="s">
         <v>179</v>
       </c>
@@ -48765,7 +48744,7 @@
       <c r="S932" s="19"/>
       <c r="T932" s="19"/>
     </row>
-    <row r="933" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="49" t="s">
         <v>179</v>
       </c>
@@ -48811,7 +48790,7 @@
       <c r="S933" s="19"/>
       <c r="T933" s="19"/>
     </row>
-    <row r="934" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="49" t="s">
         <v>179</v>
       </c>
@@ -48857,7 +48836,7 @@
       <c r="S934" s="19"/>
       <c r="T934" s="19"/>
     </row>
-    <row r="935" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="49" t="s">
         <v>179</v>
       </c>
@@ -48903,7 +48882,7 @@
       <c r="S935" s="19"/>
       <c r="T935" s="19"/>
     </row>
-    <row r="936" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="49" t="s">
         <v>179</v>
       </c>
@@ -48949,7 +48928,7 @@
       <c r="S936" s="19"/>
       <c r="T936" s="19"/>
     </row>
-    <row r="937" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="49" t="s">
         <v>179</v>
       </c>
@@ -48995,7 +48974,7 @@
       <c r="S937" s="19"/>
       <c r="T937" s="19"/>
     </row>
-    <row r="938" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="49" t="s">
         <v>179</v>
       </c>
@@ -49041,7 +49020,7 @@
       <c r="S938" s="19"/>
       <c r="T938" s="19"/>
     </row>
-    <row r="939" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="49" t="s">
         <v>179</v>
       </c>
@@ -49087,7 +49066,7 @@
       <c r="S939" s="19"/>
       <c r="T939" s="19"/>
     </row>
-    <row r="940" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="49" t="s">
         <v>179</v>
       </c>
@@ -49133,7 +49112,7 @@
       <c r="S940" s="11"/>
       <c r="T940" s="11"/>
     </row>
-    <row r="941" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="49" t="s">
         <v>179</v>
       </c>
@@ -49179,7 +49158,7 @@
       <c r="S941" s="11"/>
       <c r="T941" s="11"/>
     </row>
-    <row r="942" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="49" t="s">
         <v>179</v>
       </c>
@@ -49225,7 +49204,7 @@
       <c r="S942" s="11"/>
       <c r="T942" s="11"/>
     </row>
-    <row r="943" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="49" t="s">
         <v>179</v>
       </c>
@@ -49271,7 +49250,7 @@
       <c r="S943" s="11"/>
       <c r="T943" s="11"/>
     </row>
-    <row r="944" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="49" t="s">
         <v>179</v>
       </c>
@@ -49317,7 +49296,7 @@
       <c r="S944" s="11"/>
       <c r="T944" s="11"/>
     </row>
-    <row r="945" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="49" t="s">
         <v>179</v>
       </c>
@@ -49363,7 +49342,7 @@
       <c r="S945" s="11"/>
       <c r="T945" s="11"/>
     </row>
-    <row r="946" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="49" t="s">
         <v>179</v>
       </c>
@@ -49409,7 +49388,7 @@
       <c r="S946" s="11"/>
       <c r="T946" s="11"/>
     </row>
-    <row r="947" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="49" t="s">
         <v>179</v>
       </c>
@@ -49455,7 +49434,7 @@
       <c r="S947" s="11"/>
       <c r="T947" s="11"/>
     </row>
-    <row r="948" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="49" t="s">
         <v>179</v>
       </c>
@@ -49501,7 +49480,7 @@
       <c r="S948" s="11"/>
       <c r="T948" s="11"/>
     </row>
-    <row r="949" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="49" t="s">
         <v>179</v>
       </c>
@@ -49547,7 +49526,7 @@
       <c r="S949" s="11"/>
       <c r="T949" s="11"/>
     </row>
-    <row r="950" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="49" t="s">
         <v>179</v>
       </c>
@@ -49593,7 +49572,7 @@
       <c r="S950" s="11"/>
       <c r="T950" s="11"/>
     </row>
-    <row r="951" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="49" t="s">
         <v>179</v>
       </c>
@@ -49639,7 +49618,7 @@
       <c r="S951" s="11"/>
       <c r="T951" s="11"/>
     </row>
-    <row r="952" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="49" t="s">
         <v>179</v>
       </c>
@@ -49685,7 +49664,7 @@
       <c r="S952" s="27"/>
       <c r="T952" s="27"/>
     </row>
-    <row r="953" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="49" t="s">
         <v>179</v>
       </c>
@@ -49731,7 +49710,7 @@
       <c r="S953" s="27"/>
       <c r="T953" s="27"/>
     </row>
-    <row r="954" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="49" t="s">
         <v>179</v>
       </c>
@@ -49777,7 +49756,7 @@
       <c r="S954" s="27"/>
       <c r="T954" s="27"/>
     </row>
-    <row r="955" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="49" t="s">
         <v>179</v>
       </c>
@@ -49823,7 +49802,7 @@
       <c r="S955" s="27"/>
       <c r="T955" s="27"/>
     </row>
-    <row r="956" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="49" t="s">
         <v>179</v>
       </c>
@@ -49869,7 +49848,7 @@
       <c r="S956" s="27"/>
       <c r="T956" s="27"/>
     </row>
-    <row r="957" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="49" t="s">
         <v>179</v>
       </c>
@@ -49915,7 +49894,7 @@
       <c r="S957" s="27"/>
       <c r="T957" s="27"/>
     </row>
-    <row r="958" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="49" t="s">
         <v>179</v>
       </c>
@@ -49961,7 +49940,7 @@
       <c r="S958" s="27"/>
       <c r="T958" s="27"/>
     </row>
-    <row r="959" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="49" t="s">
         <v>179</v>
       </c>
@@ -50007,7 +49986,7 @@
       <c r="S959" s="27"/>
       <c r="T959" s="27"/>
     </row>
-    <row r="960" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="49" t="s">
         <v>179</v>
       </c>
@@ -50053,7 +50032,7 @@
       <c r="S960" s="27"/>
       <c r="T960" s="27"/>
     </row>
-    <row r="961" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="49" t="s">
         <v>179</v>
       </c>
@@ -50099,7 +50078,7 @@
       <c r="S961" s="27"/>
       <c r="T961" s="27"/>
     </row>
-    <row r="962" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="49" t="s">
         <v>179</v>
       </c>
@@ -50145,7 +50124,7 @@
       <c r="S962" s="27"/>
       <c r="T962" s="27"/>
     </row>
-    <row r="963" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="49" t="s">
         <v>179</v>
       </c>
@@ -50191,7 +50170,7 @@
       <c r="S963" s="27"/>
       <c r="T963" s="27"/>
     </row>
-    <row r="964" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="49" t="s">
         <v>179</v>
       </c>
@@ -50237,7 +50216,7 @@
       <c r="S964" s="25"/>
       <c r="T964" s="25"/>
     </row>
-    <row r="965" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="49" t="s">
         <v>179</v>
       </c>
@@ -50283,7 +50262,7 @@
       <c r="S965" s="25"/>
       <c r="T965" s="25"/>
     </row>
-    <row r="966" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="49" t="s">
         <v>179</v>
       </c>
@@ -50329,7 +50308,7 @@
       <c r="S966" s="52"/>
       <c r="T966" s="52"/>
     </row>
-    <row r="967" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="49" t="s">
         <v>179</v>
       </c>
@@ -50375,7 +50354,7 @@
       <c r="S967" s="52"/>
       <c r="T967" s="52"/>
     </row>
-    <row r="968" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="49" t="s">
         <v>179</v>
       </c>
@@ -50421,7 +50400,7 @@
       <c r="S968" s="52"/>
       <c r="T968" s="52"/>
     </row>
-    <row r="969" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A969" s="49" t="s">
         <v>179</v>
       </c>
@@ -50467,7 +50446,7 @@
       <c r="S969" s="52"/>
       <c r="T969" s="52"/>
     </row>
-    <row r="970" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="49" t="s">
         <v>179</v>
       </c>
@@ -50513,7 +50492,7 @@
       <c r="S970" s="52"/>
       <c r="T970" s="52"/>
     </row>
-    <row r="971" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="49" t="s">
         <v>179</v>
       </c>
@@ -50559,7 +50538,7 @@
       <c r="S971" s="52"/>
       <c r="T971" s="52"/>
     </row>
-    <row r="972" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="49" t="s">
         <v>179</v>
       </c>
@@ -50605,7 +50584,7 @@
       <c r="S972" s="52"/>
       <c r="T972" s="52"/>
     </row>
-    <row r="973" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A973" s="49" t="s">
         <v>179</v>
       </c>
@@ -50652,6 +50631,13 @@
       <c r="T973" s="52"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T973" xr:uid="{1BD23B36-28F7-4FD9-AF0E-9FDAFDE35360}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Pharmacy Fragmented"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="C89:C94">
     <sortCondition ref="C89"/>
   </sortState>

--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19AE18CA-E9DC-4924-86CB-D7F2A2D72BE2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9E4903-08C8-4B7E-827F-16F8AAE16F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
     <sheet name="Channel Products" sheetId="3" r:id="rId2"/>
     <sheet name="Chiller Products" sheetId="7" r:id="rId3"/>
+    <sheet name="Slider Options" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Channel Products'!$A$1:$T$973</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6587" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6601" uniqueCount="224">
   <si>
     <t>Flavoured Milk</t>
   </si>
@@ -651,6 +652,48 @@
   <si>
     <t>Large Grocery Counter</t>
   </si>
+  <si>
+    <t>Slider Options</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t>Sync Data</t>
+  </si>
+  <si>
+    <t>Refresh Routes</t>
+  </si>
+  <si>
+    <t>Refresh Products</t>
+  </si>
+  <si>
+    <t>Refresh Planogram</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Export Data</t>
+  </si>
+  <si>
+    <t>Out Of Route</t>
+  </si>
+  <si>
+    <t>Abnormal Shops</t>
+  </si>
+  <si>
+    <t>Merchandiser Score</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>RedFlag Shops</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
 </sst>
 </file>
 
@@ -957,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1019,6 +1062,9 @@
     <xf numFmtId="1" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,7 +1421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,14 +1482,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T973"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S627" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S979" sqref="S979"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1577,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>11</v>
       </c>
@@ -1594,7 +1639,7 @@
         <v>7404</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
@@ -1656,7 +1701,7 @@
         <v>7405</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>11</v>
       </c>
@@ -1718,7 +1763,7 @@
         <v>7406</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1825,7 @@
         <v>7407</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1838,7 +1883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
@@ -1896,7 +1941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
@@ -1954,7 +1999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
@@ -2014,7 +2059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +2119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>11</v>
       </c>
@@ -2134,7 +2179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
@@ -2194,7 +2239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>11</v>
       </c>
@@ -2254,7 +2299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>11</v>
       </c>
@@ -2314,7 +2359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>11</v>
       </c>
@@ -2374,7 +2419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>11</v>
       </c>
@@ -2434,7 +2479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>11</v>
       </c>
@@ -2494,7 +2539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
@@ -2554,7 +2599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
@@ -2614,7 +2659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>11</v>
       </c>
@@ -2674,7 +2719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>11</v>
       </c>
@@ -2734,7 +2779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>11</v>
       </c>
@@ -2780,7 +2825,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
     </row>
-    <row r="23" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>11</v>
       </c>
@@ -2826,7 +2871,7 @@
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
     </row>
-    <row r="24" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>11</v>
       </c>
@@ -2872,7 +2917,7 @@
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
     </row>
-    <row r="25" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>11</v>
       </c>
@@ -2932,7 +2977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>11</v>
       </c>
@@ -2992,7 +3037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>11</v>
       </c>
@@ -3052,7 +3097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>11</v>
       </c>
@@ -3112,7 +3157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>11</v>
       </c>
@@ -3172,7 +3217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="34" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>11</v>
       </c>
@@ -3232,7 +3277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>174</v>
       </c>
@@ -3278,7 +3323,7 @@
       <c r="S31" s="42"/>
       <c r="T31" s="42"/>
     </row>
-    <row r="32" spans="1:20" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>174</v>
       </c>
@@ -3324,7 +3369,7 @@
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
     </row>
-    <row r="33" spans="1:20" s="34" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>174</v>
       </c>
@@ -3370,7 +3415,7 @@
       <c r="S33" s="42"/>
       <c r="T33" s="42"/>
     </row>
-    <row r="34" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>25</v>
       </c>
@@ -3430,7 +3475,7 @@
         <v>7408</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>25</v>
       </c>
@@ -3490,7 +3535,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>25</v>
       </c>
@@ -3550,7 +3595,7 @@
         <v>7410</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>25</v>
       </c>
@@ -3612,7 +3657,7 @@
         <v>7411</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>25</v>
       </c>
@@ -3674,7 +3719,7 @@
         <v>7412</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>25</v>
       </c>
@@ -3736,7 +3781,7 @@
         <v>7413</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>25</v>
       </c>
@@ -3798,7 +3843,7 @@
         <v>7414</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>25</v>
       </c>
@@ -3844,7 +3889,7 @@
         <v>7415</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
@@ -3890,7 +3935,7 @@
         <v>7416</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>25</v>
       </c>
@@ -3936,7 +3981,7 @@
         <v>7417</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>25</v>
       </c>
@@ -3982,7 +4027,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>25</v>
       </c>
@@ -4028,7 +4073,7 @@
         <v>7419</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>25</v>
       </c>
@@ -4074,7 +4119,7 @@
         <v>7420</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>25</v>
       </c>
@@ -4120,7 +4165,7 @@
       <c r="S47" s="14"/>
       <c r="T47" s="14"/>
     </row>
-    <row r="48" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>25</v>
       </c>
@@ -4180,7 +4225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>25</v>
       </c>
@@ -4240,7 +4285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>25</v>
       </c>
@@ -4286,7 +4331,7 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
     </row>
-    <row r="51" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>25</v>
       </c>
@@ -4332,7 +4377,7 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
     </row>
-    <row r="52" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>25</v>
       </c>
@@ -4392,7 +4437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>25</v>
       </c>
@@ -4452,7 +4497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>25</v>
       </c>
@@ -4512,7 +4557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>25</v>
       </c>
@@ -4572,7 +4617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>25</v>
       </c>
@@ -4618,7 +4663,7 @@
       <c r="S56" s="17"/>
       <c r="T56" s="17"/>
     </row>
-    <row r="57" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>25</v>
       </c>
@@ -4678,7 +4723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>25</v>
       </c>
@@ -4738,7 +4783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>25</v>
       </c>
@@ -4798,7 +4843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>25</v>
       </c>
@@ -4858,7 +4903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>25</v>
       </c>
@@ -4918,7 +4963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>25</v>
       </c>
@@ -4978,7 +5023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>25</v>
       </c>
@@ -5038,7 +5083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>25</v>
       </c>
@@ -5098,7 +5143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>25</v>
       </c>
@@ -5144,7 +5189,7 @@
       <c r="S65" s="19"/>
       <c r="T65" s="19"/>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>25</v>
       </c>
@@ -5190,7 +5235,7 @@
       <c r="S66" s="19"/>
       <c r="T66" s="19"/>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>25</v>
       </c>
@@ -5236,7 +5281,7 @@
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>25</v>
       </c>
@@ -5282,7 +5327,7 @@
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>25</v>
       </c>
@@ -5328,7 +5373,7 @@
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>25</v>
       </c>
@@ -5374,7 +5419,7 @@
       <c r="S70" s="11"/>
       <c r="T70" s="11"/>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>25</v>
       </c>
@@ -5420,7 +5465,7 @@
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>25</v>
       </c>
@@ -5466,7 +5511,7 @@
       <c r="S72" s="27"/>
       <c r="T72" s="27"/>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>25</v>
       </c>
@@ -5512,7 +5557,7 @@
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>25</v>
       </c>
@@ -5558,7 +5603,7 @@
       <c r="S74" s="27"/>
       <c r="T74" s="27"/>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>25</v>
       </c>
@@ -5604,7 +5649,7 @@
       <c r="S75" s="27"/>
       <c r="T75" s="27"/>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>25</v>
       </c>
@@ -5650,7 +5695,7 @@
       <c r="S76" s="27"/>
       <c r="T76" s="27"/>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>25</v>
       </c>
@@ -5696,7 +5741,7 @@
       <c r="S77" s="25"/>
       <c r="T77" s="25"/>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>25</v>
       </c>
@@ -5742,7 +5787,7 @@
       <c r="S78" s="25"/>
       <c r="T78" s="25"/>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>25</v>
       </c>
@@ -5788,7 +5833,7 @@
       <c r="S79" s="25"/>
       <c r="T79" s="25"/>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>25</v>
       </c>
@@ -5834,7 +5879,7 @@
       <c r="S80" s="26"/>
       <c r="T80" s="26"/>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>25</v>
       </c>
@@ -5880,7 +5925,7 @@
       <c r="S81" s="26"/>
       <c r="T81" s="26"/>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>25</v>
       </c>
@@ -5926,7 +5971,7 @@
       <c r="S82" s="26"/>
       <c r="T82" s="26"/>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>25</v>
       </c>
@@ -5972,7 +6017,7 @@
       <c r="S83" s="26"/>
       <c r="T83" s="26"/>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>25</v>
       </c>
@@ -6018,7 +6063,7 @@
       <c r="S84" s="26"/>
       <c r="T84" s="26"/>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
         <v>25</v>
       </c>
@@ -6064,7 +6109,7 @@
       <c r="S85" s="26"/>
       <c r="T85" s="26"/>
     </row>
-    <row r="86" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
         <v>93</v>
       </c>
@@ -6124,7 +6169,7 @@
         <v>7421</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
         <v>93</v>
       </c>
@@ -6186,7 +6231,7 @@
         <v>7422</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
         <v>93</v>
       </c>
@@ -6248,7 +6293,7 @@
         <v>7423</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
         <v>93</v>
       </c>
@@ -6310,7 +6355,7 @@
         <v>7424</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
         <v>93</v>
       </c>
@@ -6372,7 +6417,7 @@
         <v>7425</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
         <v>93</v>
       </c>
@@ -6434,7 +6479,7 @@
         <v>7426</v>
       </c>
     </row>
-    <row r="92" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
         <v>93</v>
       </c>
@@ -6480,7 +6525,7 @@
         <v>7427</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
         <v>93</v>
       </c>
@@ -6526,7 +6571,7 @@
         <v>7428</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>93</v>
       </c>
@@ -6572,7 +6617,7 @@
         <v>7429</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
         <v>93</v>
       </c>
@@ -6618,7 +6663,7 @@
         <v>7430</v>
       </c>
     </row>
-    <row r="96" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>93</v>
       </c>
@@ -6664,7 +6709,7 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="97" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>93</v>
       </c>
@@ -6710,7 +6755,7 @@
         <v>7432</v>
       </c>
     </row>
-    <row r="98" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>93</v>
       </c>
@@ -6756,7 +6801,7 @@
       <c r="S98" s="14"/>
       <c r="T98" s="14"/>
     </row>
-    <row r="99" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>93</v>
       </c>
@@ -6802,7 +6847,7 @@
       <c r="S99" s="14"/>
       <c r="T99" s="14"/>
     </row>
-    <row r="100" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
         <v>93</v>
       </c>
@@ -6848,7 +6893,7 @@
       <c r="S100" s="14"/>
       <c r="T100" s="14"/>
     </row>
-    <row r="101" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>93</v>
       </c>
@@ -6908,7 +6953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>93</v>
       </c>
@@ -6968,7 +7013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
         <v>93</v>
       </c>
@@ -7028,7 +7073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="28" t="s">
         <v>93</v>
       </c>
@@ -7088,7 +7133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>93</v>
       </c>
@@ -7148,7 +7193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
         <v>93</v>
       </c>
@@ -7208,7 +7253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
         <v>93</v>
       </c>
@@ -7254,7 +7299,7 @@
       <c r="S107" s="17"/>
       <c r="T107" s="17"/>
     </row>
-    <row r="108" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
         <v>93</v>
       </c>
@@ -7300,7 +7345,7 @@
       <c r="S108" s="17"/>
       <c r="T108" s="17"/>
     </row>
-    <row r="109" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
         <v>93</v>
       </c>
@@ -7346,7 +7391,7 @@
       <c r="S109" s="17"/>
       <c r="T109" s="17"/>
     </row>
-    <row r="110" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
         <v>93</v>
       </c>
@@ -7406,7 +7451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="28" t="s">
         <v>93</v>
       </c>
@@ -7466,7 +7511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
         <v>93</v>
       </c>
@@ -7526,7 +7571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
         <v>93</v>
       </c>
@@ -7586,7 +7631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
         <v>93</v>
       </c>
@@ -7646,7 +7691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>93</v>
       </c>
@@ -7706,7 +7751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="28" t="s">
         <v>93</v>
       </c>
@@ -7766,7 +7811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
         <v>93</v>
       </c>
@@ -7826,7 +7871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>93</v>
       </c>
@@ -7872,7 +7917,7 @@
       <c r="S118" s="19"/>
       <c r="T118" s="19"/>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="28" t="s">
         <v>93</v>
       </c>
@@ -7918,7 +7963,7 @@
       <c r="S119" s="19"/>
       <c r="T119" s="19"/>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
         <v>93</v>
       </c>
@@ -7964,7 +8009,7 @@
       <c r="S120" s="19"/>
       <c r="T120" s="19"/>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="28" t="s">
         <v>93</v>
       </c>
@@ -8010,7 +8055,7 @@
       <c r="S121" s="11"/>
       <c r="T121" s="11"/>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="28" t="s">
         <v>93</v>
       </c>
@@ -8056,7 +8101,7 @@
       <c r="S122" s="11"/>
       <c r="T122" s="11"/>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="28" t="s">
         <v>93</v>
       </c>
@@ -8102,7 +8147,7 @@
       <c r="S123" s="11"/>
       <c r="T123" s="11"/>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="28" t="s">
         <v>93</v>
       </c>
@@ -8148,7 +8193,7 @@
       <c r="S124" s="11"/>
       <c r="T124" s="11"/>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
         <v>93</v>
       </c>
@@ -8194,7 +8239,7 @@
       <c r="S125" s="11"/>
       <c r="T125" s="11"/>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
         <v>93</v>
       </c>
@@ -8240,7 +8285,7 @@
       <c r="S126" s="11"/>
       <c r="T126" s="11"/>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
         <v>93</v>
       </c>
@@ -8286,7 +8331,7 @@
       <c r="S127" s="11"/>
       <c r="T127" s="11"/>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
         <v>93</v>
       </c>
@@ -8332,7 +8377,7 @@
       <c r="S128" s="11"/>
       <c r="T128" s="11"/>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
         <v>93</v>
       </c>
@@ -8378,7 +8423,7 @@
       <c r="S129" s="11"/>
       <c r="T129" s="11"/>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
         <v>93</v>
       </c>
@@ -8424,7 +8469,7 @@
       <c r="S130" s="11"/>
       <c r="T130" s="11"/>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
         <v>93</v>
       </c>
@@ -8470,7 +8515,7 @@
       <c r="S131" s="11"/>
       <c r="T131" s="11"/>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
         <v>93</v>
       </c>
@@ -8516,7 +8561,7 @@
       <c r="S132" s="11"/>
       <c r="T132" s="11"/>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
         <v>93</v>
       </c>
@@ -8562,7 +8607,7 @@
       <c r="S133" s="27"/>
       <c r="T133" s="27"/>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
         <v>93</v>
       </c>
@@ -8608,7 +8653,7 @@
       <c r="S134" s="27"/>
       <c r="T134" s="27"/>
     </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>93</v>
       </c>
@@ -8654,7 +8699,7 @@
       <c r="S135" s="27"/>
       <c r="T135" s="27"/>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
         <v>93</v>
       </c>
@@ -8700,7 +8745,7 @@
       <c r="S136" s="27"/>
       <c r="T136" s="27"/>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
         <v>93</v>
       </c>
@@ -8746,7 +8791,7 @@
       <c r="S137" s="27"/>
       <c r="T137" s="27"/>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
         <v>93</v>
       </c>
@@ -8792,7 +8837,7 @@
       <c r="S138" s="27"/>
       <c r="T138" s="27"/>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>93</v>
       </c>
@@ -8838,7 +8883,7 @@
       <c r="S139" s="27"/>
       <c r="T139" s="27"/>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="28" t="s">
         <v>93</v>
       </c>
@@ -8884,7 +8929,7 @@
       <c r="S140" s="27"/>
       <c r="T140" s="27"/>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="28" t="s">
         <v>93</v>
       </c>
@@ -8930,7 +8975,7 @@
       <c r="S141" s="27"/>
       <c r="T141" s="27"/>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="28" t="s">
         <v>93</v>
       </c>
@@ -8976,7 +9021,7 @@
       <c r="S142" s="27"/>
       <c r="T142" s="27"/>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
         <v>93</v>
       </c>
@@ -9022,7 +9067,7 @@
       <c r="S143" s="27"/>
       <c r="T143" s="27"/>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
         <v>93</v>
       </c>
@@ -9068,7 +9113,7 @@
       <c r="S144" s="27"/>
       <c r="T144" s="27"/>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
         <v>93</v>
       </c>
@@ -9114,7 +9159,7 @@
       <c r="S145" s="25"/>
       <c r="T145" s="25"/>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
         <v>93</v>
       </c>
@@ -9160,7 +9205,7 @@
       <c r="S146" s="25"/>
       <c r="T146" s="25"/>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
         <v>93</v>
       </c>
@@ -9206,7 +9251,7 @@
       <c r="S147" s="43"/>
       <c r="T147" s="43"/>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
         <v>93</v>
       </c>
@@ -9252,7 +9297,7 @@
       <c r="S148" s="43"/>
       <c r="T148" s="43"/>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
         <v>93</v>
       </c>
@@ -9298,7 +9343,7 @@
       <c r="S149" s="43"/>
       <c r="T149" s="43"/>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
         <v>93</v>
       </c>
@@ -9344,7 +9389,7 @@
       <c r="S150" s="43"/>
       <c r="T150" s="43"/>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
         <v>93</v>
       </c>
@@ -9390,7 +9435,7 @@
       <c r="S151" s="43"/>
       <c r="T151" s="43"/>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
         <v>93</v>
       </c>
@@ -9436,7 +9481,7 @@
       <c r="S152" s="43"/>
       <c r="T152" s="43"/>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="28" t="s">
         <v>93</v>
       </c>
@@ -9482,7 +9527,7 @@
       <c r="S153" s="43"/>
       <c r="T153" s="43"/>
     </row>
-    <row r="154" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="28" t="s">
         <v>93</v>
       </c>
@@ -9528,7 +9573,7 @@
       <c r="S154" s="43"/>
       <c r="T154" s="43"/>
     </row>
-    <row r="155" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="s">
         <v>124</v>
       </c>
@@ -9588,7 +9633,7 @@
         <v>7433</v>
       </c>
     </row>
-    <row r="156" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="s">
         <v>124</v>
       </c>
@@ -9648,7 +9693,7 @@
         <v>7434</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="s">
         <v>124</v>
       </c>
@@ -9708,7 +9753,7 @@
         <v>7435</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="s">
         <v>124</v>
       </c>
@@ -9770,7 +9815,7 @@
         <v>7436</v>
       </c>
     </row>
-    <row r="159" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="s">
         <v>124</v>
       </c>
@@ -9832,7 +9877,7 @@
         <v>7437</v>
       </c>
     </row>
-    <row r="160" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
         <v>124</v>
       </c>
@@ -9894,7 +9939,7 @@
         <v>7438</v>
       </c>
     </row>
-    <row r="161" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
         <v>124</v>
       </c>
@@ -9956,7 +10001,7 @@
         <v>7439</v>
       </c>
     </row>
-    <row r="162" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="s">
         <v>124</v>
       </c>
@@ -10002,7 +10047,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="163" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="s">
         <v>124</v>
       </c>
@@ -10048,7 +10093,7 @@
         <v>7441</v>
       </c>
     </row>
-    <row r="164" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="s">
         <v>124</v>
       </c>
@@ -10094,7 +10139,7 @@
         <v>7442</v>
       </c>
     </row>
-    <row r="165" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="s">
         <v>124</v>
       </c>
@@ -10140,7 +10185,7 @@
         <v>7443</v>
       </c>
     </row>
-    <row r="166" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="s">
         <v>124</v>
       </c>
@@ -10186,7 +10231,7 @@
         <v>7444</v>
       </c>
     </row>
-    <row r="167" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="s">
         <v>124</v>
       </c>
@@ -10232,7 +10277,7 @@
         <v>7445</v>
       </c>
     </row>
-    <row r="168" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="s">
         <v>124</v>
       </c>
@@ -10278,7 +10323,7 @@
       <c r="S168" s="14"/>
       <c r="T168" s="14"/>
     </row>
-    <row r="169" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="s">
         <v>124</v>
       </c>
@@ -10324,7 +10369,7 @@
       <c r="S169" s="14"/>
       <c r="T169" s="14"/>
     </row>
-    <row r="170" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="s">
         <v>124</v>
       </c>
@@ -10370,7 +10415,7 @@
       <c r="S170" s="14"/>
       <c r="T170" s="14"/>
     </row>
-    <row r="171" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="s">
         <v>124</v>
       </c>
@@ -10430,7 +10475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="44" t="s">
         <v>124</v>
       </c>
@@ -10490,7 +10535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="44" t="s">
         <v>124</v>
       </c>
@@ -10550,7 +10595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="s">
         <v>124</v>
       </c>
@@ -10610,7 +10655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="s">
         <v>124</v>
       </c>
@@ -10670,7 +10715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="s">
         <v>124</v>
       </c>
@@ -10730,7 +10775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="s">
         <v>124</v>
       </c>
@@ -10776,7 +10821,7 @@
       <c r="S177" s="17"/>
       <c r="T177" s="17"/>
     </row>
-    <row r="178" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="s">
         <v>124</v>
       </c>
@@ -10822,7 +10867,7 @@
       <c r="S178" s="17"/>
       <c r="T178" s="17"/>
     </row>
-    <row r="179" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="44" t="s">
         <v>124</v>
       </c>
@@ -10868,7 +10913,7 @@
       <c r="S179" s="17"/>
       <c r="T179" s="17"/>
     </row>
-    <row r="180" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="44" t="s">
         <v>124</v>
       </c>
@@ -10928,7 +10973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="44" t="s">
         <v>124</v>
       </c>
@@ -10988,7 +11033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="44" t="s">
         <v>124</v>
       </c>
@@ -11048,7 +11093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="s">
         <v>124</v>
       </c>
@@ -11108,7 +11153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="44" t="s">
         <v>124</v>
       </c>
@@ -11168,7 +11213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="44" t="s">
         <v>124</v>
       </c>
@@ -11228,7 +11273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="44" t="s">
         <v>124</v>
       </c>
@@ -11274,7 +11319,7 @@
       <c r="S186" s="19"/>
       <c r="T186" s="19"/>
     </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="s">
         <v>124</v>
       </c>
@@ -11320,7 +11365,7 @@
       <c r="S187" s="11"/>
       <c r="T187" s="11"/>
     </row>
-    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="s">
         <v>124</v>
       </c>
@@ -11366,7 +11411,7 @@
       <c r="S188" s="11"/>
       <c r="T188" s="11"/>
     </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="s">
         <v>124</v>
       </c>
@@ -11412,7 +11457,7 @@
       <c r="S189" s="11"/>
       <c r="T189" s="11"/>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="44" t="s">
         <v>124</v>
       </c>
@@ -11458,7 +11503,7 @@
       <c r="S190" s="11"/>
       <c r="T190" s="11"/>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="s">
         <v>124</v>
       </c>
@@ -11504,7 +11549,7 @@
       <c r="S191" s="11"/>
       <c r="T191" s="11"/>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="s">
         <v>124</v>
       </c>
@@ -11550,7 +11595,7 @@
       <c r="S192" s="11"/>
       <c r="T192" s="11"/>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="s">
         <v>124</v>
       </c>
@@ -11596,7 +11641,7 @@
       <c r="S193" s="11"/>
       <c r="T193" s="11"/>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="s">
         <v>124</v>
       </c>
@@ -11642,7 +11687,7 @@
       <c r="S194" s="11"/>
       <c r="T194" s="11"/>
     </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="s">
         <v>124</v>
       </c>
@@ -11688,7 +11733,7 @@
       <c r="S195" s="11"/>
       <c r="T195" s="11"/>
     </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="s">
         <v>124</v>
       </c>
@@ -11734,7 +11779,7 @@
       <c r="S196" s="11"/>
       <c r="T196" s="11"/>
     </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="s">
         <v>124</v>
       </c>
@@ -11780,7 +11825,7 @@
       <c r="S197" s="27"/>
       <c r="T197" s="27"/>
     </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="s">
         <v>124</v>
       </c>
@@ -11826,7 +11871,7 @@
       <c r="S198" s="27"/>
       <c r="T198" s="27"/>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="44" t="s">
         <v>124</v>
       </c>
@@ -11872,7 +11917,7 @@
       <c r="S199" s="27"/>
       <c r="T199" s="27"/>
     </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="44" t="s">
         <v>124</v>
       </c>
@@ -11918,7 +11963,7 @@
       <c r="S200" s="27"/>
       <c r="T200" s="27"/>
     </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="s">
         <v>124</v>
       </c>
@@ -11964,7 +12009,7 @@
       <c r="S201" s="27"/>
       <c r="T201" s="27"/>
     </row>
-    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202" s="44" t="s">
         <v>124</v>
       </c>
@@ -12010,7 +12055,7 @@
       <c r="S202" s="25"/>
       <c r="T202" s="25"/>
     </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203" s="44" t="s">
         <v>124</v>
       </c>
@@ -12056,7 +12101,7 @@
       <c r="S203" s="25"/>
       <c r="T203" s="25"/>
     </row>
-    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" s="44" t="s">
         <v>124</v>
       </c>
@@ -12102,7 +12147,7 @@
       <c r="S204" s="26"/>
       <c r="T204" s="26"/>
     </row>
-    <row r="205" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="44" t="s">
         <v>124</v>
       </c>
@@ -12148,7 +12193,7 @@
       <c r="S205" s="26"/>
       <c r="T205" s="26"/>
     </row>
-    <row r="206" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="45" t="s">
         <v>125</v>
       </c>
@@ -12206,7 +12251,7 @@
         <v>7446</v>
       </c>
     </row>
-    <row r="207" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="45" t="s">
         <v>125</v>
       </c>
@@ -12264,7 +12309,7 @@
         <v>7447</v>
       </c>
     </row>
-    <row r="208" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="45" t="s">
         <v>125</v>
       </c>
@@ -12322,7 +12367,7 @@
         <v>7448</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="45" t="s">
         <v>125</v>
       </c>
@@ -12382,7 +12427,7 @@
         <v>7449</v>
       </c>
     </row>
-    <row r="210" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="45" t="s">
         <v>125</v>
       </c>
@@ -12442,7 +12487,7 @@
         <v>7450</v>
       </c>
     </row>
-    <row r="211" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="45" t="s">
         <v>125</v>
       </c>
@@ -12502,7 +12547,7 @@
         <v>7451</v>
       </c>
     </row>
-    <row r="212" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="45" t="s">
         <v>125</v>
       </c>
@@ -12562,7 +12607,7 @@
         <v>7452</v>
       </c>
     </row>
-    <row r="213" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="45" t="s">
         <v>125</v>
       </c>
@@ -12622,7 +12667,7 @@
         <v>7453</v>
       </c>
     </row>
-    <row r="214" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="45" t="s">
         <v>125</v>
       </c>
@@ -12668,7 +12713,7 @@
         <v>7454</v>
       </c>
     </row>
-    <row r="215" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="45" t="s">
         <v>125</v>
       </c>
@@ -12714,7 +12759,7 @@
         <v>7455</v>
       </c>
     </row>
-    <row r="216" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="45" t="s">
         <v>125</v>
       </c>
@@ -12760,7 +12805,7 @@
         <v>7456</v>
       </c>
     </row>
-    <row r="217" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="45" t="s">
         <v>125</v>
       </c>
@@ -12806,7 +12851,7 @@
         <v>7457</v>
       </c>
     </row>
-    <row r="218" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="45" t="s">
         <v>125</v>
       </c>
@@ -12852,7 +12897,7 @@
         <v>7458</v>
       </c>
     </row>
-    <row r="219" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="45" t="s">
         <v>125</v>
       </c>
@@ -12898,7 +12943,7 @@
         <v>7459</v>
       </c>
     </row>
-    <row r="220" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="45" t="s">
         <v>125</v>
       </c>
@@ -12944,7 +12989,7 @@
       <c r="S220" s="14"/>
       <c r="T220" s="14"/>
     </row>
-    <row r="221" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="45" t="s">
         <v>125</v>
       </c>
@@ -12990,7 +13035,7 @@
       <c r="S221" s="14"/>
       <c r="T221" s="14"/>
     </row>
-    <row r="222" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="s">
         <v>125</v>
       </c>
@@ -13036,7 +13081,7 @@
       <c r="S222" s="14"/>
       <c r="T222" s="14"/>
     </row>
-    <row r="223" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
         <v>125</v>
       </c>
@@ -13082,7 +13127,7 @@
       <c r="S223" s="14"/>
       <c r="T223" s="14"/>
     </row>
-    <row r="224" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="45" t="s">
         <v>125</v>
       </c>
@@ -13142,7 +13187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="s">
         <v>125</v>
       </c>
@@ -13202,7 +13247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="s">
         <v>125</v>
       </c>
@@ -13262,7 +13307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="s">
         <v>125</v>
       </c>
@@ -13322,7 +13367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="45" t="s">
         <v>125</v>
       </c>
@@ -13382,7 +13427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="45" t="s">
         <v>125</v>
       </c>
@@ -13442,7 +13487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="45" t="s">
         <v>125</v>
       </c>
@@ -13488,7 +13533,7 @@
       <c r="S230" s="17"/>
       <c r="T230" s="17"/>
     </row>
-    <row r="231" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="45" t="s">
         <v>125</v>
       </c>
@@ -13534,7 +13579,7 @@
       <c r="S231" s="17"/>
       <c r="T231" s="17"/>
     </row>
-    <row r="232" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="45" t="s">
         <v>125</v>
       </c>
@@ -13594,7 +13639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="45" t="s">
         <v>125</v>
       </c>
@@ -13654,7 +13699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" s="45" t="s">
         <v>125</v>
       </c>
@@ -13714,7 +13759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" s="45" t="s">
         <v>125</v>
       </c>
@@ -13774,7 +13819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236" s="45" t="s">
         <v>125</v>
       </c>
@@ -13834,7 +13879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237" s="45" t="s">
         <v>125</v>
       </c>
@@ -13894,7 +13939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238" s="45" t="s">
         <v>125</v>
       </c>
@@ -13940,7 +13985,7 @@
       <c r="S238" s="19"/>
       <c r="T238" s="19"/>
     </row>
-    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239" s="45" t="s">
         <v>125</v>
       </c>
@@ -13986,7 +14031,7 @@
       <c r="S239" s="19"/>
       <c r="T239" s="19"/>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" s="45" t="s">
         <v>125</v>
       </c>
@@ -14032,7 +14077,7 @@
       <c r="S240" s="19"/>
       <c r="T240" s="19"/>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" s="45" t="s">
         <v>125</v>
       </c>
@@ -14078,7 +14123,7 @@
       <c r="S241" s="19"/>
       <c r="T241" s="19"/>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242" s="45" t="s">
         <v>125</v>
       </c>
@@ -14124,7 +14169,7 @@
       <c r="S242" s="19"/>
       <c r="T242" s="19"/>
     </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243" s="45" t="s">
         <v>125</v>
       </c>
@@ -14170,7 +14215,7 @@
       <c r="S243" s="19"/>
       <c r="T243" s="19"/>
     </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244" s="45" t="s">
         <v>125</v>
       </c>
@@ -14216,7 +14261,7 @@
       <c r="S244" s="19"/>
       <c r="T244" s="19"/>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245" s="45" t="s">
         <v>125</v>
       </c>
@@ -14262,7 +14307,7 @@
       <c r="S245" s="19"/>
       <c r="T245" s="19"/>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" s="45" t="s">
         <v>125</v>
       </c>
@@ -14308,7 +14353,7 @@
       <c r="S246" s="19"/>
       <c r="T246" s="19"/>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" s="45" t="s">
         <v>125</v>
       </c>
@@ -14354,7 +14399,7 @@
       <c r="S247" s="19"/>
       <c r="T247" s="19"/>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248" s="45" t="s">
         <v>125</v>
       </c>
@@ -14400,7 +14445,7 @@
       <c r="S248" s="19"/>
       <c r="T248" s="19"/>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249" s="45" t="s">
         <v>125</v>
       </c>
@@ -14446,7 +14491,7 @@
       <c r="S249" s="19"/>
       <c r="T249" s="19"/>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250" s="45" t="s">
         <v>125</v>
       </c>
@@ -14492,7 +14537,7 @@
       <c r="S250" s="19"/>
       <c r="T250" s="19"/>
     </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251" s="45" t="s">
         <v>125</v>
       </c>
@@ -14538,7 +14583,7 @@
       <c r="S251" s="11"/>
       <c r="T251" s="11"/>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" s="45" t="s">
         <v>125</v>
       </c>
@@ -14584,7 +14629,7 @@
       <c r="S252" s="11"/>
       <c r="T252" s="11"/>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" s="45" t="s">
         <v>125</v>
       </c>
@@ -14630,7 +14675,7 @@
       <c r="S253" s="11"/>
       <c r="T253" s="11"/>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254" s="45" t="s">
         <v>125</v>
       </c>
@@ -14676,7 +14721,7 @@
       <c r="S254" s="11"/>
       <c r="T254" s="11"/>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255" s="45" t="s">
         <v>125</v>
       </c>
@@ -14722,7 +14767,7 @@
       <c r="S255" s="11"/>
       <c r="T255" s="11"/>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="45" t="s">
         <v>125</v>
       </c>
@@ -14768,7 +14813,7 @@
       <c r="S256" s="11"/>
       <c r="T256" s="11"/>
     </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257" s="45" t="s">
         <v>125</v>
       </c>
@@ -14814,7 +14859,7 @@
       <c r="S257" s="11"/>
       <c r="T257" s="11"/>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" s="45" t="s">
         <v>125</v>
       </c>
@@ -14860,7 +14905,7 @@
       <c r="S258" s="11"/>
       <c r="T258" s="11"/>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" s="45" t="s">
         <v>125</v>
       </c>
@@ -14906,7 +14951,7 @@
       <c r="S259" s="11"/>
       <c r="T259" s="11"/>
     </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260" s="45" t="s">
         <v>125</v>
       </c>
@@ -14952,7 +14997,7 @@
       <c r="S260" s="11"/>
       <c r="T260" s="11"/>
     </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261" s="45" t="s">
         <v>125</v>
       </c>
@@ -14998,7 +15043,7 @@
       <c r="S261" s="11"/>
       <c r="T261" s="11"/>
     </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262" s="45" t="s">
         <v>125</v>
       </c>
@@ -15044,7 +15089,7 @@
       <c r="S262" s="11"/>
       <c r="T262" s="11"/>
     </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263" s="45" t="s">
         <v>125</v>
       </c>
@@ -15090,7 +15135,7 @@
       <c r="S263" s="27"/>
       <c r="T263" s="27"/>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" s="45" t="s">
         <v>125</v>
       </c>
@@ -15136,7 +15181,7 @@
       <c r="S264" s="27"/>
       <c r="T264" s="27"/>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" s="45" t="s">
         <v>125</v>
       </c>
@@ -15182,7 +15227,7 @@
       <c r="S265" s="27"/>
       <c r="T265" s="27"/>
     </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266" s="45" t="s">
         <v>125</v>
       </c>
@@ -15228,7 +15273,7 @@
       <c r="S266" s="27"/>
       <c r="T266" s="27"/>
     </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267" s="45" t="s">
         <v>125</v>
       </c>
@@ -15274,7 +15319,7 @@
       <c r="S267" s="27"/>
       <c r="T267" s="27"/>
     </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268" s="45" t="s">
         <v>125</v>
       </c>
@@ -15320,7 +15365,7 @@
       <c r="S268" s="27"/>
       <c r="T268" s="27"/>
     </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269" s="45" t="s">
         <v>125</v>
       </c>
@@ -15366,7 +15411,7 @@
       <c r="S269" s="27"/>
       <c r="T269" s="27"/>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" s="45" t="s">
         <v>125</v>
       </c>
@@ -15412,7 +15457,7 @@
       <c r="S270" s="27"/>
       <c r="T270" s="27"/>
     </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" s="45" t="s">
         <v>125</v>
       </c>
@@ -15458,7 +15503,7 @@
       <c r="S271" s="27"/>
       <c r="T271" s="27"/>
     </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272" s="45" t="s">
         <v>125</v>
       </c>
@@ -15504,7 +15549,7 @@
       <c r="S272" s="27"/>
       <c r="T272" s="27"/>
     </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="45" t="s">
         <v>125</v>
       </c>
@@ -15550,7 +15595,7 @@
       <c r="S273" s="27"/>
       <c r="T273" s="27"/>
     </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" s="45" t="s">
         <v>125</v>
       </c>
@@ -15596,7 +15641,7 @@
       <c r="S274" s="27"/>
       <c r="T274" s="27"/>
     </row>
-    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="45" t="s">
         <v>125</v>
       </c>
@@ -15642,7 +15687,7 @@
       <c r="S275" s="25"/>
       <c r="T275" s="25"/>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="45" t="s">
         <v>125</v>
       </c>
@@ -15688,7 +15733,7 @@
       <c r="S276" s="25"/>
       <c r="T276" s="25"/>
     </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="45" t="s">
         <v>125</v>
       </c>
@@ -15734,7 +15779,7 @@
       <c r="S277" s="26"/>
       <c r="T277" s="26"/>
     </row>
-    <row r="278" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="45" t="s">
         <v>125</v>
       </c>
@@ -15780,7 +15825,7 @@
       <c r="S278" s="26"/>
       <c r="T278" s="26"/>
     </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="45" t="s">
         <v>125</v>
       </c>
@@ -15826,7 +15871,7 @@
       <c r="S279" s="26"/>
       <c r="T279" s="26"/>
     </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="45" t="s">
         <v>125</v>
       </c>
@@ -15872,7 +15917,7 @@
       <c r="S280" s="26"/>
       <c r="T280" s="26"/>
     </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="45" t="s">
         <v>125</v>
       </c>
@@ -15918,7 +15963,7 @@
       <c r="S281" s="26"/>
       <c r="T281" s="26"/>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="45" t="s">
         <v>125</v>
       </c>
@@ -15964,7 +16009,7 @@
       <c r="S282" s="26"/>
       <c r="T282" s="26"/>
     </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="45" t="s">
         <v>125</v>
       </c>
@@ -16010,7 +16055,7 @@
       <c r="S283" s="26"/>
       <c r="T283" s="26"/>
     </row>
-    <row r="284" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="45" t="s">
         <v>125</v>
       </c>
@@ -16056,7 +16101,7 @@
       <c r="S284" s="26"/>
       <c r="T284" s="26"/>
     </row>
-    <row r="285" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>34</v>
       </c>
@@ -16116,7 +16161,7 @@
         <v>7460</v>
       </c>
     </row>
-    <row r="286" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="8" t="s">
         <v>34</v>
       </c>
@@ -16176,7 +16221,7 @@
         <v>7461</v>
       </c>
     </row>
-    <row r="287" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="8" t="s">
         <v>34</v>
       </c>
@@ -16236,7 +16281,7 @@
         <v>7462</v>
       </c>
     </row>
-    <row r="288" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="s">
         <v>34</v>
       </c>
@@ -16296,7 +16341,7 @@
         <v>7463</v>
       </c>
     </row>
-    <row r="289" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8" t="s">
         <v>34</v>
       </c>
@@ -16356,7 +16401,7 @@
         <v>7464</v>
       </c>
     </row>
-    <row r="290" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="s">
         <v>34</v>
       </c>
@@ -16416,7 +16461,7 @@
         <v>7465</v>
       </c>
     </row>
-    <row r="291" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="8" t="s">
         <v>34</v>
       </c>
@@ -16476,7 +16521,7 @@
         <v>7466</v>
       </c>
     </row>
-    <row r="292" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="s">
         <v>34</v>
       </c>
@@ -16536,7 +16581,7 @@
         <v>7467</v>
       </c>
     </row>
-    <row r="293" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
         <v>34</v>
       </c>
@@ -16582,7 +16627,7 @@
         <v>7468</v>
       </c>
     </row>
-    <row r="294" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
         <v>34</v>
       </c>
@@ -16628,7 +16673,7 @@
         <v>7469</v>
       </c>
     </row>
-    <row r="295" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
         <v>34</v>
       </c>
@@ -16674,7 +16719,7 @@
         <v>7470</v>
       </c>
     </row>
-    <row r="296" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="s">
         <v>34</v>
       </c>
@@ -16720,7 +16765,7 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="297" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
         <v>34</v>
       </c>
@@ -16766,7 +16811,7 @@
         <v>7472</v>
       </c>
     </row>
-    <row r="298" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
         <v>34</v>
       </c>
@@ -16812,7 +16857,7 @@
         <v>7473</v>
       </c>
     </row>
-    <row r="299" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
         <v>34</v>
       </c>
@@ -16858,7 +16903,7 @@
       <c r="S299" s="14"/>
       <c r="T299" s="14"/>
     </row>
-    <row r="300" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
         <v>34</v>
       </c>
@@ -16904,7 +16949,7 @@
       <c r="S300" s="14"/>
       <c r="T300" s="14"/>
     </row>
-    <row r="301" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="8" t="s">
         <v>34</v>
       </c>
@@ -16950,7 +16995,7 @@
       <c r="S301" s="14"/>
       <c r="T301" s="14"/>
     </row>
-    <row r="302" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
         <v>34</v>
       </c>
@@ -16996,7 +17041,7 @@
       <c r="S302" s="14"/>
       <c r="T302" s="14"/>
     </row>
-    <row r="303" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>34</v>
       </c>
@@ -17056,7 +17101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
         <v>34</v>
       </c>
@@ -17116,7 +17161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
         <v>34</v>
       </c>
@@ -17176,7 +17221,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="306" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="s">
         <v>34</v>
       </c>
@@ -17236,7 +17281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="8" t="s">
         <v>34</v>
       </c>
@@ -17296,7 +17341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="308" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="s">
         <v>34</v>
       </c>
@@ -17356,7 +17401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="309" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
         <v>34</v>
       </c>
@@ -17402,7 +17447,7 @@
       <c r="S309" s="17"/>
       <c r="T309" s="17"/>
     </row>
-    <row r="310" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
         <v>34</v>
       </c>
@@ -17448,7 +17493,7 @@
       <c r="S310" s="17"/>
       <c r="T310" s="17"/>
     </row>
-    <row r="311" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
         <v>34</v>
       </c>
@@ -17508,7 +17553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
         <v>34</v>
       </c>
@@ -17568,7 +17613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
         <v>34</v>
       </c>
@@ -17628,7 +17673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="s">
         <v>34</v>
       </c>
@@ -17688,7 +17733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
         <v>34</v>
       </c>
@@ -17748,7 +17793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
         <v>34</v>
       </c>
@@ -17808,7 +17853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="8" t="s">
         <v>34</v>
       </c>
@@ -17854,7 +17899,7 @@
       <c r="S317" s="19"/>
       <c r="T317" s="19"/>
     </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="8" t="s">
         <v>34</v>
       </c>
@@ -17900,7 +17945,7 @@
       <c r="S318" s="19"/>
       <c r="T318" s="19"/>
     </row>
-    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
         <v>34</v>
       </c>
@@ -17946,7 +17991,7 @@
       <c r="S319" s="19"/>
       <c r="T319" s="19"/>
     </row>
-    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
         <v>34</v>
       </c>
@@ -17992,7 +18037,7 @@
       <c r="S320" s="19"/>
       <c r="T320" s="19"/>
     </row>
-    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
         <v>34</v>
       </c>
@@ -18038,7 +18083,7 @@
       <c r="S321" s="19"/>
       <c r="T321" s="19"/>
     </row>
-    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
         <v>34</v>
       </c>
@@ -18084,7 +18129,7 @@
       <c r="S322" s="19"/>
       <c r="T322" s="19"/>
     </row>
-    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323" s="8" t="s">
         <v>34</v>
       </c>
@@ -18130,7 +18175,7 @@
       <c r="S323" s="19"/>
       <c r="T323" s="19"/>
     </row>
-    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
         <v>34</v>
       </c>
@@ -18176,7 +18221,7 @@
       <c r="S324" s="19"/>
       <c r="T324" s="19"/>
     </row>
-    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
         <v>34</v>
       </c>
@@ -18222,7 +18267,7 @@
       <c r="S325" s="19"/>
       <c r="T325" s="19"/>
     </row>
-    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
         <v>34</v>
       </c>
@@ -18268,7 +18313,7 @@
       <c r="S326" s="19"/>
       <c r="T326" s="19"/>
     </row>
-    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
         <v>34</v>
       </c>
@@ -18314,7 +18359,7 @@
       <c r="S327" s="19"/>
       <c r="T327" s="19"/>
     </row>
-    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
         <v>34</v>
       </c>
@@ -18360,7 +18405,7 @@
       <c r="S328" s="19"/>
       <c r="T328" s="19"/>
     </row>
-    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
         <v>34</v>
       </c>
@@ -18406,7 +18451,7 @@
       <c r="S329" s="19"/>
       <c r="T329" s="19"/>
     </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
         <v>34</v>
       </c>
@@ -18452,7 +18497,7 @@
       <c r="S330" s="11"/>
       <c r="T330" s="11"/>
     </row>
-    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
         <v>34</v>
       </c>
@@ -18498,7 +18543,7 @@
       <c r="S331" s="11"/>
       <c r="T331" s="11"/>
     </row>
-    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
         <v>34</v>
       </c>
@@ -18544,7 +18589,7 @@
       <c r="S332" s="11"/>
       <c r="T332" s="11"/>
     </row>
-    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333" s="8" t="s">
         <v>34</v>
       </c>
@@ -18590,7 +18635,7 @@
       <c r="S333" s="11"/>
       <c r="T333" s="11"/>
     </row>
-    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
         <v>34</v>
       </c>
@@ -18636,7 +18681,7 @@
       <c r="S334" s="11"/>
       <c r="T334" s="11"/>
     </row>
-    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" s="8" t="s">
         <v>34</v>
       </c>
@@ -18682,7 +18727,7 @@
       <c r="S335" s="11"/>
       <c r="T335" s="11"/>
     </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
         <v>34</v>
       </c>
@@ -18728,7 +18773,7 @@
       <c r="S336" s="11"/>
       <c r="T336" s="11"/>
     </row>
-    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
         <v>34</v>
       </c>
@@ -18774,7 +18819,7 @@
       <c r="S337" s="11"/>
       <c r="T337" s="11"/>
     </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>34</v>
       </c>
@@ -18820,7 +18865,7 @@
       <c r="S338" s="11"/>
       <c r="T338" s="11"/>
     </row>
-    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>34</v>
       </c>
@@ -18866,7 +18911,7 @@
       <c r="S339" s="11"/>
       <c r="T339" s="11"/>
     </row>
-    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
         <v>34</v>
       </c>
@@ -18912,7 +18957,7 @@
       <c r="S340" s="11"/>
       <c r="T340" s="11"/>
     </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" s="8" t="s">
         <v>34</v>
       </c>
@@ -18958,7 +19003,7 @@
       <c r="S341" s="11"/>
       <c r="T341" s="11"/>
     </row>
-    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
         <v>34</v>
       </c>
@@ -19004,7 +19049,7 @@
       <c r="S342" s="27"/>
       <c r="T342" s="27"/>
     </row>
-    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" s="8" t="s">
         <v>34</v>
       </c>
@@ -19050,7 +19095,7 @@
       <c r="S343" s="27"/>
       <c r="T343" s="27"/>
     </row>
-    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
         <v>34</v>
       </c>
@@ -19096,7 +19141,7 @@
       <c r="S344" s="27"/>
       <c r="T344" s="27"/>
     </row>
-    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" s="8" t="s">
         <v>34</v>
       </c>
@@ -19142,7 +19187,7 @@
       <c r="S345" s="27"/>
       <c r="T345" s="27"/>
     </row>
-    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
         <v>34</v>
       </c>
@@ -19188,7 +19233,7 @@
       <c r="S346" s="27"/>
       <c r="T346" s="27"/>
     </row>
-    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" s="8" t="s">
         <v>34</v>
       </c>
@@ -19234,7 +19279,7 @@
       <c r="S347" s="27"/>
       <c r="T347" s="27"/>
     </row>
-    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
         <v>34</v>
       </c>
@@ -19280,7 +19325,7 @@
       <c r="S348" s="27"/>
       <c r="T348" s="27"/>
     </row>
-    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" s="8" t="s">
         <v>34</v>
       </c>
@@ -19326,7 +19371,7 @@
       <c r="S349" s="27"/>
       <c r="T349" s="27"/>
     </row>
-    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="s">
         <v>34</v>
       </c>
@@ -19372,7 +19417,7 @@
       <c r="S350" s="27"/>
       <c r="T350" s="27"/>
     </row>
-    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" s="8" t="s">
         <v>34</v>
       </c>
@@ -19418,7 +19463,7 @@
       <c r="S351" s="27"/>
       <c r="T351" s="27"/>
     </row>
-    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="s">
         <v>34</v>
       </c>
@@ -19464,7 +19509,7 @@
       <c r="S352" s="27"/>
       <c r="T352" s="27"/>
     </row>
-    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
         <v>34</v>
       </c>
@@ -19510,7 +19555,7 @@
       <c r="S353" s="27"/>
       <c r="T353" s="27"/>
     </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="s">
         <v>34</v>
       </c>
@@ -19556,7 +19601,7 @@
       <c r="S354" s="25"/>
       <c r="T354" s="25"/>
     </row>
-    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" s="8" t="s">
         <v>34</v>
       </c>
@@ -19602,7 +19647,7 @@
       <c r="S355" s="25"/>
       <c r="T355" s="25"/>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
         <v>34</v>
       </c>
@@ -19648,7 +19693,7 @@
       <c r="S356" s="26"/>
       <c r="T356" s="26"/>
     </row>
-    <row r="357" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
         <v>34</v>
       </c>
@@ -19694,7 +19739,7 @@
       <c r="S357" s="26"/>
       <c r="T357" s="26"/>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
         <v>34</v>
       </c>
@@ -19740,7 +19785,7 @@
       <c r="S358" s="26"/>
       <c r="T358" s="26"/>
     </row>
-    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" s="8" t="s">
         <v>34</v>
       </c>
@@ -19786,7 +19831,7 @@
       <c r="S359" s="26"/>
       <c r="T359" s="26"/>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="s">
         <v>34</v>
       </c>
@@ -19832,7 +19877,7 @@
       <c r="S360" s="26"/>
       <c r="T360" s="26"/>
     </row>
-    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361" s="8" t="s">
         <v>34</v>
       </c>
@@ -19878,7 +19923,7 @@
       <c r="S361" s="26"/>
       <c r="T361" s="26"/>
     </row>
-    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
         <v>34</v>
       </c>
@@ -19924,7 +19969,7 @@
       <c r="S362" s="26"/>
       <c r="T362" s="26"/>
     </row>
-    <row r="363" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="8" t="s">
         <v>34</v>
       </c>
@@ -19970,7 +20015,7 @@
       <c r="S363" s="26"/>
       <c r="T363" s="26"/>
     </row>
-    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="s">
         <v>34</v>
       </c>
@@ -20016,7 +20061,7 @@
       <c r="S364" s="46"/>
       <c r="T364" s="46"/>
     </row>
-    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
         <v>34</v>
       </c>
@@ -20062,7 +20107,7 @@
       <c r="S365" s="46"/>
       <c r="T365" s="46"/>
     </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="s">
         <v>34</v>
       </c>
@@ -20108,7 +20153,7 @@
       <c r="S366" s="46"/>
       <c r="T366" s="46"/>
     </row>
-    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367" s="8" t="s">
         <v>34</v>
       </c>
@@ -20154,7 +20199,7 @@
       <c r="S367" s="46"/>
       <c r="T367" s="46"/>
     </row>
-    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="s">
         <v>34</v>
       </c>
@@ -20200,7 +20245,7 @@
       <c r="S368" s="46"/>
       <c r="T368" s="46"/>
     </row>
-    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369" s="8" t="s">
         <v>34</v>
       </c>
@@ -20246,7 +20291,7 @@
       <c r="S369" s="46"/>
       <c r="T369" s="46"/>
     </row>
-    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="s">
         <v>34</v>
       </c>
@@ -20292,7 +20337,7 @@
       <c r="S370" s="46"/>
       <c r="T370" s="46"/>
     </row>
-    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371" s="8" t="s">
         <v>34</v>
       </c>
@@ -20338,7 +20383,7 @@
       <c r="S371" s="46"/>
       <c r="T371" s="46"/>
     </row>
-    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="s">
         <v>34</v>
       </c>
@@ -20384,7 +20429,7 @@
       <c r="S372" s="46"/>
       <c r="T372" s="46"/>
     </row>
-    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373" s="8" t="s">
         <v>34</v>
       </c>
@@ -20430,7 +20475,7 @@
       <c r="S373" s="46"/>
       <c r="T373" s="46"/>
     </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="s">
         <v>34</v>
       </c>
@@ -20476,7 +20521,7 @@
       <c r="S374" s="46"/>
       <c r="T374" s="46"/>
     </row>
-    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375" s="8" t="s">
         <v>34</v>
       </c>
@@ -20522,7 +20567,7 @@
       <c r="S375" s="46"/>
       <c r="T375" s="46"/>
     </row>
-    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="s">
         <v>34</v>
       </c>
@@ -20568,7 +20613,7 @@
       <c r="S376" s="46"/>
       <c r="T376" s="46"/>
     </row>
-    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" s="8" t="s">
         <v>34</v>
       </c>
@@ -20614,7 +20659,7 @@
       <c r="S377" s="46"/>
       <c r="T377" s="46"/>
     </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="s">
         <v>34</v>
       </c>
@@ -20660,7 +20705,7 @@
       <c r="S378" s="46"/>
       <c r="T378" s="46"/>
     </row>
-    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379" s="8" t="s">
         <v>34</v>
       </c>
@@ -20706,7 +20751,7 @@
       <c r="S379" s="46"/>
       <c r="T379" s="46"/>
     </row>
-    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="s">
         <v>34</v>
       </c>
@@ -20752,7 +20797,7 @@
       <c r="S380" s="46"/>
       <c r="T380" s="46"/>
     </row>
-    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381" s="8" t="s">
         <v>34</v>
       </c>
@@ -20798,7 +20843,7 @@
       <c r="S381" s="46"/>
       <c r="T381" s="46"/>
     </row>
-    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="s">
         <v>34</v>
       </c>
@@ -20844,7 +20889,7 @@
       <c r="S382" s="46"/>
       <c r="T382" s="46"/>
     </row>
-    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383" s="8" t="s">
         <v>34</v>
       </c>
@@ -20890,7 +20935,7 @@
       <c r="S383" s="46"/>
       <c r="T383" s="46"/>
     </row>
-    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="s">
         <v>34</v>
       </c>
@@ -20936,7 +20981,7 @@
       <c r="S384" s="46"/>
       <c r="T384" s="46"/>
     </row>
-    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" s="8" t="s">
         <v>34</v>
       </c>
@@ -20982,7 +21027,7 @@
       <c r="S385" s="46"/>
       <c r="T385" s="46"/>
     </row>
-    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="s">
         <v>34</v>
       </c>
@@ -21028,7 +21073,7 @@
       <c r="S386" s="46"/>
       <c r="T386" s="46"/>
     </row>
-    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" s="8" t="s">
         <v>34</v>
       </c>
@@ -21074,7 +21119,7 @@
       <c r="S387" s="46"/>
       <c r="T387" s="46"/>
     </row>
-    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="s">
         <v>34</v>
       </c>
@@ -21120,7 +21165,7 @@
       <c r="S388" s="46"/>
       <c r="T388" s="46"/>
     </row>
-    <row r="389" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
         <v>34</v>
       </c>
@@ -21166,7 +21211,7 @@
       <c r="S389" s="46"/>
       <c r="T389" s="46"/>
     </row>
-    <row r="390" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="47" t="s">
         <v>168</v>
       </c>
@@ -21226,7 +21271,7 @@
         <v>7474</v>
       </c>
     </row>
-    <row r="391" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="47" t="s">
         <v>168</v>
       </c>
@@ -21286,7 +21331,7 @@
         <v>7475</v>
       </c>
     </row>
-    <row r="392" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="47" t="s">
         <v>168</v>
       </c>
@@ -21346,7 +21391,7 @@
         <v>7476</v>
       </c>
     </row>
-    <row r="393" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="47" t="s">
         <v>168</v>
       </c>
@@ -21408,7 +21453,7 @@
         <v>7477</v>
       </c>
     </row>
-    <row r="394" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="47" t="s">
         <v>168</v>
       </c>
@@ -21470,7 +21515,7 @@
         <v>7478</v>
       </c>
     </row>
-    <row r="395" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="47" t="s">
         <v>168</v>
       </c>
@@ -21532,7 +21577,7 @@
         <v>7479</v>
       </c>
     </row>
-    <row r="396" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="47" t="s">
         <v>168</v>
       </c>
@@ -21594,7 +21639,7 @@
         <v>7480</v>
       </c>
     </row>
-    <row r="397" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="47" t="s">
         <v>168</v>
       </c>
@@ -21656,7 +21701,7 @@
         <v>7481</v>
       </c>
     </row>
-    <row r="398" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="47" t="s">
         <v>168</v>
       </c>
@@ -21702,7 +21747,7 @@
         <v>7482</v>
       </c>
     </row>
-    <row r="399" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="47" t="s">
         <v>168</v>
       </c>
@@ -21748,7 +21793,7 @@
         <v>7483</v>
       </c>
     </row>
-    <row r="400" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="47" t="s">
         <v>168</v>
       </c>
@@ -21794,7 +21839,7 @@
         <v>7484</v>
       </c>
     </row>
-    <row r="401" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="47" t="s">
         <v>168</v>
       </c>
@@ -21840,7 +21885,7 @@
         <v>7485</v>
       </c>
     </row>
-    <row r="402" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="47" t="s">
         <v>168</v>
       </c>
@@ -21886,7 +21931,7 @@
         <v>7486</v>
       </c>
     </row>
-    <row r="403" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="47" t="s">
         <v>168</v>
       </c>
@@ -21932,7 +21977,7 @@
         <v>7487</v>
       </c>
     </row>
-    <row r="404" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="47" t="s">
         <v>168</v>
       </c>
@@ -21978,7 +22023,7 @@
       <c r="S404" s="14"/>
       <c r="T404" s="14"/>
     </row>
-    <row r="405" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="47" t="s">
         <v>168</v>
       </c>
@@ -22024,7 +22069,7 @@
       <c r="S405" s="14"/>
       <c r="T405" s="14"/>
     </row>
-    <row r="406" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="47" t="s">
         <v>168</v>
       </c>
@@ -22070,7 +22115,7 @@
       <c r="S406" s="14"/>
       <c r="T406" s="14"/>
     </row>
-    <row r="407" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="47" t="s">
         <v>168</v>
       </c>
@@ -22130,7 +22175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="408" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="47" t="s">
         <v>168</v>
       </c>
@@ -22190,7 +22235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="409" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="47" t="s">
         <v>168</v>
       </c>
@@ -22250,7 +22295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="47" t="s">
         <v>168</v>
       </c>
@@ -22310,7 +22355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="47" t="s">
         <v>168</v>
       </c>
@@ -22370,7 +22415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="47" t="s">
         <v>168</v>
       </c>
@@ -22430,7 +22475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="47" t="s">
         <v>168</v>
       </c>
@@ -22476,7 +22521,7 @@
       <c r="S413" s="17"/>
       <c r="T413" s="17"/>
     </row>
-    <row r="414" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="47" t="s">
         <v>168</v>
       </c>
@@ -22522,7 +22567,7 @@
       <c r="S414" s="17"/>
       <c r="T414" s="17"/>
     </row>
-    <row r="415" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="47" t="s">
         <v>168</v>
       </c>
@@ -22582,7 +22627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="47" t="s">
         <v>168</v>
       </c>
@@ -22642,7 +22687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A417" s="47" t="s">
         <v>168</v>
       </c>
@@ -22702,7 +22747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A418" s="47" t="s">
         <v>168</v>
       </c>
@@ -22748,7 +22793,7 @@
       <c r="S418" s="18"/>
       <c r="T418" s="18"/>
     </row>
-    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419" s="47" t="s">
         <v>168</v>
       </c>
@@ -22808,7 +22853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420" s="47" t="s">
         <v>168</v>
       </c>
@@ -22868,7 +22913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" s="47" t="s">
         <v>168</v>
       </c>
@@ -22928,7 +22973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422" s="47" t="s">
         <v>168</v>
       </c>
@@ -22974,7 +23019,7 @@
       <c r="S422" s="19"/>
       <c r="T422" s="19"/>
     </row>
-    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" s="47" t="s">
         <v>168</v>
       </c>
@@ -23020,7 +23065,7 @@
       <c r="S423" s="19"/>
       <c r="T423" s="19"/>
     </row>
-    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424" s="47" t="s">
         <v>168</v>
       </c>
@@ -23066,7 +23111,7 @@
       <c r="S424" s="19"/>
       <c r="T424" s="19"/>
     </row>
-    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425" s="47" t="s">
         <v>168</v>
       </c>
@@ -23112,7 +23157,7 @@
       <c r="S425" s="11"/>
       <c r="T425" s="11"/>
     </row>
-    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426" s="47" t="s">
         <v>168</v>
       </c>
@@ -23158,7 +23203,7 @@
       <c r="S426" s="11"/>
       <c r="T426" s="11"/>
     </row>
-    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" s="47" t="s">
         <v>168</v>
       </c>
@@ -23204,7 +23249,7 @@
       <c r="S427" s="11"/>
       <c r="T427" s="11"/>
     </row>
-    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" s="47" t="s">
         <v>168</v>
       </c>
@@ -23250,7 +23295,7 @@
       <c r="S428" s="11"/>
       <c r="T428" s="11"/>
     </row>
-    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" s="47" t="s">
         <v>168</v>
       </c>
@@ -23296,7 +23341,7 @@
       <c r="S429" s="11"/>
       <c r="T429" s="11"/>
     </row>
-    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" s="47" t="s">
         <v>168</v>
       </c>
@@ -23342,7 +23387,7 @@
       <c r="S430" s="11"/>
       <c r="T430" s="11"/>
     </row>
-    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" s="47" t="s">
         <v>168</v>
       </c>
@@ -23388,7 +23433,7 @@
       <c r="S431" s="11"/>
       <c r="T431" s="11"/>
     </row>
-    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A432" s="47" t="s">
         <v>168</v>
       </c>
@@ -23434,7 +23479,7 @@
       <c r="S432" s="11"/>
       <c r="T432" s="11"/>
     </row>
-    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A433" s="47" t="s">
         <v>168</v>
       </c>
@@ -23480,7 +23525,7 @@
       <c r="S433" s="11"/>
       <c r="T433" s="11"/>
     </row>
-    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A434" s="47" t="s">
         <v>168</v>
       </c>
@@ -23526,7 +23571,7 @@
       <c r="S434" s="11"/>
       <c r="T434" s="11"/>
     </row>
-    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A435" s="47" t="s">
         <v>168</v>
       </c>
@@ -23572,7 +23617,7 @@
       <c r="S435" s="11"/>
       <c r="T435" s="11"/>
     </row>
-    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A436" s="47" t="s">
         <v>168</v>
       </c>
@@ -23618,7 +23663,7 @@
       <c r="S436" s="11"/>
       <c r="T436" s="11"/>
     </row>
-    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437" s="47" t="s">
         <v>168</v>
       </c>
@@ -23664,7 +23709,7 @@
       <c r="S437" s="27"/>
       <c r="T437" s="27"/>
     </row>
-    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438" s="47" t="s">
         <v>168</v>
       </c>
@@ -23710,7 +23755,7 @@
       <c r="S438" s="27"/>
       <c r="T438" s="27"/>
     </row>
-    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" s="47" t="s">
         <v>168</v>
       </c>
@@ -23756,7 +23801,7 @@
       <c r="S439" s="27"/>
       <c r="T439" s="27"/>
     </row>
-    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440" s="47" t="s">
         <v>168</v>
       </c>
@@ -23802,7 +23847,7 @@
       <c r="S440" s="27"/>
       <c r="T440" s="27"/>
     </row>
-    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A441" s="47" t="s">
         <v>168</v>
       </c>
@@ -23848,7 +23893,7 @@
       <c r="S441" s="27"/>
       <c r="T441" s="27"/>
     </row>
-    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442" s="47" t="s">
         <v>168</v>
       </c>
@@ -23894,7 +23939,7 @@
       <c r="S442" s="27"/>
       <c r="T442" s="27"/>
     </row>
-    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443" s="47" t="s">
         <v>168</v>
       </c>
@@ -23940,7 +23985,7 @@
       <c r="S443" s="27"/>
       <c r="T443" s="27"/>
     </row>
-    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444" s="47" t="s">
         <v>168</v>
       </c>
@@ -23986,7 +24031,7 @@
       <c r="S444" s="27"/>
       <c r="T444" s="27"/>
     </row>
-    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A445" s="47" t="s">
         <v>168</v>
       </c>
@@ -24032,7 +24077,7 @@
       <c r="S445" s="27"/>
       <c r="T445" s="27"/>
     </row>
-    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A446" s="47" t="s">
         <v>168</v>
       </c>
@@ -24078,7 +24123,7 @@
       <c r="S446" s="27"/>
       <c r="T446" s="27"/>
     </row>
-    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A447" s="47" t="s">
         <v>168</v>
       </c>
@@ -24124,7 +24169,7 @@
       <c r="S447" s="27"/>
       <c r="T447" s="27"/>
     </row>
-    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A448" s="47" t="s">
         <v>168</v>
       </c>
@@ -24170,7 +24215,7 @@
       <c r="S448" s="27"/>
       <c r="T448" s="27"/>
     </row>
-    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A449" s="47" t="s">
         <v>168</v>
       </c>
@@ -24216,7 +24261,7 @@
       <c r="S449" s="25"/>
       <c r="T449" s="25"/>
     </row>
-    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A450" s="47" t="s">
         <v>168</v>
       </c>
@@ -24262,7 +24307,7 @@
       <c r="S450" s="25"/>
       <c r="T450" s="25"/>
     </row>
-    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A451" s="47" t="s">
         <v>168</v>
       </c>
@@ -24308,7 +24353,7 @@
       <c r="S451" s="26"/>
       <c r="T451" s="26"/>
     </row>
-    <row r="452" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="47" t="s">
         <v>168</v>
       </c>
@@ -24354,7 +24399,7 @@
       <c r="S452" s="26"/>
       <c r="T452" s="26"/>
     </row>
-    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" s="47" t="s">
         <v>168</v>
       </c>
@@ -24400,7 +24445,7 @@
       <c r="S453" s="26"/>
       <c r="T453" s="26"/>
     </row>
-    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" s="47" t="s">
         <v>168</v>
       </c>
@@ -24446,7 +24491,7 @@
       <c r="S454" s="26"/>
       <c r="T454" s="26"/>
     </row>
-    <row r="455" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" s="47" t="s">
         <v>168</v>
       </c>
@@ -24492,7 +24537,7 @@
       <c r="S455" s="26"/>
       <c r="T455" s="26"/>
     </row>
-    <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456" s="47" t="s">
         <v>168</v>
       </c>
@@ -24538,7 +24583,7 @@
       <c r="S456" s="26"/>
       <c r="T456" s="26"/>
     </row>
-    <row r="457" spans="1:20" s="32" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="47" t="s">
         <v>168</v>
       </c>
@@ -24584,7 +24629,7 @@
       <c r="S457" s="26"/>
       <c r="T457" s="26"/>
     </row>
-    <row r="458" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="48" t="s">
         <v>209</v>
       </c>
@@ -24644,7 +24689,7 @@
         <v>7488</v>
       </c>
     </row>
-    <row r="459" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="48" t="s">
         <v>209</v>
       </c>
@@ -24704,7 +24749,7 @@
         <v>7489</v>
       </c>
     </row>
-    <row r="460" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="48" t="s">
         <v>209</v>
       </c>
@@ -24764,7 +24809,7 @@
         <v>7490</v>
       </c>
     </row>
-    <row r="461" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="48" t="s">
         <v>209</v>
       </c>
@@ -24826,7 +24871,7 @@
         <v>7491</v>
       </c>
     </row>
-    <row r="462" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="48" t="s">
         <v>209</v>
       </c>
@@ -24888,7 +24933,7 @@
         <v>7492</v>
       </c>
     </row>
-    <row r="463" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="48" t="s">
         <v>209</v>
       </c>
@@ -24950,7 +24995,7 @@
         <v>7493</v>
       </c>
     </row>
-    <row r="464" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="48" t="s">
         <v>209</v>
       </c>
@@ -25012,7 +25057,7 @@
         <v>7494</v>
       </c>
     </row>
-    <row r="465" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="48" t="s">
         <v>209</v>
       </c>
@@ -25074,7 +25119,7 @@
         <v>7495</v>
       </c>
     </row>
-    <row r="466" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="48" t="s">
         <v>209</v>
       </c>
@@ -25120,7 +25165,7 @@
         <v>7496</v>
       </c>
     </row>
-    <row r="467" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="48" t="s">
         <v>209</v>
       </c>
@@ -25166,7 +25211,7 @@
         <v>7497</v>
       </c>
     </row>
-    <row r="468" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="48" t="s">
         <v>209</v>
       </c>
@@ -25212,7 +25257,7 @@
         <v>7498</v>
       </c>
     </row>
-    <row r="469" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="48" t="s">
         <v>209</v>
       </c>
@@ -25258,7 +25303,7 @@
         <v>7499</v>
       </c>
     </row>
-    <row r="470" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="48" t="s">
         <v>209</v>
       </c>
@@ -25304,7 +25349,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="471" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="48" t="s">
         <v>209</v>
       </c>
@@ -25350,7 +25395,7 @@
         <v>7501</v>
       </c>
     </row>
-    <row r="472" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="48" t="s">
         <v>209</v>
       </c>
@@ -25396,7 +25441,7 @@
       <c r="S472" s="14"/>
       <c r="T472" s="14"/>
     </row>
-    <row r="473" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="48" t="s">
         <v>209</v>
       </c>
@@ -25442,7 +25487,7 @@
       <c r="S473" s="14"/>
       <c r="T473" s="14"/>
     </row>
-    <row r="474" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="48" t="s">
         <v>209</v>
       </c>
@@ -25488,7 +25533,7 @@
       <c r="S474" s="14"/>
       <c r="T474" s="14"/>
     </row>
-    <row r="475" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="48" t="s">
         <v>209</v>
       </c>
@@ -25548,7 +25593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="476" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="48" t="s">
         <v>209</v>
       </c>
@@ -25608,7 +25653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="477" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="48" t="s">
         <v>209</v>
       </c>
@@ -25668,7 +25713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="478" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="48" t="s">
         <v>209</v>
       </c>
@@ -25728,7 +25773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="479" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="48" t="s">
         <v>209</v>
       </c>
@@ -25788,7 +25833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="480" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="48" t="s">
         <v>209</v>
       </c>
@@ -25848,7 +25893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="481" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="48" t="s">
         <v>209</v>
       </c>
@@ -25894,7 +25939,7 @@
       <c r="S481" s="17"/>
       <c r="T481" s="17"/>
     </row>
-    <row r="482" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="48" t="s">
         <v>209</v>
       </c>
@@ -25940,7 +25985,7 @@
       <c r="S482" s="17"/>
       <c r="T482" s="17"/>
     </row>
-    <row r="483" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="48" t="s">
         <v>209</v>
       </c>
@@ -26000,7 +26045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="484" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="48" t="s">
         <v>209</v>
       </c>
@@ -26060,7 +26105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485" s="48" t="s">
         <v>209</v>
       </c>
@@ -26120,7 +26165,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" s="48" t="s">
         <v>209</v>
       </c>
@@ -26180,7 +26225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="48" t="s">
         <v>209</v>
       </c>
@@ -26240,7 +26285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="488" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488" s="48" t="s">
         <v>209</v>
       </c>
@@ -26300,7 +26345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="489" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489" s="48" t="s">
         <v>209</v>
       </c>
@@ -26346,7 +26391,7 @@
       <c r="S489" s="19"/>
       <c r="T489" s="19"/>
     </row>
-    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" s="48" t="s">
         <v>209</v>
       </c>
@@ -26392,7 +26437,7 @@
       <c r="S490" s="19"/>
       <c r="T490" s="19"/>
     </row>
-    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" s="48" t="s">
         <v>209</v>
       </c>
@@ -26438,7 +26483,7 @@
       <c r="S491" s="19"/>
       <c r="T491" s="19"/>
     </row>
-    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" s="48" t="s">
         <v>209</v>
       </c>
@@ -26484,7 +26529,7 @@
       <c r="S492" s="11"/>
       <c r="T492" s="11"/>
     </row>
-    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" s="48" t="s">
         <v>209</v>
       </c>
@@ -26530,7 +26575,7 @@
       <c r="S493" s="11"/>
       <c r="T493" s="11"/>
     </row>
-    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" s="48" t="s">
         <v>209</v>
       </c>
@@ -26576,7 +26621,7 @@
       <c r="S494" s="11"/>
       <c r="T494" s="11"/>
     </row>
-    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" s="48" t="s">
         <v>209</v>
       </c>
@@ -26622,7 +26667,7 @@
       <c r="S495" s="11"/>
       <c r="T495" s="11"/>
     </row>
-    <row r="496" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496" s="48" t="s">
         <v>209</v>
       </c>
@@ -26668,7 +26713,7 @@
       <c r="S496" s="11"/>
       <c r="T496" s="11"/>
     </row>
-    <row r="497" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A497" s="48" t="s">
         <v>209</v>
       </c>
@@ -26714,7 +26759,7 @@
       <c r="S497" s="11"/>
       <c r="T497" s="11"/>
     </row>
-    <row r="498" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
         <v>209</v>
       </c>
@@ -26760,7 +26805,7 @@
       <c r="S498" s="11"/>
       <c r="T498" s="11"/>
     </row>
-    <row r="499" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A499" s="48" t="s">
         <v>209</v>
       </c>
@@ -26806,7 +26851,7 @@
       <c r="S499" s="11"/>
       <c r="T499" s="11"/>
     </row>
-    <row r="500" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A500" s="48" t="s">
         <v>209</v>
       </c>
@@ -26852,7 +26897,7 @@
       <c r="S500" s="11"/>
       <c r="T500" s="11"/>
     </row>
-    <row r="501" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A501" s="48" t="s">
         <v>209</v>
       </c>
@@ -26898,7 +26943,7 @@
       <c r="S501" s="11"/>
       <c r="T501" s="11"/>
     </row>
-    <row r="502" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A502" s="48" t="s">
         <v>209</v>
       </c>
@@ -26944,7 +26989,7 @@
       <c r="S502" s="11"/>
       <c r="T502" s="11"/>
     </row>
-    <row r="503" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A503" s="48" t="s">
         <v>209</v>
       </c>
@@ -26990,7 +27035,7 @@
       <c r="S503" s="11"/>
       <c r="T503" s="11"/>
     </row>
-    <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A504" s="48" t="s">
         <v>209</v>
       </c>
@@ -27036,7 +27081,7 @@
       <c r="S504" s="27"/>
       <c r="T504" s="27"/>
     </row>
-    <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A505" s="48" t="s">
         <v>209</v>
       </c>
@@ -27082,7 +27127,7 @@
       <c r="S505" s="27"/>
       <c r="T505" s="27"/>
     </row>
-    <row r="506" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A506" s="48" t="s">
         <v>209</v>
       </c>
@@ -27128,7 +27173,7 @@
       <c r="S506" s="27"/>
       <c r="T506" s="27"/>
     </row>
-    <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A507" s="48" t="s">
         <v>209</v>
       </c>
@@ -27174,7 +27219,7 @@
       <c r="S507" s="27"/>
       <c r="T507" s="27"/>
     </row>
-    <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A508" s="48" t="s">
         <v>209</v>
       </c>
@@ -27220,7 +27265,7 @@
       <c r="S508" s="27"/>
       <c r="T508" s="27"/>
     </row>
-    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A509" s="48" t="s">
         <v>209</v>
       </c>
@@ -27266,7 +27311,7 @@
       <c r="S509" s="27"/>
       <c r="T509" s="27"/>
     </row>
-    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A510" s="48" t="s">
         <v>209</v>
       </c>
@@ -27312,7 +27357,7 @@
       <c r="S510" s="27"/>
       <c r="T510" s="27"/>
     </row>
-    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A511" s="48" t="s">
         <v>209</v>
       </c>
@@ -27358,7 +27403,7 @@
       <c r="S511" s="27"/>
       <c r="T511" s="27"/>
     </row>
-    <row r="512" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A512" s="48" t="s">
         <v>209</v>
       </c>
@@ -27404,7 +27449,7 @@
       <c r="S512" s="27"/>
       <c r="T512" s="27"/>
     </row>
-    <row r="513" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A513" s="48" t="s">
         <v>209</v>
       </c>
@@ -27450,7 +27495,7 @@
       <c r="S513" s="27"/>
       <c r="T513" s="27"/>
     </row>
-    <row r="514" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A514" s="48" t="s">
         <v>209</v>
       </c>
@@ -27496,7 +27541,7 @@
       <c r="S514" s="27"/>
       <c r="T514" s="27"/>
     </row>
-    <row r="515" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A515" s="48" t="s">
         <v>209</v>
       </c>
@@ -27542,7 +27587,7 @@
       <c r="S515" s="27"/>
       <c r="T515" s="27"/>
     </row>
-    <row r="516" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A516" s="48" t="s">
         <v>209</v>
       </c>
@@ -27588,7 +27633,7 @@
       <c r="S516" s="25"/>
       <c r="T516" s="25"/>
     </row>
-    <row r="517" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A517" s="48" t="s">
         <v>209</v>
       </c>
@@ -27634,7 +27679,7 @@
       <c r="S517" s="25"/>
       <c r="T517" s="25"/>
     </row>
-    <row r="518" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A518" s="48" t="s">
         <v>209</v>
       </c>
@@ -27680,7 +27725,7 @@
       <c r="S518" s="26"/>
       <c r="T518" s="26"/>
     </row>
-    <row r="519" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="48" t="s">
         <v>209</v>
       </c>
@@ -27726,7 +27771,7 @@
       <c r="S519" s="26"/>
       <c r="T519" s="26"/>
     </row>
-    <row r="520" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
         <v>209</v>
       </c>
@@ -27772,7 +27817,7 @@
       <c r="S520" s="26"/>
       <c r="T520" s="26"/>
     </row>
-    <row r="521" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A521" s="48" t="s">
         <v>209</v>
       </c>
@@ -27818,7 +27863,7 @@
       <c r="S521" s="26"/>
       <c r="T521" s="26"/>
     </row>
-    <row r="522" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A522" s="48" t="s">
         <v>209</v>
       </c>
@@ -27864,7 +27909,7 @@
       <c r="S522" s="26"/>
       <c r="T522" s="26"/>
     </row>
-    <row r="523" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A523" s="48" t="s">
         <v>209</v>
       </c>
@@ -27910,7 +27955,7 @@
       <c r="S523" s="26"/>
       <c r="T523" s="26"/>
     </row>
-    <row r="524" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="48" t="s">
         <v>209</v>
       </c>
@@ -27956,7 +28001,7 @@
       <c r="S524" s="26"/>
       <c r="T524" s="26"/>
     </row>
-    <row r="525" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="38" t="s">
         <v>169</v>
       </c>
@@ -28016,7 +28061,7 @@
         <v>7502</v>
       </c>
     </row>
-    <row r="526" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="38" t="s">
         <v>169</v>
       </c>
@@ -28076,7 +28121,7 @@
         <v>7503</v>
       </c>
     </row>
-    <row r="527" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="38" t="s">
         <v>169</v>
       </c>
@@ -28136,7 +28181,7 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="528" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="38" t="s">
         <v>169</v>
       </c>
@@ -28196,7 +28241,7 @@
         <v>7505</v>
       </c>
     </row>
-    <row r="529" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="38" t="s">
         <v>169</v>
       </c>
@@ -28256,7 +28301,7 @@
         <v>7506</v>
       </c>
     </row>
-    <row r="530" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="38" t="s">
         <v>169</v>
       </c>
@@ -28316,7 +28361,7 @@
         <v>7507</v>
       </c>
     </row>
-    <row r="531" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="38" t="s">
         <v>169</v>
       </c>
@@ -28376,7 +28421,7 @@
         <v>7508</v>
       </c>
     </row>
-    <row r="532" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="38" t="s">
         <v>169</v>
       </c>
@@ -28422,7 +28467,7 @@
         <v>7509</v>
       </c>
     </row>
-    <row r="533" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="38" t="s">
         <v>169</v>
       </c>
@@ -28468,7 +28513,7 @@
         <v>7510</v>
       </c>
     </row>
-    <row r="534" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="38" t="s">
         <v>169</v>
       </c>
@@ -28514,7 +28559,7 @@
         <v>7511</v>
       </c>
     </row>
-    <row r="535" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="38" t="s">
         <v>169</v>
       </c>
@@ -28560,7 +28605,7 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="536" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="38" t="s">
         <v>169</v>
       </c>
@@ -28606,7 +28651,7 @@
         <v>7513</v>
       </c>
     </row>
-    <row r="537" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="38" t="s">
         <v>169</v>
       </c>
@@ -28652,7 +28697,7 @@
         <v>7514</v>
       </c>
     </row>
-    <row r="538" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="38" t="s">
         <v>169</v>
       </c>
@@ -28698,7 +28743,7 @@
       <c r="S538" s="14"/>
       <c r="T538" s="14"/>
     </row>
-    <row r="539" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="38" t="s">
         <v>169</v>
       </c>
@@ -28758,7 +28803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="540" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="38" t="s">
         <v>169</v>
       </c>
@@ -28818,7 +28863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="541" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="38" t="s">
         <v>169</v>
       </c>
@@ -28878,7 +28923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="542" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="38" t="s">
         <v>169</v>
       </c>
@@ -28938,7 +28983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="543" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="38" t="s">
         <v>169</v>
       </c>
@@ -28998,7 +29043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="544" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="38" t="s">
         <v>169</v>
       </c>
@@ -29058,7 +29103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="545" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="38" t="s">
         <v>169</v>
       </c>
@@ -29104,7 +29149,7 @@
       <c r="S545" s="17"/>
       <c r="T545" s="17"/>
     </row>
-    <row r="546" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="38" t="s">
         <v>169</v>
       </c>
@@ -29150,7 +29195,7 @@
       <c r="S546" s="17"/>
       <c r="T546" s="17"/>
     </row>
-    <row r="547" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A547" s="38" t="s">
         <v>169</v>
       </c>
@@ -29196,7 +29241,7 @@
       <c r="S547" s="11"/>
       <c r="T547" s="11"/>
     </row>
-    <row r="548" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A548" s="38" t="s">
         <v>169</v>
       </c>
@@ -29242,7 +29287,7 @@
       <c r="S548" s="11"/>
       <c r="T548" s="11"/>
     </row>
-    <row r="549" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A549" s="38" t="s">
         <v>169</v>
       </c>
@@ -29288,7 +29333,7 @@
       <c r="S549" s="11"/>
       <c r="T549" s="11"/>
     </row>
-    <row r="550" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="38" t="s">
         <v>169</v>
       </c>
@@ -29334,7 +29379,7 @@
       <c r="S550" s="11"/>
       <c r="T550" s="11"/>
     </row>
-    <row r="551" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="49" t="s">
         <v>170</v>
       </c>
@@ -29394,7 +29439,7 @@
         <v>7515</v>
       </c>
     </row>
-    <row r="552" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="49" t="s">
         <v>170</v>
       </c>
@@ -29454,7 +29499,7 @@
         <v>7516</v>
       </c>
     </row>
-    <row r="553" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="49" t="s">
         <v>170</v>
       </c>
@@ -29514,7 +29559,7 @@
         <v>7517</v>
       </c>
     </row>
-    <row r="554" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="49" t="s">
         <v>170</v>
       </c>
@@ -29574,7 +29619,7 @@
         <v>7518</v>
       </c>
     </row>
-    <row r="555" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="49" t="s">
         <v>170</v>
       </c>
@@ -29634,7 +29679,7 @@
         <v>7519</v>
       </c>
     </row>
-    <row r="556" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="49" t="s">
         <v>170</v>
       </c>
@@ -29694,7 +29739,7 @@
         <v>7520</v>
       </c>
     </row>
-    <row r="557" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="49" t="s">
         <v>170</v>
       </c>
@@ -29754,7 +29799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="558" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="49" t="s">
         <v>170</v>
       </c>
@@ -29814,7 +29859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="559" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A559" s="49" t="s">
         <v>170</v>
       </c>
@@ -29874,7 +29919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="560" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A560" s="49" t="s">
         <v>170</v>
       </c>
@@ -29920,7 +29965,7 @@
       <c r="S560" s="18"/>
       <c r="T560" s="18"/>
     </row>
-    <row r="561" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A561" s="49" t="s">
         <v>170</v>
       </c>
@@ -29980,7 +30025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="562" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A562" s="49" t="s">
         <v>170</v>
       </c>
@@ -30040,7 +30085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="563" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A563" s="49" t="s">
         <v>170</v>
       </c>
@@ -30100,7 +30145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="564" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A564" s="49" t="s">
         <v>170</v>
       </c>
@@ -30146,7 +30191,7 @@
       <c r="S564" s="19"/>
       <c r="T564" s="19"/>
     </row>
-    <row r="565" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A565" s="49" t="s">
         <v>170</v>
       </c>
@@ -30192,7 +30237,7 @@
       <c r="S565" s="19"/>
       <c r="T565" s="19"/>
     </row>
-    <row r="566" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A566" s="49" t="s">
         <v>170</v>
       </c>
@@ -30238,7 +30283,7 @@
       <c r="S566" s="19"/>
       <c r="T566" s="19"/>
     </row>
-    <row r="567" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A567" s="49" t="s">
         <v>170</v>
       </c>
@@ -30284,7 +30329,7 @@
       <c r="S567" s="19"/>
       <c r="T567" s="19"/>
     </row>
-    <row r="568" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A568" s="49" t="s">
         <v>170</v>
       </c>
@@ -30330,7 +30375,7 @@
       <c r="S568" s="19"/>
       <c r="T568" s="19"/>
     </row>
-    <row r="569" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A569" s="49" t="s">
         <v>170</v>
       </c>
@@ -30376,7 +30421,7 @@
       <c r="S569" s="19"/>
       <c r="T569" s="19"/>
     </row>
-    <row r="570" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A570" s="49" t="s">
         <v>170</v>
       </c>
@@ -30422,7 +30467,7 @@
       <c r="S570" s="19"/>
       <c r="T570" s="19"/>
     </row>
-    <row r="571" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A571" s="49" t="s">
         <v>170</v>
       </c>
@@ -30468,7 +30513,7 @@
       <c r="S571" s="19"/>
       <c r="T571" s="19"/>
     </row>
-    <row r="572" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A572" s="49" t="s">
         <v>170</v>
       </c>
@@ -30514,7 +30559,7 @@
       <c r="S572" s="19"/>
       <c r="T572" s="19"/>
     </row>
-    <row r="573" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A573" s="49" t="s">
         <v>170</v>
       </c>
@@ -30560,7 +30605,7 @@
       <c r="S573" s="19"/>
       <c r="T573" s="19"/>
     </row>
-    <row r="574" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A574" s="49" t="s">
         <v>170</v>
       </c>
@@ -30606,7 +30651,7 @@
       <c r="S574" s="19"/>
       <c r="T574" s="19"/>
     </row>
-    <row r="575" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A575" s="49" t="s">
         <v>170</v>
       </c>
@@ -30652,7 +30697,7 @@
       <c r="S575" s="19"/>
       <c r="T575" s="19"/>
     </row>
-    <row r="576" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A576" s="49" t="s">
         <v>170</v>
       </c>
@@ -30698,7 +30743,7 @@
       <c r="S576" s="19"/>
       <c r="T576" s="19"/>
     </row>
-    <row r="577" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A577" s="49" t="s">
         <v>170</v>
       </c>
@@ -30744,7 +30789,7 @@
       <c r="S577" s="19"/>
       <c r="T577" s="19"/>
     </row>
-    <row r="578" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A578" s="49" t="s">
         <v>170</v>
       </c>
@@ -30790,7 +30835,7 @@
       <c r="S578" s="11"/>
       <c r="T578" s="11"/>
     </row>
-    <row r="579" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A579" s="49" t="s">
         <v>170</v>
       </c>
@@ -30836,7 +30881,7 @@
       <c r="S579" s="11"/>
       <c r="T579" s="11"/>
     </row>
-    <row r="580" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A580" s="49" t="s">
         <v>170</v>
       </c>
@@ -30882,7 +30927,7 @@
       <c r="S580" s="11"/>
       <c r="T580" s="11"/>
     </row>
-    <row r="581" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A581" s="49" t="s">
         <v>170</v>
       </c>
@@ -30928,7 +30973,7 @@
       <c r="S581" s="11"/>
       <c r="T581" s="11"/>
     </row>
-    <row r="582" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A582" s="49" t="s">
         <v>170</v>
       </c>
@@ -30974,7 +31019,7 @@
       <c r="S582" s="27"/>
       <c r="T582" s="27"/>
     </row>
-    <row r="583" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A583" s="49" t="s">
         <v>170</v>
       </c>
@@ -31020,7 +31065,7 @@
       <c r="S583" s="27"/>
       <c r="T583" s="27"/>
     </row>
-    <row r="584" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A584" s="49" t="s">
         <v>170</v>
       </c>
@@ -31066,7 +31111,7 @@
       <c r="S584" s="27"/>
       <c r="T584" s="27"/>
     </row>
-    <row r="585" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A585" s="49" t="s">
         <v>170</v>
       </c>
@@ -31112,7 +31157,7 @@
       <c r="S585" s="27"/>
       <c r="T585" s="27"/>
     </row>
-    <row r="586" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A586" s="49" t="s">
         <v>170</v>
       </c>
@@ -31158,7 +31203,7 @@
       <c r="S586" s="27"/>
       <c r="T586" s="27"/>
     </row>
-    <row r="587" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A587" s="49" t="s">
         <v>170</v>
       </c>
@@ -31204,7 +31249,7 @@
       <c r="S587" s="27"/>
       <c r="T587" s="27"/>
     </row>
-    <row r="588" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A588" s="49" t="s">
         <v>170</v>
       </c>
@@ -31250,7 +31295,7 @@
       <c r="S588" s="27"/>
       <c r="T588" s="27"/>
     </row>
-    <row r="589" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A589" s="49" t="s">
         <v>170</v>
       </c>
@@ -31296,7 +31341,7 @@
       <c r="S589" s="27"/>
       <c r="T589" s="27"/>
     </row>
-    <row r="590" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A590" s="49" t="s">
         <v>170</v>
       </c>
@@ -31342,7 +31387,7 @@
       <c r="S590" s="27"/>
       <c r="T590" s="27"/>
     </row>
-    <row r="591" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A591" s="49" t="s">
         <v>170</v>
       </c>
@@ -31388,7 +31433,7 @@
       <c r="S591" s="27"/>
       <c r="T591" s="27"/>
     </row>
-    <row r="592" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A592" s="49" t="s">
         <v>170</v>
       </c>
@@ -31434,7 +31479,7 @@
       <c r="S592" s="27"/>
       <c r="T592" s="27"/>
     </row>
-    <row r="593" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="49" t="s">
         <v>170</v>
       </c>
@@ -33764,7 +33809,7 @@
       <c r="S639" s="56"/>
       <c r="T639" s="56"/>
     </row>
-    <row r="640" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A640" s="50" t="s">
         <v>173</v>
       </c>
@@ -33824,7 +33869,7 @@
         <v>7527</v>
       </c>
     </row>
-    <row r="641" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A641" s="50" t="s">
         <v>173</v>
       </c>
@@ -33884,7 +33929,7 @@
         <v>7528</v>
       </c>
     </row>
-    <row r="642" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="50" t="s">
         <v>173</v>
       </c>
@@ -33944,7 +33989,7 @@
         <v>7529</v>
       </c>
     </row>
-    <row r="643" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A643" s="50" t="s">
         <v>173</v>
       </c>
@@ -34006,7 +34051,7 @@
         <v>7530</v>
       </c>
     </row>
-    <row r="644" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A644" s="50" t="s">
         <v>173</v>
       </c>
@@ -34068,7 +34113,7 @@
         <v>7531</v>
       </c>
     </row>
-    <row r="645" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="50" t="s">
         <v>173</v>
       </c>
@@ -34130,7 +34175,7 @@
         <v>7532</v>
       </c>
     </row>
-    <row r="646" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A646" s="50" t="s">
         <v>173</v>
       </c>
@@ -34192,7 +34237,7 @@
         <v>7533</v>
       </c>
     </row>
-    <row r="647" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A647" s="50" t="s">
         <v>173</v>
       </c>
@@ -34238,7 +34283,7 @@
         <v>7534</v>
       </c>
     </row>
-    <row r="648" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A648" s="50" t="s">
         <v>173</v>
       </c>
@@ -34284,7 +34329,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="649" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A649" s="50" t="s">
         <v>173</v>
       </c>
@@ -34330,7 +34375,7 @@
         <v>7536</v>
       </c>
     </row>
-    <row r="650" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A650" s="50" t="s">
         <v>173</v>
       </c>
@@ -34376,7 +34421,7 @@
         <v>7537</v>
       </c>
     </row>
-    <row r="651" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A651" s="50" t="s">
         <v>173</v>
       </c>
@@ -34422,7 +34467,7 @@
         <v>7538</v>
       </c>
     </row>
-    <row r="652" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A652" s="50" t="s">
         <v>173</v>
       </c>
@@ -34468,7 +34513,7 @@
         <v>7539</v>
       </c>
     </row>
-    <row r="653" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A653" s="50" t="s">
         <v>173</v>
       </c>
@@ -34514,7 +34559,7 @@
       <c r="S653" s="14"/>
       <c r="T653" s="14"/>
     </row>
-    <row r="654" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A654" s="50" t="s">
         <v>173</v>
       </c>
@@ -34574,7 +34619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="655" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A655" s="50" t="s">
         <v>173</v>
       </c>
@@ -34634,7 +34679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="656" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A656" s="50" t="s">
         <v>173</v>
       </c>
@@ -34694,7 +34739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="657" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A657" s="50" t="s">
         <v>173</v>
       </c>
@@ -34754,7 +34799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="658" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A658" s="50" t="s">
         <v>173</v>
       </c>
@@ -34814,7 +34859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="659" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A659" s="50" t="s">
         <v>173</v>
       </c>
@@ -34874,7 +34919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="660" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A660" s="50" t="s">
         <v>173</v>
       </c>
@@ -34934,7 +34979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="661" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A661" s="50" t="s">
         <v>173</v>
       </c>
@@ -34994,7 +35039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="662" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A662" s="50" t="s">
         <v>173</v>
       </c>
@@ -35054,7 +35099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="663" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A663" s="50" t="s">
         <v>173</v>
       </c>
@@ -35114,7 +35159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="664" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A664" s="50" t="s">
         <v>173</v>
       </c>
@@ -35174,7 +35219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="665" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A665" s="50" t="s">
         <v>173</v>
       </c>
@@ -35234,7 +35279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="666" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A666" s="50" t="s">
         <v>173</v>
       </c>
@@ -35294,7 +35339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="667" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A667" s="50" t="s">
         <v>173</v>
       </c>
@@ -35340,7 +35385,7 @@
       <c r="S667" s="19"/>
       <c r="T667" s="19"/>
     </row>
-    <row r="668" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A668" s="50" t="s">
         <v>173</v>
       </c>
@@ -35386,7 +35431,7 @@
       <c r="S668" s="11"/>
       <c r="T668" s="11"/>
     </row>
-    <row r="669" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A669" s="50" t="s">
         <v>173</v>
       </c>
@@ -35432,7 +35477,7 @@
       <c r="S669" s="11"/>
       <c r="T669" s="11"/>
     </row>
-    <row r="670" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A670" s="50" t="s">
         <v>173</v>
       </c>
@@ -35478,7 +35523,7 @@
       <c r="S670" s="11"/>
       <c r="T670" s="11"/>
     </row>
-    <row r="671" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A671" s="50" t="s">
         <v>173</v>
       </c>
@@ -35524,7 +35569,7 @@
       <c r="S671" s="11"/>
       <c r="T671" s="11"/>
     </row>
-    <row r="672" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A672" s="50" t="s">
         <v>173</v>
       </c>
@@ -35570,7 +35615,7 @@
       <c r="S672" s="11"/>
       <c r="T672" s="11"/>
     </row>
-    <row r="673" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A673" s="50" t="s">
         <v>173</v>
       </c>
@@ -35616,7 +35661,7 @@
       <c r="S673" s="11"/>
       <c r="T673" s="11"/>
     </row>
-    <row r="674" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A674" s="50" t="s">
         <v>173</v>
       </c>
@@ -35662,7 +35707,7 @@
       <c r="S674" s="11"/>
       <c r="T674" s="11"/>
     </row>
-    <row r="675" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A675" s="50" t="s">
         <v>173</v>
       </c>
@@ -35708,7 +35753,7 @@
       <c r="S675" s="11"/>
       <c r="T675" s="11"/>
     </row>
-    <row r="676" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A676" s="50" t="s">
         <v>173</v>
       </c>
@@ -35754,7 +35799,7 @@
       <c r="S676" s="27"/>
       <c r="T676" s="27"/>
     </row>
-    <row r="677" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A677" s="50" t="s">
         <v>173</v>
       </c>
@@ -35800,7 +35845,7 @@
       <c r="S677" s="27"/>
       <c r="T677" s="27"/>
     </row>
-    <row r="678" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A678" s="50" t="s">
         <v>173</v>
       </c>
@@ -35846,7 +35891,7 @@
       <c r="S678" s="27"/>
       <c r="T678" s="27"/>
     </row>
-    <row r="679" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A679" s="50" t="s">
         <v>173</v>
       </c>
@@ -35892,7 +35937,7 @@
       <c r="S679" s="27"/>
       <c r="T679" s="27"/>
     </row>
-    <row r="680" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A680" s="50" t="s">
         <v>173</v>
       </c>
@@ -35938,7 +35983,7 @@
       <c r="S680" s="27"/>
       <c r="T680" s="27"/>
     </row>
-    <row r="681" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A681" s="50" t="s">
         <v>173</v>
       </c>
@@ -35984,7 +36029,7 @@
       <c r="S681" s="27"/>
       <c r="T681" s="27"/>
     </row>
-    <row r="682" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A682" s="50" t="s">
         <v>173</v>
       </c>
@@ -36030,7 +36075,7 @@
       <c r="S682" s="27"/>
       <c r="T682" s="27"/>
     </row>
-    <row r="683" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A683" s="50" t="s">
         <v>173</v>
       </c>
@@ -36076,7 +36121,7 @@
       <c r="S683" s="27"/>
       <c r="T683" s="27"/>
     </row>
-    <row r="684" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A684" s="50" t="s">
         <v>173</v>
       </c>
@@ -36122,7 +36167,7 @@
       <c r="S684" s="27"/>
       <c r="T684" s="27"/>
     </row>
-    <row r="685" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A685" s="50" t="s">
         <v>173</v>
       </c>
@@ -36168,7 +36213,7 @@
       <c r="S685" s="25"/>
       <c r="T685" s="25"/>
     </row>
-    <row r="686" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A686" s="50" t="s">
         <v>173</v>
       </c>
@@ -36214,7 +36259,7 @@
       <c r="S686" s="25"/>
       <c r="T686" s="25"/>
     </row>
-    <row r="687" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A687" s="50" t="s">
         <v>173</v>
       </c>
@@ -36260,7 +36305,7 @@
       <c r="S687" s="25"/>
       <c r="T687" s="25"/>
     </row>
-    <row r="688" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A688" s="50" t="s">
         <v>173</v>
       </c>
@@ -36306,7 +36351,7 @@
       <c r="S688" s="26"/>
       <c r="T688" s="26"/>
     </row>
-    <row r="689" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A689" s="50" t="s">
         <v>173</v>
       </c>
@@ -36352,7 +36397,7 @@
       <c r="S689" s="26"/>
       <c r="T689" s="26"/>
     </row>
-    <row r="690" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A690" s="50" t="s">
         <v>173</v>
       </c>
@@ -36398,7 +36443,7 @@
       <c r="S690" s="26"/>
       <c r="T690" s="26"/>
     </row>
-    <row r="691" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="50" t="s">
         <v>173</v>
       </c>
@@ -36444,7 +36489,7 @@
       <c r="S691" s="2"/>
       <c r="T691" s="2"/>
     </row>
-    <row r="692" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A692" s="51" t="s">
         <v>175</v>
       </c>
@@ -36504,7 +36549,7 @@
         <v>7540</v>
       </c>
     </row>
-    <row r="693" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A693" s="51" t="s">
         <v>175</v>
       </c>
@@ -36564,7 +36609,7 @@
         <v>7541</v>
       </c>
     </row>
-    <row r="694" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A694" s="51" t="s">
         <v>175</v>
       </c>
@@ -36624,7 +36669,7 @@
         <v>7542</v>
       </c>
     </row>
-    <row r="695" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A695" s="51" t="s">
         <v>175</v>
       </c>
@@ -36686,7 +36731,7 @@
         <v>7543</v>
       </c>
     </row>
-    <row r="696" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A696" s="51" t="s">
         <v>175</v>
       </c>
@@ -36748,7 +36793,7 @@
         <v>7544</v>
       </c>
     </row>
-    <row r="697" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A697" s="51" t="s">
         <v>175</v>
       </c>
@@ -36810,7 +36855,7 @@
         <v>7545</v>
       </c>
     </row>
-    <row r="698" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A698" s="51" t="s">
         <v>175</v>
       </c>
@@ -36872,7 +36917,7 @@
         <v>7546</v>
       </c>
     </row>
-    <row r="699" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A699" s="51" t="s">
         <v>175</v>
       </c>
@@ -36918,7 +36963,7 @@
         <v>7547</v>
       </c>
     </row>
-    <row r="700" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A700" s="51" t="s">
         <v>175</v>
       </c>
@@ -36964,7 +37009,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="701" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A701" s="51" t="s">
         <v>175</v>
       </c>
@@ -37010,7 +37055,7 @@
         <v>7549</v>
       </c>
     </row>
-    <row r="702" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A702" s="51" t="s">
         <v>175</v>
       </c>
@@ -37056,7 +37101,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="703" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A703" s="51" t="s">
         <v>175</v>
       </c>
@@ -37102,7 +37147,7 @@
         <v>7551</v>
       </c>
     </row>
-    <row r="704" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A704" s="51" t="s">
         <v>175</v>
       </c>
@@ -37148,7 +37193,7 @@
         <v>7552</v>
       </c>
     </row>
-    <row r="705" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A705" s="51" t="s">
         <v>175</v>
       </c>
@@ -37194,7 +37239,7 @@
       <c r="S705" s="14"/>
       <c r="T705" s="14"/>
     </row>
-    <row r="706" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A706" s="51" t="s">
         <v>175</v>
       </c>
@@ -37254,7 +37299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="707" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A707" s="51" t="s">
         <v>175</v>
       </c>
@@ -37314,7 +37359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="708" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A708" s="51" t="s">
         <v>175</v>
       </c>
@@ -37374,7 +37419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="709" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A709" s="51" t="s">
         <v>175</v>
       </c>
@@ -37434,7 +37479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="710" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A710" s="51" t="s">
         <v>175</v>
       </c>
@@ -37494,7 +37539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="711" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A711" s="51" t="s">
         <v>175</v>
       </c>
@@ -37554,7 +37599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="712" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A712" s="51" t="s">
         <v>175</v>
       </c>
@@ -37614,7 +37659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="713" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A713" s="51" t="s">
         <v>175</v>
       </c>
@@ -37674,7 +37719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="714" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A714" s="51" t="s">
         <v>175</v>
       </c>
@@ -37734,7 +37779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="715" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A715" s="51" t="s">
         <v>175</v>
       </c>
@@ -37794,7 +37839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="716" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A716" s="51" t="s">
         <v>175</v>
       </c>
@@ -37854,7 +37899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="717" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A717" s="51" t="s">
         <v>175</v>
       </c>
@@ -37914,7 +37959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="718" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A718" s="51" t="s">
         <v>175</v>
       </c>
@@ -37974,7 +38019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="719" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A719" s="51" t="s">
         <v>175</v>
       </c>
@@ -38020,7 +38065,7 @@
       <c r="S719" s="19"/>
       <c r="T719" s="19"/>
     </row>
-    <row r="720" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A720" s="51" t="s">
         <v>175</v>
       </c>
@@ -38066,7 +38111,7 @@
       <c r="S720" s="11"/>
       <c r="T720" s="11"/>
     </row>
-    <row r="721" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A721" s="51" t="s">
         <v>175</v>
       </c>
@@ -38112,7 +38157,7 @@
       <c r="S721" s="11"/>
       <c r="T721" s="11"/>
     </row>
-    <row r="722" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A722" s="51" t="s">
         <v>175</v>
       </c>
@@ -38158,7 +38203,7 @@
       <c r="S722" s="11"/>
       <c r="T722" s="11"/>
     </row>
-    <row r="723" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A723" s="51" t="s">
         <v>175</v>
       </c>
@@ -38204,7 +38249,7 @@
       <c r="S723" s="11"/>
       <c r="T723" s="11"/>
     </row>
-    <row r="724" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A724" s="51" t="s">
         <v>175</v>
       </c>
@@ -38250,7 +38295,7 @@
       <c r="S724" s="11"/>
       <c r="T724" s="11"/>
     </row>
-    <row r="725" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A725" s="51" t="s">
         <v>175</v>
       </c>
@@ -38296,7 +38341,7 @@
       <c r="S725" s="11"/>
       <c r="T725" s="11"/>
     </row>
-    <row r="726" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A726" s="51" t="s">
         <v>175</v>
       </c>
@@ -38342,7 +38387,7 @@
       <c r="S726" s="11"/>
       <c r="T726" s="11"/>
     </row>
-    <row r="727" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A727" s="51" t="s">
         <v>175</v>
       </c>
@@ -38388,7 +38433,7 @@
       <c r="S727" s="11"/>
       <c r="T727" s="11"/>
     </row>
-    <row r="728" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A728" s="51" t="s">
         <v>175</v>
       </c>
@@ -38434,7 +38479,7 @@
       <c r="S728" s="27"/>
       <c r="T728" s="27"/>
     </row>
-    <row r="729" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A729" s="51" t="s">
         <v>175</v>
       </c>
@@ -38480,7 +38525,7 @@
       <c r="S729" s="27"/>
       <c r="T729" s="27"/>
     </row>
-    <row r="730" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A730" s="51" t="s">
         <v>175</v>
       </c>
@@ -38526,7 +38571,7 @@
       <c r="S730" s="27"/>
       <c r="T730" s="27"/>
     </row>
-    <row r="731" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A731" s="51" t="s">
         <v>175</v>
       </c>
@@ -38572,7 +38617,7 @@
       <c r="S731" s="27"/>
       <c r="T731" s="27"/>
     </row>
-    <row r="732" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A732" s="51" t="s">
         <v>175</v>
       </c>
@@ -38618,7 +38663,7 @@
       <c r="S732" s="27"/>
       <c r="T732" s="27"/>
     </row>
-    <row r="733" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A733" s="51" t="s">
         <v>175</v>
       </c>
@@ -38664,7 +38709,7 @@
       <c r="S733" s="27"/>
       <c r="T733" s="27"/>
     </row>
-    <row r="734" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A734" s="51" t="s">
         <v>175</v>
       </c>
@@ -38710,7 +38755,7 @@
       <c r="S734" s="27"/>
       <c r="T734" s="27"/>
     </row>
-    <row r="735" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A735" s="51" t="s">
         <v>175</v>
       </c>
@@ -38756,7 +38801,7 @@
       <c r="S735" s="27"/>
       <c r="T735" s="27"/>
     </row>
-    <row r="736" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A736" s="51" t="s">
         <v>175</v>
       </c>
@@ -38802,7 +38847,7 @@
       <c r="S736" s="27"/>
       <c r="T736" s="27"/>
     </row>
-    <row r="737" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A737" s="51" t="s">
         <v>175</v>
       </c>
@@ -38848,7 +38893,7 @@
       <c r="S737" s="25"/>
       <c r="T737" s="25"/>
     </row>
-    <row r="738" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A738" s="51" t="s">
         <v>175</v>
       </c>
@@ -38894,7 +38939,7 @@
       <c r="S738" s="25"/>
       <c r="T738" s="25"/>
     </row>
-    <row r="739" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A739" s="51" t="s">
         <v>175</v>
       </c>
@@ -38940,7 +38985,7 @@
       <c r="S739" s="25"/>
       <c r="T739" s="25"/>
     </row>
-    <row r="740" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A740" s="51" t="s">
         <v>175</v>
       </c>
@@ -38986,7 +39031,7 @@
       <c r="S740" s="26"/>
       <c r="T740" s="26"/>
     </row>
-    <row r="741" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A741" s="51" t="s">
         <v>175</v>
       </c>
@@ -39032,7 +39077,7 @@
       <c r="S741" s="26"/>
       <c r="T741" s="26"/>
     </row>
-    <row r="742" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A742" s="51" t="s">
         <v>175</v>
       </c>
@@ -39078,7 +39123,7 @@
       <c r="S742" s="26"/>
       <c r="T742" s="26"/>
     </row>
-    <row r="743" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="51" t="s">
         <v>175</v>
       </c>
@@ -39124,7 +39169,7 @@
       <c r="S743" s="52"/>
       <c r="T743" s="52"/>
     </row>
-    <row r="744" spans="1:20" s="32" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A744" s="51" t="s">
         <v>175</v>
       </c>
@@ -39170,7 +39215,7 @@
       <c r="S744" s="52"/>
       <c r="T744" s="52"/>
     </row>
-    <row r="745" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A745" s="49" t="s">
         <v>176</v>
       </c>
@@ -39230,7 +39275,7 @@
         <v>7553</v>
       </c>
     </row>
-    <row r="746" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A746" s="49" t="s">
         <v>176</v>
       </c>
@@ -39290,7 +39335,7 @@
         <v>7554</v>
       </c>
     </row>
-    <row r="747" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A747" s="49" t="s">
         <v>176</v>
       </c>
@@ -39350,7 +39395,7 @@
         <v>7555</v>
       </c>
     </row>
-    <row r="748" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A748" s="49" t="s">
         <v>176</v>
       </c>
@@ -39412,7 +39457,7 @@
         <v>7556</v>
       </c>
     </row>
-    <row r="749" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A749" s="49" t="s">
         <v>176</v>
       </c>
@@ -39474,7 +39519,7 @@
         <v>7557</v>
       </c>
     </row>
-    <row r="750" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A750" s="49" t="s">
         <v>176</v>
       </c>
@@ -39536,7 +39581,7 @@
         <v>7558</v>
       </c>
     </row>
-    <row r="751" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A751" s="49" t="s">
         <v>176</v>
       </c>
@@ -39582,7 +39627,7 @@
       <c r="S751" s="14"/>
       <c r="T751" s="14"/>
     </row>
-    <row r="752" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A752" s="49" t="s">
         <v>176</v>
       </c>
@@ -39628,7 +39673,7 @@
       <c r="S752" s="11"/>
       <c r="T752" s="11"/>
     </row>
-    <row r="753" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A753" s="49" t="s">
         <v>176</v>
       </c>
@@ -39674,7 +39719,7 @@
       <c r="S753" s="11"/>
       <c r="T753" s="11"/>
     </row>
-    <row r="754" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A754" s="49" t="s">
         <v>176</v>
       </c>
@@ -39720,7 +39765,7 @@
       <c r="S754" s="11"/>
       <c r="T754" s="11"/>
     </row>
-    <row r="755" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A755" s="49" t="s">
         <v>176</v>
       </c>
@@ -39766,7 +39811,7 @@
       <c r="S755" s="11"/>
       <c r="T755" s="11"/>
     </row>
-    <row r="756" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A756" s="49" t="s">
         <v>176</v>
       </c>
@@ -39812,7 +39857,7 @@
       <c r="S756" s="26"/>
       <c r="T756" s="26"/>
     </row>
-    <row r="757" spans="1:20" s="32" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="49" t="s">
         <v>176</v>
       </c>
@@ -39858,7 +39903,7 @@
       <c r="S757" s="26"/>
       <c r="T757" s="26"/>
     </row>
-    <row r="758" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A758" s="7" t="s">
         <v>177</v>
       </c>
@@ -39918,7 +39963,7 @@
         <v>7559</v>
       </c>
     </row>
-    <row r="759" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A759" s="7" t="s">
         <v>177</v>
       </c>
@@ -39978,7 +40023,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="760" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A760" s="7" t="s">
         <v>177</v>
       </c>
@@ -40038,7 +40083,7 @@
         <v>7561</v>
       </c>
     </row>
-    <row r="761" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A761" s="7" t="s">
         <v>177</v>
       </c>
@@ -40084,7 +40129,7 @@
         <v>7562</v>
       </c>
     </row>
-    <row r="762" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A762" s="7" t="s">
         <v>177</v>
       </c>
@@ -40146,7 +40191,7 @@
         <v>7563</v>
       </c>
     </row>
-    <row r="763" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A763" s="7" t="s">
         <v>177</v>
       </c>
@@ -40208,7 +40253,7 @@
         <v>7564</v>
       </c>
     </row>
-    <row r="764" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A764" s="7" t="s">
         <v>177</v>
       </c>
@@ -40270,7 +40315,7 @@
         <v>7565</v>
       </c>
     </row>
-    <row r="765" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A765" s="7" t="s">
         <v>177</v>
       </c>
@@ -40332,7 +40377,7 @@
         <v>7566</v>
       </c>
     </row>
-    <row r="766" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A766" s="7" t="s">
         <v>177</v>
       </c>
@@ -40378,7 +40423,7 @@
         <v>7567</v>
       </c>
     </row>
-    <row r="767" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A767" s="7" t="s">
         <v>177</v>
       </c>
@@ -40424,7 +40469,7 @@
         <v>7568</v>
       </c>
     </row>
-    <row r="768" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A768" s="7" t="s">
         <v>177</v>
       </c>
@@ -40470,7 +40515,7 @@
         <v>7569</v>
       </c>
     </row>
-    <row r="769" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A769" s="7" t="s">
         <v>177</v>
       </c>
@@ -40516,7 +40561,7 @@
         <v>7570</v>
       </c>
     </row>
-    <row r="770" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A770" s="7" t="s">
         <v>177</v>
       </c>
@@ -40562,7 +40607,7 @@
         <v>7571</v>
       </c>
     </row>
-    <row r="771" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A771" s="7" t="s">
         <v>177</v>
       </c>
@@ -40608,7 +40653,7 @@
         <v>7572</v>
       </c>
     </row>
-    <row r="772" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A772" s="7" t="s">
         <v>177</v>
       </c>
@@ -40654,7 +40699,7 @@
       <c r="S772" s="14"/>
       <c r="T772" s="14"/>
     </row>
-    <row r="773" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A773" s="7" t="s">
         <v>177</v>
       </c>
@@ -40700,7 +40745,7 @@
       <c r="S773" s="14"/>
       <c r="T773" s="14"/>
     </row>
-    <row r="774" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A774" s="7" t="s">
         <v>177</v>
       </c>
@@ -40746,7 +40791,7 @@
       <c r="S774" s="14"/>
       <c r="T774" s="14"/>
     </row>
-    <row r="775" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A775" s="7" t="s">
         <v>177</v>
       </c>
@@ -40806,7 +40851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="776" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A776" s="7" t="s">
         <v>177</v>
       </c>
@@ -40866,7 +40911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="777" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A777" s="7" t="s">
         <v>177</v>
       </c>
@@ -40926,7 +40971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="778" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A778" s="7" t="s">
         <v>177</v>
       </c>
@@ -40986,7 +41031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="779" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A779" s="7" t="s">
         <v>177</v>
       </c>
@@ -41046,7 +41091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="780" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A780" s="7" t="s">
         <v>177</v>
       </c>
@@ -41106,7 +41151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="781" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A781" s="7" t="s">
         <v>177</v>
       </c>
@@ -41152,7 +41197,7 @@
       <c r="S781" s="17"/>
       <c r="T781" s="17"/>
     </row>
-    <row r="782" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A782" s="7" t="s">
         <v>177</v>
       </c>
@@ -41198,7 +41243,7 @@
       <c r="S782" s="17"/>
       <c r="T782" s="17"/>
     </row>
-    <row r="783" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A783" s="7" t="s">
         <v>177</v>
       </c>
@@ -41258,7 +41303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="784" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A784" s="7" t="s">
         <v>177</v>
       </c>
@@ -41318,7 +41363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="785" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A785" s="7" t="s">
         <v>177</v>
       </c>
@@ -41378,7 +41423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="786" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A786" s="7" t="s">
         <v>177</v>
       </c>
@@ -41438,7 +41483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="787" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A787" s="7" t="s">
         <v>177</v>
       </c>
@@ -41498,7 +41543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="788" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A788" s="7" t="s">
         <v>177</v>
       </c>
@@ -41558,7 +41603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="789" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A789" s="7" t="s">
         <v>177</v>
       </c>
@@ -41618,7 +41663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="790" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A790" s="7" t="s">
         <v>177</v>
       </c>
@@ -41664,7 +41709,7 @@
       <c r="S790" s="19"/>
       <c r="T790" s="19"/>
     </row>
-    <row r="791" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A791" s="7" t="s">
         <v>177</v>
       </c>
@@ -41710,7 +41755,7 @@
       <c r="S791" s="19"/>
       <c r="T791" s="19"/>
     </row>
-    <row r="792" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A792" s="7" t="s">
         <v>177</v>
       </c>
@@ -41756,7 +41801,7 @@
       <c r="S792" s="19"/>
       <c r="T792" s="19"/>
     </row>
-    <row r="793" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A793" s="7" t="s">
         <v>177</v>
       </c>
@@ -41802,7 +41847,7 @@
       <c r="S793" s="11"/>
       <c r="T793" s="11"/>
     </row>
-    <row r="794" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A794" s="7" t="s">
         <v>177</v>
       </c>
@@ -41848,7 +41893,7 @@
       <c r="S794" s="11"/>
       <c r="T794" s="11"/>
     </row>
-    <row r="795" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A795" s="7" t="s">
         <v>177</v>
       </c>
@@ -41894,7 +41939,7 @@
       <c r="S795" s="11"/>
       <c r="T795" s="11"/>
     </row>
-    <row r="796" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A796" s="7" t="s">
         <v>177</v>
       </c>
@@ -41940,7 +41985,7 @@
       <c r="S796" s="11"/>
       <c r="T796" s="11"/>
     </row>
-    <row r="797" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A797" s="7" t="s">
         <v>177</v>
       </c>
@@ -41986,7 +42031,7 @@
       <c r="S797" s="11"/>
       <c r="T797" s="11"/>
     </row>
-    <row r="798" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A798" s="7" t="s">
         <v>177</v>
       </c>
@@ -42032,7 +42077,7 @@
       <c r="S798" s="11"/>
       <c r="T798" s="11"/>
     </row>
-    <row r="799" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A799" s="7" t="s">
         <v>177</v>
       </c>
@@ -42078,7 +42123,7 @@
       <c r="S799" s="11"/>
       <c r="T799" s="11"/>
     </row>
-    <row r="800" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A800" s="7" t="s">
         <v>177</v>
       </c>
@@ -42124,7 +42169,7 @@
       <c r="S800" s="11"/>
       <c r="T800" s="11"/>
     </row>
-    <row r="801" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A801" s="7" t="s">
         <v>177</v>
       </c>
@@ -42170,7 +42215,7 @@
       <c r="S801" s="11"/>
       <c r="T801" s="11"/>
     </row>
-    <row r="802" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A802" s="7" t="s">
         <v>177</v>
       </c>
@@ -42216,7 +42261,7 @@
       <c r="S802" s="11"/>
       <c r="T802" s="11"/>
     </row>
-    <row r="803" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A803" s="7" t="s">
         <v>177</v>
       </c>
@@ -42262,7 +42307,7 @@
       <c r="S803" s="11"/>
       <c r="T803" s="11"/>
     </row>
-    <row r="804" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A804" s="7" t="s">
         <v>177</v>
       </c>
@@ -42308,7 +42353,7 @@
       <c r="S804" s="11"/>
       <c r="T804" s="11"/>
     </row>
-    <row r="805" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A805" s="7" t="s">
         <v>177</v>
       </c>
@@ -42354,7 +42399,7 @@
       <c r="S805" s="27"/>
       <c r="T805" s="27"/>
     </row>
-    <row r="806" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A806" s="7" t="s">
         <v>177</v>
       </c>
@@ -42400,7 +42445,7 @@
       <c r="S806" s="27"/>
       <c r="T806" s="27"/>
     </row>
-    <row r="807" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A807" s="7" t="s">
         <v>177</v>
       </c>
@@ -42446,7 +42491,7 @@
       <c r="S807" s="27"/>
       <c r="T807" s="27"/>
     </row>
-    <row r="808" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A808" s="7" t="s">
         <v>177</v>
       </c>
@@ -42492,7 +42537,7 @@
       <c r="S808" s="27"/>
       <c r="T808" s="27"/>
     </row>
-    <row r="809" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A809" s="7" t="s">
         <v>177</v>
       </c>
@@ -42538,7 +42583,7 @@
       <c r="S809" s="27"/>
       <c r="T809" s="27"/>
     </row>
-    <row r="810" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A810" s="7" t="s">
         <v>177</v>
       </c>
@@ -42584,7 +42629,7 @@
       <c r="S810" s="27"/>
       <c r="T810" s="27"/>
     </row>
-    <row r="811" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A811" s="7" t="s">
         <v>177</v>
       </c>
@@ -42630,7 +42675,7 @@
       <c r="S811" s="27"/>
       <c r="T811" s="27"/>
     </row>
-    <row r="812" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A812" s="7" t="s">
         <v>177</v>
       </c>
@@ -42676,7 +42721,7 @@
       <c r="S812" s="27"/>
       <c r="T812" s="27"/>
     </row>
-    <row r="813" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A813" s="7" t="s">
         <v>177</v>
       </c>
@@ -42722,7 +42767,7 @@
       <c r="S813" s="27"/>
       <c r="T813" s="27"/>
     </row>
-    <row r="814" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A814" s="7" t="s">
         <v>177</v>
       </c>
@@ -42768,7 +42813,7 @@
       <c r="S814" s="27"/>
       <c r="T814" s="27"/>
     </row>
-    <row r="815" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A815" s="7" t="s">
         <v>177</v>
       </c>
@@ -42814,7 +42859,7 @@
       <c r="S815" s="27"/>
       <c r="T815" s="27"/>
     </row>
-    <row r="816" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A816" s="7" t="s">
         <v>177</v>
       </c>
@@ -42860,7 +42905,7 @@
       <c r="S816" s="27"/>
       <c r="T816" s="27"/>
     </row>
-    <row r="817" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A817" s="7" t="s">
         <v>177</v>
       </c>
@@ -42906,7 +42951,7 @@
       <c r="S817" s="25"/>
       <c r="T817" s="25"/>
     </row>
-    <row r="818" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A818" s="7" t="s">
         <v>177</v>
       </c>
@@ -42952,7 +42997,7 @@
       <c r="S818" s="25"/>
       <c r="T818" s="25"/>
     </row>
-    <row r="819" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A819" s="7" t="s">
         <v>177</v>
       </c>
@@ -42998,7 +43043,7 @@
       <c r="S819" s="52"/>
       <c r="T819" s="52"/>
     </row>
-    <row r="820" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A820" s="7" t="s">
         <v>177</v>
       </c>
@@ -43044,7 +43089,7 @@
       <c r="S820" s="52"/>
       <c r="T820" s="52"/>
     </row>
-    <row r="821" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A821" s="7" t="s">
         <v>177</v>
       </c>
@@ -43090,7 +43135,7 @@
       <c r="S821" s="52"/>
       <c r="T821" s="52"/>
     </row>
-    <row r="822" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A822" s="7" t="s">
         <v>177</v>
       </c>
@@ -43136,7 +43181,7 @@
       <c r="S822" s="52"/>
       <c r="T822" s="52"/>
     </row>
-    <row r="823" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A823" s="7" t="s">
         <v>177</v>
       </c>
@@ -43182,7 +43227,7 @@
       <c r="S823" s="52"/>
       <c r="T823" s="52"/>
     </row>
-    <row r="824" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A824" s="7" t="s">
         <v>177</v>
       </c>
@@ -43228,7 +43273,7 @@
       <c r="S824" s="52"/>
       <c r="T824" s="52"/>
     </row>
-    <row r="825" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A825" s="7" t="s">
         <v>177</v>
       </c>
@@ -43274,7 +43319,7 @@
       <c r="S825" s="52"/>
       <c r="T825" s="52"/>
     </row>
-    <row r="826" spans="1:20" s="32" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:20" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A826" s="7" t="s">
         <v>177</v>
       </c>
@@ -43320,7 +43365,7 @@
       <c r="S826" s="52"/>
       <c r="T826" s="52"/>
     </row>
-    <row r="827" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A827" s="53" t="s">
         <v>178</v>
       </c>
@@ -43380,7 +43425,7 @@
         <v>7573</v>
       </c>
     </row>
-    <row r="828" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A828" s="53" t="s">
         <v>178</v>
       </c>
@@ -43440,7 +43485,7 @@
         <v>7574</v>
       </c>
     </row>
-    <row r="829" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A829" s="53" t="s">
         <v>178</v>
       </c>
@@ -43500,7 +43545,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="830" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A830" s="53" t="s">
         <v>178</v>
       </c>
@@ -43546,7 +43591,7 @@
         <v>7576</v>
       </c>
     </row>
-    <row r="831" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A831" s="53" t="s">
         <v>178</v>
       </c>
@@ -43608,7 +43653,7 @@
         <v>7577</v>
       </c>
     </row>
-    <row r="832" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A832" s="53" t="s">
         <v>178</v>
       </c>
@@ -43670,7 +43715,7 @@
         <v>7578</v>
       </c>
     </row>
-    <row r="833" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A833" s="53" t="s">
         <v>178</v>
       </c>
@@ -43732,7 +43777,7 @@
         <v>7579</v>
       </c>
     </row>
-    <row r="834" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A834" s="53" t="s">
         <v>178</v>
       </c>
@@ -43794,7 +43839,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="835" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A835" s="53" t="s">
         <v>178</v>
       </c>
@@ -43840,7 +43885,7 @@
         <v>7581</v>
       </c>
     </row>
-    <row r="836" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A836" s="53" t="s">
         <v>178</v>
       </c>
@@ -43886,7 +43931,7 @@
         <v>7582</v>
       </c>
     </row>
-    <row r="837" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A837" s="53" t="s">
         <v>178</v>
       </c>
@@ -43932,7 +43977,7 @@
         <v>7583</v>
       </c>
     </row>
-    <row r="838" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A838" s="53" t="s">
         <v>178</v>
       </c>
@@ -43978,7 +44023,7 @@
         <v>7584</v>
       </c>
     </row>
-    <row r="839" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A839" s="53" t="s">
         <v>178</v>
       </c>
@@ -44024,7 +44069,7 @@
         <v>7585</v>
       </c>
     </row>
-    <row r="840" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A840" s="53" t="s">
         <v>178</v>
       </c>
@@ -44070,7 +44115,7 @@
         <v>7586</v>
       </c>
     </row>
-    <row r="841" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A841" s="53" t="s">
         <v>178</v>
       </c>
@@ -44116,7 +44161,7 @@
       <c r="S841" s="14"/>
       <c r="T841" s="14"/>
     </row>
-    <row r="842" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A842" s="53" t="s">
         <v>178</v>
       </c>
@@ -44162,7 +44207,7 @@
       <c r="S842" s="14"/>
       <c r="T842" s="14"/>
     </row>
-    <row r="843" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A843" s="53" t="s">
         <v>178</v>
       </c>
@@ -44208,7 +44253,7 @@
       <c r="S843" s="14"/>
       <c r="T843" s="14"/>
     </row>
-    <row r="844" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A844" s="53" t="s">
         <v>178</v>
       </c>
@@ -44268,7 +44313,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="845" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A845" s="53" t="s">
         <v>178</v>
       </c>
@@ -44328,7 +44373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="846" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A846" s="53" t="s">
         <v>178</v>
       </c>
@@ -44388,7 +44433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="847" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A847" s="53" t="s">
         <v>178</v>
       </c>
@@ -44448,7 +44493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="848" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A848" s="53" t="s">
         <v>178</v>
       </c>
@@ -44508,7 +44553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="849" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A849" s="53" t="s">
         <v>178</v>
       </c>
@@ -44568,7 +44613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="850" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A850" s="53" t="s">
         <v>178</v>
       </c>
@@ -44614,7 +44659,7 @@
       <c r="S850" s="17"/>
       <c r="T850" s="17"/>
     </row>
-    <row r="851" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A851" s="53" t="s">
         <v>178</v>
       </c>
@@ -44660,7 +44705,7 @@
       <c r="S851" s="17"/>
       <c r="T851" s="17"/>
     </row>
-    <row r="852" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A852" s="53" t="s">
         <v>178</v>
       </c>
@@ -44720,7 +44765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="853" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A853" s="53" t="s">
         <v>178</v>
       </c>
@@ -44780,7 +44825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="854" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A854" s="53" t="s">
         <v>178</v>
       </c>
@@ -44840,7 +44885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="855" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A855" s="53" t="s">
         <v>178</v>
       </c>
@@ -44900,7 +44945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="856" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A856" s="53" t="s">
         <v>178</v>
       </c>
@@ -44960,7 +45005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="857" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A857" s="53" t="s">
         <v>178</v>
       </c>
@@ -45020,7 +45065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="858" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A858" s="53" t="s">
         <v>178</v>
       </c>
@@ -45066,7 +45111,7 @@
       <c r="S858" s="19"/>
       <c r="T858" s="19"/>
     </row>
-    <row r="859" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A859" s="53" t="s">
         <v>178</v>
       </c>
@@ -45112,7 +45157,7 @@
       <c r="S859" s="19"/>
       <c r="T859" s="19"/>
     </row>
-    <row r="860" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A860" s="53" t="s">
         <v>178</v>
       </c>
@@ -45158,7 +45203,7 @@
       <c r="S860" s="19"/>
       <c r="T860" s="19"/>
     </row>
-    <row r="861" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A861" s="53" t="s">
         <v>178</v>
       </c>
@@ -45204,7 +45249,7 @@
       <c r="S861" s="11"/>
       <c r="T861" s="11"/>
     </row>
-    <row r="862" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A862" s="53" t="s">
         <v>178</v>
       </c>
@@ -45250,7 +45295,7 @@
       <c r="S862" s="11"/>
       <c r="T862" s="11"/>
     </row>
-    <row r="863" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A863" s="53" t="s">
         <v>178</v>
       </c>
@@ -45296,7 +45341,7 @@
       <c r="S863" s="11"/>
       <c r="T863" s="11"/>
     </row>
-    <row r="864" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A864" s="53" t="s">
         <v>178</v>
       </c>
@@ -45342,7 +45387,7 @@
       <c r="S864" s="11"/>
       <c r="T864" s="11"/>
     </row>
-    <row r="865" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A865" s="53" t="s">
         <v>178</v>
       </c>
@@ -45388,7 +45433,7 @@
       <c r="S865" s="11"/>
       <c r="T865" s="11"/>
     </row>
-    <row r="866" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A866" s="53" t="s">
         <v>178</v>
       </c>
@@ -45434,7 +45479,7 @@
       <c r="S866" s="11"/>
       <c r="T866" s="11"/>
     </row>
-    <row r="867" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A867" s="53" t="s">
         <v>178</v>
       </c>
@@ -45480,7 +45525,7 @@
       <c r="S867" s="11"/>
       <c r="T867" s="11"/>
     </row>
-    <row r="868" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A868" s="53" t="s">
         <v>178</v>
       </c>
@@ -45526,7 +45571,7 @@
       <c r="S868" s="11"/>
       <c r="T868" s="11"/>
     </row>
-    <row r="869" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A869" s="53" t="s">
         <v>178</v>
       </c>
@@ -45572,7 +45617,7 @@
       <c r="S869" s="11"/>
       <c r="T869" s="11"/>
     </row>
-    <row r="870" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A870" s="53" t="s">
         <v>178</v>
       </c>
@@ -45618,7 +45663,7 @@
       <c r="S870" s="11"/>
       <c r="T870" s="11"/>
     </row>
-    <row r="871" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A871" s="53" t="s">
         <v>178</v>
       </c>
@@ -45664,7 +45709,7 @@
       <c r="S871" s="11"/>
       <c r="T871" s="11"/>
     </row>
-    <row r="872" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A872" s="53" t="s">
         <v>178</v>
       </c>
@@ -45710,7 +45755,7 @@
       <c r="S872" s="11"/>
       <c r="T872" s="11"/>
     </row>
-    <row r="873" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A873" s="53" t="s">
         <v>178</v>
       </c>
@@ -45756,7 +45801,7 @@
       <c r="S873" s="27"/>
       <c r="T873" s="27"/>
     </row>
-    <row r="874" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A874" s="53" t="s">
         <v>178</v>
       </c>
@@ -45802,7 +45847,7 @@
       <c r="S874" s="27"/>
       <c r="T874" s="27"/>
     </row>
-    <row r="875" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A875" s="53" t="s">
         <v>178</v>
       </c>
@@ -45848,7 +45893,7 @@
       <c r="S875" s="27"/>
       <c r="T875" s="27"/>
     </row>
-    <row r="876" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A876" s="53" t="s">
         <v>178</v>
       </c>
@@ -45894,7 +45939,7 @@
       <c r="S876" s="27"/>
       <c r="T876" s="27"/>
     </row>
-    <row r="877" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A877" s="53" t="s">
         <v>178</v>
       </c>
@@ -45940,7 +45985,7 @@
       <c r="S877" s="27"/>
       <c r="T877" s="27"/>
     </row>
-    <row r="878" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A878" s="53" t="s">
         <v>178</v>
       </c>
@@ -45986,7 +46031,7 @@
       <c r="S878" s="27"/>
       <c r="T878" s="27"/>
     </row>
-    <row r="879" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A879" s="53" t="s">
         <v>178</v>
       </c>
@@ -46032,7 +46077,7 @@
       <c r="S879" s="27"/>
       <c r="T879" s="27"/>
     </row>
-    <row r="880" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A880" s="53" t="s">
         <v>178</v>
       </c>
@@ -46078,7 +46123,7 @@
       <c r="S880" s="27"/>
       <c r="T880" s="27"/>
     </row>
-    <row r="881" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A881" s="53" t="s">
         <v>178</v>
       </c>
@@ -46124,7 +46169,7 @@
       <c r="S881" s="27"/>
       <c r="T881" s="27"/>
     </row>
-    <row r="882" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A882" s="53" t="s">
         <v>178</v>
       </c>
@@ -46170,7 +46215,7 @@
       <c r="S882" s="27"/>
       <c r="T882" s="27"/>
     </row>
-    <row r="883" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A883" s="53" t="s">
         <v>178</v>
       </c>
@@ -46216,7 +46261,7 @@
       <c r="S883" s="27"/>
       <c r="T883" s="27"/>
     </row>
-    <row r="884" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A884" s="53" t="s">
         <v>178</v>
       </c>
@@ -46262,7 +46307,7 @@
       <c r="S884" s="27"/>
       <c r="T884" s="27"/>
     </row>
-    <row r="885" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A885" s="53" t="s">
         <v>178</v>
       </c>
@@ -46308,7 +46353,7 @@
       <c r="S885" s="25"/>
       <c r="T885" s="25"/>
     </row>
-    <row r="886" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A886" s="53" t="s">
         <v>178</v>
       </c>
@@ -46354,7 +46399,7 @@
       <c r="S886" s="25"/>
       <c r="T886" s="25"/>
     </row>
-    <row r="887" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A887" s="53" t="s">
         <v>178</v>
       </c>
@@ -46400,7 +46445,7 @@
       <c r="S887" s="52"/>
       <c r="T887" s="52"/>
     </row>
-    <row r="888" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A888" s="53" t="s">
         <v>178</v>
       </c>
@@ -46446,7 +46491,7 @@
       <c r="S888" s="52"/>
       <c r="T888" s="52"/>
     </row>
-    <row r="889" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A889" s="53" t="s">
         <v>178</v>
       </c>
@@ -46492,7 +46537,7 @@
       <c r="S889" s="52"/>
       <c r="T889" s="52"/>
     </row>
-    <row r="890" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A890" s="53" t="s">
         <v>178</v>
       </c>
@@ -46538,7 +46583,7 @@
       <c r="S890" s="52"/>
       <c r="T890" s="52"/>
     </row>
-    <row r="891" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A891" s="53" t="s">
         <v>178</v>
       </c>
@@ -46584,7 +46629,7 @@
       <c r="S891" s="52"/>
       <c r="T891" s="52"/>
     </row>
-    <row r="892" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A892" s="53" t="s">
         <v>178</v>
       </c>
@@ -46630,7 +46675,7 @@
       <c r="S892" s="52"/>
       <c r="T892" s="52"/>
     </row>
-    <row r="893" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A893" s="53" t="s">
         <v>178</v>
       </c>
@@ -46676,7 +46721,7 @@
       <c r="S893" s="52"/>
       <c r="T893" s="52"/>
     </row>
-    <row r="894" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A894" s="53" t="s">
         <v>178</v>
       </c>
@@ -46722,7 +46767,7 @@
       <c r="S894" s="52"/>
       <c r="T894" s="52"/>
     </row>
-    <row r="895" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A895" s="49" t="s">
         <v>179</v>
       </c>
@@ -46782,7 +46827,7 @@
         <v>7587</v>
       </c>
     </row>
-    <row r="896" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A896" s="49" t="s">
         <v>179</v>
       </c>
@@ -46842,7 +46887,7 @@
         <v>7588</v>
       </c>
     </row>
-    <row r="897" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A897" s="49" t="s">
         <v>179</v>
       </c>
@@ -46902,7 +46947,7 @@
         <v>7589</v>
       </c>
     </row>
-    <row r="898" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A898" s="49" t="s">
         <v>179</v>
       </c>
@@ -46948,7 +46993,7 @@
         <v>7590</v>
       </c>
     </row>
-    <row r="899" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A899" s="49" t="s">
         <v>179</v>
       </c>
@@ -47010,7 +47055,7 @@
         <v>7591</v>
       </c>
     </row>
-    <row r="900" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A900" s="49" t="s">
         <v>179</v>
       </c>
@@ -47072,7 +47117,7 @@
         <v>7592</v>
       </c>
     </row>
-    <row r="901" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A901" s="49" t="s">
         <v>179</v>
       </c>
@@ -47134,7 +47179,7 @@
         <v>7593</v>
       </c>
     </row>
-    <row r="902" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A902" s="49" t="s">
         <v>179</v>
       </c>
@@ -47196,7 +47241,7 @@
         <v>7594</v>
       </c>
     </row>
-    <row r="903" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A903" s="49" t="s">
         <v>179</v>
       </c>
@@ -47242,7 +47287,7 @@
         <v>7595</v>
       </c>
     </row>
-    <row r="904" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A904" s="49" t="s">
         <v>179</v>
       </c>
@@ -47288,7 +47333,7 @@
         <v>7596</v>
       </c>
     </row>
-    <row r="905" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A905" s="49" t="s">
         <v>179</v>
       </c>
@@ -47334,7 +47379,7 @@
         <v>7597</v>
       </c>
     </row>
-    <row r="906" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A906" s="49" t="s">
         <v>179</v>
       </c>
@@ -47380,7 +47425,7 @@
         <v>7598</v>
       </c>
     </row>
-    <row r="907" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A907" s="49" t="s">
         <v>179</v>
       </c>
@@ -47426,7 +47471,7 @@
         <v>7599</v>
       </c>
     </row>
-    <row r="908" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A908" s="49" t="s">
         <v>179</v>
       </c>
@@ -47472,7 +47517,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="909" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A909" s="49" t="s">
         <v>179</v>
       </c>
@@ -47518,7 +47563,7 @@
       <c r="S909" s="14"/>
       <c r="T909" s="14"/>
     </row>
-    <row r="910" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A910" s="49" t="s">
         <v>179</v>
       </c>
@@ -47564,7 +47609,7 @@
       <c r="S910" s="14"/>
       <c r="T910" s="14"/>
     </row>
-    <row r="911" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A911" s="49" t="s">
         <v>179</v>
       </c>
@@ -47610,7 +47655,7 @@
       <c r="S911" s="14"/>
       <c r="T911" s="14"/>
     </row>
-    <row r="912" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A912" s="49" t="s">
         <v>179</v>
       </c>
@@ -47656,7 +47701,7 @@
       <c r="S912" s="14"/>
       <c r="T912" s="14"/>
     </row>
-    <row r="913" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A913" s="49" t="s">
         <v>179</v>
       </c>
@@ -47716,7 +47761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="914" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A914" s="49" t="s">
         <v>179</v>
       </c>
@@ -47776,7 +47821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="915" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A915" s="49" t="s">
         <v>179</v>
       </c>
@@ -47836,7 +47881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="916" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A916" s="49" t="s">
         <v>179</v>
       </c>
@@ -47896,7 +47941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="917" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A917" s="49" t="s">
         <v>179</v>
       </c>
@@ -47956,7 +48001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="918" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A918" s="49" t="s">
         <v>179</v>
       </c>
@@ -48016,7 +48061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="919" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A919" s="49" t="s">
         <v>179</v>
       </c>
@@ -48062,7 +48107,7 @@
       <c r="S919" s="17"/>
       <c r="T919" s="17"/>
     </row>
-    <row r="920" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A920" s="49" t="s">
         <v>179</v>
       </c>
@@ -48108,7 +48153,7 @@
       <c r="S920" s="17"/>
       <c r="T920" s="17"/>
     </row>
-    <row r="921" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A921" s="49" t="s">
         <v>179</v>
       </c>
@@ -48168,7 +48213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="922" spans="1:20" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A922" s="49" t="s">
         <v>179</v>
       </c>
@@ -48228,7 +48273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="923" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A923" s="49" t="s">
         <v>179</v>
       </c>
@@ -48288,7 +48333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="924" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A924" s="49" t="s">
         <v>179</v>
       </c>
@@ -48348,7 +48393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="925" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A925" s="49" t="s">
         <v>179</v>
       </c>
@@ -48408,7 +48453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="926" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A926" s="49" t="s">
         <v>179</v>
       </c>
@@ -48468,7 +48513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="927" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A927" s="49" t="s">
         <v>179</v>
       </c>
@@ -48514,7 +48559,7 @@
       <c r="S927" s="19"/>
       <c r="T927" s="19"/>
     </row>
-    <row r="928" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A928" s="49" t="s">
         <v>179</v>
       </c>
@@ -48560,7 +48605,7 @@
       <c r="S928" s="19"/>
       <c r="T928" s="19"/>
     </row>
-    <row r="929" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A929" s="49" t="s">
         <v>179</v>
       </c>
@@ -48606,7 +48651,7 @@
       <c r="S929" s="19"/>
       <c r="T929" s="19"/>
     </row>
-    <row r="930" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A930" s="49" t="s">
         <v>179</v>
       </c>
@@ -48652,7 +48697,7 @@
       <c r="S930" s="19"/>
       <c r="T930" s="19"/>
     </row>
-    <row r="931" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A931" s="49" t="s">
         <v>179</v>
       </c>
@@ -48698,7 +48743,7 @@
       <c r="S931" s="19"/>
       <c r="T931" s="19"/>
     </row>
-    <row r="932" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A932" s="49" t="s">
         <v>179</v>
       </c>
@@ -48744,7 +48789,7 @@
       <c r="S932" s="19"/>
       <c r="T932" s="19"/>
     </row>
-    <row r="933" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A933" s="49" t="s">
         <v>179</v>
       </c>
@@ -48790,7 +48835,7 @@
       <c r="S933" s="19"/>
       <c r="T933" s="19"/>
     </row>
-    <row r="934" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A934" s="49" t="s">
         <v>179</v>
       </c>
@@ -48836,7 +48881,7 @@
       <c r="S934" s="19"/>
       <c r="T934" s="19"/>
     </row>
-    <row r="935" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A935" s="49" t="s">
         <v>179</v>
       </c>
@@ -48882,7 +48927,7 @@
       <c r="S935" s="19"/>
       <c r="T935" s="19"/>
     </row>
-    <row r="936" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A936" s="49" t="s">
         <v>179</v>
       </c>
@@ -48928,7 +48973,7 @@
       <c r="S936" s="19"/>
       <c r="T936" s="19"/>
     </row>
-    <row r="937" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A937" s="49" t="s">
         <v>179</v>
       </c>
@@ -48974,7 +49019,7 @@
       <c r="S937" s="19"/>
       <c r="T937" s="19"/>
     </row>
-    <row r="938" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A938" s="49" t="s">
         <v>179</v>
       </c>
@@ -49020,7 +49065,7 @@
       <c r="S938" s="19"/>
       <c r="T938" s="19"/>
     </row>
-    <row r="939" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A939" s="49" t="s">
         <v>179</v>
       </c>
@@ -49066,7 +49111,7 @@
       <c r="S939" s="19"/>
       <c r="T939" s="19"/>
     </row>
-    <row r="940" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A940" s="49" t="s">
         <v>179</v>
       </c>
@@ -49112,7 +49157,7 @@
       <c r="S940" s="11"/>
       <c r="T940" s="11"/>
     </row>
-    <row r="941" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A941" s="49" t="s">
         <v>179</v>
       </c>
@@ -49158,7 +49203,7 @@
       <c r="S941" s="11"/>
       <c r="T941" s="11"/>
     </row>
-    <row r="942" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A942" s="49" t="s">
         <v>179</v>
       </c>
@@ -49204,7 +49249,7 @@
       <c r="S942" s="11"/>
       <c r="T942" s="11"/>
     </row>
-    <row r="943" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A943" s="49" t="s">
         <v>179</v>
       </c>
@@ -49250,7 +49295,7 @@
       <c r="S943" s="11"/>
       <c r="T943" s="11"/>
     </row>
-    <row r="944" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A944" s="49" t="s">
         <v>179</v>
       </c>
@@ -49296,7 +49341,7 @@
       <c r="S944" s="11"/>
       <c r="T944" s="11"/>
     </row>
-    <row r="945" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A945" s="49" t="s">
         <v>179</v>
       </c>
@@ -49342,7 +49387,7 @@
       <c r="S945" s="11"/>
       <c r="T945" s="11"/>
     </row>
-    <row r="946" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A946" s="49" t="s">
         <v>179</v>
       </c>
@@ -49388,7 +49433,7 @@
       <c r="S946" s="11"/>
       <c r="T946" s="11"/>
     </row>
-    <row r="947" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A947" s="49" t="s">
         <v>179</v>
       </c>
@@ -49434,7 +49479,7 @@
       <c r="S947" s="11"/>
       <c r="T947" s="11"/>
     </row>
-    <row r="948" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A948" s="49" t="s">
         <v>179</v>
       </c>
@@ -49480,7 +49525,7 @@
       <c r="S948" s="11"/>
       <c r="T948" s="11"/>
     </row>
-    <row r="949" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A949" s="49" t="s">
         <v>179</v>
       </c>
@@ -49526,7 +49571,7 @@
       <c r="S949" s="11"/>
       <c r="T949" s="11"/>
     </row>
-    <row r="950" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A950" s="49" t="s">
         <v>179</v>
       </c>
@@ -49572,7 +49617,7 @@
       <c r="S950" s="11"/>
       <c r="T950" s="11"/>
     </row>
-    <row r="951" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A951" s="49" t="s">
         <v>179</v>
       </c>
@@ -49618,7 +49663,7 @@
       <c r="S951" s="11"/>
       <c r="T951" s="11"/>
     </row>
-    <row r="952" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A952" s="49" t="s">
         <v>179</v>
       </c>
@@ -49664,7 +49709,7 @@
       <c r="S952" s="27"/>
       <c r="T952" s="27"/>
     </row>
-    <row r="953" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A953" s="49" t="s">
         <v>179</v>
       </c>
@@ -49710,7 +49755,7 @@
       <c r="S953" s="27"/>
       <c r="T953" s="27"/>
     </row>
-    <row r="954" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A954" s="49" t="s">
         <v>179</v>
       </c>
@@ -49756,7 +49801,7 @@
       <c r="S954" s="27"/>
       <c r="T954" s="27"/>
     </row>
-    <row r="955" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A955" s="49" t="s">
         <v>179</v>
       </c>
@@ -49802,7 +49847,7 @@
       <c r="S955" s="27"/>
       <c r="T955" s="27"/>
     </row>
-    <row r="956" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A956" s="49" t="s">
         <v>179</v>
       </c>
@@ -49848,7 +49893,7 @@
       <c r="S956" s="27"/>
       <c r="T956" s="27"/>
     </row>
-    <row r="957" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A957" s="49" t="s">
         <v>179</v>
       </c>
@@ -49894,7 +49939,7 @@
       <c r="S957" s="27"/>
       <c r="T957" s="27"/>
     </row>
-    <row r="958" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A958" s="49" t="s">
         <v>179</v>
       </c>
@@ -49940,7 +49985,7 @@
       <c r="S958" s="27"/>
       <c r="T958" s="27"/>
     </row>
-    <row r="959" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A959" s="49" t="s">
         <v>179</v>
       </c>
@@ -49986,7 +50031,7 @@
       <c r="S959" s="27"/>
       <c r="T959" s="27"/>
     </row>
-    <row r="960" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A960" s="49" t="s">
         <v>179</v>
       </c>
@@ -50032,7 +50077,7 @@
       <c r="S960" s="27"/>
       <c r="T960" s="27"/>
     </row>
-    <row r="961" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A961" s="49" t="s">
         <v>179</v>
       </c>
@@ -50078,7 +50123,7 @@
       <c r="S961" s="27"/>
       <c r="T961" s="27"/>
     </row>
-    <row r="962" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A962" s="49" t="s">
         <v>179</v>
       </c>
@@ -50124,7 +50169,7 @@
       <c r="S962" s="27"/>
       <c r="T962" s="27"/>
     </row>
-    <row r="963" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A963" s="49" t="s">
         <v>179</v>
       </c>
@@ -50170,7 +50215,7 @@
       <c r="S963" s="27"/>
       <c r="T963" s="27"/>
     </row>
-    <row r="964" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A964" s="49" t="s">
         <v>179</v>
       </c>
@@ -50216,7 +50261,7 @@
       <c r="S964" s="25"/>
       <c r="T964" s="25"/>
     </row>
-    <row r="965" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A965" s="49" t="s">
         <v>179</v>
       </c>
@@ -50262,7 +50307,7 @@
       <c r="S965" s="25"/>
       <c r="T965" s="25"/>
     </row>
-    <row r="966" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A966" s="49" t="s">
         <v>179</v>
       </c>
@@ -50308,7 +50353,7 @@
       <c r="S966" s="52"/>
       <c r="T966" s="52"/>
     </row>
-    <row r="967" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A967" s="49" t="s">
         <v>179</v>
       </c>
@@ -50354,7 +50399,7 @@
       <c r="S967" s="52"/>
       <c r="T967" s="52"/>
     </row>
-    <row r="968" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A968" s="49" t="s">
         <v>179</v>
       </c>
@@ -50400,7 +50445,7 @@
       <c r="S968" s="52"/>
       <c r="T968" s="52"/>
     </row>
-    <row r="969" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A969" s="49" t="s">
         <v>179</v>
       </c>
@@ -50446,7 +50491,7 @@
       <c r="S969" s="52"/>
       <c r="T969" s="52"/>
     </row>
-    <row r="970" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A970" s="49" t="s">
         <v>179</v>
       </c>
@@ -50492,7 +50537,7 @@
       <c r="S970" s="52"/>
       <c r="T970" s="52"/>
     </row>
-    <row r="971" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A971" s="49" t="s">
         <v>179</v>
       </c>
@@ -50538,7 +50583,7 @@
       <c r="S971" s="52"/>
       <c r="T971" s="52"/>
     </row>
-    <row r="972" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A972" s="49" t="s">
         <v>179</v>
       </c>
@@ -50584,7 +50629,7 @@
       <c r="S972" s="52"/>
       <c r="T972" s="52"/>
     </row>
-    <row r="973" spans="1:20" s="30" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:20" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A973" s="49" t="s">
         <v>179</v>
       </c>
@@ -50631,13 +50676,6 @@
       <c r="T973" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T973" xr:uid="{1BD23B36-28F7-4FD9-AF0E-9FDAFDE35360}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Pharmacy Fragmented"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="C89:C94">
     <sortCondition ref="C89"/>
   </sortState>
@@ -50652,7 +50690,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50679,7 +50717,7 @@
     <col min="20" max="20" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -55265,4 +55303,93 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DBCCB8-A317-4226-8E7F-F00F83841AB8}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9E4903-08C8-4B7E-827F-16F8AAE16F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92DA1BE-4052-408D-ADA2-DF97B79678EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,9 +683,6 @@
     <t>Abnormal Shops</t>
   </si>
   <si>
-    <t>Merchandiser Score</t>
-  </si>
-  <si>
     <t>Info</t>
   </si>
   <si>
@@ -693,6 +690,9 @@
   </si>
   <si>
     <t>Logout</t>
+  </si>
+  <si>
+    <t>Merchandiser Scores</t>
   </si>
 </sst>
 </file>
@@ -55311,12 +55311,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -55371,22 +55371,22 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E97791-BA77-4F2B-B844-BB13D38C9C23}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028F37A-961C-48D8-A8BC-33D48A9E7996}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
@@ -1564,10 +1564,10 @@
   <dimension ref="A1:T1366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E1347" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E1344" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1369" sqref="D1369"/>
+      <selection pane="bottomRight" activeCell="C1245" sqref="C1245:C1255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6494,7 +6494,7 @@
         <v>23</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>51</v>
@@ -6540,7 +6540,7 @@
         <v>23</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>50</v>
@@ -6586,7 +6586,7 @@
         <v>23</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>48</v>
@@ -6632,7 +6632,7 @@
         <v>23</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>49</v>
@@ -6678,7 +6678,7 @@
         <v>23</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>87</v>
@@ -6724,7 +6724,7 @@
         <v>23</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>88</v>
@@ -6770,7 +6770,7 @@
         <v>23</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>89</v>
@@ -6816,7 +6816,7 @@
         <v>23</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>90</v>
@@ -6862,7 +6862,7 @@
         <v>23</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>91</v>
@@ -6908,7 +6908,7 @@
         <v>23</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>92</v>
@@ -6954,7 +6954,7 @@
         <v>23</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>93</v>
@@ -9346,7 +9346,7 @@
         <v>23</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>51</v>
@@ -9392,7 +9392,7 @@
         <v>23</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>50</v>
@@ -9438,7 +9438,7 @@
         <v>23</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>48</v>
@@ -9484,7 +9484,7 @@
         <v>23</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>49</v>
@@ -9530,7 +9530,7 @@
         <v>23</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>88</v>
@@ -9576,7 +9576,7 @@
         <v>23</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>91</v>
@@ -12842,7 +12842,7 @@
         <v>23</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>51</v>
@@ -12888,7 +12888,7 @@
         <v>23</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>50</v>
@@ -12934,7 +12934,7 @@
         <v>23</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D247" s="10" t="s">
         <v>48</v>
@@ -12980,7 +12980,7 @@
         <v>23</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>49</v>
@@ -13026,7 +13026,7 @@
         <v>23</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>87</v>
@@ -13072,7 +13072,7 @@
         <v>23</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>88</v>
@@ -13118,7 +13118,7 @@
         <v>23</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>89</v>
@@ -13164,7 +13164,7 @@
         <v>23</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>90</v>
@@ -13210,7 +13210,7 @@
         <v>23</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>91</v>
@@ -13256,7 +13256,7 @@
         <v>23</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>92</v>
@@ -13302,7 +13302,7 @@
         <v>23</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>93</v>
@@ -18362,7 +18362,7 @@
         <v>23</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D365" s="10" t="s">
         <v>51</v>
@@ -18408,7 +18408,7 @@
         <v>23</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D366" s="10" t="s">
         <v>50</v>
@@ -18454,7 +18454,7 @@
         <v>23</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D367" s="10" t="s">
         <v>48</v>
@@ -18500,7 +18500,7 @@
         <v>23</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D368" s="10" t="s">
         <v>49</v>
@@ -18546,7 +18546,7 @@
         <v>23</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D369" s="10" t="s">
         <v>87</v>
@@ -18592,7 +18592,7 @@
         <v>23</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D370" s="10" t="s">
         <v>88</v>
@@ -18638,7 +18638,7 @@
         <v>23</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D371" s="10" t="s">
         <v>89</v>
@@ -18684,7 +18684,7 @@
         <v>23</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D372" s="10" t="s">
         <v>90</v>
@@ -18730,7 +18730,7 @@
         <v>23</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D373" s="10" t="s">
         <v>91</v>
@@ -18776,7 +18776,7 @@
         <v>23</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D374" s="10" t="s">
         <v>92</v>
@@ -18822,7 +18822,7 @@
         <v>23</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D375" s="10" t="s">
         <v>93</v>
@@ -23192,7 +23192,7 @@
         <v>23</v>
       </c>
       <c r="C470" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D470" s="10" t="s">
         <v>51</v>
@@ -23238,7 +23238,7 @@
         <v>23</v>
       </c>
       <c r="C471" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D471" s="10" t="s">
         <v>50</v>
@@ -23284,7 +23284,7 @@
         <v>23</v>
       </c>
       <c r="C472" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>48</v>
@@ -23330,7 +23330,7 @@
         <v>23</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>49</v>
@@ -23376,7 +23376,7 @@
         <v>23</v>
       </c>
       <c r="C474" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>87</v>
@@ -23422,7 +23422,7 @@
         <v>23</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>88</v>
@@ -23468,7 +23468,7 @@
         <v>23</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>89</v>
@@ -23514,7 +23514,7 @@
         <v>23</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>90</v>
@@ -23560,7 +23560,7 @@
         <v>23</v>
       </c>
       <c r="C478" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D478" s="10" t="s">
         <v>91</v>
@@ -23606,7 +23606,7 @@
         <v>23</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>92</v>
@@ -23652,7 +23652,7 @@
         <v>23</v>
       </c>
       <c r="C480" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>93</v>
@@ -27332,7 +27332,7 @@
         <v>23</v>
       </c>
       <c r="C560" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D560" s="10" t="s">
         <v>51</v>
@@ -27378,7 +27378,7 @@
         <v>23</v>
       </c>
       <c r="C561" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D561" s="10" t="s">
         <v>50</v>
@@ -27424,7 +27424,7 @@
         <v>23</v>
       </c>
       <c r="C562" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D562" s="10" t="s">
         <v>48</v>
@@ -27470,7 +27470,7 @@
         <v>23</v>
       </c>
       <c r="C563" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D563" s="10" t="s">
         <v>49</v>
@@ -27516,7 +27516,7 @@
         <v>23</v>
       </c>
       <c r="C564" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D564" s="10" t="s">
         <v>87</v>
@@ -27562,7 +27562,7 @@
         <v>23</v>
       </c>
       <c r="C565" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D565" s="10" t="s">
         <v>88</v>
@@ -27608,7 +27608,7 @@
         <v>23</v>
       </c>
       <c r="C566" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D566" s="10" t="s">
         <v>89</v>
@@ -27654,7 +27654,7 @@
         <v>23</v>
       </c>
       <c r="C567" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D567" s="10" t="s">
         <v>90</v>
@@ -27700,7 +27700,7 @@
         <v>23</v>
       </c>
       <c r="C568" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D568" s="10" t="s">
         <v>91</v>
@@ -27746,7 +27746,7 @@
         <v>23</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D569" s="10" t="s">
         <v>92</v>
@@ -27792,7 +27792,7 @@
         <v>23</v>
       </c>
       <c r="C570" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D570" s="10" t="s">
         <v>93</v>
@@ -30552,7 +30552,7 @@
         <v>23</v>
       </c>
       <c r="C630" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D630" s="10" t="s">
         <v>51</v>
@@ -30598,7 +30598,7 @@
         <v>23</v>
       </c>
       <c r="C631" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D631" s="10" t="s">
         <v>50</v>
@@ -30644,7 +30644,7 @@
         <v>23</v>
       </c>
       <c r="C632" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D632" s="10" t="s">
         <v>48</v>
@@ -30690,7 +30690,7 @@
         <v>23</v>
       </c>
       <c r="C633" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D633" s="10" t="s">
         <v>49</v>
@@ -30736,7 +30736,7 @@
         <v>23</v>
       </c>
       <c r="C634" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D634" s="10" t="s">
         <v>88</v>
@@ -30782,7 +30782,7 @@
         <v>23</v>
       </c>
       <c r="C635" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D635" s="10" t="s">
         <v>91</v>
@@ -32162,7 +32162,7 @@
         <v>23</v>
       </c>
       <c r="C665" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D665" s="10" t="s">
         <v>51</v>
@@ -32208,7 +32208,7 @@
         <v>23</v>
       </c>
       <c r="C666" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D666" s="10" t="s">
         <v>50</v>
@@ -32254,7 +32254,7 @@
         <v>23</v>
       </c>
       <c r="C667" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D667" s="10" t="s">
         <v>48</v>
@@ -32300,7 +32300,7 @@
         <v>23</v>
       </c>
       <c r="C668" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D668" s="10" t="s">
         <v>49</v>
@@ -34324,7 +34324,7 @@
         <v>23</v>
       </c>
       <c r="C712" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D712" s="10" t="s">
         <v>51</v>
@@ -34370,7 +34370,7 @@
         <v>23</v>
       </c>
       <c r="C713" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D713" s="10" t="s">
         <v>50</v>
@@ -34416,7 +34416,7 @@
         <v>23</v>
       </c>
       <c r="C714" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D714" s="10" t="s">
         <v>48</v>
@@ -34462,7 +34462,7 @@
         <v>23</v>
       </c>
       <c r="C715" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D715" s="10" t="s">
         <v>49</v>
@@ -36486,7 +36486,7 @@
         <v>23</v>
       </c>
       <c r="C759" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D759" s="10" t="s">
         <v>51</v>
@@ -36532,7 +36532,7 @@
         <v>23</v>
       </c>
       <c r="C760" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D760" s="10" t="s">
         <v>50</v>
@@ -36578,7 +36578,7 @@
         <v>23</v>
       </c>
       <c r="C761" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D761" s="10" t="s">
         <v>48</v>
@@ -36624,7 +36624,7 @@
         <v>23</v>
       </c>
       <c r="C762" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D762" s="10" t="s">
         <v>49</v>
@@ -36670,7 +36670,7 @@
         <v>23</v>
       </c>
       <c r="C763" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D763" s="10" t="s">
         <v>88</v>
@@ -36716,7 +36716,7 @@
         <v>23</v>
       </c>
       <c r="C764" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D764" s="10" t="s">
         <v>89</v>
@@ -36762,7 +36762,7 @@
         <v>23</v>
       </c>
       <c r="C765" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D765" s="10" t="s">
         <v>91</v>
@@ -36808,7 +36808,7 @@
         <v>23</v>
       </c>
       <c r="C766" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D766" s="10" t="s">
         <v>92</v>
@@ -36854,7 +36854,7 @@
         <v>23</v>
       </c>
       <c r="C767" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D767" s="10" t="s">
         <v>93</v>
@@ -39292,7 +39292,7 @@
         <v>23</v>
       </c>
       <c r="C820" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D820" s="10" t="s">
         <v>51</v>
@@ -39338,7 +39338,7 @@
         <v>23</v>
       </c>
       <c r="C821" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D821" s="10" t="s">
         <v>50</v>
@@ -39384,7 +39384,7 @@
         <v>23</v>
       </c>
       <c r="C822" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D822" s="10" t="s">
         <v>48</v>
@@ -39430,7 +39430,7 @@
         <v>23</v>
       </c>
       <c r="C823" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D823" s="10" t="s">
         <v>49</v>
@@ -39476,7 +39476,7 @@
         <v>23</v>
       </c>
       <c r="C824" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D824" s="10" t="s">
         <v>88</v>
@@ -39522,7 +39522,7 @@
         <v>23</v>
       </c>
       <c r="C825" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D825" s="10" t="s">
         <v>89</v>
@@ -39568,7 +39568,7 @@
         <v>23</v>
       </c>
       <c r="C826" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D826" s="10" t="s">
         <v>91</v>
@@ -39614,7 +39614,7 @@
         <v>23</v>
       </c>
       <c r="C827" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D827" s="10" t="s">
         <v>92</v>
@@ -39660,7 +39660,7 @@
         <v>23</v>
       </c>
       <c r="C828" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D828" s="10" t="s">
         <v>93</v>
@@ -40994,7 +40994,7 @@
         <v>23</v>
       </c>
       <c r="C857" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D857" s="10" t="s">
         <v>51</v>
@@ -41040,7 +41040,7 @@
         <v>23</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D858" s="10" t="s">
         <v>50</v>
@@ -41086,7 +41086,7 @@
         <v>23</v>
       </c>
       <c r="C859" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D859" s="10" t="s">
         <v>48</v>
@@ -41132,7 +41132,7 @@
         <v>23</v>
       </c>
       <c r="C860" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D860" s="10" t="s">
         <v>49</v>
@@ -43156,7 +43156,7 @@
         <v>23</v>
       </c>
       <c r="C904" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D904" s="10" t="s">
         <v>51</v>
@@ -43202,7 +43202,7 @@
         <v>23</v>
       </c>
       <c r="C905" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D905" s="10" t="s">
         <v>50</v>
@@ -43248,7 +43248,7 @@
         <v>23</v>
       </c>
       <c r="C906" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D906" s="10" t="s">
         <v>48</v>
@@ -43294,7 +43294,7 @@
         <v>23</v>
       </c>
       <c r="C907" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D907" s="10" t="s">
         <v>49</v>
@@ -43340,7 +43340,7 @@
         <v>23</v>
       </c>
       <c r="C908" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D908" s="10" t="s">
         <v>87</v>
@@ -43386,7 +43386,7 @@
         <v>23</v>
       </c>
       <c r="C909" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D909" s="10" t="s">
         <v>88</v>
@@ -43432,7 +43432,7 @@
         <v>23</v>
       </c>
       <c r="C910" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D910" s="10" t="s">
         <v>89</v>
@@ -43478,7 +43478,7 @@
         <v>23</v>
       </c>
       <c r="C911" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D911" s="10" t="s">
         <v>90</v>
@@ -43524,7 +43524,7 @@
         <v>23</v>
       </c>
       <c r="C912" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D912" s="10" t="s">
         <v>91</v>
@@ -43570,7 +43570,7 @@
         <v>23</v>
       </c>
       <c r="C913" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D913" s="10" t="s">
         <v>92</v>
@@ -43616,7 +43616,7 @@
         <v>23</v>
       </c>
       <c r="C914" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D914" s="10" t="s">
         <v>93</v>
@@ -47250,7 +47250,7 @@
         <v>23</v>
       </c>
       <c r="C993" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D993" s="10" t="s">
         <v>51</v>
@@ -47296,7 +47296,7 @@
         <v>23</v>
       </c>
       <c r="C994" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D994" s="10" t="s">
         <v>50</v>
@@ -47342,7 +47342,7 @@
         <v>23</v>
       </c>
       <c r="C995" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D995" s="10" t="s">
         <v>48</v>
@@ -47388,7 +47388,7 @@
         <v>23</v>
       </c>
       <c r="C996" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D996" s="10" t="s">
         <v>49</v>
@@ -47434,7 +47434,7 @@
         <v>23</v>
       </c>
       <c r="C997" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D997" s="10" t="s">
         <v>87</v>
@@ -47480,7 +47480,7 @@
         <v>23</v>
       </c>
       <c r="C998" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D998" s="10" t="s">
         <v>88</v>
@@ -47526,7 +47526,7 @@
         <v>23</v>
       </c>
       <c r="C999" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D999" s="10" t="s">
         <v>89</v>
@@ -47572,7 +47572,7 @@
         <v>23</v>
       </c>
       <c r="C1000" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1000" s="10" t="s">
         <v>90</v>
@@ -47618,7 +47618,7 @@
         <v>23</v>
       </c>
       <c r="C1001" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1001" s="10" t="s">
         <v>91</v>
@@ -47664,7 +47664,7 @@
         <v>23</v>
       </c>
       <c r="C1002" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1002" s="10" t="s">
         <v>92</v>
@@ -47710,7 +47710,7 @@
         <v>23</v>
       </c>
       <c r="C1003" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1003" s="10" t="s">
         <v>93</v>
@@ -51942,7 +51942,7 @@
         <v>23</v>
       </c>
       <c r="C1095" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1095" s="10" t="s">
         <v>51</v>
@@ -51988,7 +51988,7 @@
         <v>23</v>
       </c>
       <c r="C1096" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1096" s="10" t="s">
         <v>50</v>
@@ -52034,7 +52034,7 @@
         <v>23</v>
       </c>
       <c r="C1097" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1097" s="10" t="s">
         <v>48</v>
@@ -52080,7 +52080,7 @@
         <v>23</v>
       </c>
       <c r="C1098" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1098" s="10" t="s">
         <v>49</v>
@@ -52126,7 +52126,7 @@
         <v>23</v>
       </c>
       <c r="C1099" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1099" s="10" t="s">
         <v>87</v>
@@ -52172,7 +52172,7 @@
         <v>23</v>
       </c>
       <c r="C1100" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1100" s="10" t="s">
         <v>88</v>
@@ -52218,7 +52218,7 @@
         <v>23</v>
       </c>
       <c r="C1101" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1101" s="10" t="s">
         <v>89</v>
@@ -52264,7 +52264,7 @@
         <v>23</v>
       </c>
       <c r="C1102" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1102" s="10" t="s">
         <v>90</v>
@@ -52310,7 +52310,7 @@
         <v>23</v>
       </c>
       <c r="C1103" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1103" s="10" t="s">
         <v>91</v>
@@ -52356,7 +52356,7 @@
         <v>23</v>
       </c>
       <c r="C1104" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1104" s="10" t="s">
         <v>92</v>
@@ -52402,7 +52402,7 @@
         <v>23</v>
       </c>
       <c r="C1105" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1105" s="10" t="s">
         <v>93</v>
@@ -56266,7 +56266,7 @@
         <v>23</v>
       </c>
       <c r="C1189" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1189" s="10" t="s">
         <v>51</v>
@@ -56312,7 +56312,7 @@
         <v>23</v>
       </c>
       <c r="C1190" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1190" s="10" t="s">
         <v>50</v>
@@ -56358,7 +56358,7 @@
         <v>23</v>
       </c>
       <c r="C1191" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1191" s="10" t="s">
         <v>48</v>
@@ -56404,7 +56404,7 @@
         <v>23</v>
       </c>
       <c r="C1192" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1192" s="10" t="s">
         <v>49</v>
@@ -56450,7 +56450,7 @@
         <v>23</v>
       </c>
       <c r="C1193" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1193" s="10" t="s">
         <v>87</v>
@@ -56496,7 +56496,7 @@
         <v>23</v>
       </c>
       <c r="C1194" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1194" s="10" t="s">
         <v>88</v>
@@ -56542,7 +56542,7 @@
         <v>23</v>
       </c>
       <c r="C1195" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1195" s="10" t="s">
         <v>89</v>
@@ -56588,7 +56588,7 @@
         <v>23</v>
       </c>
       <c r="C1196" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1196" s="10" t="s">
         <v>90</v>
@@ -56634,7 +56634,7 @@
         <v>23</v>
       </c>
       <c r="C1197" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1197" s="10" t="s">
         <v>91</v>
@@ -56680,7 +56680,7 @@
         <v>23</v>
       </c>
       <c r="C1198" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1198" s="10" t="s">
         <v>92</v>
@@ -56726,7 +56726,7 @@
         <v>23</v>
       </c>
       <c r="C1199" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1199" s="10" t="s">
         <v>93</v>
@@ -58842,7 +58842,7 @@
         <v>23</v>
       </c>
       <c r="C1245" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1245" s="10" t="s">
         <v>51</v>
@@ -58888,7 +58888,7 @@
         <v>23</v>
       </c>
       <c r="C1246" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1246" s="10" t="s">
         <v>50</v>
@@ -58934,7 +58934,7 @@
         <v>23</v>
       </c>
       <c r="C1247" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1247" s="10" t="s">
         <v>48</v>
@@ -58980,7 +58980,7 @@
         <v>23</v>
       </c>
       <c r="C1248" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1248" s="10" t="s">
         <v>49</v>
@@ -59026,7 +59026,7 @@
         <v>23</v>
       </c>
       <c r="C1249" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1249" s="10" t="s">
         <v>87</v>
@@ -59072,7 +59072,7 @@
         <v>23</v>
       </c>
       <c r="C1250" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1250" s="10" t="s">
         <v>88</v>
@@ -59118,7 +59118,7 @@
         <v>23</v>
       </c>
       <c r="C1251" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1251" s="10" t="s">
         <v>89</v>
@@ -59164,7 +59164,7 @@
         <v>23</v>
       </c>
       <c r="C1252" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1252" s="10" t="s">
         <v>90</v>
@@ -59210,7 +59210,7 @@
         <v>23</v>
       </c>
       <c r="C1253" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1253" s="10" t="s">
         <v>91</v>
@@ -59256,7 +59256,7 @@
         <v>23</v>
       </c>
       <c r="C1254" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1254" s="10" t="s">
         <v>92</v>
@@ -59302,7 +59302,7 @@
         <v>23</v>
       </c>
       <c r="C1255" s="10" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D1255" s="10" t="s">
         <v>93</v>

--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B287A-315B-48A1-BE19-E9E56857FDC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F782113-068B-418C-86AF-FF40A23F0A5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Chiller Products" sheetId="7" r:id="rId3"/>
     <sheet name="Slider Options" sheetId="12" r:id="rId4"/>
     <sheet name="Shop Actions" sheetId="13" r:id="rId5"/>
-    <sheet name="Survey" sheetId="14" r:id="rId6"/>
+    <sheet name="Shop Remarks" sheetId="16" r:id="rId6"/>
+    <sheet name="Survey" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Channel Products'!$A$1:$T$1820</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8060" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8068" uniqueCount="293">
   <si>
     <t>Flavoured Milk</t>
   </si>
@@ -880,6 +881,30 @@
   <si>
     <t>RTM -Visit Frequency</t>
   </si>
+  <si>
+    <t>Shop Remarks</t>
+  </si>
+  <si>
+    <t>Shop Open</t>
+  </si>
+  <si>
+    <t>Shop Closed</t>
+  </si>
+  <si>
+    <t>Shop Permanently Closed</t>
+  </si>
+  <si>
+    <t>Shop Not Found</t>
+  </si>
+  <si>
+    <t>Shop To Be Removed</t>
+  </si>
+  <si>
+    <t>Shopkeeper did not allow</t>
+  </si>
+  <si>
+    <t>Area Closed</t>
+  </si>
 </sst>
 </file>
 
@@ -918,7 +943,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1003,6 +1028,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1042,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1070,6 +1101,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1489,7 +1523,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T1821"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="T1173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -77157,6 +77191,65 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1507F129-D1F9-488C-992C-1F3FD774FFED}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F3C5A3-D5BE-4ACF-B6DB-094F3337EE5F}">
   <dimension ref="A1:F21"/>
   <sheetViews>

--- a/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
+++ b/MMAPlus_Merchandising/MMAPlus_Merchandising.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F782113-068B-418C-86AF-FF40A23F0A5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710F3925-42F6-4960-B9D8-2DCD73CC4D49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{65B03DFA-846A-4EE9-BFD9-C2885113F2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution Point" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8068" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8070" uniqueCount="294">
   <si>
     <t>Flavoured Milk</t>
   </si>
@@ -905,6 +905,9 @@
   <si>
     <t>Area Closed</t>
   </si>
+  <si>
+    <t>Hanger Available</t>
+  </si>
 </sst>
 </file>
 
@@ -1521,13 +1524,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE23399-18E8-4586-AB6F-57ACC320652C}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T1821"/>
+  <dimension ref="A1:T1822"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="T1173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1822" sqref="B1822"/>
+      <selection pane="bottomRight" activeCell="B1823" sqref="B1823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70594,6 +70597,14 @@
       </c>
       <c r="B1821" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1822" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -77194,8 +77205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1507F129-D1F9-488C-992C-1F3FD774FFED}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
